--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9569AE96-D7DA-44C3-83AB-4323C6363A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF0F950-6040-4432-BE0F-948EE14BE7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 22nd February 2022</t>
+    <t>Numbers last updated on 21st April 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -539,7 +541,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,7 +613,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>311150</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -1058,10 +1060,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R154"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1079,47 +1081,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1162,22 +1164,22 @@
     </row>
     <row r="9" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="15">
-        <v>646440.42102500005</v>
+        <v>555213.606959</v>
       </c>
       <c r="E9" s="15">
-        <v>20852.916807000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F9" s="25">
-        <v>4067957.1285301186</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G9" s="25">
-        <v>131224.42350097158</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1188,22 +1190,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="15">
-        <v>630694.20088599995</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E10" s="15">
-        <v>21023.140028999998</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F10" s="25">
-        <v>3968868.4169048714</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G10" s="25">
-        <v>132295.61389682905</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1214,22 +1216,24 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13">
+        <v>2021</v>
+      </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="15">
-        <v>653554.90011000005</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E11" s="15">
-        <v>21082.416131999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F11" s="25">
-        <v>4112727.5280415146</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G11" s="25">
-        <v>132668.62993682304</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1240,22 +1244,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="15">
-        <v>787255.85854499997</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E12" s="15">
-        <v>26241.861950999999</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F12" s="25">
-        <v>4954088.5402359134</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G12" s="25">
-        <v>165136.28467453044</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1266,22 +1270,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="15">
-        <v>835957.17292699998</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E13" s="15">
-        <v>26966.360417</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F13" s="25">
-        <v>5260558.9473538827</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G13" s="25">
-        <v>169695.44991464139</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1292,22 +1296,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="15">
-        <v>708627.37697600003</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E14" s="15">
-        <v>22858.947644</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F14" s="25">
-        <v>4459290.74959506</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G14" s="25">
-        <v>143848.08869661484</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1318,22 +1322,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="15">
-        <v>633252.08580700005</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E15" s="15">
-        <v>21108.402859999998</v>
+        <v>26966.360417</v>
       </c>
       <c r="F15" s="25">
-        <v>3984964.8209351809</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G15" s="25">
-        <v>132832.16069783937</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1344,22 +1348,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="15">
-        <v>631973.26563000004</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E16" s="15">
-        <v>20386.234375</v>
+        <v>22858.947644</v>
       </c>
       <c r="F16" s="25">
-        <v>3976917.3884326047</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G16" s="25">
-        <v>128287.65769137435</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1370,22 +1374,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="15">
-        <v>619556.10921200004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E17" s="15">
-        <v>20651.870307000001</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F17" s="25">
-        <v>3898777.9987474987</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G17" s="25">
-        <v>129959.26662491662</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1396,22 +1400,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="15">
-        <v>864945.59575500002</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E18" s="15">
-        <v>27901.470829999998</v>
+        <v>20386.234375</v>
       </c>
       <c r="F18" s="25">
-        <v>5442978.9468660224</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G18" s="25">
-        <v>175579.9660279362</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1422,22 +1426,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="15">
-        <v>497767.08863999997</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E19" s="15">
-        <v>17777.396022000001</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F19" s="25">
-        <v>3132377.1081178444</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G19" s="25">
-        <v>111870.61100420874</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1448,22 +1452,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="15">
-        <v>958714.76984600001</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E20" s="15">
-        <v>30926.282898000001</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F20" s="25">
-        <v>6033054.9504287895</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G20" s="25">
-        <v>194614.67582028356</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1474,24 +1478,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13">
-        <v>2020</v>
-      </c>
+    <row r="21" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="15">
-        <v>938216.01383800001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E21" s="15">
-        <v>30265.032704000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F21" s="25">
-        <v>5904059.2101925546</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G21" s="25">
-        <v>190453.52290943725</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1502,22 +1504,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D22" s="15">
-        <v>825199.79770700005</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E22" s="15">
-        <v>27506.659922999999</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F22" s="25">
-        <v>5192864.323399079</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G22" s="25">
-        <v>173095.47744663598</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1528,22 +1530,24 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+    <row r="23" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13">
+        <v>2020</v>
+      </c>
       <c r="C23" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="15">
-        <v>457210.72882199998</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E23" s="15">
-        <v>14748.733187</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F23" s="25">
-        <v>2877161.7353426241</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G23" s="25">
-        <v>92811.668882020138</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1554,22 +1558,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="15">
-        <v>355962.18939100002</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E24" s="15">
-        <v>11865.406312999999</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F24" s="25">
-        <v>2240019.1552444799</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G24" s="25">
-        <v>74667.305174816007</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1580,22 +1584,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="15">
-        <v>251494.72360200001</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E25" s="15">
-        <v>8112.7330190000002</v>
+        <v>14748.733187</v>
       </c>
       <c r="F25" s="25">
-        <v>1582620.331881911</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G25" s="25">
-        <v>51052.268770384224</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1606,22 +1610,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="15">
-        <v>191467.74559999999</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E26" s="15">
-        <v>6176.37889</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F26" s="25">
-        <v>1204879.1431731791</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G26" s="25">
-        <v>38867.06913461868</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1632,22 +1636,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="15">
-        <v>204137.25868999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E27" s="15">
-        <v>6804.5752890000003</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F27" s="25">
-        <v>1284606.5773081775</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G27" s="25">
-        <v>42820.219243605912</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1658,22 +1662,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" s="15">
-        <v>285955.87647999998</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E28" s="15">
-        <v>9224.3831119999995</v>
+        <v>6176.37889</v>
       </c>
       <c r="F28" s="25">
-        <v>1799479.4389983031</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G28" s="25">
-        <v>58047.723838654943</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1684,22 +1688,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="15">
-        <v>744852.00140499999</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E29" s="15">
-        <v>24828.400045999999</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F29" s="25">
-        <v>4687247.1310054641</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G29" s="25">
-        <v>156241.57103351544</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1710,22 +1714,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30" s="15">
-        <v>1726969.163712</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E30" s="15">
-        <v>55708.682699999998</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F30" s="25">
-        <v>10867569.990649205</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G30" s="25">
-        <v>350566.7738919098</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1736,22 +1740,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="15">
-        <v>1898618.6160540001</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E31" s="15">
-        <v>65469.607450000003</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F31" s="25">
-        <v>11947735.448365727</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G31" s="25">
-        <v>411990.87752985262</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1762,22 +1766,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" s="15">
-        <v>1989047.6002829999</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E32" s="15">
-        <v>64162.825814999997</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F32" s="25">
-        <v>12516792.114774078</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G32" s="25">
-        <v>403767.48757335736</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1788,24 +1792,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13">
-        <v>2019</v>
-      </c>
+    <row r="33" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D33" s="15">
-        <v>1710070.2071700001</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E33" s="15">
-        <v>55163.555070000002</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F33" s="25">
-        <v>10761227.273681184</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G33" s="25">
-        <v>347136.36366713495</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1816,22 +1818,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="15">
-        <v>1441371.4144830001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E34" s="15">
-        <v>48045.713816000003</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F34" s="25">
-        <v>9070344.1952292472</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G34" s="25">
-        <v>302344.80650764162</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1842,22 +1844,24 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
+    <row r="35" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13">
+        <v>2019</v>
+      </c>
       <c r="C35" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" s="15">
-        <v>1330424.701689</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E35" s="15">
-        <v>42916.925860000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F35" s="25">
-        <v>8372172.3969965354</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G35" s="25">
-        <v>270070.07732246892</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1865,25 +1869,25 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36" s="15">
-        <v>1523602.3797500001</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E36" s="15">
-        <v>50786.745991000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F36" s="25">
-        <v>9587811.9006264452</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G36" s="25">
-        <v>319593.73002088151</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1891,25 +1895,25 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37" s="15">
-        <v>1583842.188998</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E37" s="15">
-        <v>51091.683515999997</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F37" s="25">
-        <v>9966892.4059313871</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G37" s="25">
-        <v>321512.65825585119</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1923,19 +1927,19 @@
     <row r="38" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="15">
-        <v>1599425.591243</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E38" s="15">
-        <v>51594.373911000002</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F38" s="25">
-        <v>10064956.52783265</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G38" s="25">
-        <v>324676.01702685968</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1949,19 +1953,19 @@
     <row r="39" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="15">
-        <v>1422059.9636609999</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E39" s="15">
-        <v>47401.998787999997</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F39" s="25">
-        <v>8948819.996743869</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G39" s="25">
-        <v>298293.99989146233</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1975,19 +1979,19 @@
     <row r="40" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="15">
-        <v>1459021.581333</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E40" s="15">
-        <v>47065.212301</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F40" s="25">
-        <v>9181414.1712424383</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G40" s="25">
-        <v>296174.65068523993</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2001,19 +2005,19 @@
     <row r="41" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="15">
-        <v>1143952.7800350001</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E41" s="15">
-        <v>38131.759334000002</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F41" s="25">
-        <v>7198731.2595127104</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G41" s="25">
-        <v>239957.70865042368</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2027,19 +2031,19 @@
     <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42" s="15">
-        <v>857730.976517</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E42" s="15">
-        <v>27668.741177</v>
+        <v>47065.212301</v>
       </c>
       <c r="F42" s="25">
-        <v>5397578.3796918392</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G42" s="25">
-        <v>174115.43160296255</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2053,19 +2057,19 @@
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" s="15">
-        <v>589229.82238999999</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E43" s="15">
-        <v>21043.922227999999</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F43" s="25">
-        <v>3707939.0124356686</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G43" s="25">
-        <v>132426.39330127387</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2079,19 +2083,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44" s="15">
-        <v>1659957.116588</v>
+        <v>857730.976517</v>
       </c>
       <c r="E44" s="15">
-        <v>53547.00376</v>
+        <v>27668.741177</v>
       </c>
       <c r="F44" s="25">
-        <v>10445872.760820612</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G44" s="25">
-        <v>336963.6374458262</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2103,25 +2107,23 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E45" s="25">
-        <v>57985.335477000001</v>
+        <v>10</v>
+      </c>
+      <c r="D45" s="15">
+        <v>589229.82238999999</v>
+      </c>
+      <c r="E45" s="15">
+        <v>21043.922227999999</v>
       </c>
       <c r="F45" s="25">
-        <v>11311696.151993278</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G45" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>132426.39330127387</v>
+      </c>
+      <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
@@ -2133,21 +2135,21 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="25">
-        <v>1611713.268593</v>
-      </c>
-      <c r="E46" s="25">
-        <v>53723.775619</v>
+        <v>9</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E46" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F46" s="25">
-        <v>10142281.124258341</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G46" s="25">
-        <v>338076.03747527802</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
@@ -2157,21 +2159,23 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
+      <c r="B47" s="13">
+        <v>2018</v>
+      </c>
       <c r="C47" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" s="25">
-        <v>1705436.5561249999</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E47" s="25">
-        <v>55014.082455000003</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F47" s="25">
-        <v>10732068.370267099</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G47" s="25">
-        <v>346195.75387958385</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="14"/>
@@ -2185,19 +2189,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" s="25">
-        <v>1354350.3933949999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E48" s="25">
-        <v>45145.013113000001</v>
+        <v>53723.775619</v>
       </c>
       <c r="F48" s="25">
-        <v>8522733.3535284791</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G48" s="25">
-        <v>284091.11178428266</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="14"/>
@@ -2208,22 +2212,22 @@
       <c r="N48" s="19"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49" s="25">
-        <v>1190885.566602</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E49" s="25">
-        <v>38415.663438000003</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F49" s="25">
-        <v>7494072.5739903618</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G49" s="25">
-        <v>241744.27658033423</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="14"/>
@@ -2234,22 +2238,22 @@
       <c r="N49" s="19"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" s="25">
-        <v>1053923.0213580001</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E50" s="25">
-        <v>33997.516817999996</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F50" s="25">
-        <v>6632186.8624138394</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G50" s="25">
-        <v>213941.51169076902</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="14"/>
@@ -2260,22 +2264,22 @@
       <c r="N50" s="19"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51" s="25">
-        <v>1020856.535961</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E51" s="25">
-        <v>34028.551198000001</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F51" s="25">
-        <v>6424104.1983179301</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G51" s="25">
-        <v>214136.80661059771</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="14"/>
@@ -2286,22 +2290,22 @@
       <c r="N51" s="19"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" s="25">
-        <v>1048489.412457</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E52" s="25">
-        <v>33822.239111000003</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F52" s="25">
-        <v>6597993.9386059195</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G52" s="25">
-        <v>212838.51414857805</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="14"/>
@@ -2312,22 +2316,22 @@
       <c r="N52" s="19"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="25">
-        <v>950621.85583999997</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E53" s="25">
-        <v>31687.395194000001</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F53" s="25">
-        <v>5982127.3998757349</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G53" s="25">
-        <v>199404.24666252447</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2338,22 +2342,22 @@
       <c r="N53" s="19"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54" s="25">
-        <v>906206.56853299995</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E54" s="25">
-        <v>29232.469951999999</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F54" s="25">
-        <v>5702628.3482388686</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G54" s="25">
-        <v>183955.75316899578</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2364,22 +2368,22 @@
       <c r="N54" s="19"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55" s="25">
-        <v>634127.085036</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E55" s="25">
-        <v>22647.395894000001</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F55" s="25">
-        <v>3990471.0659583877</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G55" s="25">
-        <v>142516.82378422815</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2390,22 +2394,22 @@
       <c r="N55" s="19"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56" s="25">
-        <v>773568.24248799996</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E56" s="25">
-        <v>24953.814273</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F56" s="25">
-        <v>4867954.3297183076</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G56" s="25">
-        <v>157030.78482962286</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2416,76 +2420,76 @@
       <c r="N56" s="19"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="13">
-        <v>2017</v>
-      </c>
+    <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E57" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F57" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G57" s="15">
-        <v>151939.78755453101</v>
+        <v>10</v>
+      </c>
+      <c r="D57" s="25">
+        <v>634127.085036</v>
+      </c>
+      <c r="E57" s="25">
+        <v>22647.395894000001</v>
+      </c>
+      <c r="F57" s="25">
+        <v>3990471.0659583877</v>
+      </c>
+      <c r="G57" s="25">
+        <v>142516.82378422815</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
       <c r="N57" s="19"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="15">
-        <v>707045.64604599995</v>
-      </c>
-      <c r="E58" s="15">
-        <v>23568.188201000001</v>
-      </c>
-      <c r="F58" s="15">
-        <v>4449337.1430400936</v>
-      </c>
-      <c r="G58" s="15">
-        <v>148311.23810133644</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E58" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F58" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G58" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
       <c r="N58" s="19"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="13"/>
+    <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13">
+        <v>2017</v>
+      </c>
       <c r="C59" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" s="15">
-        <v>675767.54240100004</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E59" s="15">
-        <v>21798.952979999998</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F59" s="15">
-        <v>4252508.5095709292</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G59" s="15">
-        <v>137177.69385712678</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2496,22 +2500,22 @@
       <c r="N59" s="19"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E60" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F60" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G60" s="25">
-        <v>134132.10221928899</v>
+        <v>19</v>
+      </c>
+      <c r="D60" s="15">
+        <v>707045.64604599995</v>
+      </c>
+      <c r="E60" s="15">
+        <v>23568.188201000001</v>
+      </c>
+      <c r="F60" s="15">
+        <v>4449337.1430400936</v>
+      </c>
+      <c r="G60" s="15">
+        <v>148311.23810133644</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2522,21 +2526,22 @@
       <c r="N60" s="19"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E61" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F61" s="26">
-        <v>3718025.6039239019</v>
+        <v>18</v>
+      </c>
+      <c r="D61" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E61" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F61" s="15">
+        <v>4252508.5095709292</v>
       </c>
       <c r="G61" s="15">
-        <v>119936.30980399683</v>
+        <v>137177.69385712678</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2547,22 +2552,22 @@
       <c r="N61" s="19"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="9"/>
+    <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" s="25">
-        <v>455925.02799999999</v>
+        <v>639449.31000000006</v>
       </c>
       <c r="E62" s="25">
-        <v>14707.258967</v>
+        <v>21314.976999999999</v>
       </c>
       <c r="F62" s="25">
-        <v>2869071.0039249961</v>
+        <v>4023963.0665786699</v>
       </c>
       <c r="G62" s="25">
-        <v>92550.677545967614</v>
+        <v>134132.10221928899</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2573,292 +2578,295 @@
       <c r="N62" s="19"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C63" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E63" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F63" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G63" s="15">
+        <v>119936.30980399683</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="9"/>
+      <c r="C64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E64" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F64" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G64" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C65" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D65" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E65" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F65" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G65" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="3"/>
-      <c r="R63" s="7"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="13"/>
-      <c r="C64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E64" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F64" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G64" s="25">
-        <v>130915.84472709542</v>
-      </c>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
-      <c r="C65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E65" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F65" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G65" s="12">
-        <v>149902.81557846148</v>
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="21"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N65" s="18"/>
+      <c r="O65" s="3"/>
+      <c r="R65" s="7"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E66" s="12">
-        <v>24735.119016000001</v>
-      </c>
-      <c r="F66" s="12">
-        <v>4825291.5723541733</v>
-      </c>
-      <c r="G66" s="12">
-        <v>155654.56685013464</v>
+        <v>13</v>
+      </c>
+      <c r="D66" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E66" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F66" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G66" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H66" s="28"/>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="21"/>
-    </row>
-    <row r="67" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N66" s="18"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="12">
-        <v>590415.46140999999</v>
-      </c>
-      <c r="E67" s="12">
-        <v>21086.266478000001</v>
+        <v>12</v>
+      </c>
+      <c r="D67" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E67" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F67" s="12">
-        <v>3715400.0692421482</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G67" s="12">
-        <v>132692.85961579101</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N67" s="20"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68" s="12">
-        <v>590534.02216000005</v>
+        <v>766788.689518</v>
       </c>
       <c r="E68" s="12">
-        <v>19049.484584999998</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F68" s="12">
-        <v>3716146.1550877113</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G68" s="12">
-        <v>119875.68242218423</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="13">
-        <v>2016</v>
-      </c>
+      <c r="N68" s="20"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D69" s="12">
-        <v>627433.93557900004</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E69" s="12">
-        <v>20239.804372999999</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F69" s="12">
-        <v>3948352.0335458592</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G69" s="12">
-        <v>127366.19463051159</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="12">
-        <v>572234.87095899996</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E70" s="12">
-        <v>19074.495697999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F70" s="12">
-        <v>3600992.21335844</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G70" s="12">
-        <v>120033.07377861465</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
-      <c r="N70" s="20"/>
+      <c r="N70" s="18"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="13">
+        <v>2016</v>
+      </c>
       <c r="C71" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D71" s="12">
-        <v>505204.96276999998</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E71" s="12">
-        <v>16296.934282</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F71" s="12">
-        <v>3179182.5864019338</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G71" s="12">
-        <v>102554.27698070755</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
-    </row>
-    <row r="72" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N71" s="18"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D72" s="12">
-        <v>330334.59204000002</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E72" s="12">
-        <v>11011.153068</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F72" s="12">
-        <v>2078748.3498610584</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G72" s="12">
-        <v>69291.611662035284</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
       <c r="J72" s="28"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D73" s="12">
-        <v>324494.77002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E73" s="12">
-        <v>10467.573226</v>
+        <v>16296.934282</v>
       </c>
       <c r="F73" s="12">
-        <v>2041999.1849837471</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G73" s="12">
-        <v>65870.941451088613</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" s="12">
-        <v>261529.28813999999</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E74" s="12">
-        <v>8436.4286489999995</v>
+        <v>11011.153068</v>
       </c>
       <c r="F74" s="12">
-        <v>1645766.4115768159</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G74" s="12">
-        <v>53089.239083123095</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
@@ -2867,22 +2875,22 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D75" s="12">
-        <v>205969.63078000001</v>
+        <v>324494.77002</v>
       </c>
       <c r="E75" s="12">
-        <v>6865.6543590000001</v>
+        <v>10467.573226</v>
       </c>
       <c r="F75" s="12">
-        <v>1296137.4328413385</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G75" s="12">
-        <v>43204.581094711277</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
@@ -2891,22 +2899,22 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D76" s="12">
-        <v>350179.493456</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E76" s="12">
-        <v>11296.112692000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F76" s="12">
-        <v>2203629.4766510436</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G76" s="12">
-        <v>71084.821827453023</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
@@ -2915,571 +2923,577 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D77" s="12">
-        <v>517689.187898</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E77" s="12">
-        <v>17256.306262999999</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F77" s="12">
-        <v>3257744.0298882448</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G77" s="12">
-        <v>108591.46766294149</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H77" s="28"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78" s="12">
-        <v>501998.54960799997</v>
+        <v>350179.493456</v>
       </c>
       <c r="E78" s="12">
-        <v>16193.5016</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F78" s="12">
-        <v>3159005.0868905503</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G78" s="12">
-        <v>101903.38989969516</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H78" s="28"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" s="12">
-        <v>440679.500314</v>
+        <v>517689.187898</v>
       </c>
       <c r="E79" s="12">
-        <v>15195.844838000001</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F79" s="12">
-        <v>2773133.0783074568</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G79" s="12">
-        <v>95625.278562326115</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-    </row>
-    <row r="80" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" s="12">
-        <v>473238.57974199997</v>
+        <v>501998.54960799997</v>
       </c>
       <c r="E80" s="12">
-        <v>15265.760636000001</v>
+        <v>16193.5016</v>
       </c>
       <c r="F80" s="12">
-        <v>2978022.7091995031</v>
+        <v>3159005.0868905503</v>
       </c>
       <c r="G80" s="12">
-        <v>96065.248683854923</v>
+        <v>101903.38989969516</v>
       </c>
       <c r="H80" s="28"/>
-    </row>
-    <row r="81" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="13">
-        <v>2015</v>
-      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D81" s="12">
-        <v>525645.38418599998</v>
+        <v>440679.500314</v>
       </c>
       <c r="E81" s="12">
-        <v>16956.302715000002</v>
+        <v>15195.844838000001</v>
       </c>
       <c r="F81" s="12">
-        <v>3307811.2353925598</v>
+        <v>2773133.0783074568</v>
       </c>
       <c r="G81" s="12">
-        <v>106703.58823846966</v>
+        <v>95625.278562326115</v>
       </c>
       <c r="H81" s="28"/>
-    </row>
-    <row r="82" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+    </row>
+    <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="12">
-        <v>487772.50363599998</v>
+        <v>473238.57974199997</v>
       </c>
       <c r="E82" s="12">
-        <v>16259.083454</v>
+        <v>15265.760636000001</v>
       </c>
       <c r="F82" s="12">
-        <v>3069482.6139133279</v>
+        <v>2978022.7091995031</v>
       </c>
       <c r="G82" s="12">
-        <v>102316.08713044427</v>
+        <v>96065.248683854923</v>
       </c>
       <c r="H82" s="28"/>
     </row>
-    <row r="83" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
+    <row r="83" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="13">
+        <v>2015</v>
+      </c>
       <c r="C83" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83" s="12">
-        <v>821728.209302</v>
+        <v>525645.38418599998</v>
       </c>
       <c r="E83" s="12">
-        <v>26507.36159</v>
+        <v>16956.302715000002</v>
       </c>
       <c r="F83" s="12">
-        <v>5171018.1140035549</v>
+        <v>3307811.2353925598</v>
       </c>
       <c r="G83" s="12">
-        <v>166807.03593559857</v>
+        <v>106703.58823846966</v>
       </c>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D84" s="12">
-        <v>763584.49130500003</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E84" s="12">
-        <v>25452.816375999999</v>
+        <v>16259.083454</v>
       </c>
       <c r="F84" s="12">
-        <v>4805128.0112001086</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G84" s="12">
-        <v>160170.93370667027</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85" s="12">
-        <v>526399.01066399994</v>
+        <v>821728.209302</v>
       </c>
       <c r="E85" s="12">
-        <v>16980.613247000001</v>
+        <v>26507.36159</v>
       </c>
       <c r="F85" s="12">
-        <v>3312553.6990500269</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G85" s="12">
-        <v>106856.57093709765</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" s="12">
-        <v>409054.80754299997</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E86" s="12">
-        <v>13195.316371999999</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F86" s="12">
-        <v>2574123.40903062</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G86" s="12">
-        <v>83036.239000987756</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H86" s="28"/>
     </row>
-    <row r="87" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" s="12">
-        <v>382950.03311700001</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E87" s="12">
-        <v>12765.001103000001</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F87" s="12">
-        <v>2409849.7965505454</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G87" s="12">
-        <v>80328.326551684848</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H87" s="28"/>
     </row>
-    <row r="88" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D88" s="12">
-        <v>405087.92933900002</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E88" s="12">
-        <v>13067.352559000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F88" s="12">
-        <v>2549160.4117564312</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G88" s="12">
-        <v>82230.98102440103</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H88" s="28"/>
     </row>
-    <row r="89" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" s="12">
-        <v>420967.39355099999</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E89" s="12">
-        <v>14032.246451000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F89" s="12">
-        <v>2649087.6092791655</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G89" s="12">
-        <v>88302.920309305511</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H89" s="28"/>
     </row>
-    <row r="90" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D90" s="12">
-        <v>580246.22209699999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E90" s="12">
-        <v>18717.620067</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F90" s="12">
-        <v>3651406.5004466609</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G90" s="12">
-        <v>117787.30646602133</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H90" s="28"/>
     </row>
-    <row r="91" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D91" s="12">
-        <v>469322.27903799998</v>
+        <v>420967.39355099999</v>
       </c>
       <c r="E91" s="12">
-        <v>16761.509965000001</v>
+        <v>14032.246451000001</v>
       </c>
       <c r="F91" s="12">
-        <v>2953377.9889002317</v>
+        <v>2649087.6092791655</v>
       </c>
       <c r="G91" s="12">
-        <v>105477.7853178654</v>
+        <v>88302.920309305511</v>
       </c>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92" s="12">
-        <v>663165.584088</v>
+        <v>580246.22209699999</v>
       </c>
       <c r="E92" s="12">
-        <v>21392.438195999999</v>
+        <v>18717.620067</v>
       </c>
       <c r="F92" s="12">
-        <v>4173206.1879872596</v>
+        <v>3651406.5004466609</v>
       </c>
       <c r="G92" s="12">
-        <v>134619.55445120193</v>
+        <v>117787.30646602133</v>
       </c>
       <c r="H92" s="28"/>
     </row>
-    <row r="93" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="13">
-        <v>2014</v>
-      </c>
+    <row r="93" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D93" s="12">
-        <v>865311.98928099999</v>
+        <v>469322.27903799998</v>
       </c>
       <c r="E93" s="12">
-        <v>27913.289976</v>
+        <v>16761.509965000001</v>
       </c>
       <c r="F93" s="12">
-        <v>5445284.6089308662</v>
+        <v>2953377.9889002317</v>
       </c>
       <c r="G93" s="12">
-        <v>175654.34222357633</v>
+        <v>105477.7853178654</v>
       </c>
       <c r="H93" s="28"/>
     </row>
-    <row r="94" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="12">
-        <v>719671.70044299995</v>
+        <v>663165.584088</v>
       </c>
       <c r="E94" s="12">
-        <v>23989.056680999998</v>
+        <v>21392.438195999999</v>
       </c>
       <c r="F94" s="12">
-        <v>4528791.0978346355</v>
+        <v>4173206.1879872596</v>
       </c>
       <c r="G94" s="12">
-        <v>150959.70326115453</v>
+        <v>134619.55445120193</v>
       </c>
       <c r="H94" s="28"/>
     </row>
-    <row r="95" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="13"/>
+    <row r="95" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="13">
+        <v>2014</v>
+      </c>
       <c r="C95" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D95" s="12">
-        <v>732720.57923100004</v>
+        <v>865311.98928099999</v>
       </c>
       <c r="E95" s="12">
-        <v>23636.147717</v>
+        <v>27913.289976</v>
       </c>
       <c r="F95" s="12">
-        <v>4610905.8260578532</v>
+        <v>5445284.6089308662</v>
       </c>
       <c r="G95" s="12">
-        <v>148738.89761476943</v>
+        <v>175654.34222357633</v>
       </c>
       <c r="H95" s="28"/>
     </row>
-    <row r="96" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D96" s="12">
-        <v>853296.86337200005</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E96" s="12">
-        <v>28443.228779000001</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F96" s="12">
-        <v>5369675.1397485342</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G96" s="12">
-        <v>178989.17132495114</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D97" s="12">
-        <v>765107.365124</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E97" s="12">
-        <v>24680.882744999999</v>
+        <v>23636.147717</v>
       </c>
       <c r="F97" s="12">
-        <v>4814711.2383721191</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G97" s="12">
-        <v>155313.26575393934</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="12">
-        <v>808439.72412699996</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E98" s="12">
-        <v>26078.700777999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F98" s="12">
-        <v>5087395.5770506607</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G98" s="12">
-        <v>164109.5347435697</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D99" s="12">
-        <v>696291.70361199998</v>
+        <v>765107.365124</v>
       </c>
       <c r="E99" s="12">
-        <v>23209.723452999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F99" s="12">
-        <v>4381664.1211166997</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G99" s="12">
-        <v>146055.47070388999</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D100" s="12">
-        <v>776525.44836499996</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E100" s="12">
-        <v>25049.208010999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F100" s="12">
-        <v>4886563.6034218287</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G100" s="12">
-        <v>157631.08398134931</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D101" s="12">
-        <v>757771.62080999999</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E101" s="12">
-        <v>25259.054026999998</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F101" s="12">
-        <v>4768548.4484155541</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G101" s="12">
-        <v>158951.61494718515</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D102" s="12">
-        <v>850705.67475799995</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E102" s="12">
-        <v>27442.118539999999</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F102" s="12">
-        <v>5353369.1603406034</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G102" s="12">
-        <v>172689.32775292269</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D103" s="12">
-        <v>725916.08318800002</v>
+        <v>757771.62080999999</v>
       </c>
       <c r="E103" s="12">
-        <v>25925.574399000001</v>
+        <v>25259.054026999998</v>
       </c>
       <c r="F103" s="12">
-        <v>4568086.1055021882</v>
+        <v>4768548.4484155541</v>
       </c>
       <c r="G103" s="12">
-        <v>163145.93233936388</v>
+        <v>158951.61494718515</v>
       </c>
       <c r="H103" s="28"/>
-      <c r="I103" s="22"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D104" s="12">
-        <v>784704.73359700001</v>
+        <v>850705.67475799995</v>
       </c>
       <c r="E104" s="12">
-        <v>25313.055922</v>
+        <v>27442.118539999999</v>
       </c>
       <c r="F104" s="12">
-        <v>4938034.6757490169</v>
+        <v>5353369.1603406034</v>
       </c>
       <c r="G104" s="12">
-        <v>159291.44115319409</v>
+        <v>172689.32775292269</v>
       </c>
       <c r="H104" s="28"/>
-      <c r="I104" s="22"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="13">
-        <v>2013</v>
-      </c>
       <c r="C105" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D105" s="12">
-        <v>804980.50382999994</v>
+        <v>725916.08318800002</v>
       </c>
       <c r="E105" s="12">
-        <v>25967.113025999999</v>
+        <v>25925.574399000001</v>
       </c>
       <c r="F105" s="12">
-        <v>5065627.1983901421</v>
+        <v>4568086.1055021882</v>
       </c>
       <c r="G105" s="12">
-        <v>163407.32898032718</v>
+        <v>163145.93233936388</v>
       </c>
       <c r="H105" s="28"/>
       <c r="I105" s="22"/>
@@ -3487,39 +3501,41 @@
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="12">
-        <v>694876.63784600003</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E106" s="12">
-        <v>23162.554594000001</v>
+        <v>25313.055922</v>
       </c>
       <c r="F106" s="12">
-        <v>4372759.3146056654</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G106" s="12">
-        <v>145758.64382018885</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H106" s="28"/>
       <c r="I106" s="22"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="13"/>
+      <c r="B107" s="13">
+        <v>2013</v>
+      </c>
       <c r="C107" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D107" s="12">
-        <v>641470.05047699995</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E107" s="12">
-        <v>20692.582273</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F107" s="12">
-        <v>4036679.2974345428</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G107" s="12">
-        <v>130215.4612075659</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H107" s="28"/>
       <c r="I107" s="22"/>
@@ -3527,19 +3543,19 @@
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D108" s="12">
-        <v>558075.757491</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E108" s="12">
-        <v>18602.525248999998</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F108" s="12">
-        <v>3511890.9370575417</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G108" s="12">
-        <v>117063.03123525139</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H108" s="28"/>
       <c r="I108" s="22"/>
@@ -3547,59 +3563,59 @@
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D109" s="12">
-        <v>559110.83105899999</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E109" s="12">
-        <v>18035.833258999999</v>
+        <v>20692.582273</v>
       </c>
       <c r="F109" s="12">
-        <v>3518404.5070054457</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G109" s="12">
-        <v>113496.91958082083</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="22"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D110" s="12">
-        <v>661131.44749100006</v>
+        <v>558075.757491</v>
       </c>
       <c r="E110" s="12">
-        <v>21326.820886000001</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F110" s="12">
-        <v>4160405.6572638722</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G110" s="12">
-        <v>134206.63410528618</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="22"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D111" s="12">
-        <v>663648.26149299997</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E111" s="12">
-        <v>22121.608715999999</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F111" s="12">
-        <v>4176243.6078740559</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G111" s="12">
-        <v>139208.12026246852</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
@@ -3607,614 +3623,648 @@
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D112" s="12">
-        <v>647734.46579799999</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E112" s="12">
-        <v>20894.660187000001</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F112" s="12">
-        <v>4076100.3672382049</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G112" s="12">
-        <v>131487.10862058724</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D113" s="12">
-        <v>597610.93523199996</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E113" s="12">
-        <v>19920.364506999998</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F113" s="12">
-        <v>3760680.1570512378</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G113" s="12">
-        <v>125356.00523504126</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D114" s="12">
-        <v>565162.30006200005</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E114" s="12">
-        <v>18231.041937000002</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F114" s="12">
-        <v>3556485.5360812568</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G114" s="12">
-        <v>114725.33987358895</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C115" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" s="12">
-        <v>443068.728405</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E115" s="12">
-        <v>15823.883157</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F115" s="12">
-        <v>2788168.1490245033</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G115" s="12">
-        <v>99577.433893732261</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H115" s="28"/>
+      <c r="I115" s="22"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C116" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D116" s="12">
-        <v>484594.69508400001</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E116" s="12">
-        <v>15632.086938</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F116" s="12">
-        <v>3049485.1191222151</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G116" s="12">
-        <v>98370.487713619834</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H116" s="28"/>
+      <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="13">
-        <v>2012</v>
-      </c>
       <c r="C117" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D117" s="12">
-        <v>614912.306522</v>
+        <v>443068.728405</v>
       </c>
       <c r="E117" s="12">
-        <v>19835.880854999999</v>
+        <v>15823.883157</v>
       </c>
       <c r="F117" s="12">
-        <v>3869555.2124831136</v>
+        <v>2788168.1490245033</v>
       </c>
       <c r="G117" s="12">
-        <v>124824.36169300365</v>
+        <v>99577.433893732261</v>
       </c>
       <c r="H117" s="28"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="12">
+        <v>484594.69508400001</v>
+      </c>
+      <c r="E118" s="12">
+        <v>15632.086938</v>
+      </c>
+      <c r="F118" s="12">
+        <v>3049485.1191222151</v>
+      </c>
+      <c r="G118" s="12">
+        <v>98370.487713619834</v>
+      </c>
+      <c r="H118" s="28"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="12">
+        <v>614912.306522</v>
+      </c>
+      <c r="E119" s="12">
+        <v>19835.880854999999</v>
+      </c>
+      <c r="F119" s="12">
+        <v>3869555.2124831136</v>
+      </c>
+      <c r="G119" s="12">
+        <v>124824.36169300365</v>
+      </c>
+      <c r="H119" s="28"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C120" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D120" s="12">
         <v>262269.19780000002</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E120" s="12">
         <v>8742.3065929999993</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F120" s="12">
         <v>1650422.5572601147</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G120" s="12">
         <v>55014.085242003821</v>
       </c>
-      <c r="H118" s="28"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C119" s="11" t="s">
+      <c r="H120" s="28"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D121" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E121" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F121" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G121" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H119" s="28"/>
-    </row>
-    <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="13"/>
-      <c r="C120" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D120" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E120" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F120" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G120" s="12">
-        <v>67822.561910826538</v>
-      </c>
-      <c r="H120" s="28"/>
-    </row>
-    <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="13"/>
-      <c r="C121" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="12">
-        <v>265901.88781699998</v>
-      </c>
-      <c r="E121" s="12">
-        <v>8577.4802519999994</v>
-      </c>
-      <c r="F121" s="12">
-        <v>1673282.5560624234</v>
-      </c>
-      <c r="G121" s="12">
-        <v>53976.856647174944</v>
       </c>
       <c r="H121" s="28"/>
     </row>
     <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D122" s="12">
-        <v>247847.77045499999</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E122" s="12">
-        <v>7995.0893690000003</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F122" s="12">
-        <v>1559670.57724214</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G122" s="12">
-        <v>50311.954104585158</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H122" s="28"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D123" s="12">
-        <v>160936.42993099999</v>
+        <v>265901.88781699998</v>
       </c>
       <c r="E123" s="12">
-        <v>5364.5476639999997</v>
+        <v>8577.4802519999994</v>
       </c>
       <c r="F123" s="12">
-        <v>1012749.9396463028</v>
+        <v>1673282.5560624234</v>
       </c>
       <c r="G123" s="12">
-        <v>33758.331321543425</v>
+        <v>53976.856647174944</v>
       </c>
       <c r="H123" s="28"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D124" s="12">
-        <v>164510.12670699999</v>
+        <v>247847.77045499999</v>
       </c>
       <c r="E124" s="12">
-        <v>5306.7782800000004</v>
+        <v>7995.0893690000003</v>
       </c>
       <c r="F124" s="12">
-        <v>1035238.702419032</v>
+        <v>1559670.57724214</v>
       </c>
       <c r="G124" s="12">
-        <v>33394.796852226835</v>
+        <v>50311.954104585158</v>
       </c>
       <c r="H124" s="28"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="13"/>
       <c r="C125" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D125" s="12">
-        <v>135951.57</v>
+        <v>160936.42993099999</v>
       </c>
       <c r="E125" s="12">
-        <v>4531.7190000000001</v>
+        <v>5364.5476639999997</v>
       </c>
       <c r="F125" s="12">
-        <v>855523.78893549007</v>
+        <v>1012749.9396463028</v>
       </c>
       <c r="G125" s="12">
-        <v>28517.459631182999</v>
+        <v>33758.331321543425</v>
       </c>
       <c r="H125" s="28"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="12">
+        <v>164510.12670699999</v>
+      </c>
+      <c r="E126" s="12">
+        <v>5306.7782800000004</v>
+      </c>
+      <c r="F126" s="12">
+        <v>1035238.702419032</v>
+      </c>
+      <c r="G126" s="12">
+        <v>33394.796852226835</v>
+      </c>
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="13"/>
+      <c r="C127" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E127" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F127" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G127" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H127" s="28"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="13"/>
+      <c r="C128" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D128" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E128" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F128" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G128" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C127" s="11" t="s">
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D129" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E129" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F129" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G129" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H127" s="22"/>
-    </row>
-    <row r="128" spans="2:9" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="11" t="s">
+      <c r="H129" s="22"/>
+    </row>
+    <row r="130" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="17">
+      <c r="D130" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E130" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F130" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G130" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H128" s="23"/>
-    </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="30"/>
-      <c r="B129" s="31" t="s">
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="30"/>
+      <c r="B131" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="32"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-    </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-    </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="40"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="41"/>
-      <c r="B132" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="43"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
+    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133" s="75"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="75"/>
-      <c r="E133" s="75"/>
-      <c r="F133" s="75"/>
-      <c r="G133" s="75"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
+    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="76"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="76"/>
-      <c r="G134" s="76"/>
-      <c r="H134" s="76"/>
-      <c r="I134" s="76"/>
-      <c r="J134" s="76"/>
+    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="41"/>
+      <c r="B134" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="43"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
     <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="76"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="76"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="76"/>
-      <c r="F135" s="76"/>
-      <c r="G135" s="76"/>
-      <c r="H135" s="76"/>
-      <c r="I135" s="76"/>
-      <c r="J135" s="76"/>
+      <c r="A135" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="77"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="77"/>
+      <c r="J135" s="77"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
     <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="76"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="76"/>
-      <c r="D136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="76"/>
-      <c r="H136" s="76"/>
-      <c r="I136" s="76"/>
-      <c r="J136" s="76"/>
+      <c r="A136" s="78"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="78"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="78"/>
+      <c r="H136" s="78"/>
+      <c r="I136" s="78"/>
+      <c r="J136" s="78"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="76"/>
-      <c r="B137" s="76"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="76"/>
-      <c r="E137" s="76"/>
-      <c r="F137" s="76"/>
-      <c r="G137" s="76"/>
-      <c r="H137" s="76"/>
-      <c r="I137" s="76"/>
-      <c r="J137" s="76"/>
+      <c r="A137" s="78"/>
+      <c r="B137" s="78"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
+      <c r="H137" s="78"/>
+      <c r="I137" s="78"/>
+      <c r="J137" s="78"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="76"/>
-      <c r="B138" s="76"/>
-      <c r="C138" s="76"/>
-      <c r="D138" s="76"/>
-      <c r="E138" s="76"/>
-      <c r="F138" s="76"/>
-      <c r="G138" s="76"/>
-      <c r="H138" s="76"/>
-      <c r="I138" s="76"/>
-      <c r="J138" s="76"/>
+      <c r="A138" s="78"/>
+      <c r="B138" s="78"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="78"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="78"/>
+      <c r="I138" s="78"/>
+      <c r="J138" s="78"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="76"/>
-      <c r="B139" s="76"/>
-      <c r="C139" s="76"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
-      <c r="I139" s="76"/>
-      <c r="J139" s="76"/>
+      <c r="A139" s="78"/>
+      <c r="B139" s="78"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="78"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
+      <c r="H139" s="78"/>
+      <c r="I139" s="78"/>
+      <c r="J139" s="78"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="76"/>
-      <c r="B140" s="76"/>
-      <c r="C140" s="76"/>
-      <c r="D140" s="76"/>
-      <c r="E140" s="76"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="76"/>
-      <c r="I140" s="76"/>
-      <c r="J140" s="76"/>
+      <c r="A140" s="78"/>
+      <c r="B140" s="78"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="78"/>
+      <c r="E140" s="78"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="78"/>
+      <c r="H140" s="78"/>
+      <c r="I140" s="78"/>
+      <c r="J140" s="78"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="76"/>
-      <c r="B141" s="76"/>
-      <c r="C141" s="76"/>
-      <c r="D141" s="76"/>
-      <c r="E141" s="76"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="76"/>
-      <c r="H141" s="76"/>
-      <c r="I141" s="76"/>
-      <c r="J141" s="76"/>
+      <c r="A141" s="78"/>
+      <c r="B141" s="78"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
+      <c r="H141" s="78"/>
+      <c r="I141" s="78"/>
+      <c r="J141" s="78"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="76"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="76"/>
-      <c r="H142" s="76"/>
-      <c r="I142" s="76"/>
-      <c r="J142" s="76"/>
+      <c r="A142" s="78"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="78"/>
+      <c r="H142" s="78"/>
+      <c r="I142" s="78"/>
+      <c r="J142" s="78"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="76"/>
-      <c r="B143" s="76"/>
-      <c r="C143" s="76"/>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="76"/>
-      <c r="H143" s="76"/>
-      <c r="I143" s="76"/>
-      <c r="J143" s="76"/>
+      <c r="A143" s="78"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="78"/>
+      <c r="H143" s="78"/>
+      <c r="I143" s="78"/>
+      <c r="J143" s="78"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="76"/>
-      <c r="B144" s="76"/>
-      <c r="C144" s="76"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="76"/>
-      <c r="F144" s="76"/>
-      <c r="G144" s="76"/>
-      <c r="H144" s="76"/>
-      <c r="I144" s="76"/>
-      <c r="J144" s="76"/>
+      <c r="A144" s="78"/>
+      <c r="B144" s="78"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="78"/>
+      <c r="I144" s="78"/>
+      <c r="J144" s="78"/>
     </row>
     <row r="145" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="76"/>
-      <c r="B145" s="76"/>
-      <c r="C145" s="76"/>
-      <c r="D145" s="76"/>
-      <c r="E145" s="76"/>
-      <c r="F145" s="76"/>
-      <c r="G145" s="76"/>
-      <c r="H145" s="76"/>
-      <c r="I145" s="76"/>
-      <c r="J145" s="76"/>
+      <c r="A145" s="78"/>
+      <c r="B145" s="78"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="78"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="78"/>
+      <c r="H145" s="78"/>
+      <c r="I145" s="78"/>
+      <c r="J145" s="78"/>
     </row>
     <row r="146" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="76"/>
-      <c r="B146" s="76"/>
-      <c r="C146" s="76"/>
-      <c r="D146" s="76"/>
-      <c r="E146" s="76"/>
-      <c r="F146" s="76"/>
-      <c r="G146" s="76"/>
-      <c r="H146" s="76"/>
-      <c r="I146" s="76"/>
-      <c r="J146" s="76"/>
-    </row>
-    <row r="147" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="4"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-    </row>
-    <row r="148" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="4"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
+      <c r="A146" s="78"/>
+      <c r="B146" s="78"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="78"/>
+      <c r="E146" s="78"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
+      <c r="H146" s="78"/>
+      <c r="I146" s="78"/>
+      <c r="J146" s="78"/>
+    </row>
+    <row r="147" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="78"/>
+      <c r="B147" s="78"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="78"/>
+      <c r="H147" s="78"/>
+      <c r="I147" s="78"/>
+      <c r="J147" s="78"/>
+    </row>
+    <row r="148" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="78"/>
+      <c r="B148" s="78"/>
+      <c r="C148" s="78"/>
+      <c r="D148" s="78"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="78"/>
+      <c r="H148" s="78"/>
+      <c r="I148" s="78"/>
+      <c r="J148" s="78"/>
     </row>
     <row r="149" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D149" s="15"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D150" s="15"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C149" s="4"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="4"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+    </row>
+    <row r="151" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="15"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -4225,13 +4275,19 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D154" s="15"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D155" s="15"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D156" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A133:J146"/>
+    <mergeCell ref="A135:J148"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF0F950-6040-4432-BE0F-948EE14BE7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFCD22A-FD13-42A2-9B0E-29A14E741ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 21st April 2022</t>
+    <t>Numbers last updated on 20th May 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -644,9 +645,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="133350" y="142875"/>
-          <a:ext cx="1971675" cy="285750"/>
+        <a:xfrm rot="21540000">
+          <a:off x="137491" y="142875"/>
+          <a:ext cx="1962702" cy="287821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,10 +1061,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1081,47 +1082,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1167,19 +1168,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E9" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F9" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G9" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1190,22 +1191,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E10" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F10" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G10" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1216,24 +1217,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13">
-        <v>2021</v>
-      </c>
+    <row r="11" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D11" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E11" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F11" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G11" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1244,22 +1243,24 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13">
+        <v>2021</v>
+      </c>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E12" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F12" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G12" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1270,22 +1271,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E13" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F13" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G13" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1296,22 +1297,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E14" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F14" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G14" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1322,22 +1323,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E15" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F15" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G15" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1348,22 +1349,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E16" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F16" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G16" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1374,22 +1375,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E17" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F17" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G17" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1400,22 +1401,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E18" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F18" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G18" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1426,22 +1427,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E19" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F19" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G19" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1452,22 +1453,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E20" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F20" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G20" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1478,22 +1479,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E21" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F21" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G21" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1504,22 +1505,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E22" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F22" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G22" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1530,24 +1531,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13">
-        <v>2020</v>
-      </c>
+    <row r="23" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E23" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F23" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G23" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1558,22 +1557,24 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+    <row r="24" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13">
+        <v>2020</v>
+      </c>
       <c r="C24" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E24" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F24" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G24" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1584,22 +1585,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E25" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F25" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G25" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1610,22 +1611,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E26" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F26" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G26" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1636,22 +1637,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E27" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F27" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G27" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1662,22 +1663,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E28" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F28" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G28" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1688,22 +1689,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E29" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F29" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G29" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1714,22 +1715,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E30" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F30" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G30" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1740,22 +1741,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E31" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F31" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G31" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1766,22 +1767,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E32" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F32" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G32" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1792,22 +1793,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E33" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F33" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G33" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1818,22 +1819,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E34" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F34" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G34" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1844,24 +1845,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="13">
-        <v>2019</v>
-      </c>
+    <row r="35" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D35" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E35" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F35" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G35" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1872,22 +1871,24 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
+    <row r="36" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13">
+        <v>2019</v>
+      </c>
       <c r="C36" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E36" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F36" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G36" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1898,22 +1899,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E37" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F37" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G37" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1921,25 +1922,25 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
     </row>
     <row r="38" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E38" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F38" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G38" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1953,19 +1954,19 @@
     <row r="39" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E39" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F39" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G39" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1979,19 +1980,19 @@
     <row r="40" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E40" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F40" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G40" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2005,19 +2006,19 @@
     <row r="41" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E41" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F41" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G41" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2031,19 +2032,19 @@
     <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E42" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F42" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G42" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2057,19 +2058,19 @@
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E43" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F43" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G43" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2083,19 +2084,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E44" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F44" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G44" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2109,19 +2110,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E45" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F45" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G45" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2135,19 +2136,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E46" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F46" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G46" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2159,25 +2160,23 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E47" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E47" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F47" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G47" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
@@ -2187,21 +2186,23 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13"/>
+      <c r="B48" s="13">
+        <v>2018</v>
+      </c>
       <c r="C48" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E48" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F48" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G48" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="14"/>
@@ -2215,19 +2216,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E49" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F49" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G49" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="14"/>
@@ -2241,19 +2242,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E50" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F50" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G50" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="14"/>
@@ -2267,19 +2268,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E51" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F51" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G51" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="14"/>
@@ -2293,19 +2294,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E52" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F52" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G52" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="14"/>
@@ -2319,19 +2320,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E53" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F53" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G53" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2345,19 +2346,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E54" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F54" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G54" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2371,19 +2372,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E55" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F55" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G55" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2397,19 +2398,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E56" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F56" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G56" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2423,19 +2424,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E57" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F57" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G57" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2449,19 +2450,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E58" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F58" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G58" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2473,49 +2474,49 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E59" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F59" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G59" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E59" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F59" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G59" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
       <c r="N59" s="19"/>
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="13"/>
+      <c r="B60" s="13">
+        <v>2017</v>
+      </c>
       <c r="C60" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E60" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F60" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G60" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2529,19 +2530,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E61" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F61" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G61" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2555,19 +2556,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E62" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F62" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G62" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D62" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E62" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F62" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G62" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2578,21 +2579,22 @@
       <c r="N62" s="19"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E63" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F63" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G63" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D63" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E63" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F63" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G63" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2604,21 +2606,20 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="9"/>
       <c r="C64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E64" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F64" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G64" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D64" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E64" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F64" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G64" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2630,46 +2631,46 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="9"/>
       <c r="C65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E65" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F65" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G65" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C66" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D66" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E66" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F66" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G66" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H65" s="28"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="3"/>
-      <c r="R65" s="7"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="13"/>
-      <c r="C66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E66" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F66" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G66" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H66" s="28"/>
       <c r="I66" s="29"/>
@@ -2678,48 +2679,49 @@
       <c r="L66" s="29"/>
       <c r="N66" s="18"/>
       <c r="O66" s="3"/>
+      <c r="R66" s="7"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E67" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F67" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G67" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D67" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E67" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F67" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G67" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="21"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="3"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E68" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D68" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E68" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F68" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G68" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="29"/>
@@ -2729,71 +2731,69 @@
       <c r="N68" s="20"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E69" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F69" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G69" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E70" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F70" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G70" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="3"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D71" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E71" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F71" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G71" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
@@ -2804,93 +2804,96 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
+      <c r="B72" s="13">
+        <v>2016</v>
+      </c>
       <c r="C72" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E72" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F72" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G72" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
       <c r="J72" s="28"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
-      <c r="N72" s="20"/>
+      <c r="N72" s="18"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E73" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F73" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G73" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E74" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F74" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G74" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E75" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F75" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G75" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
@@ -2902,19 +2905,19 @@
     <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E76" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F76" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G76" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
@@ -2926,19 +2929,19 @@
     <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E77" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F77" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G77" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -2950,19 +2953,19 @@
     <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E78" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F78" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G78" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -2974,23 +2977,23 @@
     <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E79" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F79" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G79" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H79" s="28"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -2998,19 +3001,19 @@
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E80" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F80" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G80" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="8"/>
@@ -3019,543 +3022,547 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E81" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F81" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G81" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H81" s="28"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-    </row>
-    <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="C82" s="11" t="s">
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+    </row>
+    <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
+      <c r="C83" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H82" s="28"/>
-    </row>
-    <row r="83" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="13">
+      <c r="H83" s="28"/>
+    </row>
+    <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="13">
         <v>2015</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>106703.58823846966</v>
       </c>
-      <c r="H83" s="28"/>
-    </row>
-    <row r="84" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="C84" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E84" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F84" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G84" s="12">
-        <v>102316.08713044427</v>
-      </c>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D85" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E85" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F85" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G85" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E86" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F86" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G86" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H86" s="28"/>
     </row>
-    <row r="87" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E87" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F87" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G87" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H87" s="28"/>
     </row>
-    <row r="88" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E88" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F88" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G88" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H88" s="28"/>
     </row>
-    <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E89" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F89" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G89" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H89" s="28"/>
     </row>
-    <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E90" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F90" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G90" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H90" s="28"/>
     </row>
-    <row r="91" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E91" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F91" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G91" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E92" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G92" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H92" s="28"/>
+    </row>
+    <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="13"/>
+      <c r="C93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F93" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H92" s="28"/>
-    </row>
-    <row r="93" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="11" t="s">
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D94" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E94" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F94" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G94" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="13"/>
-      <c r="C94" s="11" t="s">
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="13"/>
+      <c r="C95" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E95" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F95" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G95" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="13">
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="13">
         <v>2014</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D96" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E96" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F96" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G96" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="13"/>
-      <c r="C96" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E96" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F96" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G96" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E97" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F97" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G97" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E98" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F98" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G98" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D99" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E99" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F99" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G99" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D100" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E100" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F100" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G100" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E101" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F101" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G101" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E102" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F102" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G102" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E103" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F103" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G103" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E104" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F104" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G104" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H104" s="28"/>
+    </row>
+    <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="13"/>
+      <c r="C105" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D105" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E105" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F105" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G105" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H104" s="28"/>
-    </row>
-    <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="11" t="s">
+      <c r="H105" s="28"/>
+    </row>
+    <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D106" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E106" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F106" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G106" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H105" s="28"/>
-      <c r="I105" s="22"/>
-    </row>
-    <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="13"/>
-      <c r="C106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E106" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F106" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G106" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H106" s="28"/>
       <c r="I106" s="22"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E107" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F107" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G107" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H107" s="28"/>
       <c r="I107" s="22"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="13"/>
+      <c r="B108" s="13">
+        <v>2013</v>
+      </c>
       <c r="C108" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E108" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F108" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G108" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H108" s="28"/>
       <c r="I108" s="22"/>
@@ -3563,19 +3570,19 @@
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E109" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F109" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G109" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="22"/>
@@ -3583,19 +3590,19 @@
     <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E110" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F110" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G110" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="22"/>
@@ -3603,39 +3610,39 @@
     <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E111" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F111" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G111" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E112" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F112" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G112" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
@@ -3643,19 +3650,19 @@
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E113" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F113" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G113" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
@@ -3663,411 +3670,415 @@
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E114" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F114" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G114" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E115" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F115" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G115" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C116" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E116" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F116" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G116" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C117" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E117" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F117" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G117" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H117" s="28"/>
+      <c r="I117" s="22"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C118" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E118" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F118" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G118" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H118" s="28"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C119" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D119" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E119" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F119" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G119" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H118" s="28"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="13">
+      <c r="H119" s="28"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="13">
         <v>2012</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C120" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D120" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E120" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F120" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G120" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H119" s="28"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C120" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E120" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F120" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G120" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H120" s="28"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C121" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E121" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F121" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G121" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H121" s="28"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C122" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D122" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E122" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F122" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G122" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H121" s="28"/>
-    </row>
-    <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="13"/>
-      <c r="C122" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E122" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F122" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G122" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H122" s="28"/>
     </row>
     <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D123" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E123" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F123" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G123" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H123" s="28"/>
     </row>
     <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E124" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F124" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G124" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H124" s="28"/>
+    </row>
+    <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="13"/>
+      <c r="C125" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D125" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E125" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F125" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H124" s="28"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C125" s="11" t="s">
+      <c r="H125" s="28"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C126" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D126" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E126" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F126" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G126" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H125" s="28"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="13"/>
-      <c r="C126" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E126" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F126" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G126" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H126" s="28"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="13"/>
       <c r="C127" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E127" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F127" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G127" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H127" s="28"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E128" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F128" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G128" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B129" s="13"/>
+      <c r="C129" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D129" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E129" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F129" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G129" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C129" s="11" t="s">
+      <c r="H129" s="28"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F130" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G130" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H129" s="22"/>
-    </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
+      <c r="H130" s="22"/>
+    </row>
+    <row r="131" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="17">
+      <c r="D131" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E131" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F131" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G131" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H130" s="23"/>
-    </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="30"/>
-      <c r="B131" s="31" t="s">
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="30"/>
+      <c r="B132" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="32"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-    </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="40"/>
+    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="41"/>
-      <c r="B134" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
+    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="77"/>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="77"/>
-      <c r="G135" s="77"/>
-      <c r="H135" s="77"/>
-      <c r="I135" s="77"/>
-      <c r="J135" s="77"/>
+    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="41"/>
+      <c r="B135" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="43"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
     <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="78"/>
+      <c r="A136" s="78" t="s">
+        <v>22</v>
+      </c>
       <c r="B136" s="78"/>
       <c r="C136" s="78"/>
       <c r="D136" s="78"/>
@@ -4083,179 +4094,188 @@
       <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="78"/>
-      <c r="B137" s="78"/>
-      <c r="C137" s="78"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
-      <c r="H137" s="78"/>
-      <c r="I137" s="78"/>
-      <c r="J137" s="78"/>
+      <c r="A137" s="79"/>
+      <c r="B137" s="79"/>
+      <c r="C137" s="79"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
+      <c r="J137" s="79"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="78"/>
-      <c r="B138" s="78"/>
-      <c r="C138" s="78"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="78"/>
-      <c r="H138" s="78"/>
-      <c r="I138" s="78"/>
-      <c r="J138" s="78"/>
+      <c r="A138" s="79"/>
+      <c r="B138" s="79"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
+      <c r="H138" s="79"/>
+      <c r="I138" s="79"/>
+      <c r="J138" s="79"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="78"/>
-      <c r="B139" s="78"/>
-      <c r="C139" s="78"/>
-      <c r="D139" s="78"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="78"/>
-      <c r="H139" s="78"/>
-      <c r="I139" s="78"/>
-      <c r="J139" s="78"/>
+      <c r="A139" s="79"/>
+      <c r="B139" s="79"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="79"/>
+      <c r="H139" s="79"/>
+      <c r="I139" s="79"/>
+      <c r="J139" s="79"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="78"/>
-      <c r="B140" s="78"/>
-      <c r="C140" s="78"/>
-      <c r="D140" s="78"/>
-      <c r="E140" s="78"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="78"/>
-      <c r="H140" s="78"/>
-      <c r="I140" s="78"/>
-      <c r="J140" s="78"/>
+      <c r="A140" s="79"/>
+      <c r="B140" s="79"/>
+      <c r="C140" s="79"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="79"/>
+      <c r="G140" s="79"/>
+      <c r="H140" s="79"/>
+      <c r="I140" s="79"/>
+      <c r="J140" s="79"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="78"/>
-      <c r="B141" s="78"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="78"/>
-      <c r="H141" s="78"/>
-      <c r="I141" s="78"/>
-      <c r="J141" s="78"/>
+      <c r="A141" s="79"/>
+      <c r="B141" s="79"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="79"/>
+      <c r="H141" s="79"/>
+      <c r="I141" s="79"/>
+      <c r="J141" s="79"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="78"/>
-      <c r="B142" s="78"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="78"/>
-      <c r="H142" s="78"/>
-      <c r="I142" s="78"/>
-      <c r="J142" s="78"/>
+      <c r="A142" s="79"/>
+      <c r="B142" s="79"/>
+      <c r="C142" s="79"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="79"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="79"/>
+      <c r="J142" s="79"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="78"/>
-      <c r="B143" s="78"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="78"/>
-      <c r="H143" s="78"/>
-      <c r="I143" s="78"/>
-      <c r="J143" s="78"/>
+      <c r="A143" s="79"/>
+      <c r="B143" s="79"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="79"/>
+      <c r="H143" s="79"/>
+      <c r="I143" s="79"/>
+      <c r="J143" s="79"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="78"/>
-      <c r="B144" s="78"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
-      <c r="E144" s="78"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="78"/>
-      <c r="I144" s="78"/>
-      <c r="J144" s="78"/>
+      <c r="A144" s="79"/>
+      <c r="B144" s="79"/>
+      <c r="C144" s="79"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
     </row>
     <row r="145" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="78"/>
-      <c r="B145" s="78"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
-      <c r="H145" s="78"/>
-      <c r="I145" s="78"/>
-      <c r="J145" s="78"/>
+      <c r="A145" s="79"/>
+      <c r="B145" s="79"/>
+      <c r="C145" s="79"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
+      <c r="J145" s="79"/>
     </row>
     <row r="146" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="78"/>
-      <c r="B146" s="78"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="78"/>
-      <c r="E146" s="78"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
-      <c r="H146" s="78"/>
-      <c r="I146" s="78"/>
-      <c r="J146" s="78"/>
+      <c r="A146" s="79"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="79"/>
+      <c r="D146" s="79"/>
+      <c r="E146" s="79"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="79"/>
+      <c r="H146" s="79"/>
+      <c r="I146" s="79"/>
+      <c r="J146" s="79"/>
     </row>
     <row r="147" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="78"/>
-      <c r="B147" s="78"/>
-      <c r="C147" s="78"/>
-      <c r="D147" s="78"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="78"/>
-      <c r="H147" s="78"/>
-      <c r="I147" s="78"/>
-      <c r="J147" s="78"/>
+      <c r="A147" s="79"/>
+      <c r="B147" s="79"/>
+      <c r="C147" s="79"/>
+      <c r="D147" s="79"/>
+      <c r="E147" s="79"/>
+      <c r="F147" s="79"/>
+      <c r="G147" s="79"/>
+      <c r="H147" s="79"/>
+      <c r="I147" s="79"/>
+      <c r="J147" s="79"/>
     </row>
     <row r="148" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="78"/>
-      <c r="B148" s="78"/>
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
-      <c r="H148" s="78"/>
-      <c r="I148" s="78"/>
-      <c r="J148" s="78"/>
-    </row>
-    <row r="149" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C149" s="4"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
+      <c r="A148" s="79"/>
+      <c r="B148" s="79"/>
+      <c r="C148" s="79"/>
+      <c r="D148" s="79"/>
+      <c r="E148" s="79"/>
+      <c r="F148" s="79"/>
+      <c r="G148" s="79"/>
+      <c r="H148" s="79"/>
+      <c r="I148" s="79"/>
+      <c r="J148" s="79"/>
+    </row>
+    <row r="149" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="79"/>
+      <c r="B149" s="79"/>
+      <c r="C149" s="79"/>
+      <c r="D149" s="79"/>
+      <c r="E149" s="79"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="79"/>
+      <c r="H149" s="79"/>
+      <c r="I149" s="79"/>
+      <c r="J149" s="79"/>
     </row>
     <row r="150" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
@@ -4265,9 +4285,13 @@
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D151" s="15"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C151" s="4"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+    </row>
+    <row r="152" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="15"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -4281,13 +4305,16 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D156" s="15"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D157" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A135:J148"/>
+    <mergeCell ref="A136:J149"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFCD22A-FD13-42A2-9B0E-29A14E741ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8D8D65-F394-49B6-87BE-230D761E8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 20th May 2022</t>
+    <t>Numbers last updated on 21st June 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -645,9 +646,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="21540000">
-          <a:off x="137491" y="142875"/>
-          <a:ext cx="1962702" cy="287821"/>
+        <a:xfrm>
+          <a:off x="133350" y="142875"/>
+          <a:ext cx="1971675" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,10 +1062,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1082,47 +1083,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1168,19 +1169,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E9" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F9" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G9" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1191,22 +1192,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E10" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F10" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G10" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1217,22 +1218,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E11" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F11" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G11" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1243,24 +1244,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13">
-        <v>2021</v>
-      </c>
+    <row r="12" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D12" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E12" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F12" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G12" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1271,22 +1270,24 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13">
+        <v>2021</v>
+      </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E13" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F13" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G13" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1297,22 +1298,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E14" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F14" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G14" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1323,22 +1324,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E15" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F15" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G15" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1349,22 +1350,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E16" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F16" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G16" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1375,22 +1376,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E17" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F17" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G17" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1401,22 +1402,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E18" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F18" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G18" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1427,22 +1428,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E19" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F19" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G19" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1453,22 +1454,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E20" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F20" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G20" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1479,22 +1480,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E21" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F21" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G21" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1505,22 +1506,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E22" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F22" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G22" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1531,22 +1532,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E23" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F23" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G23" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1557,24 +1558,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13">
-        <v>2020</v>
-      </c>
+    <row r="24" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E24" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F24" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G24" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1585,22 +1584,24 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+    <row r="25" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13">
+        <v>2020</v>
+      </c>
       <c r="C25" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E25" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F25" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G25" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1611,22 +1612,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E26" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F26" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G26" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1637,22 +1638,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E27" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F27" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G27" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1663,22 +1664,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E28" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F28" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G28" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1689,22 +1690,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E29" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F29" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G29" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1715,22 +1716,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E30" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F30" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G30" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1741,22 +1742,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E31" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F31" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G31" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1767,22 +1768,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E32" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F32" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G32" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1793,22 +1794,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E33" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F33" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G33" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1819,22 +1820,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E34" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F34" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G34" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1845,22 +1846,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E35" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F35" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G35" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1871,24 +1872,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13">
-        <v>2019</v>
-      </c>
+    <row r="36" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D36" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E36" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F36" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G36" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1899,22 +1898,24 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
+    <row r="37" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="13">
+        <v>2019</v>
+      </c>
       <c r="C37" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E37" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F37" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G37" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1925,22 +1926,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E38" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F38" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G38" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1948,25 +1949,25 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="39" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E39" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F39" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G39" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1980,19 +1981,19 @@
     <row r="40" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E40" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F40" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G40" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2006,19 +2007,19 @@
     <row r="41" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E41" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F41" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G41" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2032,19 +2033,19 @@
     <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E42" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F42" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G42" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2058,19 +2059,19 @@
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E43" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F43" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G43" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2084,19 +2085,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E44" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F44" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G44" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2110,19 +2111,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E45" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F45" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G45" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2136,19 +2137,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E46" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F46" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G46" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2162,19 +2163,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E47" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F47" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G47" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2186,25 +2187,23 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E48" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E48" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F48" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G48" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
@@ -2214,21 +2213,23 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
+      <c r="B49" s="13">
+        <v>2018</v>
+      </c>
       <c r="C49" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E49" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F49" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G49" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="14"/>
@@ -2242,19 +2243,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E50" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F50" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G50" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="14"/>
@@ -2268,19 +2269,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E51" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F51" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G51" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="14"/>
@@ -2294,19 +2295,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E52" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F52" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G52" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="14"/>
@@ -2320,19 +2321,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E53" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F53" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G53" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2346,19 +2347,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E54" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F54" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G54" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2372,19 +2373,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E55" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F55" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G55" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2398,19 +2399,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E56" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F56" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G56" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2424,19 +2425,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E57" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F57" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G57" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2450,19 +2451,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E58" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F58" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G58" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2476,19 +2477,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E59" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F59" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G59" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2500,49 +2501,49 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E60" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F60" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G60" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D60" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E60" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F60" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G60" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
       <c r="N60" s="19"/>
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="13"/>
+      <c r="B61" s="13">
+        <v>2017</v>
+      </c>
       <c r="C61" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E61" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F61" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G61" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2556,19 +2557,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E62" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F62" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G62" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2582,19 +2583,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E63" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F63" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G63" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D63" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E63" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F63" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G63" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2605,21 +2606,22 @@
       <c r="N63" s="19"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E64" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F64" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G64" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D64" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E64" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F64" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G64" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2631,21 +2633,20 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="9"/>
       <c r="C65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E65" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F65" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G65" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D65" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E65" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F65" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G65" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2657,46 +2658,46 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="9"/>
       <c r="C66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E66" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F66" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G66" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C67" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D67" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E67" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F67" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G67" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="3"/>
-      <c r="R66" s="7"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="13"/>
-      <c r="C67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E67" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F67" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G67" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="29"/>
@@ -2705,48 +2706,49 @@
       <c r="L67" s="29"/>
       <c r="N67" s="18"/>
       <c r="O67" s="3"/>
+      <c r="R67" s="7"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E68" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F68" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G68" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D68" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E68" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F68" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G68" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="21"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="3"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E69" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D69" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E69" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F69" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G69" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="29"/>
@@ -2756,71 +2758,69 @@
       <c r="N69" s="20"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E70" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F70" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G70" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H70" s="28"/>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E71" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F71" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G71" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E72" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F72" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G72" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
@@ -2831,93 +2831,96 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
+      <c r="B73" s="13">
+        <v>2016</v>
+      </c>
       <c r="C73" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E73" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F73" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G73" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
-      <c r="N73" s="20"/>
+      <c r="N73" s="18"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E74" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F74" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G74" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E75" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F75" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G75" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E76" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F76" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G76" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
@@ -2929,19 +2932,19 @@
     <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E77" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F77" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G77" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -2953,19 +2956,19 @@
     <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E78" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F78" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G78" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -2977,19 +2980,19 @@
     <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E79" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F79" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G79" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -3001,23 +3004,23 @@
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E80" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F80" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G80" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H80" s="28"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -3025,19 +3028,19 @@
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E81" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F81" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G81" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="8"/>
@@ -3047,542 +3050,546 @@
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E82" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F82" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G82" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H82" s="28"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-    </row>
-    <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
-      <c r="C83" s="11" t="s">
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+    </row>
+    <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="13"/>
+      <c r="C84" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H83" s="28"/>
-    </row>
-    <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="13">
+      <c r="H84" s="28"/>
+    </row>
+    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13">
         <v>2015</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H84" s="28"/>
-    </row>
-    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E85" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F85" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G85" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H85" s="28"/>
     </row>
     <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E86" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F86" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G86" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E87" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F87" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G87" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H87" s="28"/>
     </row>
     <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E88" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F88" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G88" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E89" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F89" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G89" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E90" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F90" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G90" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E91" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F91" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G91" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E92" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F92" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G92" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E93" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F93" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G93" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="13"/>
+      <c r="C94" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D94" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E94" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F94" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G94" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="11" t="s">
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E95" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F95" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G95" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="13"/>
-      <c r="C95" s="11" t="s">
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="13"/>
+      <c r="C96" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D96" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E96" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F96" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G96" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="13">
+      <c r="H96" s="28"/>
+    </row>
+    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="13">
         <v>2014</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D97" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E97" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F97" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G97" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
-      <c r="C97" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E97" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F97" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G97" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E98" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F98" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G98" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E99" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F99" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G99" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D100" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E100" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F100" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G100" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E101" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F101" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G101" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E102" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F102" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G102" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E103" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F103" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G103" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E104" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F104" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G104" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E105" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F105" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G105" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H105" s="28"/>
+    </row>
+    <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="13"/>
+      <c r="C106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D106" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E106" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F106" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G106" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H105" s="28"/>
-    </row>
-    <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="11" t="s">
+      <c r="H106" s="28"/>
+    </row>
+    <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D107" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E107" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F107" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G107" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H106" s="28"/>
-      <c r="I106" s="22"/>
-    </row>
-    <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="13"/>
-      <c r="C107" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E107" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F107" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G107" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H107" s="28"/>
       <c r="I107" s="22"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D108" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E108" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F108" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G108" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H108" s="28"/>
       <c r="I108" s="22"/>
     </row>
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="13"/>
+      <c r="B109" s="13">
+        <v>2013</v>
+      </c>
       <c r="C109" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E109" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F109" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G109" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="22"/>
@@ -3590,19 +3597,19 @@
     <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E110" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F110" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G110" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="22"/>
@@ -3610,19 +3617,19 @@
     <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E111" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F111" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G111" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
@@ -3630,39 +3637,39 @@
     <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E112" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F112" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G112" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D113" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E113" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F113" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G113" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
@@ -3670,19 +3677,19 @@
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E114" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F114" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G114" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
@@ -3690,411 +3697,415 @@
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E115" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F115" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G115" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D116" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E116" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F116" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G116" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C117" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E117" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F117" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G117" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C118" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D118" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E118" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F118" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G118" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H118" s="28"/>
+      <c r="I118" s="22"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C119" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E119" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F119" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G119" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H119" s="28"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C120" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D120" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E120" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F120" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G120" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H119" s="28"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="13">
+      <c r="H120" s="28"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="13">
         <v>2012</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D121" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E121" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F121" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G121" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H120" s="28"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C121" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E121" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F121" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G121" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H121" s="28"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E122" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F122" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G122" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H122" s="28"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C123" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D123" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E123" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F123" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G123" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H122" s="28"/>
-    </row>
-    <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="13"/>
-      <c r="C123" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E123" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F123" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G123" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H123" s="28"/>
     </row>
     <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D124" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E124" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F124" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G124" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H124" s="28"/>
     </row>
     <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="13"/>
       <c r="C125" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E125" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F125" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G125" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H125" s="28"/>
+    </row>
+    <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="13"/>
+      <c r="C126" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D126" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E126" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F126" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G126" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H125" s="28"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C126" s="11" t="s">
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C127" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D127" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E127" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F127" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G127" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="13"/>
-      <c r="C127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E127" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F127" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G127" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H127" s="28"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D128" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E128" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F128" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G128" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H128" s="28"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E129" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F129" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G129" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H129" s="28"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B130" s="13"/>
+      <c r="C130" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F130" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G130" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H129" s="28"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
+      <c r="H130" s="28"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D131" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E131" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F131" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G131" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H130" s="22"/>
-    </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="11" t="s">
+      <c r="H131" s="22"/>
+    </row>
+    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="17">
+      <c r="D132" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E132" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F132" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G132" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H131" s="23"/>
-    </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="30"/>
-      <c r="B132" s="31" t="s">
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="30"/>
+      <c r="B133" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-    </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="40"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="40"/>
+    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="41"/>
-      <c r="B135" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
+    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="35"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" s="78"/>
-      <c r="C136" s="78"/>
-      <c r="D136" s="78"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="78"/>
-      <c r="H136" s="78"/>
-      <c r="I136" s="78"/>
-      <c r="J136" s="78"/>
+    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="41"/>
+      <c r="B136" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="43"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="79"/>
+      <c r="A137" s="79" t="s">
+        <v>22</v>
+      </c>
       <c r="B137" s="79"/>
       <c r="C137" s="79"/>
       <c r="D137" s="79"/>
@@ -4110,179 +4121,188 @@
       <c r="N137" s="5"/>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="79"/>
-      <c r="B138" s="79"/>
-      <c r="C138" s="79"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="79"/>
-      <c r="I138" s="79"/>
-      <c r="J138" s="79"/>
+      <c r="A138" s="80"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="80"/>
+      <c r="I138" s="80"/>
+      <c r="J138" s="80"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="79"/>
-      <c r="B139" s="79"/>
-      <c r="C139" s="79"/>
-      <c r="D139" s="79"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="79"/>
-      <c r="H139" s="79"/>
-      <c r="I139" s="79"/>
-      <c r="J139" s="79"/>
+      <c r="A139" s="80"/>
+      <c r="B139" s="80"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="80"/>
+      <c r="I139" s="80"/>
+      <c r="J139" s="80"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="79"/>
-      <c r="B140" s="79"/>
-      <c r="C140" s="79"/>
-      <c r="D140" s="79"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="79"/>
-      <c r="G140" s="79"/>
-      <c r="H140" s="79"/>
-      <c r="I140" s="79"/>
-      <c r="J140" s="79"/>
+      <c r="A140" s="80"/>
+      <c r="B140" s="80"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="80"/>
+      <c r="H140" s="80"/>
+      <c r="I140" s="80"/>
+      <c r="J140" s="80"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="79"/>
-      <c r="B141" s="79"/>
-      <c r="C141" s="79"/>
-      <c r="D141" s="79"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="79"/>
-      <c r="G141" s="79"/>
-      <c r="H141" s="79"/>
-      <c r="I141" s="79"/>
-      <c r="J141" s="79"/>
+      <c r="A141" s="80"/>
+      <c r="B141" s="80"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="80"/>
+      <c r="J141" s="80"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="79"/>
-      <c r="B142" s="79"/>
-      <c r="C142" s="79"/>
-      <c r="D142" s="79"/>
-      <c r="E142" s="79"/>
-      <c r="F142" s="79"/>
-      <c r="G142" s="79"/>
-      <c r="H142" s="79"/>
-      <c r="I142" s="79"/>
-      <c r="J142" s="79"/>
+      <c r="A142" s="80"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="79"/>
-      <c r="B143" s="79"/>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="79"/>
-      <c r="H143" s="79"/>
-      <c r="I143" s="79"/>
-      <c r="J143" s="79"/>
+      <c r="A143" s="80"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="80"/>
+      <c r="I143" s="80"/>
+      <c r="J143" s="80"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="79"/>
-      <c r="B144" s="79"/>
-      <c r="C144" s="79"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="79"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="79"/>
-      <c r="H144" s="79"/>
-      <c r="I144" s="79"/>
-      <c r="J144" s="79"/>
+      <c r="A144" s="80"/>
+      <c r="B144" s="80"/>
+      <c r="C144" s="80"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="79"/>
-      <c r="B145" s="79"/>
-      <c r="C145" s="79"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="79"/>
-      <c r="I145" s="79"/>
-      <c r="J145" s="79"/>
+      <c r="A145" s="80"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="80"/>
+      <c r="F145" s="80"/>
+      <c r="G145" s="80"/>
+      <c r="H145" s="80"/>
+      <c r="I145" s="80"/>
+      <c r="J145" s="80"/>
     </row>
     <row r="146" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="79"/>
-      <c r="B146" s="79"/>
-      <c r="C146" s="79"/>
-      <c r="D146" s="79"/>
-      <c r="E146" s="79"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="79"/>
-      <c r="H146" s="79"/>
-      <c r="I146" s="79"/>
-      <c r="J146" s="79"/>
+      <c r="A146" s="80"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="80"/>
+      <c r="J146" s="80"/>
     </row>
     <row r="147" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="79"/>
-      <c r="B147" s="79"/>
-      <c r="C147" s="79"/>
-      <c r="D147" s="79"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="79"/>
-      <c r="G147" s="79"/>
-      <c r="H147" s="79"/>
-      <c r="I147" s="79"/>
-      <c r="J147" s="79"/>
+      <c r="A147" s="80"/>
+      <c r="B147" s="80"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="80"/>
+      <c r="E147" s="80"/>
+      <c r="F147" s="80"/>
+      <c r="G147" s="80"/>
+      <c r="H147" s="80"/>
+      <c r="I147" s="80"/>
+      <c r="J147" s="80"/>
     </row>
     <row r="148" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="79"/>
-      <c r="B148" s="79"/>
-      <c r="C148" s="79"/>
-      <c r="D148" s="79"/>
-      <c r="E148" s="79"/>
-      <c r="F148" s="79"/>
-      <c r="G148" s="79"/>
-      <c r="H148" s="79"/>
-      <c r="I148" s="79"/>
-      <c r="J148" s="79"/>
+      <c r="A148" s="80"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="80"/>
+      <c r="E148" s="80"/>
+      <c r="F148" s="80"/>
+      <c r="G148" s="80"/>
+      <c r="H148" s="80"/>
+      <c r="I148" s="80"/>
+      <c r="J148" s="80"/>
     </row>
     <row r="149" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="79"/>
-      <c r="B149" s="79"/>
-      <c r="C149" s="79"/>
-      <c r="D149" s="79"/>
-      <c r="E149" s="79"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="79"/>
-      <c r="H149" s="79"/>
-      <c r="I149" s="79"/>
-      <c r="J149" s="79"/>
-    </row>
-    <row r="150" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C150" s="4"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
+      <c r="A149" s="80"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="80"/>
+      <c r="H149" s="80"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="80"/>
+    </row>
+    <row r="150" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="80"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
     </row>
     <row r="151" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
@@ -4292,9 +4312,13 @@
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D152" s="15"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C152" s="4"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+    </row>
+    <row r="153" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" s="15"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -4308,13 +4332,16 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D157" s="15"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D158" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A136:J149"/>
+    <mergeCell ref="A137:J150"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8D8D65-F394-49B6-87BE-230D761E8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BA6620-4639-467D-9295-02AE4EF20CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 21st June 2022</t>
+    <t>Numbers last updated on 20th July 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1062,10 +1063,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1083,47 +1084,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1169,19 +1170,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E9" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F9" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G9" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1192,22 +1193,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E10" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F10" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G10" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1218,22 +1219,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E11" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F11" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G11" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1244,22 +1245,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E12" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F12" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G12" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1270,24 +1271,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13">
-        <v>2021</v>
-      </c>
+    <row r="13" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E13" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F13" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G13" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1298,22 +1297,24 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+    <row r="14" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13">
+        <v>2021</v>
+      </c>
       <c r="C14" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E14" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F14" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G14" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1324,22 +1325,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E15" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F15" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G15" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1350,22 +1351,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E16" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F16" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G16" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1376,22 +1377,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E17" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F17" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G17" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1402,22 +1403,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E18" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F18" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G18" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1428,22 +1429,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E19" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F19" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G19" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1454,22 +1455,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E20" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F20" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G20" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1480,22 +1481,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E21" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F21" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G21" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1506,22 +1507,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E22" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F22" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G22" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1532,22 +1533,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E23" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F23" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G23" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1558,22 +1559,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E24" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F24" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G24" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1584,24 +1585,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13">
-        <v>2020</v>
-      </c>
+    <row r="25" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D25" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E25" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F25" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G25" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1612,22 +1611,24 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+    <row r="26" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13">
+        <v>2020</v>
+      </c>
       <c r="C26" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E26" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F26" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G26" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1638,22 +1639,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E27" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F27" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G27" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1664,22 +1665,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E28" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F28" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G28" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1690,22 +1691,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E29" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F29" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G29" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1716,22 +1717,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E30" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F30" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G30" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1742,22 +1743,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E31" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F31" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G31" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1768,22 +1769,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E32" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F32" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G32" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1794,22 +1795,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E33" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F33" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G33" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1820,22 +1821,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E34" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F34" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G34" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1846,22 +1847,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E35" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F35" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G35" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1872,22 +1873,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E36" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F36" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G36" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1898,24 +1899,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="13">
-        <v>2019</v>
-      </c>
+    <row r="37" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D37" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E37" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F37" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G37" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1926,22 +1925,24 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13"/>
+    <row r="38" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13">
+        <v>2019</v>
+      </c>
       <c r="C38" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E38" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F38" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G38" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1952,22 +1953,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E39" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F39" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G39" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1975,25 +1976,25 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="3"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
     </row>
     <row r="40" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E40" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F40" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G40" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2007,19 +2008,19 @@
     <row r="41" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E41" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F41" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G41" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2033,19 +2034,19 @@
     <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E42" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F42" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G42" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2059,19 +2060,19 @@
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E43" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F43" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G43" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2085,19 +2086,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E44" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F44" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G44" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2111,19 +2112,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E45" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F45" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G45" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2137,19 +2138,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E46" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F46" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G46" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2163,19 +2164,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E47" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F47" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G47" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2189,19 +2190,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E48" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F48" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G48" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2213,25 +2214,23 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E49" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E49" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F49" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G49" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
@@ -2241,21 +2240,23 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="13"/>
+      <c r="B50" s="13">
+        <v>2018</v>
+      </c>
       <c r="C50" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E50" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F50" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G50" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="14"/>
@@ -2269,19 +2270,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E51" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F51" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G51" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="14"/>
@@ -2295,19 +2296,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E52" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F52" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G52" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="14"/>
@@ -2321,19 +2322,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E53" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F53" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G53" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2347,19 +2348,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E54" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F54" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G54" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2373,19 +2374,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E55" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F55" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G55" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2399,19 +2400,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E56" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F56" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G56" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2425,19 +2426,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E57" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F57" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G57" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2451,19 +2452,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E58" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F58" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G58" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2477,19 +2478,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E59" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F59" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G59" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2503,19 +2504,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E60" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F60" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G60" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2527,49 +2528,49 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E61" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F61" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G61" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D61" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E61" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F61" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G61" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
       <c r="N61" s="19"/>
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="13"/>
+      <c r="B62" s="13">
+        <v>2017</v>
+      </c>
       <c r="C62" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E62" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F62" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G62" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2583,19 +2584,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E63" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F63" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G63" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2609,19 +2610,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E64" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F64" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G64" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D64" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E64" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F64" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G64" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2632,21 +2633,22 @@
       <c r="N64" s="19"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E65" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F65" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G65" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D65" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E65" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F65" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G65" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2658,21 +2660,20 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="9"/>
       <c r="C66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E66" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F66" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G66" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D66" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E66" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F66" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G66" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2684,46 +2685,46 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="9"/>
       <c r="C67" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E67" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F67" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G67" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D68" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E68" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F68" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G68" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="3"/>
-      <c r="R67" s="7"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
-      <c r="C68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E68" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F68" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G68" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="29"/>
@@ -2732,48 +2733,49 @@
       <c r="L68" s="29"/>
       <c r="N68" s="18"/>
       <c r="O68" s="3"/>
+      <c r="R68" s="7"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E69" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F69" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G69" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D69" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E69" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F69" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G69" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="21"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="3"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E70" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D70" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E70" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F70" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G70" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H70" s="28"/>
       <c r="I70" s="29"/>
@@ -2783,71 +2785,69 @@
       <c r="N70" s="20"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E71" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F71" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G71" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H71" s="28"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="21"/>
+    </row>
+    <row r="72" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E72" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F72" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G72" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="3"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E73" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F73" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G73" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
@@ -2858,93 +2858,96 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
+      <c r="B74" s="13">
+        <v>2016</v>
+      </c>
       <c r="C74" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E74" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F74" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G74" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
-      <c r="N74" s="20"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D75" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E75" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F75" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G75" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E76" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F76" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G76" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E77" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F77" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G77" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -2956,19 +2959,19 @@
     <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E78" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F78" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G78" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -2980,19 +2983,19 @@
     <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E79" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F79" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G79" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -3004,19 +3007,19 @@
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E80" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F80" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G80" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3028,23 +3031,23 @@
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E81" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F81" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G81" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H81" s="28"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -3052,19 +3055,19 @@
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E82" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F82" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G82" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="8"/>
@@ -3074,542 +3077,546 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E83" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F83" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G83" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H83" s="28"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-    </row>
-    <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="C84" s="11" t="s">
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+    </row>
+    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
+      <c r="C85" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H84" s="28"/>
-    </row>
-    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13">
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13">
         <v>2015</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
-      <c r="C86" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E86" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F86" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G86" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H86" s="28"/>
     </row>
     <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D87" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E87" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F87" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G87" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H87" s="28"/>
     </row>
     <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E88" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F88" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G88" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E89" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F89" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G89" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E90" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F90" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G90" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E91" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F91" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G91" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E92" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F92" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G92" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E93" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F93" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G93" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E94" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F94" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G94" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="13"/>
+      <c r="C95" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E95" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F95" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G95" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="11" t="s">
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D96" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E96" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F96" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G96" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="13"/>
-      <c r="C96" s="11" t="s">
+      <c r="H96" s="28"/>
+    </row>
+    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="C97" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D97" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E97" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F97" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G97" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="13">
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="13">
         <v>2014</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C98" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D98" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E98" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F98" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G98" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="13"/>
-      <c r="C98" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E98" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F98" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G98" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E99" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F99" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G99" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E100" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F100" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G100" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D101" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E101" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F101" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G101" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E102" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F102" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G102" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E103" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F103" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G103" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E104" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F104" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G104" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E105" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F105" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G105" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E106" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F106" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G106" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H106" s="28"/>
+    </row>
+    <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="13"/>
+      <c r="C107" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D107" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E107" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F107" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G107" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H106" s="28"/>
-    </row>
-    <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="11" t="s">
+      <c r="H107" s="28"/>
+    </row>
+    <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D108" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E108" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F108" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G108" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H107" s="28"/>
-      <c r="I107" s="22"/>
-    </row>
-    <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="13"/>
-      <c r="C108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E108" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F108" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G108" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H108" s="28"/>
       <c r="I108" s="22"/>
     </row>
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D109" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E109" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F109" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G109" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="22"/>
     </row>
     <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="13"/>
+      <c r="B110" s="13">
+        <v>2013</v>
+      </c>
       <c r="C110" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E110" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F110" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G110" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="22"/>
@@ -3617,19 +3624,19 @@
     <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D111" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E111" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F111" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G111" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
@@ -3637,19 +3644,19 @@
     <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E112" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F112" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G112" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
@@ -3657,39 +3664,39 @@
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E113" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F113" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G113" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D114" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E114" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F114" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G114" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
@@ -3697,19 +3704,19 @@
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E115" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F115" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G115" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
@@ -3717,411 +3724,415 @@
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E116" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F116" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G116" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E117" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F117" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G117" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C118" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E118" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F118" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G118" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C119" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D119" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E119" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F119" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G119" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H119" s="28"/>
+      <c r="I119" s="22"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C120" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E120" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F120" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G120" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H120" s="28"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C121" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D121" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E121" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F121" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G121" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H120" s="28"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="13">
+      <c r="H121" s="28"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="13">
         <v>2012</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C122" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D122" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E122" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F122" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G122" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H121" s="28"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C122" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E122" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F122" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G122" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H122" s="28"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C123" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E123" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F123" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G123" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H123" s="28"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C124" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D124" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E124" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F124" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G124" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H123" s="28"/>
-    </row>
-    <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="13"/>
-      <c r="C124" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E124" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F124" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G124" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H124" s="28"/>
     </row>
     <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="13"/>
       <c r="C125" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E125" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F125" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G125" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H125" s="28"/>
     </row>
     <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E126" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F126" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G126" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="13"/>
+      <c r="C127" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D127" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E127" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F127" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G127" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C127" s="11" t="s">
+      <c r="H127" s="28"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D128" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E128" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F128" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G128" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H127" s="28"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="13"/>
-      <c r="C128" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E128" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F128" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G128" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H128" s="28"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D129" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E129" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F129" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G129" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H129" s="28"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
       <c r="C130" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E130" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F130" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G130" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H130" s="28"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B131" s="13"/>
+      <c r="C131" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D131" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E131" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F131" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G131" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H130" s="28"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C131" s="11" t="s">
+      <c r="H131" s="28"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D132" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E132" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F132" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G132" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H131" s="22"/>
-    </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="11" t="s">
+      <c r="H132" s="22"/>
+    </row>
+    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="17">
+      <c r="D133" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E133" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F133" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G133" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H132" s="23"/>
-    </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="30"/>
-      <c r="B133" s="31" t="s">
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="30"/>
+      <c r="B134" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="32"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="34"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="40"/>
+    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="41"/>
-      <c r="B136" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
+    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B137" s="79"/>
-      <c r="C137" s="79"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="79"/>
-      <c r="J137" s="79"/>
+    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="41"/>
+      <c r="B137" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="43"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="43"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
     <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="80"/>
+      <c r="A138" s="80" t="s">
+        <v>22</v>
+      </c>
       <c r="B138" s="80"/>
       <c r="C138" s="80"/>
       <c r="D138" s="80"/>
@@ -4137,211 +4148,227 @@
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="80"/>
-      <c r="B139" s="80"/>
-      <c r="C139" s="80"/>
-      <c r="D139" s="80"/>
-      <c r="E139" s="80"/>
-      <c r="F139" s="80"/>
-      <c r="G139" s="80"/>
-      <c r="H139" s="80"/>
-      <c r="I139" s="80"/>
-      <c r="J139" s="80"/>
+      <c r="A139" s="81"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="81"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="81"/>
+      <c r="F139" s="81"/>
+      <c r="G139" s="81"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="81"/>
+      <c r="J139" s="81"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="80"/>
-      <c r="B140" s="80"/>
-      <c r="C140" s="80"/>
-      <c r="D140" s="80"/>
-      <c r="E140" s="80"/>
-      <c r="F140" s="80"/>
-      <c r="G140" s="80"/>
-      <c r="H140" s="80"/>
-      <c r="I140" s="80"/>
-      <c r="J140" s="80"/>
+      <c r="A140" s="81"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="81"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="81"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="81"/>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="80"/>
-      <c r="B141" s="80"/>
-      <c r="C141" s="80"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="80"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="80"/>
-      <c r="H141" s="80"/>
-      <c r="I141" s="80"/>
-      <c r="J141" s="80"/>
+      <c r="A141" s="81"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="81"/>
+      <c r="F141" s="81"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="81"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="81"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="80"/>
-      <c r="B142" s="80"/>
-      <c r="C142" s="80"/>
-      <c r="D142" s="80"/>
-      <c r="E142" s="80"/>
-      <c r="F142" s="80"/>
-      <c r="G142" s="80"/>
-      <c r="H142" s="80"/>
-      <c r="I142" s="80"/>
-      <c r="J142" s="80"/>
+      <c r="A142" s="81"/>
+      <c r="B142" s="81"/>
+      <c r="C142" s="81"/>
+      <c r="D142" s="81"/>
+      <c r="E142" s="81"/>
+      <c r="F142" s="81"/>
+      <c r="G142" s="81"/>
+      <c r="H142" s="81"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="80"/>
-      <c r="B143" s="80"/>
-      <c r="C143" s="80"/>
-      <c r="D143" s="80"/>
-      <c r="E143" s="80"/>
-      <c r="F143" s="80"/>
-      <c r="G143" s="80"/>
-      <c r="H143" s="80"/>
-      <c r="I143" s="80"/>
-      <c r="J143" s="80"/>
+      <c r="A143" s="81"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="80"/>
-      <c r="B144" s="80"/>
-      <c r="C144" s="80"/>
-      <c r="D144" s="80"/>
-      <c r="E144" s="80"/>
-      <c r="F144" s="80"/>
-      <c r="G144" s="80"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
+      <c r="A144" s="81"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="81"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="80"/>
-      <c r="B145" s="80"/>
-      <c r="C145" s="80"/>
-      <c r="D145" s="80"/>
-      <c r="E145" s="80"/>
-      <c r="F145" s="80"/>
-      <c r="G145" s="80"/>
-      <c r="H145" s="80"/>
-      <c r="I145" s="80"/>
-      <c r="J145" s="80"/>
-    </row>
-    <row r="146" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="80"/>
-      <c r="B146" s="80"/>
-      <c r="C146" s="80"/>
-      <c r="D146" s="80"/>
-      <c r="E146" s="80"/>
-      <c r="F146" s="80"/>
-      <c r="G146" s="80"/>
-      <c r="H146" s="80"/>
-      <c r="I146" s="80"/>
-      <c r="J146" s="80"/>
-    </row>
-    <row r="147" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="80"/>
-      <c r="B147" s="80"/>
-      <c r="C147" s="80"/>
-      <c r="D147" s="80"/>
-      <c r="E147" s="80"/>
-      <c r="F147" s="80"/>
-      <c r="G147" s="80"/>
-      <c r="H147" s="80"/>
-      <c r="I147" s="80"/>
-      <c r="J147" s="80"/>
-    </row>
-    <row r="148" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="80"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="80"/>
-      <c r="D148" s="80"/>
-      <c r="E148" s="80"/>
-      <c r="F148" s="80"/>
-      <c r="G148" s="80"/>
-      <c r="H148" s="80"/>
-      <c r="I148" s="80"/>
-      <c r="J148" s="80"/>
-    </row>
-    <row r="149" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="80"/>
-      <c r="B149" s="80"/>
-      <c r="C149" s="80"/>
-      <c r="D149" s="80"/>
-      <c r="E149" s="80"/>
-      <c r="F149" s="80"/>
-      <c r="G149" s="80"/>
-      <c r="H149" s="80"/>
-      <c r="I149" s="80"/>
-      <c r="J149" s="80"/>
-    </row>
-    <row r="150" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="80"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="80"/>
-      <c r="F150" s="80"/>
-      <c r="G150" s="80"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="80"/>
-      <c r="J150" s="80"/>
-    </row>
-    <row r="151" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C151" s="4"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-    </row>
-    <row r="152" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="81"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="81"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="81"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="81"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81"/>
+    </row>
+    <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="81"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="81"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="81"/>
+    </row>
+    <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="81"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81"/>
+      <c r="G148" s="81"/>
+      <c r="H148" s="81"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="81"/>
+    </row>
+    <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="81"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="81"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81"/>
+      <c r="G149" s="81"/>
+      <c r="H149" s="81"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="81"/>
+    </row>
+    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="81"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="81"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="81"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="81"/>
+    </row>
+    <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="81"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="81"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
+      <c r="F151" s="81"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="81"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="81"/>
+    </row>
+    <row r="152" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="16"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
     </row>
-    <row r="153" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D153" s="15"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C153" s="4"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+    </row>
+    <row r="154" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" s="15"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D155" s="15"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D158" s="15"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A137:J150"/>
+    <mergeCell ref="A138:J151"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patchan\AppData\Roaming\OpenText\DM\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BA6620-4639-467D-9295-02AE4EF20CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C4F40A-502D-4078-9977-2544C7F75007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 20th July 2022</t>
+    <t>Numbers last updated on 22nd August 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1063,10 +1064,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R159"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1084,47 +1085,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1170,19 +1171,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="15">
-        <v>852839.47011300002</v>
+        <v>811558.79678099998</v>
       </c>
       <c r="E9" s="15">
-        <v>27510.950647999998</v>
+        <v>27051.959891999999</v>
       </c>
       <c r="F9" s="25">
-        <v>5366796.8293768829</v>
+        <v>5107023.4552348936</v>
       </c>
       <c r="G9" s="25">
-        <v>173122.47836699622</v>
+        <v>170234.11517449646</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1193,22 +1194,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E10" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F10" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G10" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1219,22 +1220,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E11" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F11" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G11" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1245,22 +1246,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E12" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F12" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G12" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1271,22 +1272,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E13" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F13" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G13" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1297,24 +1298,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13">
-        <v>2021</v>
-      </c>
+    <row r="14" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D14" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E14" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F14" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G14" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1325,22 +1324,24 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13">
+        <v>2021</v>
+      </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E15" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F15" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G15" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1351,22 +1352,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E16" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F16" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G16" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1377,22 +1378,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E17" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F17" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G17" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1403,22 +1404,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E18" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F18" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G18" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1429,22 +1430,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E19" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F19" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G19" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1455,22 +1456,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E20" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F20" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G20" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1481,22 +1482,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E21" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F21" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G21" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1507,22 +1508,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E22" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F22" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G22" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1533,22 +1534,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E23" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F23" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G23" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1559,22 +1560,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E24" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F24" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G24" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1585,22 +1586,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E25" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F25" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G25" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1611,24 +1612,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13">
-        <v>2020</v>
-      </c>
+    <row r="26" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E26" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F26" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G26" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1639,22 +1638,24 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+    <row r="27" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13">
+        <v>2020</v>
+      </c>
       <c r="C27" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E27" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F27" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G27" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1665,22 +1666,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E28" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F28" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G28" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1691,22 +1692,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E29" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F29" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G29" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1717,22 +1718,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E30" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F30" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G30" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1743,22 +1744,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E31" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F31" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G31" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1769,22 +1770,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E32" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F32" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G32" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1795,22 +1796,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E33" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F33" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G33" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1821,22 +1822,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E34" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F34" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G34" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1847,22 +1848,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E35" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F35" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G35" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1873,22 +1874,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E36" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F36" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G36" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1899,22 +1900,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E37" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F37" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G37" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1925,24 +1926,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13">
-        <v>2019</v>
-      </c>
+    <row r="38" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D38" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E38" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F38" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G38" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1953,22 +1952,24 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
+    <row r="39" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13">
+        <v>2019</v>
+      </c>
       <c r="C39" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E39" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F39" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G39" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1979,22 +1980,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E40" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F40" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G40" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2002,25 +2003,25 @@
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="3"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
     <row r="41" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E41" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F41" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G41" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2034,19 +2035,19 @@
     <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E42" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F42" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G42" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2060,19 +2061,19 @@
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E43" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F43" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G43" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2086,19 +2087,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E44" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F44" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G44" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2112,19 +2113,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E45" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F45" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G45" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2138,19 +2139,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E46" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F46" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G46" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2164,19 +2165,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E47" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F47" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G47" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2190,19 +2191,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E48" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F48" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G48" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2216,19 +2217,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E49" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F49" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G49" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2240,25 +2241,23 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E50" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D50" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E50" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F50" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G50" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H50" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
@@ -2268,21 +2267,23 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
+      <c r="B51" s="13">
+        <v>2018</v>
+      </c>
       <c r="C51" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E51" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F51" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G51" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="14"/>
@@ -2296,19 +2297,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E52" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F52" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G52" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="14"/>
@@ -2322,19 +2323,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E53" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F53" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G53" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2348,19 +2349,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E54" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F54" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G54" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2374,19 +2375,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E55" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F55" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G55" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2400,19 +2401,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E56" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F56" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G56" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2426,19 +2427,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E57" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F57" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G57" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2452,19 +2453,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E58" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F58" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G58" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2478,19 +2479,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E59" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F59" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G59" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2504,19 +2505,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E60" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F60" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G60" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2530,19 +2531,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E61" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F61" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G61" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2554,49 +2555,49 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E62" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F62" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G62" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D62" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E62" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F62" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G62" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
       <c r="N62" s="19"/>
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="13"/>
+      <c r="B63" s="13">
+        <v>2017</v>
+      </c>
       <c r="C63" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E63" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F63" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G63" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2610,19 +2611,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E64" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F64" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G64" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2636,19 +2637,19 @@
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E65" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F65" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G65" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D65" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E65" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F65" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G65" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2659,21 +2660,22 @@
       <c r="N65" s="19"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E66" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F66" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G66" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D66" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E66" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F66" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G66" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2685,21 +2687,20 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="9"/>
       <c r="C67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E67" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F67" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G67" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D67" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E67" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F67" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G67" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2711,46 +2712,46 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="9"/>
       <c r="C68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E68" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F68" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G68" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D69" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E69" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F69" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G69" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="3"/>
-      <c r="R68" s="7"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
-      <c r="C69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E69" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F69" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G69" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="29"/>
@@ -2759,48 +2760,49 @@
       <c r="L69" s="29"/>
       <c r="N69" s="18"/>
       <c r="O69" s="3"/>
+      <c r="R69" s="7"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E70" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F70" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G70" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D70" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E70" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F70" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G70" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H70" s="28"/>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="21"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="3"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E71" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D71" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E71" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F71" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G71" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H71" s="28"/>
       <c r="I71" s="29"/>
@@ -2810,71 +2812,69 @@
       <c r="N71" s="20"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E72" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F72" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G72" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="21"/>
+    </row>
+    <row r="73" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E73" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F73" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G73" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E74" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F74" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G74" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
@@ -2885,93 +2885,96 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
+      <c r="B75" s="13">
+        <v>2016</v>
+      </c>
       <c r="C75" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E75" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F75" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G75" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
-      <c r="N75" s="20"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E76" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F76" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G76" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E77" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F77" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G77" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E78" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F78" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G78" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -2983,19 +2986,19 @@
     <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E79" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F79" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G79" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -3007,19 +3010,19 @@
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E80" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F80" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G80" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3031,19 +3034,19 @@
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E81" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F81" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G81" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3055,23 +3058,23 @@
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E82" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F82" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G82" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H82" s="28"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3079,19 +3082,19 @@
     <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E83" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F83" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G83" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="8"/>
@@ -3101,542 +3104,546 @@
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E84" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F84" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G84" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H84" s="28"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-    </row>
-    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="11" t="s">
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+    </row>
+    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13"/>
+      <c r="C86" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="13">
+      <c r="H86" s="28"/>
+    </row>
+    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13">
         <v>2015</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
-      <c r="C87" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E87" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F87" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G87" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H87" s="28"/>
     </row>
     <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E88" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F88" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G88" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E89" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F89" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G89" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E90" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F90" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G90" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E91" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F91" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G91" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E92" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F92" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G92" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E93" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F93" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G93" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E94" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F94" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G94" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E95" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F95" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G95" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="13"/>
+      <c r="C96" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D96" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E96" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F96" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G96" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="11" t="s">
+      <c r="H96" s="28"/>
+    </row>
+    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D97" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E97" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F97" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G97" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
-      <c r="C97" s="11" t="s">
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="13"/>
+      <c r="C98" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D98" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E98" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F98" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G98" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="13">
+      <c r="H98" s="28"/>
+    </row>
+    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="13">
         <v>2014</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C99" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D99" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E99" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F99" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G99" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
-      <c r="C99" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E99" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F99" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G99" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D100" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E100" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F100" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G100" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E101" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F101" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G101" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E102" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F102" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G102" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D103" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E103" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F103" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G103" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E104" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F104" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G104" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E105" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F105" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G105" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E106" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F106" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G106" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E107" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F107" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G107" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H107" s="28"/>
+    </row>
+    <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="13"/>
+      <c r="C108" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D108" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E108" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F108" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G108" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H107" s="28"/>
-    </row>
-    <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="11" t="s">
+      <c r="H108" s="28"/>
+    </row>
+    <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D109" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E109" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F109" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G109" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H108" s="28"/>
-      <c r="I108" s="22"/>
-    </row>
-    <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="13"/>
-      <c r="C109" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E109" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F109" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G109" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="22"/>
     </row>
     <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D110" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E110" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F110" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G110" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="22"/>
     </row>
     <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="13"/>
+      <c r="B111" s="13">
+        <v>2013</v>
+      </c>
       <c r="C111" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E111" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F111" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G111" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
@@ -3644,19 +3651,19 @@
     <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D112" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E112" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F112" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G112" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
@@ -3664,19 +3671,19 @@
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E113" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F113" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G113" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
@@ -3684,39 +3691,39 @@
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E114" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F114" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G114" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D115" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E115" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F115" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G115" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
@@ -3724,19 +3731,19 @@
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E116" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F116" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G116" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
@@ -3744,411 +3751,415 @@
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E117" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F117" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G117" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E118" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F118" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G118" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C119" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E119" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F119" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G119" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C120" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D120" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E120" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F120" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G120" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H120" s="28"/>
+      <c r="I120" s="22"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C121" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E121" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F121" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G121" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H121" s="28"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C122" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D122" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E122" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F121" s="12">
+      <c r="F122" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G122" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H121" s="28"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="13">
+      <c r="H122" s="28"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="13">
         <v>2012</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D123" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E123" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F123" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G123" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H122" s="28"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C123" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E123" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F123" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G123" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H123" s="28"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E124" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F124" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G124" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H124" s="28"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C125" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D125" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E125" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F125" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H124" s="28"/>
-    </row>
-    <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="13"/>
-      <c r="C125" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E125" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F125" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G125" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H125" s="28"/>
     </row>
     <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E126" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F126" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G126" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H126" s="28"/>
     </row>
     <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="13"/>
       <c r="C127" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E127" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F127" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G127" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H127" s="28"/>
+    </row>
+    <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="13"/>
+      <c r="C128" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D128" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E128" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F128" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G128" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H127" s="28"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C128" s="11" t="s">
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D129" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E129" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F129" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G129" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B129" s="13"/>
-      <c r="C129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E129" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F129" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G129" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H129" s="28"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
       <c r="C130" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E130" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F130" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G130" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H130" s="28"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B131" s="13"/>
       <c r="C131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E131" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F131" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G131" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H131" s="28"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B132" s="13"/>
+      <c r="C132" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D132" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E132" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F132" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G132" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H131" s="28"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C132" s="11" t="s">
+      <c r="H132" s="28"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D133" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E133" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F133" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G133" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H132" s="22"/>
-    </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="11" t="s">
+      <c r="H133" s="22"/>
+    </row>
+    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="17">
+      <c r="D134" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E134" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F134" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G134" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H133" s="23"/>
-    </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="30"/>
-      <c r="B134" s="31" t="s">
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="30"/>
+      <c r="B135" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="32"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-    </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="34"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
+    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="41"/>
-      <c r="B137" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="43"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="43"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="43"/>
+    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="35"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B138" s="80"/>
-      <c r="C138" s="80"/>
-      <c r="D138" s="80"/>
-      <c r="E138" s="80"/>
-      <c r="F138" s="80"/>
-      <c r="G138" s="80"/>
-      <c r="H138" s="80"/>
-      <c r="I138" s="80"/>
-      <c r="J138" s="80"/>
+    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="41"/>
+      <c r="B138" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="43"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
     <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="81"/>
+      <c r="A139" s="81" t="s">
+        <v>22</v>
+      </c>
       <c r="B139" s="81"/>
       <c r="C139" s="81"/>
       <c r="D139" s="81"/>
@@ -4164,179 +4175,188 @@
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="81"/>
-      <c r="B140" s="81"/>
-      <c r="C140" s="81"/>
-      <c r="D140" s="81"/>
-      <c r="E140" s="81"/>
-      <c r="F140" s="81"/>
-      <c r="G140" s="81"/>
-      <c r="H140" s="81"/>
-      <c r="I140" s="81"/>
-      <c r="J140" s="81"/>
+      <c r="A140" s="82"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="82"/>
+      <c r="D140" s="82"/>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
+      <c r="J140" s="82"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="81"/>
-      <c r="B141" s="81"/>
-      <c r="C141" s="81"/>
-      <c r="D141" s="81"/>
-      <c r="E141" s="81"/>
-      <c r="F141" s="81"/>
-      <c r="G141" s="81"/>
-      <c r="H141" s="81"/>
-      <c r="I141" s="81"/>
-      <c r="J141" s="81"/>
+      <c r="A141" s="82"/>
+      <c r="B141" s="82"/>
+      <c r="C141" s="82"/>
+      <c r="D141" s="82"/>
+      <c r="E141" s="82"/>
+      <c r="F141" s="82"/>
+      <c r="G141" s="82"/>
+      <c r="H141" s="82"/>
+      <c r="I141" s="82"/>
+      <c r="J141" s="82"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="81"/>
-      <c r="B142" s="81"/>
-      <c r="C142" s="81"/>
-      <c r="D142" s="81"/>
-      <c r="E142" s="81"/>
-      <c r="F142" s="81"/>
-      <c r="G142" s="81"/>
-      <c r="H142" s="81"/>
-      <c r="I142" s="81"/>
-      <c r="J142" s="81"/>
+      <c r="A142" s="82"/>
+      <c r="B142" s="82"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="82"/>
+      <c r="E142" s="82"/>
+      <c r="F142" s="82"/>
+      <c r="G142" s="82"/>
+      <c r="H142" s="82"/>
+      <c r="I142" s="82"/>
+      <c r="J142" s="82"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="81"/>
-      <c r="B143" s="81"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
-      <c r="H143" s="81"/>
-      <c r="I143" s="81"/>
-      <c r="J143" s="81"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="82"/>
+      <c r="E143" s="82"/>
+      <c r="F143" s="82"/>
+      <c r="G143" s="82"/>
+      <c r="H143" s="82"/>
+      <c r="I143" s="82"/>
+      <c r="J143" s="82"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="81"/>
-      <c r="B144" s="81"/>
-      <c r="C144" s="81"/>
-      <c r="D144" s="81"/>
-      <c r="E144" s="81"/>
-      <c r="F144" s="81"/>
-      <c r="G144" s="81"/>
-      <c r="H144" s="81"/>
-      <c r="I144" s="81"/>
-      <c r="J144" s="81"/>
+      <c r="A144" s="82"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="82"/>
+      <c r="E144" s="82"/>
+      <c r="F144" s="82"/>
+      <c r="G144" s="82"/>
+      <c r="H144" s="82"/>
+      <c r="I144" s="82"/>
+      <c r="J144" s="82"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="81"/>
-      <c r="B145" s="81"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="81"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="81"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="82"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="82"/>
+      <c r="E145" s="82"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="82"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="81"/>
-      <c r="B146" s="81"/>
-      <c r="C146" s="81"/>
-      <c r="D146" s="81"/>
-      <c r="E146" s="81"/>
-      <c r="F146" s="81"/>
-      <c r="G146" s="81"/>
-      <c r="H146" s="81"/>
-      <c r="I146" s="81"/>
-      <c r="J146" s="81"/>
+      <c r="A146" s="82"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="82"/>
+      <c r="E146" s="82"/>
+      <c r="F146" s="82"/>
+      <c r="G146" s="82"/>
+      <c r="H146" s="82"/>
+      <c r="I146" s="82"/>
+      <c r="J146" s="82"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="81"/>
-      <c r="B147" s="81"/>
-      <c r="C147" s="81"/>
-      <c r="D147" s="81"/>
-      <c r="E147" s="81"/>
-      <c r="F147" s="81"/>
-      <c r="G147" s="81"/>
-      <c r="H147" s="81"/>
-      <c r="I147" s="81"/>
-      <c r="J147" s="81"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="82"/>
+      <c r="C147" s="82"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="82"/>
+      <c r="I147" s="82"/>
+      <c r="J147" s="82"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="81"/>
-      <c r="B148" s="81"/>
-      <c r="C148" s="81"/>
-      <c r="D148" s="81"/>
-      <c r="E148" s="81"/>
-      <c r="F148" s="81"/>
-      <c r="G148" s="81"/>
-      <c r="H148" s="81"/>
-      <c r="I148" s="81"/>
-      <c r="J148" s="81"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="82"/>
+      <c r="E148" s="82"/>
+      <c r="F148" s="82"/>
+      <c r="G148" s="82"/>
+      <c r="H148" s="82"/>
+      <c r="I148" s="82"/>
+      <c r="J148" s="82"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="81"/>
-      <c r="B149" s="81"/>
-      <c r="C149" s="81"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="81"/>
-      <c r="F149" s="81"/>
-      <c r="G149" s="81"/>
-      <c r="H149" s="81"/>
-      <c r="I149" s="81"/>
-      <c r="J149" s="81"/>
+      <c r="A149" s="82"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="82"/>
+      <c r="D149" s="82"/>
+      <c r="E149" s="82"/>
+      <c r="F149" s="82"/>
+      <c r="G149" s="82"/>
+      <c r="H149" s="82"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="82"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="81"/>
-      <c r="B150" s="81"/>
-      <c r="C150" s="81"/>
-      <c r="D150" s="81"/>
-      <c r="E150" s="81"/>
-      <c r="F150" s="81"/>
-      <c r="G150" s="81"/>
-      <c r="H150" s="81"/>
-      <c r="I150" s="81"/>
-      <c r="J150" s="81"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="82"/>
+      <c r="C150" s="82"/>
+      <c r="D150" s="82"/>
+      <c r="E150" s="82"/>
+      <c r="F150" s="82"/>
+      <c r="G150" s="82"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="81"/>
-      <c r="B151" s="81"/>
-      <c r="C151" s="81"/>
-      <c r="D151" s="81"/>
-      <c r="E151" s="81"/>
-      <c r="F151" s="81"/>
-      <c r="G151" s="81"/>
-      <c r="H151" s="81"/>
-      <c r="I151" s="81"/>
-      <c r="J151" s="81"/>
-    </row>
-    <row r="152" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="4"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
+      <c r="A151" s="82"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="82"/>
+      <c r="D151" s="82"/>
+      <c r="E151" s="82"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="82"/>
+      <c r="H151" s="82"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+    </row>
+    <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="82"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="82"/>
+      <c r="D152" s="82"/>
+      <c r="E152" s="82"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="82"/>
+      <c r="H152" s="82"/>
+      <c r="I152" s="82"/>
+      <c r="J152" s="82"/>
     </row>
     <row r="153" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
@@ -4346,9 +4366,13 @@
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D154" s="15"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C154" s="4"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+    </row>
+    <row r="155" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -4362,13 +4386,16 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D159" s="15"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D160" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A138:J151"/>
+    <mergeCell ref="A139:J152"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patchan\AppData\Roaming\OpenText\DM\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C4F40A-502D-4078-9977-2544C7F75007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05601CDA-086F-4264-B46F-1CA597617E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 22nd August 2022</t>
+    <t>Numbers last updated on 21st September 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1064,7 +1065,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -1085,47 +1086,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1171,19 +1172,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="15">
-        <v>811558.79678099998</v>
+        <v>750108.98566500004</v>
       </c>
       <c r="E9" s="15">
-        <v>27051.959891999999</v>
+        <v>24197.064052999998</v>
       </c>
       <c r="F9" s="25">
-        <v>5107023.4552348936</v>
+        <v>4720328.5812048949</v>
       </c>
       <c r="G9" s="25">
-        <v>170234.11517449646</v>
+        <v>152268.66390983533</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1194,22 +1195,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="15">
-        <v>852839.47011300002</v>
+        <v>811558.79678099998</v>
       </c>
       <c r="E10" s="15">
-        <v>27510.950647999998</v>
+        <v>27051.959891999999</v>
       </c>
       <c r="F10" s="25">
-        <v>5366796.8293768829</v>
+        <v>5107023.4552348936</v>
       </c>
       <c r="G10" s="25">
-        <v>173122.47836699622</v>
+        <v>170234.11517449646</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1220,22 +1221,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E11" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F11" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G11" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1246,22 +1247,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E12" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F12" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G12" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1272,22 +1273,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E13" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F13" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G13" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1298,22 +1299,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E14" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F14" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G14" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1324,24 +1325,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13">
-        <v>2021</v>
-      </c>
+    <row r="15" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D15" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E15" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F15" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G15" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1352,22 +1351,24 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13">
+        <v>2021</v>
+      </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E16" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F16" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G16" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1378,22 +1379,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E17" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F17" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G17" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1404,22 +1405,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E18" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F18" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G18" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1430,22 +1431,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E19" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F19" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G19" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1456,22 +1457,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E20" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F20" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G20" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1482,22 +1483,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E21" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F21" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G21" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1508,22 +1509,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E22" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F22" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G22" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1534,22 +1535,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E23" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F23" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G23" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1560,22 +1561,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E24" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F24" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G24" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1586,22 +1587,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E25" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F25" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G25" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1612,22 +1613,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E26" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F26" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G26" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1638,24 +1639,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13">
-        <v>2020</v>
-      </c>
+    <row r="27" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D27" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E27" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F27" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G27" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1666,22 +1665,24 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
+    <row r="28" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13">
+        <v>2020</v>
+      </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E28" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F28" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G28" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1692,22 +1693,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E29" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F29" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G29" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1718,22 +1719,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E30" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F30" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G30" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1744,22 +1745,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E31" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F31" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G31" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1770,22 +1771,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E32" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F32" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G32" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1796,22 +1797,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E33" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F33" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G33" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1822,22 +1823,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E34" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F34" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G34" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1848,22 +1849,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E35" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F35" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G35" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1874,22 +1875,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E36" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F36" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G36" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1900,22 +1901,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E37" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F37" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G37" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1926,22 +1927,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E38" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F38" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G38" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1952,24 +1953,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13">
-        <v>2019</v>
-      </c>
+    <row r="39" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D39" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E39" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F39" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G39" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1980,22 +1979,24 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="13"/>
+    <row r="40" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="13">
+        <v>2019</v>
+      </c>
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E40" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F40" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G40" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2006,22 +2007,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E41" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F41" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G41" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2029,25 +2030,25 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="3"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
     </row>
     <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E42" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F42" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G42" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2061,19 +2062,19 @@
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E43" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F43" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G43" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2087,19 +2088,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E44" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F44" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G44" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2113,19 +2114,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E45" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F45" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G45" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2139,19 +2140,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E46" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F46" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G46" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2165,19 +2166,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E47" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F47" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G47" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2191,19 +2192,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E48" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F48" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G48" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2217,19 +2218,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E49" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F49" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G49" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2243,19 +2244,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E50" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F50" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G50" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2267,25 +2268,23 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E51" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D51" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E51" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F51" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G51" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -2295,21 +2294,23 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="13"/>
+      <c r="B52" s="13">
+        <v>2018</v>
+      </c>
       <c r="C52" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E52" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F52" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G52" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="14"/>
@@ -2323,19 +2324,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E53" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F53" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G53" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2349,19 +2350,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E54" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F54" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G54" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2375,19 +2376,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E55" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F55" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G55" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2401,19 +2402,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E56" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F56" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G56" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2427,19 +2428,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E57" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F57" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G57" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2453,19 +2454,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E58" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F58" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G58" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2479,19 +2480,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E59" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F59" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G59" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2505,19 +2506,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E60" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F60" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G60" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2531,19 +2532,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E61" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F61" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G61" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2557,19 +2558,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E62" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F62" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G62" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2581,49 +2582,49 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E63" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F63" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G63" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D63" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E63" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F63" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G63" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
       <c r="N63" s="19"/>
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="13"/>
+      <c r="B64" s="13">
+        <v>2017</v>
+      </c>
       <c r="C64" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E64" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F64" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G64" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2637,19 +2638,19 @@
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E65" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F65" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G65" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2663,19 +2664,19 @@
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E66" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F66" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G66" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D66" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E66" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F66" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G66" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2686,21 +2687,22 @@
       <c r="N66" s="19"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E67" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F67" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G67" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D67" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E67" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F67" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G67" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2712,21 +2714,20 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
       <c r="C68" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E68" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F68" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G68" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D68" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E68" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F68" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G68" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2738,46 +2739,46 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="9"/>
       <c r="C69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E69" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F69" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G69" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D70" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E70" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F70" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G70" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="3"/>
-      <c r="R69" s="7"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
-      <c r="C70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E70" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F70" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G70" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H70" s="28"/>
       <c r="I70" s="29"/>
@@ -2786,48 +2787,49 @@
       <c r="L70" s="29"/>
       <c r="N70" s="18"/>
       <c r="O70" s="3"/>
+      <c r="R70" s="7"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E71" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F71" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G71" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D71" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E71" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F71" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G71" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H71" s="28"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="21"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E72" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D72" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E72" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F72" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G72" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
@@ -2837,71 +2839,69 @@
       <c r="N72" s="20"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E73" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F73" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G73" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E74" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F74" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G74" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E75" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F75" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G75" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
@@ -2912,93 +2912,96 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
+      <c r="B76" s="13">
+        <v>2016</v>
+      </c>
       <c r="C76" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E76" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F76" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G76" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
-      <c r="N76" s="20"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D77" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E77" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F77" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G77" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E78" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F78" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G78" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E79" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F79" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G79" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -3010,19 +3013,19 @@
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E80" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F80" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G80" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3034,19 +3037,19 @@
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E81" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F81" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G81" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3058,19 +3061,19 @@
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E82" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F82" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G82" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
@@ -3082,23 +3085,23 @@
     <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E83" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F83" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G83" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H83" s="28"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3106,19 +3109,19 @@
     <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E84" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F84" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G84" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="8"/>
@@ -3128,542 +3131,546 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E85" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F85" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G85" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H85" s="28"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-    </row>
-    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
-      <c r="C86" s="11" t="s">
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+    </row>
+    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13"/>
+      <c r="C87" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="13">
+      <c r="H87" s="28"/>
+    </row>
+    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="13">
         <v>2015</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-      <c r="C88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E88" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F88" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G88" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H88" s="28"/>
     </row>
     <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E89" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F89" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G89" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E90" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F90" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G90" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D91" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E91" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F91" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G91" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E92" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F92" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G92" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E93" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F93" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G93" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E94" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F94" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G94" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E95" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F95" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G95" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E96" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F96" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G96" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H96" s="28"/>
+    </row>
+    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
+      <c r="C97" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D97" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E97" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F97" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G97" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="11" t="s">
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D98" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E98" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F98" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G98" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="13"/>
-      <c r="C98" s="11" t="s">
+      <c r="H98" s="28"/>
+    </row>
+    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="13"/>
+      <c r="C99" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D99" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E99" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F99" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G99" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="13">
+      <c r="H99" s="28"/>
+    </row>
+    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="13">
         <v>2014</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D100" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E100" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F100" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G100" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="13"/>
-      <c r="C100" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E100" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F100" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G100" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E101" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F101" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G101" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E102" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F102" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G102" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E103" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F103" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G103" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E104" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F104" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G104" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E105" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F105" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G105" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E106" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F106" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G106" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E107" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F107" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G107" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E108" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F108" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G108" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H108" s="28"/>
+    </row>
+    <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="13"/>
+      <c r="C109" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D109" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E109" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F109" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G109" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H108" s="28"/>
-    </row>
-    <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="11" t="s">
+      <c r="H109" s="28"/>
+    </row>
+    <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D110" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E110" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F110" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G110" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="22"/>
-    </row>
-    <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="13"/>
-      <c r="C110" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E110" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F110" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G110" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="22"/>
     </row>
     <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D111" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E111" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F111" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G111" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
     </row>
     <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="13"/>
+      <c r="B112" s="13">
+        <v>2013</v>
+      </c>
       <c r="C112" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E112" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F112" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G112" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
@@ -3671,19 +3678,19 @@
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D113" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E113" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F113" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G113" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
@@ -3691,19 +3698,19 @@
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E114" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F114" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G114" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
@@ -3711,39 +3718,39 @@
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E115" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F115" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G115" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D116" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E116" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F116" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G116" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
@@ -3751,19 +3758,19 @@
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E117" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F117" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G117" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
@@ -3771,411 +3778,415 @@
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E118" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F118" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G118" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E119" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F119" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G119" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C120" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E120" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F120" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G120" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C121" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E121" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F121" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G121" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H121" s="28"/>
+      <c r="I121" s="22"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C122" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E122" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F122" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G122" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H122" s="28"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C123" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D123" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E123" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F122" s="12">
+      <c r="F123" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G123" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H122" s="28"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="13">
+      <c r="H123" s="28"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="13">
         <v>2012</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C124" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D124" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E124" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F124" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G124" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H123" s="28"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C124" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E124" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F124" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G124" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H124" s="28"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C125" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E125" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F125" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G125" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H125" s="28"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C126" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D126" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E126" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F126" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G126" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H125" s="28"/>
-    </row>
-    <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="13"/>
-      <c r="C126" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E126" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F126" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G126" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H126" s="28"/>
     </row>
     <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="13"/>
       <c r="C127" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E127" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F127" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G127" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H127" s="28"/>
     </row>
     <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E128" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F128" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G128" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="13"/>
+      <c r="C129" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D129" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E129" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F129" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G129" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C129" s="11" t="s">
+      <c r="H129" s="28"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F130" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G130" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H129" s="28"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B130" s="13"/>
-      <c r="C130" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E130" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F130" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G130" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H130" s="28"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B131" s="13"/>
       <c r="C131" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E131" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F131" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G131" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H131" s="28"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B132" s="13"/>
       <c r="C132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E132" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F132" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G132" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H132" s="28"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B133" s="13"/>
+      <c r="C133" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D133" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E133" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F133" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G133" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H132" s="28"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C133" s="11" t="s">
+      <c r="H133" s="28"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D134" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E134" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F134" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G134" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H133" s="22"/>
-    </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="11" t="s">
+      <c r="H134" s="22"/>
+    </row>
+    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="17">
+      <c r="D135" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E135" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F135" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G135" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H134" s="23"/>
-    </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="30"/>
-      <c r="B135" s="31" t="s">
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="30"/>
+      <c r="B136" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="32"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-    </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
+    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="41"/>
-      <c r="B138" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="45"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="43"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
+    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="35"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="B139" s="81"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="81"/>
-      <c r="E139" s="81"/>
-      <c r="F139" s="81"/>
-      <c r="G139" s="81"/>
-      <c r="H139" s="81"/>
-      <c r="I139" s="81"/>
-      <c r="J139" s="81"/>
+    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="41"/>
+      <c r="B139" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="43"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
     <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="82"/>
+      <c r="A140" s="82" t="s">
+        <v>22</v>
+      </c>
       <c r="B140" s="82"/>
       <c r="C140" s="82"/>
       <c r="D140" s="82"/>
@@ -4191,179 +4202,188 @@
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="82"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="82"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="82"/>
-      <c r="H141" s="82"/>
-      <c r="I141" s="82"/>
-      <c r="J141" s="82"/>
+      <c r="A141" s="83"/>
+      <c r="B141" s="83"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="83"/>
+      <c r="H141" s="83"/>
+      <c r="I141" s="83"/>
+      <c r="J141" s="83"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="82"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="82"/>
-      <c r="F142" s="82"/>
-      <c r="G142" s="82"/>
-      <c r="H142" s="82"/>
-      <c r="I142" s="82"/>
-      <c r="J142" s="82"/>
+      <c r="A142" s="83"/>
+      <c r="B142" s="83"/>
+      <c r="C142" s="83"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="83"/>
+      <c r="H142" s="83"/>
+      <c r="I142" s="83"/>
+      <c r="J142" s="83"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="82"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="82"/>
-      <c r="F143" s="82"/>
-      <c r="G143" s="82"/>
-      <c r="H143" s="82"/>
-      <c r="I143" s="82"/>
-      <c r="J143" s="82"/>
+      <c r="A143" s="83"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="83"/>
+      <c r="H143" s="83"/>
+      <c r="I143" s="83"/>
+      <c r="J143" s="83"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="82"/>
-      <c r="B144" s="82"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="82"/>
-      <c r="H144" s="82"/>
-      <c r="I144" s="82"/>
-      <c r="J144" s="82"/>
+      <c r="A144" s="83"/>
+      <c r="B144" s="83"/>
+      <c r="C144" s="83"/>
+      <c r="D144" s="83"/>
+      <c r="E144" s="83"/>
+      <c r="F144" s="83"/>
+      <c r="G144" s="83"/>
+      <c r="H144" s="83"/>
+      <c r="I144" s="83"/>
+      <c r="J144" s="83"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="82"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="82"/>
-      <c r="I145" s="82"/>
-      <c r="J145" s="82"/>
+      <c r="A145" s="83"/>
+      <c r="B145" s="83"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="83"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="83"/>
+      <c r="H145" s="83"/>
+      <c r="I145" s="83"/>
+      <c r="J145" s="83"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="82"/>
-      <c r="B146" s="82"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="82"/>
-      <c r="G146" s="82"/>
-      <c r="H146" s="82"/>
-      <c r="I146" s="82"/>
-      <c r="J146" s="82"/>
+      <c r="A146" s="83"/>
+      <c r="B146" s="83"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="83"/>
+      <c r="G146" s="83"/>
+      <c r="H146" s="83"/>
+      <c r="I146" s="83"/>
+      <c r="J146" s="83"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="82"/>
-      <c r="B147" s="82"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="82"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="82"/>
+      <c r="A147" s="83"/>
+      <c r="B147" s="83"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="83"/>
+      <c r="I147" s="83"/>
+      <c r="J147" s="83"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="82"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="82"/>
-      <c r="G148" s="82"/>
-      <c r="H148" s="82"/>
-      <c r="I148" s="82"/>
-      <c r="J148" s="82"/>
+      <c r="A148" s="83"/>
+      <c r="B148" s="83"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="83"/>
+      <c r="H148" s="83"/>
+      <c r="I148" s="83"/>
+      <c r="J148" s="83"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="82"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="82"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="82"/>
-      <c r="H149" s="82"/>
-      <c r="I149" s="82"/>
-      <c r="J149" s="82"/>
+      <c r="A149" s="83"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="83"/>
+      <c r="H149" s="83"/>
+      <c r="I149" s="83"/>
+      <c r="J149" s="83"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="82"/>
-      <c r="B150" s="82"/>
-      <c r="C150" s="82"/>
-      <c r="D150" s="82"/>
-      <c r="E150" s="82"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="82"/>
-      <c r="H150" s="82"/>
-      <c r="I150" s="82"/>
-      <c r="J150" s="82"/>
+      <c r="A150" s="83"/>
+      <c r="B150" s="83"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="83"/>
+      <c r="H150" s="83"/>
+      <c r="I150" s="83"/>
+      <c r="J150" s="83"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="82"/>
-      <c r="B151" s="82"/>
-      <c r="C151" s="82"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="82"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="82"/>
-      <c r="H151" s="82"/>
-      <c r="I151" s="82"/>
-      <c r="J151" s="82"/>
+      <c r="A151" s="83"/>
+      <c r="B151" s="83"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="83"/>
+      <c r="H151" s="83"/>
+      <c r="I151" s="83"/>
+      <c r="J151" s="83"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="82"/>
-      <c r="B152" s="82"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="82"/>
-      <c r="F152" s="82"/>
-      <c r="G152" s="82"/>
-      <c r="H152" s="82"/>
-      <c r="I152" s="82"/>
-      <c r="J152" s="82"/>
-    </row>
-    <row r="153" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C153" s="4"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
+      <c r="A152" s="83"/>
+      <c r="B152" s="83"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="83"/>
+      <c r="G152" s="83"/>
+      <c r="H152" s="83"/>
+      <c r="I152" s="83"/>
+      <c r="J152" s="83"/>
+    </row>
+    <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="83"/>
+      <c r="B153" s="83"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="83"/>
+      <c r="H153" s="83"/>
+      <c r="I153" s="83"/>
+      <c r="J153" s="83"/>
     </row>
     <row r="154" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
@@ -4373,9 +4393,13 @@
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D155" s="15"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C155" s="4"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+    </row>
+    <row r="156" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" s="15"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -4389,13 +4413,16 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D160" s="15"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D161" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A139:J152"/>
+    <mergeCell ref="A140:J153"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05601CDA-086F-4264-B46F-1CA597617E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69035404-3F07-426E-A297-BC9ED31DE20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 21st September 2022</t>
+    <t>Numbers last updated on 23rd October 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1065,10 +1066,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1086,47 +1087,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1172,19 +1173,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="15">
-        <v>750108.98566500004</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E9" s="15">
-        <v>24197.064052999998</v>
+        <v>24654.305632</v>
       </c>
       <c r="F9" s="25">
-        <v>4720328.5812048949</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G9" s="25">
-        <v>152268.66390983533</v>
+        <v>155146.019779922</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1195,22 +1196,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="15">
-        <v>811558.79678099998</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E10" s="15">
-        <v>27051.959891999999</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F10" s="25">
-        <v>5107023.4552348936</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G10" s="25">
-        <v>170234.11517449646</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1221,22 +1222,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="15">
-        <v>852839.47011300002</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E11" s="15">
-        <v>27510.950647999998</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F11" s="25">
-        <v>5366796.8293768829</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G11" s="25">
-        <v>173122.47836699622</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1247,22 +1248,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E12" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F12" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G12" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1273,22 +1274,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E13" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F13" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G13" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1299,22 +1300,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E14" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F14" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G14" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1325,22 +1326,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E15" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F15" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G15" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1351,24 +1352,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13">
-        <v>2021</v>
-      </c>
+    <row r="16" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D16" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E16" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F16" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G16" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1379,22 +1378,24 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
+    <row r="17" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13">
+        <v>2021</v>
+      </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E17" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F17" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G17" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1405,22 +1406,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E18" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F18" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G18" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1431,22 +1432,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E19" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F19" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G19" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1457,22 +1458,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E20" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F20" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G20" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1483,22 +1484,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E21" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F21" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G21" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1509,22 +1510,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E22" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F22" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G22" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1535,22 +1536,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E23" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F23" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G23" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1561,22 +1562,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E24" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F24" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G24" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1587,22 +1588,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E25" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F25" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G25" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1613,22 +1614,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E26" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F26" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G26" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1639,22 +1640,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E27" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F27" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G27" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1665,24 +1666,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13">
-        <v>2020</v>
-      </c>
+    <row r="28" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E28" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F28" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G28" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1693,22 +1692,24 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
+    <row r="29" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13">
+        <v>2020</v>
+      </c>
       <c r="C29" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E29" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F29" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G29" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1719,22 +1720,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E30" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F30" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G30" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1745,22 +1746,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E31" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F31" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G31" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1771,22 +1772,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E32" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F32" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G32" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1797,22 +1798,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E33" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F33" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G33" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1823,22 +1824,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E34" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F34" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G34" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1849,22 +1850,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E35" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F35" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G35" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1875,22 +1876,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E36" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F36" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G36" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1901,22 +1902,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E37" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F37" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G37" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1927,22 +1928,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E38" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F38" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G38" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1953,22 +1954,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E39" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F39" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G39" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1979,24 +1980,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="13">
-        <v>2019</v>
-      </c>
+    <row r="40" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D40" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E40" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F40" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G40" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2007,22 +2006,24 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
+    <row r="41" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13">
+        <v>2019</v>
+      </c>
       <c r="C41" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E41" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F41" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G41" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2033,22 +2034,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E42" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F42" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G42" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2056,25 +2057,25 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="3"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
     </row>
     <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E43" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F43" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G43" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2088,19 +2089,19 @@
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E44" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F44" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G44" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2114,19 +2115,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E45" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F45" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G45" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2140,19 +2141,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E46" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F46" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G46" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2166,19 +2167,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E47" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F47" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G47" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2192,19 +2193,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E48" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F48" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G48" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2218,19 +2219,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E49" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F49" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G49" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2244,19 +2245,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E50" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F50" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G50" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2270,19 +2271,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E51" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F51" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G51" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2294,25 +2295,23 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E52" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E52" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F52" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G52" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -2322,21 +2321,23 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="13"/>
+      <c r="B53" s="13">
+        <v>2018</v>
+      </c>
       <c r="C53" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E53" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F53" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G53" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="14"/>
@@ -2350,19 +2351,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E54" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F54" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G54" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2376,19 +2377,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E55" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F55" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G55" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2402,19 +2403,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E56" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F56" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G56" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2428,19 +2429,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E57" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F57" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G57" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2454,19 +2455,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E58" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F58" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G58" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2480,19 +2481,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E59" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F59" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G59" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2506,19 +2507,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E60" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F60" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G60" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2532,19 +2533,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E61" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F61" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G61" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2558,19 +2559,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E62" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F62" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G62" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2584,19 +2585,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E63" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F63" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G63" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2608,49 +2609,49 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E64" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F64" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G64" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D64" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E64" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F64" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G64" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
       <c r="N64" s="19"/>
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
+      <c r="B65" s="13">
+        <v>2017</v>
+      </c>
       <c r="C65" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E65" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F65" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G65" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2664,19 +2665,19 @@
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E66" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F66" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G66" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2690,19 +2691,19 @@
     <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E67" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F67" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G67" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D67" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E67" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F67" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G67" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2713,21 +2714,22 @@
       <c r="N67" s="19"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E68" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F68" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G68" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D68" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E68" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F68" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G68" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2739,21 +2741,20 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="9"/>
       <c r="C69" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E69" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F69" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G69" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D69" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E69" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F69" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G69" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2765,46 +2766,46 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="9"/>
       <c r="C70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E70" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F70" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G70" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C71" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D71" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E71" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F71" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G71" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="3"/>
-      <c r="R70" s="7"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
-      <c r="C71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E71" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F71" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G71" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H71" s="28"/>
       <c r="I71" s="29"/>
@@ -2813,48 +2814,49 @@
       <c r="L71" s="29"/>
       <c r="N71" s="18"/>
       <c r="O71" s="3"/>
+      <c r="R71" s="7"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E72" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F72" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G72" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D72" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E72" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F72" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G72" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="21"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="3"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E73" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D73" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E73" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F73" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G73" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
@@ -2864,71 +2866,69 @@
       <c r="N73" s="20"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E74" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F74" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G74" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="21"/>
+    </row>
+    <row r="75" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E75" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F75" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G75" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E76" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F76" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G76" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
@@ -2939,93 +2939,96 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
+      <c r="B77" s="13">
+        <v>2016</v>
+      </c>
       <c r="C77" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E77" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F77" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G77" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
-      <c r="N77" s="20"/>
+      <c r="N77" s="18"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E78" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F78" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G78" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="3"/>
     </row>
     <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E79" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F79" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G79" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
     </row>
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E80" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F80" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G80" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3037,19 +3040,19 @@
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E81" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F81" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G81" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3061,19 +3064,19 @@
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E82" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F82" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G82" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
@@ -3085,19 +3088,19 @@
     <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E83" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F83" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G83" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -3109,23 +3112,23 @@
     <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E84" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F84" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G84" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H84" s="28"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -3133,19 +3136,19 @@
     <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E85" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F85" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G85" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="8"/>
@@ -3155,542 +3158,546 @@
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E86" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F86" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G86" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H86" s="28"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-    </row>
-    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
-      <c r="C87" s="11" t="s">
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+    </row>
+    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="13"/>
+      <c r="C88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13">
+      <c r="H88" s="28"/>
+    </row>
+    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="13">
         <v>2015</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H88" s="28"/>
-    </row>
-    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E89" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F89" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G89" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H89" s="28"/>
     </row>
     <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E90" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F90" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G90" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E91" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F91" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G91" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E92" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F92" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G92" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E93" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F93" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G93" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E94" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F94" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G94" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E95" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F95" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G95" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E96" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F96" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G96" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E97" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F97" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G97" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="13"/>
+      <c r="C98" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D98" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E98" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F98" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G98" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="11" t="s">
+      <c r="H98" s="28"/>
+    </row>
+    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D99" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E99" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F99" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G99" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
-      <c r="C99" s="11" t="s">
+      <c r="H99" s="28"/>
+    </row>
+    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="13"/>
+      <c r="C100" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D100" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E100" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F100" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G100" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="13">
+      <c r="H100" s="28"/>
+    </row>
+    <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="13">
         <v>2014</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D101" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E101" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F101" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G101" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="13"/>
-      <c r="C101" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E101" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F101" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G101" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E102" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F102" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G102" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E103" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F103" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G103" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E104" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F104" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G104" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E105" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F105" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G105" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E106" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F106" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G106" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E107" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F107" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G107" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E108" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F108" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G108" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E109" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F109" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G109" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H109" s="28"/>
+    </row>
+    <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="13"/>
+      <c r="C110" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D110" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E110" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F110" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G110" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H109" s="28"/>
-    </row>
-    <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="11" t="s">
+      <c r="H110" s="28"/>
+    </row>
+    <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D111" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E111" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F111" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G111" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H110" s="28"/>
-      <c r="I110" s="22"/>
-    </row>
-    <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="13"/>
-      <c r="C111" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E111" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F111" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G111" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H111" s="28"/>
       <c r="I111" s="22"/>
     </row>
     <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D112" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E112" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F112" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G112" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="13"/>
+      <c r="B113" s="13">
+        <v>2013</v>
+      </c>
       <c r="C113" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E113" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F113" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G113" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
@@ -3698,19 +3705,19 @@
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D114" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E114" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F114" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G114" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
@@ -3718,19 +3725,19 @@
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E115" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F115" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G115" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
@@ -3738,39 +3745,39 @@
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E116" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F116" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G116" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E117" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F117" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G117" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
@@ -3778,19 +3785,19 @@
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E118" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F118" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G118" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
@@ -3798,411 +3805,415 @@
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E119" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F119" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G119" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E120" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F120" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G120" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C121" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E121" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F121" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G121" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C122" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E122" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F122" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G122" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H122" s="28"/>
+      <c r="I122" s="22"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C123" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E123" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F123" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G123" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H123" s="28"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C124" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D124" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E124" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F124" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G124" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H123" s="28"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="13">
+      <c r="H124" s="28"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="13">
         <v>2012</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D125" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E125" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F125" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H124" s="28"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C125" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E125" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F125" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G125" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H125" s="28"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E126" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F126" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G126" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C127" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D127" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E127" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F127" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G127" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="13"/>
-      <c r="C127" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E127" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F127" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G127" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H127" s="28"/>
     </row>
     <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E128" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F128" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G128" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H128" s="28"/>
     </row>
     <row r="129" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E129" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F129" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G129" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H129" s="28"/>
+    </row>
+    <row r="130" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="13"/>
+      <c r="C130" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F130" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G130" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H129" s="28"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
+      <c r="H130" s="28"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D131" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E131" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F131" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G131" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H130" s="28"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B131" s="13"/>
-      <c r="C131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E131" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F131" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G131" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H131" s="28"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B132" s="13"/>
       <c r="C132" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E132" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F132" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G132" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H132" s="28"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B133" s="13"/>
       <c r="C133" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E133" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F133" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G133" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H133" s="28"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B134" s="13"/>
+      <c r="C134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D134" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E134" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F134" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G134" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H133" s="28"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C134" s="11" t="s">
+      <c r="H134" s="28"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C135" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D135" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E135" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F135" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G135" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H134" s="22"/>
-    </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="11" t="s">
+      <c r="H135" s="22"/>
+    </row>
+    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="17">
+      <c r="D136" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E136" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F136" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G136" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H135" s="23"/>
-    </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="30"/>
-      <c r="B136" s="31" t="s">
+      <c r="H136" s="23"/>
+    </row>
+    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="30"/>
+      <c r="B137" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="32"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-    </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
+    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="41"/>
-      <c r="B139" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="43"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="43"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="43"/>
+    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="35"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="82"/>
-      <c r="I140" s="82"/>
-      <c r="J140" s="82"/>
+    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="41"/>
+      <c r="B140" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="43"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
     <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="83"/>
+      <c r="A141" s="83" t="s">
+        <v>22</v>
+      </c>
       <c r="B141" s="83"/>
       <c r="C141" s="83"/>
       <c r="D141" s="83"/>
@@ -4218,179 +4229,188 @@
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="83"/>
-      <c r="B142" s="83"/>
-      <c r="C142" s="83"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="83"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="83"/>
-      <c r="H142" s="83"/>
-      <c r="I142" s="83"/>
-      <c r="J142" s="83"/>
+      <c r="A142" s="84"/>
+      <c r="B142" s="84"/>
+      <c r="C142" s="84"/>
+      <c r="D142" s="84"/>
+      <c r="E142" s="84"/>
+      <c r="F142" s="84"/>
+      <c r="G142" s="84"/>
+      <c r="H142" s="84"/>
+      <c r="I142" s="84"/>
+      <c r="J142" s="84"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="83"/>
-      <c r="B143" s="83"/>
-      <c r="C143" s="83"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="83"/>
-      <c r="G143" s="83"/>
-      <c r="H143" s="83"/>
-      <c r="I143" s="83"/>
-      <c r="J143" s="83"/>
+      <c r="A143" s="84"/>
+      <c r="B143" s="84"/>
+      <c r="C143" s="84"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="84"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="84"/>
+      <c r="H143" s="84"/>
+      <c r="I143" s="84"/>
+      <c r="J143" s="84"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="83"/>
-      <c r="B144" s="83"/>
-      <c r="C144" s="83"/>
-      <c r="D144" s="83"/>
-      <c r="E144" s="83"/>
-      <c r="F144" s="83"/>
-      <c r="G144" s="83"/>
-      <c r="H144" s="83"/>
-      <c r="I144" s="83"/>
-      <c r="J144" s="83"/>
+      <c r="A144" s="84"/>
+      <c r="B144" s="84"/>
+      <c r="C144" s="84"/>
+      <c r="D144" s="84"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="84"/>
+      <c r="H144" s="84"/>
+      <c r="I144" s="84"/>
+      <c r="J144" s="84"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="83"/>
-      <c r="B145" s="83"/>
-      <c r="C145" s="83"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="83"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="83"/>
-      <c r="H145" s="83"/>
-      <c r="I145" s="83"/>
-      <c r="J145" s="83"/>
+      <c r="A145" s="84"/>
+      <c r="B145" s="84"/>
+      <c r="C145" s="84"/>
+      <c r="D145" s="84"/>
+      <c r="E145" s="84"/>
+      <c r="F145" s="84"/>
+      <c r="G145" s="84"/>
+      <c r="H145" s="84"/>
+      <c r="I145" s="84"/>
+      <c r="J145" s="84"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="83"/>
-      <c r="B146" s="83"/>
-      <c r="C146" s="83"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="83"/>
-      <c r="G146" s="83"/>
-      <c r="H146" s="83"/>
-      <c r="I146" s="83"/>
-      <c r="J146" s="83"/>
+      <c r="A146" s="84"/>
+      <c r="B146" s="84"/>
+      <c r="C146" s="84"/>
+      <c r="D146" s="84"/>
+      <c r="E146" s="84"/>
+      <c r="F146" s="84"/>
+      <c r="G146" s="84"/>
+      <c r="H146" s="84"/>
+      <c r="I146" s="84"/>
+      <c r="J146" s="84"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="83"/>
-      <c r="B147" s="83"/>
-      <c r="C147" s="83"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="83"/>
-      <c r="I147" s="83"/>
-      <c r="J147" s="83"/>
+      <c r="A147" s="84"/>
+      <c r="B147" s="84"/>
+      <c r="C147" s="84"/>
+      <c r="D147" s="84"/>
+      <c r="E147" s="84"/>
+      <c r="F147" s="84"/>
+      <c r="G147" s="84"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="84"/>
+      <c r="J147" s="84"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="83"/>
-      <c r="B148" s="83"/>
-      <c r="C148" s="83"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="83"/>
-      <c r="H148" s="83"/>
-      <c r="I148" s="83"/>
-      <c r="J148" s="83"/>
+      <c r="A148" s="84"/>
+      <c r="B148" s="84"/>
+      <c r="C148" s="84"/>
+      <c r="D148" s="84"/>
+      <c r="E148" s="84"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="84"/>
+      <c r="H148" s="84"/>
+      <c r="I148" s="84"/>
+      <c r="J148" s="84"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="83"/>
-      <c r="B149" s="83"/>
-      <c r="C149" s="83"/>
-      <c r="D149" s="83"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="83"/>
-      <c r="I149" s="83"/>
-      <c r="J149" s="83"/>
+      <c r="A149" s="84"/>
+      <c r="B149" s="84"/>
+      <c r="C149" s="84"/>
+      <c r="D149" s="84"/>
+      <c r="E149" s="84"/>
+      <c r="F149" s="84"/>
+      <c r="G149" s="84"/>
+      <c r="H149" s="84"/>
+      <c r="I149" s="84"/>
+      <c r="J149" s="84"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="83"/>
-      <c r="B150" s="83"/>
-      <c r="C150" s="83"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="83"/>
-      <c r="J150" s="83"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="84"/>
+      <c r="D150" s="84"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="84"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="84"/>
+      <c r="J150" s="84"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="83"/>
-      <c r="B151" s="83"/>
-      <c r="C151" s="83"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="83"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="83"/>
-      <c r="I151" s="83"/>
-      <c r="J151" s="83"/>
+      <c r="A151" s="84"/>
+      <c r="B151" s="84"/>
+      <c r="C151" s="84"/>
+      <c r="D151" s="84"/>
+      <c r="E151" s="84"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="84"/>
+      <c r="H151" s="84"/>
+      <c r="I151" s="84"/>
+      <c r="J151" s="84"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="83"/>
-      <c r="B152" s="83"/>
-      <c r="C152" s="83"/>
-      <c r="D152" s="83"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="83"/>
-      <c r="G152" s="83"/>
-      <c r="H152" s="83"/>
-      <c r="I152" s="83"/>
-      <c r="J152" s="83"/>
+      <c r="A152" s="84"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="84"/>
+      <c r="D152" s="84"/>
+      <c r="E152" s="84"/>
+      <c r="F152" s="84"/>
+      <c r="G152" s="84"/>
+      <c r="H152" s="84"/>
+      <c r="I152" s="84"/>
+      <c r="J152" s="84"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="83"/>
-      <c r="B153" s="83"/>
-      <c r="C153" s="83"/>
-      <c r="D153" s="83"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="83"/>
-      <c r="G153" s="83"/>
-      <c r="H153" s="83"/>
-      <c r="I153" s="83"/>
-      <c r="J153" s="83"/>
-    </row>
-    <row r="154" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C154" s="4"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
+      <c r="A153" s="84"/>
+      <c r="B153" s="84"/>
+      <c r="C153" s="84"/>
+      <c r="D153" s="84"/>
+      <c r="E153" s="84"/>
+      <c r="F153" s="84"/>
+      <c r="G153" s="84"/>
+      <c r="H153" s="84"/>
+      <c r="I153" s="84"/>
+      <c r="J153" s="84"/>
+    </row>
+    <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="84"/>
+      <c r="B154" s="84"/>
+      <c r="C154" s="84"/>
+      <c r="D154" s="84"/>
+      <c r="E154" s="84"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="84"/>
+      <c r="H154" s="84"/>
+      <c r="I154" s="84"/>
+      <c r="J154" s="84"/>
     </row>
     <row r="155" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
@@ -4400,9 +4420,13 @@
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D156" s="15"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C156" s="4"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+    </row>
+    <row r="157" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" s="15"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -4416,13 +4440,16 @@
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" s="15"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D162" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A140:J153"/>
+    <mergeCell ref="A141:J154"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69035404-3F07-426E-A297-BC9ED31DE20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117450C-10F8-46E4-ACDF-C827C24A0297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 23rd October 2022</t>
+    <t>Numbers last updated on 21st November 2022</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1066,10 +1067,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1087,47 +1088,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1173,19 +1174,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="15">
-        <v>764283.47460900003</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E9" s="15">
-        <v>24654.305632</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F9" s="25">
-        <v>4809526.6131775687</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G9" s="25">
-        <v>155146.019779922</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1196,22 +1197,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="15">
-        <v>754659.58550000004</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E10" s="15">
-        <v>24343.857596000002</v>
+        <v>24654.305632</v>
       </c>
       <c r="F10" s="25">
-        <v>4748964.8552307729</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G10" s="25">
-        <v>153192.41468486364</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1222,22 +1223,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="15">
-        <v>811142.03678099997</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E11" s="15">
-        <v>27038.067891999999</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F11" s="25">
-        <v>5104400.8441515733</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G11" s="25">
-        <v>170146.69480505245</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1248,22 +1249,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="15">
-        <v>852839.47011300002</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E12" s="15">
-        <v>27510.950647999998</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F12" s="25">
-        <v>5366796.8293768829</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G12" s="25">
-        <v>173122.47836699622</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1274,22 +1275,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E13" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F13" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G13" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1300,22 +1301,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E14" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F14" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G14" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1326,22 +1327,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E15" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F15" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G15" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1352,22 +1353,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E16" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F16" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G16" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1378,24 +1379,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13">
-        <v>2021</v>
-      </c>
+    <row r="17" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D17" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E17" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F17" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G17" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1406,22 +1405,24 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
+    <row r="18" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13">
+        <v>2021</v>
+      </c>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E18" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F18" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G18" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1432,22 +1433,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E19" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F19" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G19" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1458,22 +1459,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E20" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F20" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G20" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1484,22 +1485,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E21" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F21" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G21" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1510,22 +1511,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E22" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F22" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G22" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1536,22 +1537,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E23" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F23" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G23" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1562,22 +1563,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E24" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F24" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G24" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1588,22 +1589,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E25" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F25" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G25" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1614,22 +1615,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E26" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F26" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G26" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1640,22 +1641,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E27" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F27" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G27" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1666,22 +1667,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E28" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F28" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G28" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1692,24 +1693,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13">
-        <v>2020</v>
-      </c>
+    <row r="29" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D29" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E29" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F29" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G29" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1720,22 +1719,24 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
+    <row r="30" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13">
+        <v>2020</v>
+      </c>
       <c r="C30" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E30" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F30" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G30" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1746,22 +1747,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E31" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F31" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G31" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1772,22 +1773,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E32" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F32" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G32" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1798,22 +1799,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E33" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F33" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G33" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1824,22 +1825,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E34" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F34" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G34" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1850,22 +1851,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E35" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F35" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G35" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1876,22 +1877,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E36" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F36" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G36" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1902,22 +1903,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E37" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F37" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G37" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1928,22 +1929,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E38" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F38" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G38" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1954,22 +1955,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E39" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F39" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G39" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1980,22 +1981,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E40" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F40" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G40" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2006,24 +2007,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13">
-        <v>2019</v>
-      </c>
+    <row r="41" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D41" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E41" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F41" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G41" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2034,22 +2033,24 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
+    <row r="42" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13">
+        <v>2019</v>
+      </c>
       <c r="C42" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E42" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F42" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G42" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2060,22 +2061,22 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E43" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F43" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G43" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2083,25 +2084,25 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="3"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E44" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F44" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G44" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2115,19 +2116,19 @@
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E45" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F45" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G45" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2141,19 +2142,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E46" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F46" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G46" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2167,19 +2168,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E47" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F47" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G47" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2193,19 +2194,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E48" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F48" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G48" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2219,19 +2220,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E49" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F49" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G49" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2245,19 +2246,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E50" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F50" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G50" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2271,19 +2272,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E51" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F51" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G51" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2297,19 +2298,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E52" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F52" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G52" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2321,25 +2322,23 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E53" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D53" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E53" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F53" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G53" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -2349,21 +2348,23 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="13"/>
+      <c r="B54" s="13">
+        <v>2018</v>
+      </c>
       <c r="C54" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E54" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F54" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G54" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="14"/>
@@ -2377,19 +2378,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E55" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F55" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G55" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2403,19 +2404,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E56" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F56" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G56" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2429,19 +2430,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E57" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F57" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G57" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2455,19 +2456,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E58" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F58" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G58" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2481,19 +2482,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E59" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F59" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G59" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2507,19 +2508,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E60" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F60" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G60" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2533,19 +2534,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E61" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F61" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G61" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2559,19 +2560,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E62" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F62" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G62" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2585,19 +2586,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E63" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F63" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G63" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2611,19 +2612,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E64" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F64" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G64" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="14"/>
@@ -2635,49 +2636,49 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E65" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F65" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G65" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D65" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E65" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F65" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G65" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
       <c r="N65" s="19"/>
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="13"/>
+      <c r="B66" s="13">
+        <v>2017</v>
+      </c>
       <c r="C66" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E66" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F66" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G66" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2691,19 +2692,19 @@
     <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E67" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F67" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G67" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2717,19 +2718,19 @@
     <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E68" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F68" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G68" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D68" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E68" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F68" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G68" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2740,21 +2741,22 @@
       <c r="N68" s="19"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E69" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F69" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G69" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D69" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E69" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F69" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G69" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2766,21 +2768,20 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="9"/>
       <c r="C70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E70" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F70" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G70" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D70" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E70" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F70" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G70" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2792,46 +2793,46 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="9"/>
       <c r="C71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E71" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F71" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G71" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D72" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E72" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F72" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G72" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="3"/>
-      <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
-      <c r="C72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E72" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F72" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G72" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
@@ -2840,48 +2841,49 @@
       <c r="L72" s="29"/>
       <c r="N72" s="18"/>
       <c r="O72" s="3"/>
+      <c r="R72" s="7"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E73" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F73" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G73" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D73" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E73" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F73" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G73" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="21"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E74" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D74" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E74" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F74" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G74" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="29"/>
@@ -2891,71 +2893,69 @@
       <c r="N74" s="20"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E75" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F75" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G75" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E76" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F76" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G76" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E77" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F77" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G77" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -2966,93 +2966,96 @@
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="13"/>
+      <c r="B78" s="13">
+        <v>2016</v>
+      </c>
       <c r="C78" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D78" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E78" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F78" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G78" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
-      <c r="N78" s="20"/>
+      <c r="N78" s="18"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E79" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F79" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G79" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="3"/>
     </row>
     <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E80" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F80" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G80" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
     </row>
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E81" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F81" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G81" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3064,19 +3067,19 @@
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E82" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F82" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G82" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
@@ -3088,19 +3091,19 @@
     <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E83" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F83" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G83" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -3112,19 +3115,19 @@
     <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E84" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F84" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G84" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
@@ -3136,23 +3139,23 @@
     <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E85" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F85" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G85" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H85" s="28"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3160,19 +3163,19 @@
     <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E86" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F86" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G86" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="8"/>
@@ -3182,542 +3185,546 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E87" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F87" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G87" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H87" s="28"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-    </row>
-    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-      <c r="C88" s="11" t="s">
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+    </row>
+    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="13"/>
+      <c r="C89" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H88" s="28"/>
-    </row>
-    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13">
+      <c r="H89" s="28"/>
+    </row>
+    <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="13">
         <v>2015</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H89" s="28"/>
-    </row>
-    <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
-      <c r="C90" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E90" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F90" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G90" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H90" s="28"/>
     </row>
     <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E91" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F91" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G91" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E92" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F92" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G92" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E93" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F93" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G93" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E94" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F94" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G94" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E95" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F95" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G95" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E96" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F96" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G96" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E97" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F97" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G97" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E98" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F98" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G98" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H98" s="28"/>
+    </row>
+    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="13"/>
+      <c r="C99" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D99" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E99" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F99" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G99" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="11" t="s">
+      <c r="H99" s="28"/>
+    </row>
+    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D100" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E100" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F100" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G100" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="13"/>
-      <c r="C100" s="11" t="s">
+      <c r="H100" s="28"/>
+    </row>
+    <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="13"/>
+      <c r="C101" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D101" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E101" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F101" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G101" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="13">
+      <c r="H101" s="28"/>
+    </row>
+    <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="13">
         <v>2014</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D102" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E102" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F102" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G102" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="13"/>
-      <c r="C102" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E102" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F102" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G102" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E103" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F103" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G103" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E104" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F104" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G104" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E105" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F105" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G105" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E106" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F106" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G106" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E107" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F107" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G107" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E108" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F108" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G108" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E109" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F109" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G109" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H109" s="28"/>
     </row>
     <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E110" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F110" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G110" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H110" s="28"/>
+    </row>
+    <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="13"/>
+      <c r="C111" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D111" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E111" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F111" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G111" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H110" s="28"/>
-    </row>
-    <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="11" t="s">
+      <c r="H111" s="28"/>
+    </row>
+    <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D112" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E112" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F112" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G112" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H111" s="28"/>
-      <c r="I111" s="22"/>
-    </row>
-    <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="13"/>
-      <c r="C112" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E112" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F112" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G112" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H112" s="28"/>
       <c r="I112" s="22"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D113" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E113" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F113" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G113" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="13"/>
+      <c r="B114" s="13">
+        <v>2013</v>
+      </c>
       <c r="C114" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E114" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F114" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G114" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
@@ -3725,19 +3732,19 @@
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D115" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E115" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F115" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G115" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
@@ -3745,19 +3752,19 @@
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D116" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E116" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F116" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G116" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
@@ -3765,39 +3772,39 @@
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E117" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F117" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G117" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E118" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F118" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G118" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
@@ -3805,19 +3812,19 @@
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E119" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F119" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G119" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
@@ -3825,411 +3832,415 @@
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E120" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F120" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G120" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E121" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F121" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G121" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C122" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D122" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E122" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F122" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G122" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="22"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C123" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E123" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F123" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G123" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H123" s="28"/>
+      <c r="I123" s="22"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C124" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E124" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F124" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G124" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H124" s="28"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C125" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D125" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E125" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F125" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H124" s="28"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="13">
+      <c r="H125" s="28"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="13">
         <v>2012</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C126" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D126" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E126" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F126" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G126" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H125" s="28"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C126" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E126" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F126" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G126" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H126" s="28"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C127" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E127" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F127" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G127" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H127" s="28"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D128" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E128" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F128" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G128" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H127" s="28"/>
-    </row>
-    <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="13"/>
-      <c r="C128" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E128" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F128" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G128" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H128" s="28"/>
     </row>
     <row r="129" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D129" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E129" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F129" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G129" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H129" s="28"/>
     </row>
     <row r="130" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
       <c r="C130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E130" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F130" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G130" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H130" s="28"/>
+    </row>
+    <row r="131" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="13"/>
+      <c r="C131" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D131" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E131" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F131" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G131" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H130" s="28"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C131" s="11" t="s">
+      <c r="H131" s="28"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D132" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E132" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F132" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G132" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H131" s="28"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B132" s="13"/>
-      <c r="C132" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E132" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F132" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G132" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H132" s="28"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B133" s="13"/>
       <c r="C133" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D133" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E133" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F133" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G133" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H133" s="28"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B134" s="13"/>
       <c r="C134" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E134" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F134" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G134" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H134" s="28"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B135" s="13"/>
+      <c r="C135" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D135" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E135" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F135" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G135" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H134" s="28"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C135" s="11" t="s">
+      <c r="H135" s="28"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D136" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E136" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F136" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G136" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H135" s="22"/>
-    </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="11" t="s">
+      <c r="H136" s="22"/>
+    </row>
+    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="17">
+      <c r="D137" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E137" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F137" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G137" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H136" s="23"/>
-    </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="30"/>
-      <c r="B137" s="31" t="s">
+      <c r="H137" s="23"/>
+    </row>
+    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="30"/>
+      <c r="B138" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-    </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
+    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="41"/>
-      <c r="B140" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="43"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="43"/>
+    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="B141" s="83"/>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="83"/>
-      <c r="H141" s="83"/>
-      <c r="I141" s="83"/>
-      <c r="J141" s="83"/>
+    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="41"/>
+      <c r="B141" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="43"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
     <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="84"/>
+      <c r="A142" s="84" t="s">
+        <v>22</v>
+      </c>
       <c r="B142" s="84"/>
       <c r="C142" s="84"/>
       <c r="D142" s="84"/>
@@ -4245,179 +4256,188 @@
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="84"/>
-      <c r="B143" s="84"/>
-      <c r="C143" s="84"/>
-      <c r="D143" s="84"/>
-      <c r="E143" s="84"/>
-      <c r="F143" s="84"/>
-      <c r="G143" s="84"/>
-      <c r="H143" s="84"/>
-      <c r="I143" s="84"/>
-      <c r="J143" s="84"/>
+      <c r="A143" s="85"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="85"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="84"/>
-      <c r="B144" s="84"/>
-      <c r="C144" s="84"/>
-      <c r="D144" s="84"/>
-      <c r="E144" s="84"/>
-      <c r="F144" s="84"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="84"/>
-      <c r="I144" s="84"/>
-      <c r="J144" s="84"/>
+      <c r="A144" s="85"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="85"/>
+      <c r="I144" s="85"/>
+      <c r="J144" s="85"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="84"/>
-      <c r="B145" s="84"/>
-      <c r="C145" s="84"/>
-      <c r="D145" s="84"/>
-      <c r="E145" s="84"/>
-      <c r="F145" s="84"/>
-      <c r="G145" s="84"/>
-      <c r="H145" s="84"/>
-      <c r="I145" s="84"/>
-      <c r="J145" s="84"/>
+      <c r="A145" s="85"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="85"/>
+      <c r="I145" s="85"/>
+      <c r="J145" s="85"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="84"/>
-      <c r="B146" s="84"/>
-      <c r="C146" s="84"/>
-      <c r="D146" s="84"/>
-      <c r="E146" s="84"/>
-      <c r="F146" s="84"/>
-      <c r="G146" s="84"/>
-      <c r="H146" s="84"/>
-      <c r="I146" s="84"/>
-      <c r="J146" s="84"/>
+      <c r="A146" s="85"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="84"/>
-      <c r="B147" s="84"/>
-      <c r="C147" s="84"/>
-      <c r="D147" s="84"/>
-      <c r="E147" s="84"/>
-      <c r="F147" s="84"/>
-      <c r="G147" s="84"/>
-      <c r="H147" s="84"/>
-      <c r="I147" s="84"/>
-      <c r="J147" s="84"/>
+      <c r="A147" s="85"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="84"/>
-      <c r="B148" s="84"/>
-      <c r="C148" s="84"/>
-      <c r="D148" s="84"/>
-      <c r="E148" s="84"/>
-      <c r="F148" s="84"/>
-      <c r="G148" s="84"/>
-      <c r="H148" s="84"/>
-      <c r="I148" s="84"/>
-      <c r="J148" s="84"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="85"/>
+      <c r="I148" s="85"/>
+      <c r="J148" s="85"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="84"/>
-      <c r="B149" s="84"/>
-      <c r="C149" s="84"/>
-      <c r="D149" s="84"/>
-      <c r="E149" s="84"/>
-      <c r="F149" s="84"/>
-      <c r="G149" s="84"/>
-      <c r="H149" s="84"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="84"/>
+      <c r="A149" s="85"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
+      <c r="I149" s="85"/>
+      <c r="J149" s="85"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="84"/>
-      <c r="B150" s="84"/>
-      <c r="C150" s="84"/>
-      <c r="D150" s="84"/>
-      <c r="E150" s="84"/>
-      <c r="F150" s="84"/>
-      <c r="G150" s="84"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
+      <c r="A150" s="85"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
+      <c r="I150" s="85"/>
+      <c r="J150" s="85"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="84"/>
-      <c r="B151" s="84"/>
-      <c r="C151" s="84"/>
-      <c r="D151" s="84"/>
-      <c r="E151" s="84"/>
-      <c r="F151" s="84"/>
-      <c r="G151" s="84"/>
-      <c r="H151" s="84"/>
-      <c r="I151" s="84"/>
-      <c r="J151" s="84"/>
+      <c r="A151" s="85"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="85"/>
+      <c r="I151" s="85"/>
+      <c r="J151" s="85"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="84"/>
-      <c r="B152" s="84"/>
-      <c r="C152" s="84"/>
-      <c r="D152" s="84"/>
-      <c r="E152" s="84"/>
-      <c r="F152" s="84"/>
-      <c r="G152" s="84"/>
-      <c r="H152" s="84"/>
-      <c r="I152" s="84"/>
-      <c r="J152" s="84"/>
+      <c r="A152" s="85"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="85"/>
+      <c r="I152" s="85"/>
+      <c r="J152" s="85"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="84"/>
-      <c r="B153" s="84"/>
-      <c r="C153" s="84"/>
-      <c r="D153" s="84"/>
-      <c r="E153" s="84"/>
-      <c r="F153" s="84"/>
-      <c r="G153" s="84"/>
-      <c r="H153" s="84"/>
-      <c r="I153" s="84"/>
-      <c r="J153" s="84"/>
+      <c r="A153" s="85"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="85"/>
+      <c r="I153" s="85"/>
+      <c r="J153" s="85"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="84"/>
-      <c r="B154" s="84"/>
-      <c r="C154" s="84"/>
-      <c r="D154" s="84"/>
-      <c r="E154" s="84"/>
-      <c r="F154" s="84"/>
-      <c r="G154" s="84"/>
-      <c r="H154" s="84"/>
-      <c r="I154" s="84"/>
-      <c r="J154" s="84"/>
-    </row>
-    <row r="155" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C155" s="4"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
+      <c r="A154" s="85"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="85"/>
+      <c r="J154" s="85"/>
+    </row>
+    <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="85"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="85"/>
+      <c r="J155" s="85"/>
     </row>
     <row r="156" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
@@ -4427,9 +4447,13 @@
       <c r="G156" s="15"/>
     </row>
     <row r="157" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D157" s="15"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C157" s="4"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+    </row>
+    <row r="158" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" s="15"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -4443,13 +4467,16 @@
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" s="15"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D163" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A141:J154"/>
+    <mergeCell ref="A142:J155"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117450C-10F8-46E4-ACDF-C827C24A0297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C2468ACF-440A-4422-97B8-80FE27157CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18480" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,13 +155,13 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 21st November 2022</t>
+    <t>Numbers last updated on 20th December 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-11009]###\ ###\ ###\ ##0"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -432,6 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -455,7 +456,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{65C3D140-F31B-4FB0-B12B-BED60CA9E2BF}"/>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1067,10 +1070,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1088,47 +1091,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1174,19 +1177,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="15">
-        <v>605733.99690699996</v>
+        <v>767215.47834899998</v>
       </c>
       <c r="E9" s="15">
-        <v>20191.133229999999</v>
+        <v>24748.886397999999</v>
       </c>
       <c r="F9" s="25">
-        <v>3811797.4225741932</v>
+        <v>4827977.2934368532</v>
       </c>
       <c r="G9" s="25">
-        <v>127059.91408580645</v>
+        <v>155741.20301409203</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1197,22 +1200,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="15">
-        <v>764283.47460900003</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E10" s="15">
-        <v>24654.305632</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F10" s="25">
-        <v>4809526.6131775687</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G10" s="25">
-        <v>155146.01977992154</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1223,22 +1226,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="15">
-        <v>754659.58550000004</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E11" s="15">
-        <v>24343.857596000002</v>
+        <v>24654.305632</v>
       </c>
       <c r="F11" s="25">
-        <v>4748964.8552307729</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G11" s="25">
-        <v>153192.41468486364</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1249,22 +1252,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15">
-        <v>811142.03678099997</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E12" s="15">
-        <v>27038.067891999999</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F12" s="25">
-        <v>5104400.8441515733</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G12" s="25">
-        <v>170146.69480505245</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1275,22 +1278,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="15">
-        <v>852839.47011300002</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E13" s="15">
-        <v>27510.950647999998</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F13" s="25">
-        <v>5366796.8293768829</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G13" s="25">
-        <v>173122.47836699622</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1301,22 +1304,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E14" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F14" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G14" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1327,22 +1330,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E15" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F15" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G15" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1353,22 +1356,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E16" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F16" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G16" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1379,22 +1382,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E17" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F17" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G17" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1405,24 +1408,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13">
-        <v>2021</v>
-      </c>
+    <row r="18" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D18" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E18" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F18" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G18" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1433,22 +1434,24 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+    <row r="19" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13">
+        <v>2021</v>
+      </c>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E19" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F19" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G19" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1459,22 +1462,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E20" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F20" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G20" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1485,22 +1488,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E21" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F21" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G21" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1511,22 +1514,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E22" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F22" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G22" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1537,22 +1540,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E23" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F23" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G23" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1563,22 +1566,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E24" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F24" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G24" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1589,22 +1592,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E25" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F25" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G25" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1615,22 +1618,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E26" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F26" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G26" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1641,22 +1644,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E27" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F27" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G27" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1667,22 +1670,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E28" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F28" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G28" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1693,22 +1696,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E29" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F29" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G29" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1719,24 +1722,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13">
-        <v>2020</v>
-      </c>
+    <row r="30" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D30" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E30" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F30" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G30" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1747,22 +1748,24 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
+    <row r="31" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13">
+        <v>2020</v>
+      </c>
       <c r="C31" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E31" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F31" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G31" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1773,22 +1776,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E32" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F32" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G32" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1799,22 +1802,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E33" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F33" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G33" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1825,22 +1828,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E34" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F34" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G34" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1851,22 +1854,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E35" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F35" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G35" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1877,22 +1880,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E36" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F36" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G36" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1903,22 +1906,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E37" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F37" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G37" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1929,22 +1932,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E38" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F38" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G38" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1955,22 +1958,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E39" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F39" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G39" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1981,22 +1984,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E40" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F40" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G40" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2007,22 +2010,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E41" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F41" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G41" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2033,24 +2036,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="13">
-        <v>2019</v>
-      </c>
+    <row r="42" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D42" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E42" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F42" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G42" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2061,22 +2062,24 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
+    <row r="43" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13">
+        <v>2019</v>
+      </c>
       <c r="C43" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E43" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F43" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G43" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2087,22 +2090,22 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E44" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F44" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G44" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2110,25 +2113,25 @@
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="3"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
     </row>
     <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E45" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F45" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G45" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2142,19 +2145,19 @@
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E46" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F46" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G46" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2168,19 +2171,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E47" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F47" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G47" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2194,19 +2197,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E48" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F48" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G48" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2220,19 +2223,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E49" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F49" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G49" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2246,19 +2249,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E50" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F50" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G50" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2272,19 +2275,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E51" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F51" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G51" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2298,19 +2301,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E52" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F52" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G52" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2324,19 +2327,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E53" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F53" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G53" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2348,25 +2351,23 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E54" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E54" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F54" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G54" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -2376,21 +2377,23 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
+      <c r="B55" s="13">
+        <v>2018</v>
+      </c>
       <c r="C55" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E55" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F55" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G55" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="14"/>
@@ -2404,19 +2407,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E56" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F56" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G56" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2430,19 +2433,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E57" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F57" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G57" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2456,19 +2459,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E58" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F58" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G58" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2482,19 +2485,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E59" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F59" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G59" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2508,19 +2511,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E60" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F60" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G60" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2534,19 +2537,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E61" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F61" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G61" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2560,19 +2563,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E62" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F62" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G62" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2586,19 +2589,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E63" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F63" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G63" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2612,19 +2615,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E64" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F64" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G64" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="14"/>
@@ -2638,19 +2641,19 @@
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E65" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F65" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G65" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="14"/>
@@ -2662,49 +2665,49 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E66" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F66" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G66" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D66" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E66" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F66" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G66" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
       <c r="N66" s="19"/>
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="13"/>
+      <c r="B67" s="13">
+        <v>2017</v>
+      </c>
       <c r="C67" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E67" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F67" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G67" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2718,19 +2721,19 @@
     <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E68" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F68" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G68" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2744,19 +2747,19 @@
     <row r="69" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E69" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F69" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G69" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D69" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E69" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F69" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G69" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2767,21 +2770,22 @@
       <c r="N69" s="19"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E70" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F70" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G70" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D70" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E70" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F70" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G70" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2793,21 +2797,20 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="9"/>
       <c r="C71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E71" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F71" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G71" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D71" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E71" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F71" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G71" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2819,46 +2822,46 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="9"/>
       <c r="C72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E72" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F72" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G72" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D73" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E73" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F73" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G73" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="3"/>
-      <c r="R72" s="7"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-      <c r="C73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E73" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F73" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G73" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
@@ -2867,48 +2870,49 @@
       <c r="L73" s="29"/>
       <c r="N73" s="18"/>
       <c r="O73" s="3"/>
+      <c r="R73" s="7"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E74" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F74" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G74" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D74" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E74" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F74" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G74" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="21"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E75" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D75" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E75" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F75" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G75" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="29"/>
@@ -2918,71 +2922,69 @@
       <c r="N75" s="20"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E76" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F76" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G76" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="21"/>
+    </row>
+    <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E77" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F77" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G77" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E78" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F78" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G78" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
@@ -2993,93 +2995,96 @@
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
+      <c r="B79" s="13">
+        <v>2016</v>
+      </c>
       <c r="C79" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E79" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F79" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G79" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
-      <c r="N79" s="20"/>
+      <c r="N79" s="18"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E80" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F80" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G80" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E81" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F81" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G81" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
     </row>
     <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E82" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F82" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G82" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
@@ -3091,19 +3096,19 @@
     <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E83" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F83" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G83" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -3115,19 +3120,19 @@
     <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E84" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F84" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G84" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
@@ -3139,19 +3144,19 @@
     <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E85" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F85" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G85" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
@@ -3163,23 +3168,23 @@
     <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E86" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F86" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G86" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H86" s="28"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3187,19 +3192,19 @@
     <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E87" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F87" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G87" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H87" s="28"/>
       <c r="I87" s="8"/>
@@ -3209,542 +3214,546 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E88" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F88" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G88" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H88" s="28"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-    </row>
-    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="11" t="s">
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+    </row>
+    <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="13"/>
+      <c r="C90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H89" s="28"/>
-    </row>
-    <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="13">
+      <c r="H90" s="28"/>
+    </row>
+    <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="13">
         <v>2015</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H90" s="28"/>
-    </row>
-    <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="13"/>
-      <c r="C91" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E91" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F91" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G91" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H91" s="28"/>
     </row>
     <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E92" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F92" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G92" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H92" s="28"/>
     </row>
     <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E93" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F93" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G93" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E94" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F94" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G94" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E95" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F95" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G95" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E96" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F96" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G96" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H96" s="28"/>
     </row>
-    <row r="97" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E97" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F97" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G97" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H97" s="28"/>
     </row>
-    <row r="98" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E98" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F98" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G98" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H98" s="28"/>
     </row>
-    <row r="99" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E99" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F99" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G99" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H99" s="28"/>
+    </row>
+    <row r="100" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="13"/>
+      <c r="C100" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D100" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E100" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F100" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G100" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="11" t="s">
+      <c r="H100" s="28"/>
+    </row>
+    <row r="101" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D101" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E101" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F101" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G101" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="13"/>
-      <c r="C101" s="11" t="s">
+      <c r="H101" s="28"/>
+    </row>
+    <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="13"/>
+      <c r="C102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D102" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E102" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F102" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G102" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="13">
+      <c r="H102" s="28"/>
+    </row>
+    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="13">
         <v>2014</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D103" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E103" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F103" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G103" s="12">
         <v>175654.34222357633</v>
       </c>
-      <c r="H102" s="28"/>
-    </row>
-    <row r="103" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="13"/>
-      <c r="C103" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E103" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F103" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G103" s="12">
-        <v>150959.70326115453</v>
-      </c>
       <c r="H103" s="28"/>
     </row>
-    <row r="104" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E104" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F104" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G104" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E105" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F105" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G105" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D106" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E106" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F106" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G106" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H106" s="28"/>
     </row>
-    <row r="107" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D107" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E107" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F107" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G107" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H107" s="28"/>
     </row>
-    <row r="108" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E108" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F108" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G108" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H108" s="28"/>
     </row>
-    <row r="109" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E109" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F109" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G109" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H109" s="28"/>
     </row>
-    <row r="110" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E110" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F110" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G110" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H110" s="28"/>
     </row>
-    <row r="111" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E111" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F111" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G111" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H111" s="28"/>
+    </row>
+    <row r="112" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="13"/>
+      <c r="C112" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D112" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E112" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F112" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G112" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H111" s="28"/>
-    </row>
-    <row r="112" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="11" t="s">
+      <c r="H112" s="28"/>
+    </row>
+    <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D113" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E113" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F113" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G113" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H112" s="28"/>
-      <c r="I112" s="22"/>
-    </row>
-    <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="13"/>
-      <c r="C113" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E113" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F113" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G113" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="22"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D114" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E114" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F114" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G114" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
     </row>
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="13"/>
+      <c r="B115" s="13">
+        <v>2013</v>
+      </c>
       <c r="C115" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E115" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F115" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G115" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
@@ -3752,19 +3761,19 @@
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E116" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F116" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G116" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
@@ -3772,19 +3781,19 @@
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D117" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E117" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F117" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G117" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
@@ -3792,39 +3801,39 @@
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E118" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F118" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G118" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E119" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F119" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G119" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
@@ -3832,19 +3841,19 @@
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E120" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F120" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G120" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
@@ -3852,411 +3861,415 @@
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E121" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F121" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G121" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D122" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E122" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F122" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G122" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="22"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C123" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E123" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F123" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G123" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H123" s="28"/>
       <c r="I123" s="22"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C124" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E124" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F124" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G124" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H124" s="28"/>
+      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C125" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E125" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F125" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G125" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H125" s="28"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C126" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D126" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E126" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F126" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G126" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H125" s="28"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="13">
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="13">
         <v>2012</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D127" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E127" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F127" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G127" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C127" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E127" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F127" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G127" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H127" s="28"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C128" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E128" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F128" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G128" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D129" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E129" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F129" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G129" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="13"/>
-      <c r="C129" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E129" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F129" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G129" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H129" s="28"/>
     </row>
     <row r="130" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
       <c r="C130" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D130" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E130" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F130" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G130" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H130" s="28"/>
     </row>
     <row r="131" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13"/>
       <c r="C131" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E131" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F131" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G131" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H131" s="28"/>
+    </row>
+    <row r="132" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="13"/>
+      <c r="C132" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D132" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E132" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F132" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G132" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H131" s="28"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C132" s="11" t="s">
+      <c r="H132" s="28"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D133" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E133" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F133" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G133" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H132" s="28"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B133" s="13"/>
-      <c r="C133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E133" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F133" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G133" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H133" s="28"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B134" s="13"/>
       <c r="C134" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D134" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E134" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F134" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G134" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H134" s="28"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B135" s="13"/>
       <c r="C135" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E135" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F135" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G135" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H135" s="28"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B136" s="13"/>
+      <c r="C136" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D136" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E136" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F136" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G136" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H135" s="28"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C136" s="11" t="s">
+      <c r="H136" s="28"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C137" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D137" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E137" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F137" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G137" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H136" s="22"/>
-    </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="11" t="s">
+      <c r="H137" s="22"/>
+    </row>
+    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="17">
+      <c r="D138" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E138" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F138" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G138" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H137" s="23"/>
-    </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="30"/>
-      <c r="B138" s="31" t="s">
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="30"/>
+      <c r="B139" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="32"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-    </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="40"/>
+    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="41"/>
-      <c r="B141" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="43"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="43"/>
-      <c r="I141" s="43"/>
-      <c r="J141" s="43"/>
+    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B142" s="84"/>
-      <c r="C142" s="84"/>
-      <c r="D142" s="84"/>
-      <c r="E142" s="84"/>
-      <c r="F142" s="84"/>
-      <c r="G142" s="84"/>
-      <c r="H142" s="84"/>
-      <c r="I142" s="84"/>
-      <c r="J142" s="84"/>
+    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="41"/>
+      <c r="B142" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="43"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
     <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="85"/>
+      <c r="A143" s="85" t="s">
+        <v>22</v>
+      </c>
       <c r="B143" s="85"/>
       <c r="C143" s="85"/>
       <c r="D143" s="85"/>
@@ -4272,179 +4285,188 @@
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="85"/>
-      <c r="B144" s="85"/>
-      <c r="C144" s="85"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="85"/>
-      <c r="I144" s="85"/>
-      <c r="J144" s="85"/>
+      <c r="A144" s="86"/>
+      <c r="B144" s="86"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="86"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="86"/>
+      <c r="G144" s="86"/>
+      <c r="H144" s="86"/>
+      <c r="I144" s="86"/>
+      <c r="J144" s="86"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="85"/>
-      <c r="B145" s="85"/>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="85"/>
-      <c r="H145" s="85"/>
-      <c r="I145" s="85"/>
-      <c r="J145" s="85"/>
+      <c r="A145" s="86"/>
+      <c r="B145" s="86"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="86"/>
+      <c r="E145" s="86"/>
+      <c r="F145" s="86"/>
+      <c r="G145" s="86"/>
+      <c r="H145" s="86"/>
+      <c r="I145" s="86"/>
+      <c r="J145" s="86"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="85"/>
-      <c r="B146" s="85"/>
-      <c r="C146" s="85"/>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
-      <c r="H146" s="85"/>
-      <c r="I146" s="85"/>
-      <c r="J146" s="85"/>
+      <c r="A146" s="86"/>
+      <c r="B146" s="86"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="86"/>
+      <c r="E146" s="86"/>
+      <c r="F146" s="86"/>
+      <c r="G146" s="86"/>
+      <c r="H146" s="86"/>
+      <c r="I146" s="86"/>
+      <c r="J146" s="86"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="85"/>
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="85"/>
-      <c r="J147" s="85"/>
+      <c r="A147" s="86"/>
+      <c r="B147" s="86"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="86"/>
+      <c r="I147" s="86"/>
+      <c r="J147" s="86"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="85"/>
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="85"/>
-      <c r="G148" s="85"/>
-      <c r="H148" s="85"/>
-      <c r="I148" s="85"/>
-      <c r="J148" s="85"/>
+      <c r="A148" s="86"/>
+      <c r="B148" s="86"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="86"/>
+      <c r="E148" s="86"/>
+      <c r="F148" s="86"/>
+      <c r="G148" s="86"/>
+      <c r="H148" s="86"/>
+      <c r="I148" s="86"/>
+      <c r="J148" s="86"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="85"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="85"/>
-      <c r="I149" s="85"/>
-      <c r="J149" s="85"/>
+      <c r="A149" s="86"/>
+      <c r="B149" s="86"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="86"/>
+      <c r="G149" s="86"/>
+      <c r="H149" s="86"/>
+      <c r="I149" s="86"/>
+      <c r="J149" s="86"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="85"/>
-      <c r="B150" s="85"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="85"/>
-      <c r="G150" s="85"/>
-      <c r="H150" s="85"/>
-      <c r="I150" s="85"/>
-      <c r="J150" s="85"/>
+      <c r="A150" s="86"/>
+      <c r="B150" s="86"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="86"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="86"/>
+      <c r="G150" s="86"/>
+      <c r="H150" s="86"/>
+      <c r="I150" s="86"/>
+      <c r="J150" s="86"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="85"/>
-      <c r="B151" s="85"/>
-      <c r="C151" s="85"/>
-      <c r="D151" s="85"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="85"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="85"/>
-      <c r="I151" s="85"/>
-      <c r="J151" s="85"/>
+      <c r="A151" s="86"/>
+      <c r="B151" s="86"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="86"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="86"/>
+      <c r="G151" s="86"/>
+      <c r="H151" s="86"/>
+      <c r="I151" s="86"/>
+      <c r="J151" s="86"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="85"/>
-      <c r="B152" s="85"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="85"/>
-      <c r="H152" s="85"/>
-      <c r="I152" s="85"/>
-      <c r="J152" s="85"/>
+      <c r="A152" s="86"/>
+      <c r="B152" s="86"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="86"/>
+      <c r="E152" s="86"/>
+      <c r="F152" s="86"/>
+      <c r="G152" s="86"/>
+      <c r="H152" s="86"/>
+      <c r="I152" s="86"/>
+      <c r="J152" s="86"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="85"/>
-      <c r="B153" s="85"/>
-      <c r="C153" s="85"/>
-      <c r="D153" s="85"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="85"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="85"/>
-      <c r="I153" s="85"/>
-      <c r="J153" s="85"/>
+      <c r="A153" s="86"/>
+      <c r="B153" s="86"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="86"/>
+      <c r="E153" s="86"/>
+      <c r="F153" s="86"/>
+      <c r="G153" s="86"/>
+      <c r="H153" s="86"/>
+      <c r="I153" s="86"/>
+      <c r="J153" s="86"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="85"/>
-      <c r="B154" s="85"/>
-      <c r="C154" s="85"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
-      <c r="G154" s="85"/>
-      <c r="H154" s="85"/>
-      <c r="I154" s="85"/>
-      <c r="J154" s="85"/>
+      <c r="A154" s="86"/>
+      <c r="B154" s="86"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="86"/>
+      <c r="G154" s="86"/>
+      <c r="H154" s="86"/>
+      <c r="I154" s="86"/>
+      <c r="J154" s="86"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="85"/>
-      <c r="B155" s="85"/>
-      <c r="C155" s="85"/>
-      <c r="D155" s="85"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="85"/>
-      <c r="I155" s="85"/>
-      <c r="J155" s="85"/>
-    </row>
-    <row r="156" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C156" s="4"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
+      <c r="A155" s="86"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
+      <c r="E155" s="86"/>
+      <c r="F155" s="86"/>
+      <c r="G155" s="86"/>
+      <c r="H155" s="86"/>
+      <c r="I155" s="86"/>
+      <c r="J155" s="86"/>
+    </row>
+    <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="86"/>
+      <c r="B156" s="86"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="86"/>
+      <c r="E156" s="86"/>
+      <c r="F156" s="86"/>
+      <c r="G156" s="86"/>
+      <c r="H156" s="86"/>
+      <c r="I156" s="86"/>
+      <c r="J156" s="86"/>
     </row>
     <row r="157" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
@@ -4454,9 +4476,13 @@
       <c r="G157" s="15"/>
     </row>
     <row r="158" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D158" s="15"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C158" s="4"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+    </row>
+    <row r="159" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" s="15"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -4470,13 +4496,16 @@
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" s="15"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D164" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A142:J155"/>
+    <mergeCell ref="A143:J156"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C2468ACF-440A-4422-97B8-80FE27157CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B25B087-B024-4E72-83AD-1C5A7642E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18480" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 20th December 2022</t>
+    <t>Numbers last updated on 25th January 2023</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1070,10 +1071,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R164"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1091,47 +1092,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1177,19 +1178,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="15">
-        <v>767215.47834899998</v>
+        <v>581166.18618700001</v>
       </c>
       <c r="E9" s="15">
-        <v>24748.886397999999</v>
+        <v>19372.206205999999</v>
       </c>
       <c r="F9" s="25">
-        <v>4827977.2934368532</v>
+        <v>3657195.7029101662</v>
       </c>
       <c r="G9" s="25">
-        <v>155741.20301409203</v>
+        <v>121906.52343033889</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1200,22 +1201,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="15">
-        <v>605733.99690699996</v>
+        <v>689253.59670899995</v>
       </c>
       <c r="E10" s="15">
-        <v>20191.133229999999</v>
+        <v>22233.986990000001</v>
       </c>
       <c r="F10" s="25">
-        <v>3811797.4225741932</v>
+        <v>4337374.3208254073</v>
       </c>
       <c r="G10" s="25">
-        <v>127059.91408580645</v>
+        <v>139915.30067178735</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1226,22 +1227,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="15">
-        <v>764283.47460900003</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E11" s="15">
-        <v>24654.305632</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F11" s="25">
-        <v>4809526.6131775687</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G11" s="25">
-        <v>155146.01977992154</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1252,22 +1253,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="15">
-        <v>754659.58550000004</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E12" s="15">
-        <v>24343.857596000002</v>
+        <v>24654.305632</v>
       </c>
       <c r="F12" s="25">
-        <v>4748964.8552307729</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G12" s="25">
-        <v>153192.41468486364</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1278,22 +1279,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="15">
-        <v>811142.03678099997</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E13" s="15">
-        <v>27038.067891999999</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F13" s="25">
-        <v>5104400.8441515733</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G13" s="25">
-        <v>170146.69480505245</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1304,22 +1305,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="15">
-        <v>852839.47011300002</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E14" s="15">
-        <v>27510.950647999998</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F14" s="25">
-        <v>5366796.8293768829</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G14" s="25">
-        <v>173122.47836699622</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1330,22 +1331,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E15" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F15" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G15" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1356,22 +1357,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E16" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F16" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G16" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1382,22 +1383,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E17" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F17" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G17" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1408,22 +1409,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E18" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F18" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G18" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1434,24 +1435,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13">
-        <v>2021</v>
-      </c>
+    <row r="19" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D19" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E19" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F19" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G19" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1462,22 +1461,24 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+    <row r="20" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13">
+        <v>2021</v>
+      </c>
       <c r="C20" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="15">
-        <v>630694.20088599995</v>
+        <v>652039.38080000004</v>
       </c>
       <c r="E20" s="15">
-        <v>21023.140028999998</v>
+        <v>21033.528412</v>
       </c>
       <c r="F20" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103190.5817429456</v>
       </c>
       <c r="G20" s="25">
-        <v>132295.61389682905</v>
+        <v>132360.98650783696</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1488,22 +1489,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E21" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F21" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G21" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1514,22 +1515,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E22" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F22" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G22" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1540,22 +1541,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E23" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F23" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G23" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1566,22 +1567,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E24" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F24" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G24" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1592,22 +1593,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E25" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F25" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G25" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1618,22 +1619,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E26" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F26" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G26" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1644,22 +1645,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E27" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F27" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G27" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1670,22 +1671,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E28" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F28" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G28" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1696,22 +1697,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E29" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F29" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G29" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1722,22 +1723,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E30" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F30" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G30" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1748,24 +1749,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13">
-        <v>2020</v>
-      </c>
+    <row r="31" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E31" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F31" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G31" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1776,22 +1775,24 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
+    <row r="32" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13">
+        <v>2020</v>
+      </c>
       <c r="C32" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E32" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F32" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G32" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1802,22 +1803,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E33" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F33" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G33" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1828,22 +1829,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E34" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F34" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G34" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1854,22 +1855,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E35" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F35" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G35" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1880,22 +1881,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E36" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F36" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G36" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1906,22 +1907,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E37" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F37" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G37" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1932,22 +1933,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E38" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F38" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G38" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1958,22 +1959,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E39" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F39" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G39" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1984,22 +1985,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E40" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F40" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G40" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2010,22 +2011,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E41" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F41" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G41" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2036,22 +2037,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E42" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F42" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G42" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2062,24 +2063,22 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13">
-        <v>2019</v>
-      </c>
+    <row r="43" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D43" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E43" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F43" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G43" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2090,22 +2089,24 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13"/>
+    <row r="44" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13">
+        <v>2019</v>
+      </c>
       <c r="C44" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E44" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F44" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G44" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2116,22 +2117,22 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E45" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F45" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G45" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2139,25 +2140,25 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="3"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
     </row>
     <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E46" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F46" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G46" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2171,19 +2172,19 @@
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E47" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F47" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G47" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2197,19 +2198,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E48" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F48" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G48" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2223,19 +2224,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E49" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F49" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G49" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2249,19 +2250,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E50" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F50" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G50" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2275,19 +2276,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E51" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F51" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G51" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2301,19 +2302,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E52" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F52" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G52" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2327,19 +2328,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E53" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F53" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G53" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2353,19 +2354,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E54" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F54" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G54" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -2377,25 +2378,23 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E55" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E55" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F55" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G55" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
@@ -2405,21 +2404,23 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="13"/>
+      <c r="B56" s="13">
+        <v>2018</v>
+      </c>
       <c r="C56" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E56" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F56" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G56" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="14"/>
@@ -2433,19 +2434,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E57" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F57" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G57" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2459,19 +2460,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E58" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F58" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G58" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2485,19 +2486,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E59" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F59" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G59" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2511,19 +2512,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E60" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F60" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G60" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2537,19 +2538,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E61" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F61" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G61" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2563,19 +2564,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E62" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F62" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G62" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2589,19 +2590,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E63" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F63" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G63" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2615,19 +2616,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E64" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F64" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G64" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="14"/>
@@ -2641,19 +2642,19 @@
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E65" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F65" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G65" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="14"/>
@@ -2667,19 +2668,19 @@
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E66" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F66" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G66" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="14"/>
@@ -2691,49 +2692,49 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E67" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F67" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G67" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D67" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E67" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F67" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G67" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
       <c r="N67" s="19"/>
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
+      <c r="B68" s="13">
+        <v>2017</v>
+      </c>
       <c r="C68" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E68" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F68" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G68" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2747,19 +2748,19 @@
     <row r="69" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E69" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F69" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G69" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2773,19 +2774,19 @@
     <row r="70" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E70" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F70" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G70" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D70" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E70" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F70" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G70" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2796,21 +2797,22 @@
       <c r="N70" s="19"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E71" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F71" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G71" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D71" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E71" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F71" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G71" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2822,21 +2824,20 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="9"/>
       <c r="C72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E72" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F72" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G72" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D72" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E72" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F72" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G72" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2848,46 +2849,46 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" s="9"/>
       <c r="C73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E73" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F73" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G73" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D74" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E74" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F74" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G74" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="3"/>
-      <c r="R73" s="7"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
-      <c r="C74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E74" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F74" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G74" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H74" s="28"/>
       <c r="I74" s="29"/>
@@ -2896,48 +2897,49 @@
       <c r="L74" s="29"/>
       <c r="N74" s="18"/>
       <c r="O74" s="3"/>
+      <c r="R74" s="7"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E75" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F75" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G75" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D75" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E75" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F75" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G75" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="21"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E76" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D76" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E76" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F76" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G76" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="29"/>
@@ -2947,71 +2949,69 @@
       <c r="N76" s="20"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E77" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F77" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G77" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="13"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E78" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F78" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G78" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="3"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E79" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F79" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G79" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -3022,93 +3022,96 @@
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
+      <c r="B80" s="13">
+        <v>2016</v>
+      </c>
       <c r="C80" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E80" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F80" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G80" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
-      <c r="N80" s="20"/>
+      <c r="N80" s="18"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E81" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F81" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G81" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
-    </row>
-    <row r="82" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N81" s="20"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E82" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F82" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G82" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+    </row>
+    <row r="83" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E83" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F83" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G83" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -3117,22 +3120,22 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D84" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E84" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F84" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G84" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
@@ -3141,22 +3144,22 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E85" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F85" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G85" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
@@ -3165,22 +3168,22 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E86" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F86" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G86" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3189,46 +3192,46 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E87" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F87" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G87" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H87" s="28"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E88" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F88" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G88" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="8"/>
@@ -3237,543 +3240,547 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E89" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F89" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G89" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H89" s="28"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-    </row>
-    <row r="90" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
-      <c r="C90" s="11" t="s">
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+    </row>
+    <row r="91" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="13"/>
+      <c r="C91" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H90" s="28"/>
-    </row>
-    <row r="91" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="13">
+      <c r="H91" s="28"/>
+    </row>
+    <row r="92" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13">
         <v>2015</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F92" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G92" s="12">
         <v>106703.58823846966</v>
       </c>
-      <c r="H91" s="28"/>
-    </row>
-    <row r="92" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="13"/>
-      <c r="C92" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E92" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F92" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G92" s="12">
-        <v>102316.08713044427</v>
-      </c>
       <c r="H92" s="28"/>
     </row>
-    <row r="93" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D93" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E93" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F93" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G93" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H93" s="28"/>
     </row>
-    <row r="94" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E94" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F94" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G94" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H94" s="28"/>
     </row>
-    <row r="95" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E95" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F95" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G95" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H95" s="28"/>
     </row>
-    <row r="96" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E96" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F96" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G96" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E97" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F97" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G97" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E98" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F98" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G98" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E99" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F99" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G99" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E100" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F100" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G100" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H100" s="28"/>
+    </row>
+    <row r="101" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="13"/>
+      <c r="C101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D101" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E101" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F101" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G101" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="11" t="s">
+      <c r="H101" s="28"/>
+    </row>
+    <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D102" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E102" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F102" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G102" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="13"/>
-      <c r="C102" s="11" t="s">
+      <c r="H102" s="28"/>
+    </row>
+    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="13"/>
+      <c r="C103" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D103" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E103" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F103" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G103" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H102" s="28"/>
-    </row>
-    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="13">
+      <c r="H103" s="28"/>
+    </row>
+    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="13">
         <v>2014</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C104" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D104" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E104" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F104" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G104" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H103" s="28"/>
-    </row>
-    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="13"/>
-      <c r="C104" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E104" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F104" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G104" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E105" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F105" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G105" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E106" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F106" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G106" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E107" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F107" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G107" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E108" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F108" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G108" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E109" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F109" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G109" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H109" s="28"/>
     </row>
     <row r="110" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E110" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F110" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G110" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H110" s="28"/>
     </row>
     <row r="111" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E111" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F111" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G111" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H111" s="28"/>
     </row>
     <row r="112" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E112" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F112" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G112" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H112" s="28"/>
+    </row>
+    <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="13"/>
+      <c r="C113" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D113" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E113" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F113" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G113" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H112" s="28"/>
-    </row>
-    <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="11" t="s">
+      <c r="H113" s="28"/>
+    </row>
+    <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D114" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E114" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F114" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G114" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H113" s="28"/>
-      <c r="I113" s="22"/>
-    </row>
-    <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="13"/>
-      <c r="C114" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E114" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F114" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G114" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H114" s="28"/>
       <c r="I114" s="22"/>
     </row>
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D115" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E115" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F115" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G115" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="13"/>
+      <c r="B116" s="13">
+        <v>2013</v>
+      </c>
       <c r="C116" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E116" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F116" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G116" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
@@ -3781,19 +3788,19 @@
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E117" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F117" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G117" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
@@ -3801,19 +3808,19 @@
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E118" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F118" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G118" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
@@ -3821,39 +3828,39 @@
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E119" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F119" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G119" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D120" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E120" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F120" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G120" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
@@ -3861,19 +3868,19 @@
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E121" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F121" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G121" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
@@ -3881,411 +3888,415 @@
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E122" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F122" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G122" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="22"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E123" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F123" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G123" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H123" s="28"/>
       <c r="I123" s="22"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C124" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E124" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F124" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G124" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C125" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E125" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F125" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G125" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H125" s="28"/>
+      <c r="I125" s="22"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E126" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F126" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G126" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H126" s="28"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C127" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D127" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E127" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F127" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G127" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H126" s="28"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="13">
+      <c r="H127" s="28"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="13">
         <v>2012</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D128" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E128" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F128" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G128" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H127" s="28"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C128" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E128" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F128" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G128" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H128" s="28"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C129" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E129" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F129" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G129" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H129" s="28"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C130" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F130" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G130" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H129" s="28"/>
-    </row>
-    <row r="130" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="13"/>
-      <c r="C130" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D130" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E130" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F130" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G130" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H130" s="28"/>
     </row>
     <row r="131" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13"/>
       <c r="C131" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E131" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F131" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G131" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H131" s="28"/>
     </row>
     <row r="132" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="13"/>
       <c r="C132" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E132" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F132" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G132" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H132" s="28"/>
+    </row>
+    <row r="133" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="13"/>
+      <c r="C133" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D133" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E133" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F133" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G133" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H132" s="28"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C133" s="11" t="s">
+      <c r="H133" s="28"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D134" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E134" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F134" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G134" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H133" s="28"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B134" s="13"/>
-      <c r="C134" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E134" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F134" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G134" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H134" s="28"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B135" s="13"/>
       <c r="C135" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D135" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E135" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F135" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G135" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H135" s="28"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B136" s="13"/>
       <c r="C136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E136" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F136" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G136" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H136" s="28"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B137" s="13"/>
+      <c r="C137" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D137" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E137" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F137" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G137" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H136" s="28"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C137" s="11" t="s">
+      <c r="H137" s="28"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C138" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D138" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E138" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F138" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G138" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H137" s="22"/>
-    </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="11" t="s">
+      <c r="H138" s="22"/>
+    </row>
+    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C139" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="17">
+      <c r="D139" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E139" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F139" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G139" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H138" s="23"/>
-    </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="30"/>
-      <c r="B139" s="31" t="s">
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="30"/>
+      <c r="B140" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="32"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-    </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="34"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="40"/>
+    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="41"/>
-      <c r="B142" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
+    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="35"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B143" s="85"/>
-      <c r="C143" s="85"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="85"/>
-      <c r="I143" s="85"/>
-      <c r="J143" s="85"/>
+    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="41"/>
+      <c r="B143" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="43"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
     <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="86"/>
+      <c r="A144" s="86" t="s">
+        <v>22</v>
+      </c>
       <c r="B144" s="86"/>
       <c r="C144" s="86"/>
       <c r="D144" s="86"/>
@@ -4301,179 +4312,188 @@
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="86"/>
-      <c r="B145" s="86"/>
-      <c r="C145" s="86"/>
-      <c r="D145" s="86"/>
-      <c r="E145" s="86"/>
-      <c r="F145" s="86"/>
-      <c r="G145" s="86"/>
-      <c r="H145" s="86"/>
-      <c r="I145" s="86"/>
-      <c r="J145" s="86"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="87"/>
+      <c r="D145" s="87"/>
+      <c r="E145" s="87"/>
+      <c r="F145" s="87"/>
+      <c r="G145" s="87"/>
+      <c r="H145" s="87"/>
+      <c r="I145" s="87"/>
+      <c r="J145" s="87"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="86"/>
-      <c r="B146" s="86"/>
-      <c r="C146" s="86"/>
-      <c r="D146" s="86"/>
-      <c r="E146" s="86"/>
-      <c r="F146" s="86"/>
-      <c r="G146" s="86"/>
-      <c r="H146" s="86"/>
-      <c r="I146" s="86"/>
-      <c r="J146" s="86"/>
+      <c r="A146" s="87"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="87"/>
+      <c r="D146" s="87"/>
+      <c r="E146" s="87"/>
+      <c r="F146" s="87"/>
+      <c r="G146" s="87"/>
+      <c r="H146" s="87"/>
+      <c r="I146" s="87"/>
+      <c r="J146" s="87"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="86"/>
-      <c r="B147" s="86"/>
-      <c r="C147" s="86"/>
-      <c r="D147" s="86"/>
-      <c r="E147" s="86"/>
-      <c r="F147" s="86"/>
-      <c r="G147" s="86"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="86"/>
-      <c r="J147" s="86"/>
+      <c r="A147" s="87"/>
+      <c r="B147" s="87"/>
+      <c r="C147" s="87"/>
+      <c r="D147" s="87"/>
+      <c r="E147" s="87"/>
+      <c r="F147" s="87"/>
+      <c r="G147" s="87"/>
+      <c r="H147" s="87"/>
+      <c r="I147" s="87"/>
+      <c r="J147" s="87"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="86"/>
-      <c r="B148" s="86"/>
-      <c r="C148" s="86"/>
-      <c r="D148" s="86"/>
-      <c r="E148" s="86"/>
-      <c r="F148" s="86"/>
-      <c r="G148" s="86"/>
-      <c r="H148" s="86"/>
-      <c r="I148" s="86"/>
-      <c r="J148" s="86"/>
+      <c r="A148" s="87"/>
+      <c r="B148" s="87"/>
+      <c r="C148" s="87"/>
+      <c r="D148" s="87"/>
+      <c r="E148" s="87"/>
+      <c r="F148" s="87"/>
+      <c r="G148" s="87"/>
+      <c r="H148" s="87"/>
+      <c r="I148" s="87"/>
+      <c r="J148" s="87"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="86"/>
-      <c r="B149" s="86"/>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="86"/>
-      <c r="F149" s="86"/>
-      <c r="G149" s="86"/>
-      <c r="H149" s="86"/>
-      <c r="I149" s="86"/>
-      <c r="J149" s="86"/>
+      <c r="A149" s="87"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="87"/>
+      <c r="D149" s="87"/>
+      <c r="E149" s="87"/>
+      <c r="F149" s="87"/>
+      <c r="G149" s="87"/>
+      <c r="H149" s="87"/>
+      <c r="I149" s="87"/>
+      <c r="J149" s="87"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="86"/>
-      <c r="B150" s="86"/>
-      <c r="C150" s="86"/>
-      <c r="D150" s="86"/>
-      <c r="E150" s="86"/>
-      <c r="F150" s="86"/>
-      <c r="G150" s="86"/>
-      <c r="H150" s="86"/>
-      <c r="I150" s="86"/>
-      <c r="J150" s="86"/>
+      <c r="A150" s="87"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="87"/>
+      <c r="D150" s="87"/>
+      <c r="E150" s="87"/>
+      <c r="F150" s="87"/>
+      <c r="G150" s="87"/>
+      <c r="H150" s="87"/>
+      <c r="I150" s="87"/>
+      <c r="J150" s="87"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="86"/>
-      <c r="B151" s="86"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="86"/>
-      <c r="E151" s="86"/>
-      <c r="F151" s="86"/>
-      <c r="G151" s="86"/>
-      <c r="H151" s="86"/>
-      <c r="I151" s="86"/>
-      <c r="J151" s="86"/>
+      <c r="A151" s="87"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="87"/>
+      <c r="D151" s="87"/>
+      <c r="E151" s="87"/>
+      <c r="F151" s="87"/>
+      <c r="G151" s="87"/>
+      <c r="H151" s="87"/>
+      <c r="I151" s="87"/>
+      <c r="J151" s="87"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="86"/>
-      <c r="B152" s="86"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="86"/>
-      <c r="E152" s="86"/>
-      <c r="F152" s="86"/>
-      <c r="G152" s="86"/>
-      <c r="H152" s="86"/>
-      <c r="I152" s="86"/>
-      <c r="J152" s="86"/>
+      <c r="A152" s="87"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="87"/>
+      <c r="D152" s="87"/>
+      <c r="E152" s="87"/>
+      <c r="F152" s="87"/>
+      <c r="G152" s="87"/>
+      <c r="H152" s="87"/>
+      <c r="I152" s="87"/>
+      <c r="J152" s="87"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="86"/>
-      <c r="B153" s="86"/>
-      <c r="C153" s="86"/>
-      <c r="D153" s="86"/>
-      <c r="E153" s="86"/>
-      <c r="F153" s="86"/>
-      <c r="G153" s="86"/>
-      <c r="H153" s="86"/>
-      <c r="I153" s="86"/>
-      <c r="J153" s="86"/>
+      <c r="A153" s="87"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="87"/>
+      <c r="D153" s="87"/>
+      <c r="E153" s="87"/>
+      <c r="F153" s="87"/>
+      <c r="G153" s="87"/>
+      <c r="H153" s="87"/>
+      <c r="I153" s="87"/>
+      <c r="J153" s="87"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="86"/>
-      <c r="B154" s="86"/>
-      <c r="C154" s="86"/>
-      <c r="D154" s="86"/>
-      <c r="E154" s="86"/>
-      <c r="F154" s="86"/>
-      <c r="G154" s="86"/>
-      <c r="H154" s="86"/>
-      <c r="I154" s="86"/>
-      <c r="J154" s="86"/>
+      <c r="A154" s="87"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="87"/>
+      <c r="E154" s="87"/>
+      <c r="F154" s="87"/>
+      <c r="G154" s="87"/>
+      <c r="H154" s="87"/>
+      <c r="I154" s="87"/>
+      <c r="J154" s="87"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="86"/>
-      <c r="B155" s="86"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="86"/>
-      <c r="E155" s="86"/>
-      <c r="F155" s="86"/>
-      <c r="G155" s="86"/>
-      <c r="H155" s="86"/>
-      <c r="I155" s="86"/>
-      <c r="J155" s="86"/>
+      <c r="A155" s="87"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="87"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="87"/>
+      <c r="F155" s="87"/>
+      <c r="G155" s="87"/>
+      <c r="H155" s="87"/>
+      <c r="I155" s="87"/>
+      <c r="J155" s="87"/>
     </row>
     <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="86"/>
-      <c r="B156" s="86"/>
-      <c r="C156" s="86"/>
-      <c r="D156" s="86"/>
-      <c r="E156" s="86"/>
-      <c r="F156" s="86"/>
-      <c r="G156" s="86"/>
-      <c r="H156" s="86"/>
-      <c r="I156" s="86"/>
-      <c r="J156" s="86"/>
-    </row>
-    <row r="157" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="4"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
+      <c r="A156" s="87"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="87"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="87"/>
+      <c r="F156" s="87"/>
+      <c r="G156" s="87"/>
+      <c r="H156" s="87"/>
+      <c r="I156" s="87"/>
+      <c r="J156" s="87"/>
+    </row>
+    <row r="157" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="87"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="87"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="87"/>
+      <c r="F157" s="87"/>
+      <c r="G157" s="87"/>
+      <c r="H157" s="87"/>
+      <c r="I157" s="87"/>
+      <c r="J157" s="87"/>
     </row>
     <row r="158" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
@@ -4483,9 +4503,13 @@
       <c r="G158" s="15"/>
     </row>
     <row r="159" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D159" s="15"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C159" s="4"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+    </row>
+    <row r="160" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" s="15"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
@@ -4499,13 +4523,16 @@
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" s="15"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D165" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A143:J156"/>
+    <mergeCell ref="A144:J157"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B25B087-B024-4E72-83AD-1C5A7642E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1F0C61-D925-4613-8F90-EA49E252F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +155,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 25th January 2023</t>
+    <t>Numbers last updated on 21st February 2023</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +397,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1071,10 +1072,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1092,47 +1093,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1178,19 +1179,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15">
-        <v>581166.18618700001</v>
+        <v>621679.26430799998</v>
       </c>
       <c r="E9" s="15">
-        <v>19372.206205999999</v>
+        <v>20054.169816000001</v>
       </c>
       <c r="F9" s="25">
-        <v>3657195.7029101662</v>
+        <v>3912138.7101554479</v>
       </c>
       <c r="G9" s="25">
-        <v>121906.52343033889</v>
+        <v>126198.02290824025</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1201,22 +1202,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="15">
-        <v>689253.59670899995</v>
+        <v>581166.18618700001</v>
       </c>
       <c r="E10" s="15">
-        <v>22233.986990000001</v>
+        <v>19372.206205999999</v>
       </c>
       <c r="F10" s="25">
-        <v>4337374.3208254073</v>
+        <v>3657195.7029101662</v>
       </c>
       <c r="G10" s="25">
-        <v>139915.30067178735</v>
+        <v>121906.52343033889</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1227,22 +1228,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="15">
-        <v>605733.99690699996</v>
+        <v>689253.59670899995</v>
       </c>
       <c r="E11" s="15">
-        <v>20191.133229999999</v>
+        <v>22233.986990000001</v>
       </c>
       <c r="F11" s="25">
-        <v>3811797.4225741932</v>
+        <v>4337374.3208254073</v>
       </c>
       <c r="G11" s="25">
-        <v>127059.91408580645</v>
+        <v>139915.30067178735</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1253,22 +1254,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="15">
-        <v>764283.47460900003</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E12" s="15">
-        <v>24654.305632</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F12" s="25">
-        <v>4809526.6131775687</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G12" s="25">
-        <v>155146.01977992154</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1279,22 +1280,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="15">
-        <v>754659.58550000004</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E13" s="15">
-        <v>24343.857596000002</v>
+        <v>24654.305632</v>
       </c>
       <c r="F13" s="25">
-        <v>4748964.8552307729</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G13" s="25">
-        <v>153192.41468486364</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1305,22 +1306,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="15">
-        <v>811142.03678099997</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E14" s="15">
-        <v>27038.067891999999</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F14" s="25">
-        <v>5104400.8441515733</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G14" s="25">
-        <v>170146.69480505245</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1331,22 +1332,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="15">
-        <v>852839.47011300002</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E15" s="15">
-        <v>27510.950647999998</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F15" s="25">
-        <v>5366796.8293768829</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G15" s="25">
-        <v>173122.47836699622</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1357,22 +1358,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E16" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F16" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G16" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1383,22 +1384,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E17" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F17" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G17" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1409,22 +1410,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E18" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F18" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G18" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1435,22 +1436,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E19" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F19" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G19" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1461,24 +1462,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13">
-        <v>2021</v>
-      </c>
+    <row r="20" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" s="15">
-        <v>652039.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E20" s="15">
-        <v>21033.528412</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F20" s="25">
-        <v>4103190.5817429456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G20" s="25">
-        <v>132360.98650783696</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1489,22 +1488,24 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
+    <row r="21" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13">
+        <v>2021</v>
+      </c>
       <c r="C21" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="15">
-        <v>630694.20088599995</v>
+        <v>652019.38080000004</v>
       </c>
       <c r="E21" s="15">
-        <v>21023.140028999998</v>
+        <v>21032.883250999999</v>
       </c>
       <c r="F21" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103064.7246029456</v>
       </c>
       <c r="G21" s="25">
-        <v>132295.61389682905</v>
+        <v>132356.92660009503</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1515,22 +1516,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E22" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F22" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G22" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1541,22 +1542,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E23" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F23" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G23" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1567,22 +1568,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E24" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F24" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G24" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1593,22 +1594,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E25" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F25" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G25" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1619,22 +1620,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E26" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F26" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G26" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1645,22 +1646,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E27" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F27" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G27" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1671,22 +1672,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E28" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F28" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G28" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1697,22 +1698,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E29" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F29" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G29" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1723,22 +1724,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E30" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F30" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G30" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1749,22 +1750,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E31" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F31" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G31" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1775,24 +1776,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13">
-        <v>2020</v>
-      </c>
+    <row r="32" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E32" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F32" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G32" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1803,22 +1802,24 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
+    <row r="33" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
+        <v>2020</v>
+      </c>
       <c r="C33" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E33" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F33" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G33" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1829,22 +1830,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E34" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F34" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G34" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1855,22 +1856,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E35" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F35" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G35" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1881,22 +1882,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E36" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F36" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G36" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1907,22 +1908,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E37" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F37" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G37" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1933,22 +1934,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E38" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F38" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G38" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1959,22 +1960,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E39" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F39" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G39" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1985,22 +1986,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E40" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F40" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G40" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2011,22 +2012,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E41" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F41" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G41" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2037,22 +2038,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E42" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F42" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G42" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2063,22 +2064,22 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E43" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F43" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G43" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2089,24 +2090,22 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13">
-        <v>2019</v>
-      </c>
+    <row r="44" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D44" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E44" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F44" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G44" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2117,22 +2116,24 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="13"/>
+    <row r="45" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13">
+        <v>2019</v>
+      </c>
       <c r="C45" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E45" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F45" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G45" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2143,22 +2144,22 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E46" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F46" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G46" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2166,25 +2167,25 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="3"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
     </row>
     <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E47" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F47" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G47" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2198,19 +2199,19 @@
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E48" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F48" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G48" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2224,19 +2225,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E49" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F49" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G49" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2250,19 +2251,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E50" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F50" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G50" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2276,19 +2277,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E51" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F51" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G51" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2302,19 +2303,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E52" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F52" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G52" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2328,19 +2329,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E53" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F53" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G53" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2354,19 +2355,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E54" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F54" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G54" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -2380,19 +2381,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E55" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F55" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G55" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -2404,25 +2405,23 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E56" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E56" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F56" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G56" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
@@ -2432,21 +2431,23 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="13"/>
+      <c r="B57" s="13">
+        <v>2018</v>
+      </c>
       <c r="C57" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E57" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F57" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G57" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="14"/>
@@ -2460,19 +2461,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E58" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F58" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G58" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2486,19 +2487,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E59" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F59" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G59" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2512,19 +2513,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E60" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F60" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G60" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2538,19 +2539,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E61" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F61" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G61" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2564,19 +2565,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E62" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F62" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G62" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2590,19 +2591,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E63" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F63" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G63" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2616,19 +2617,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E64" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F64" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G64" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="14"/>
@@ -2642,19 +2643,19 @@
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E65" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F65" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G65" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="14"/>
@@ -2668,19 +2669,19 @@
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E66" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F66" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G66" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="14"/>
@@ -2694,19 +2695,19 @@
     <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E67" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F67" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G67" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="14"/>
@@ -2718,49 +2719,49 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E68" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F68" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G68" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D68" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E68" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F68" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G68" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
       <c r="N68" s="19"/>
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
+      <c r="B69" s="13">
+        <v>2017</v>
+      </c>
       <c r="C69" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E69" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F69" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G69" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2774,19 +2775,19 @@
     <row r="70" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E70" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F70" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G70" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2800,19 +2801,19 @@
     <row r="71" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E71" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F71" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G71" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D71" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E71" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F71" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G71" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2823,21 +2824,22 @@
       <c r="N71" s="19"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E72" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F72" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G72" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D72" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E72" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F72" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G72" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2849,21 +2851,20 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="9"/>
       <c r="C73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E73" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F73" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G73" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D73" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E73" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F73" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G73" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2875,46 +2876,46 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="9"/>
       <c r="C74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E74" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F74" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G74" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C75" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D75" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E75" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F75" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G75" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H74" s="28"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="3"/>
-      <c r="R74" s="7"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
-      <c r="C75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E75" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F75" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G75" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H75" s="28"/>
       <c r="I75" s="29"/>
@@ -2923,48 +2924,49 @@
       <c r="L75" s="29"/>
       <c r="N75" s="18"/>
       <c r="O75" s="3"/>
+      <c r="R75" s="7"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E76" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F76" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G76" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D76" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E76" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F76" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G76" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="21"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E77" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D77" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E77" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F77" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G77" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="29"/>
@@ -2974,71 +2976,69 @@
       <c r="N77" s="20"/>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E78" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F78" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G78" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="21"/>
+    </row>
+    <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E79" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F79" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G79" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="3"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D80" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E80" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F80" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G80" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -3049,93 +3049,96 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
+      <c r="B81" s="13">
+        <v>2016</v>
+      </c>
       <c r="C81" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E81" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F81" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G81" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
-      <c r="N81" s="20"/>
+      <c r="N81" s="18"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E82" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F82" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G82" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="3"/>
     </row>
     <row r="83" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E83" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F83" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G83" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
     </row>
     <row r="84" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E84" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F84" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G84" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
@@ -3147,19 +3150,19 @@
     <row r="85" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E85" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F85" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G85" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
@@ -3171,19 +3174,19 @@
     <row r="86" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E86" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F86" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G86" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3195,19 +3198,19 @@
     <row r="87" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E87" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F87" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G87" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
@@ -3219,23 +3222,23 @@
     <row r="88" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E88" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F88" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G88" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H88" s="28"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -3243,19 +3246,19 @@
     <row r="89" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E89" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F89" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G89" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="8"/>
@@ -3265,542 +3268,546 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E90" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F90" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G90" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H90" s="28"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-    </row>
-    <row r="91" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="13"/>
-      <c r="C91" s="11" t="s">
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+    </row>
+    <row r="92" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13"/>
+      <c r="C92" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F92" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G92" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H91" s="28"/>
-    </row>
-    <row r="92" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="13">
+      <c r="H92" s="28"/>
+    </row>
+    <row r="93" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="13">
         <v>2015</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F93" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H92" s="28"/>
-    </row>
-    <row r="93" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="13"/>
-      <c r="C93" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E93" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F93" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G93" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H93" s="28"/>
     </row>
     <row r="94" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D94" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E94" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F94" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G94" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E95" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F95" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G95" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E96" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F96" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G96" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E97" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F97" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G97" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E98" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F98" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G98" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E99" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F99" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G99" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E100" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F100" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G100" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E101" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F101" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G101" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H101" s="28"/>
+    </row>
+    <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="13"/>
+      <c r="C102" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D102" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E102" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F102" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G102" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="11" t="s">
+      <c r="H102" s="28"/>
+    </row>
+    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D103" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E103" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F103" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G103" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H102" s="28"/>
-    </row>
-    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="13"/>
-      <c r="C103" s="11" t="s">
+      <c r="H103" s="28"/>
+    </row>
+    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="13"/>
+      <c r="C104" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D104" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E104" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F104" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G104" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H103" s="28"/>
-    </row>
-    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="13">
+      <c r="H104" s="28"/>
+    </row>
+    <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="13">
         <v>2014</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C105" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D105" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E105" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F105" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G105" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H104" s="28"/>
-    </row>
-    <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="13"/>
-      <c r="C105" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E105" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F105" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G105" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E106" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F106" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G106" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E107" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F107" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G107" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E108" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F108" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G108" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E109" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F109" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G109" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H109" s="28"/>
     </row>
     <row r="110" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E110" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F110" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G110" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H110" s="28"/>
     </row>
     <row r="111" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E111" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F111" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G111" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H111" s="28"/>
     </row>
     <row r="112" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E112" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F112" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G112" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H112" s="28"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E113" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F113" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G113" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H113" s="28"/>
+    </row>
+    <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="13"/>
+      <c r="C114" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D114" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E114" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F114" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G114" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H113" s="28"/>
-    </row>
-    <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="11" t="s">
+      <c r="H114" s="28"/>
+    </row>
+    <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D115" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E115" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F115" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G115" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H114" s="28"/>
-      <c r="I114" s="22"/>
-    </row>
-    <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="13"/>
-      <c r="C115" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E115" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F115" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G115" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H115" s="28"/>
       <c r="I115" s="22"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D116" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E116" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F116" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G116" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="13"/>
+      <c r="B117" s="13">
+        <v>2013</v>
+      </c>
       <c r="C117" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E117" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F117" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G117" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
@@ -3808,19 +3815,19 @@
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E118" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F118" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G118" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
@@ -3828,19 +3835,19 @@
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D119" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E119" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F119" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G119" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
@@ -3848,39 +3855,39 @@
     <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E120" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F120" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G120" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D121" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E121" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F121" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G121" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
@@ -3888,19 +3895,19 @@
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E122" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F122" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G122" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="22"/>
@@ -3908,411 +3915,415 @@
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E123" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F123" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G123" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H123" s="28"/>
       <c r="I123" s="22"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D124" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E124" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F124" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G124" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C125" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E125" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F125" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G125" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="22"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D126" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E126" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F126" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G126" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H126" s="28"/>
+      <c r="I126" s="22"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C127" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E127" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F127" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G127" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H127" s="28"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D128" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E128" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F128" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G128" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H127" s="28"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="13">
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B129" s="13">
         <v>2012</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D129" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E129" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F129" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G129" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C129" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E129" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F129" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G129" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H129" s="28"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E130" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F130" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G130" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H130" s="28"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D131" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E131" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F131" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G131" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H130" s="28"/>
-    </row>
-    <row r="131" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="13"/>
-      <c r="C131" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E131" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F131" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G131" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H131" s="28"/>
     </row>
     <row r="132" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="13"/>
       <c r="C132" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E132" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F132" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G132" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H132" s="28"/>
     </row>
     <row r="133" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="13"/>
       <c r="C133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E133" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F133" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G133" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H133" s="28"/>
+    </row>
+    <row r="134" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="13"/>
+      <c r="C134" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D134" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E134" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F134" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G134" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H133" s="28"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C134" s="11" t="s">
+      <c r="H134" s="28"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C135" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D135" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E135" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F135" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G135" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H134" s="28"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B135" s="13"/>
-      <c r="C135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E135" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F135" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G135" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H135" s="28"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B136" s="13"/>
       <c r="C136" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E136" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F136" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G136" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H136" s="28"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B137" s="13"/>
       <c r="C137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E137" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F137" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G137" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H137" s="28"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B138" s="13"/>
+      <c r="C138" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D138" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E138" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F138" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G138" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H137" s="28"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C138" s="11" t="s">
+      <c r="H138" s="28"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C139" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D139" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E139" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F139" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G139" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H138" s="22"/>
-    </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="11" t="s">
+      <c r="H139" s="22"/>
+    </row>
+    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C140" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="17">
+      <c r="D140" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E140" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F140" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G140" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H139" s="23"/>
-    </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="30"/>
-      <c r="B140" s="31" t="s">
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="30"/>
+      <c r="B141" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C140" s="32"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-    </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141" s="11"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="34"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="38"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="40"/>
+    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="41"/>
-      <c r="B143" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="43"/>
+    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="35"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="B144" s="86"/>
-      <c r="C144" s="86"/>
-      <c r="D144" s="86"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="86"/>
-      <c r="G144" s="86"/>
-      <c r="H144" s="86"/>
-      <c r="I144" s="86"/>
-      <c r="J144" s="86"/>
+    <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="41"/>
+      <c r="B144" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="43"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="43"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
     <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="87"/>
+      <c r="A145" s="87" t="s">
+        <v>22</v>
+      </c>
       <c r="B145" s="87"/>
       <c r="C145" s="87"/>
       <c r="D145" s="87"/>
@@ -4328,179 +4339,188 @@
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="87"/>
-      <c r="B146" s="87"/>
-      <c r="C146" s="87"/>
-      <c r="D146" s="87"/>
-      <c r="E146" s="87"/>
-      <c r="F146" s="87"/>
-      <c r="G146" s="87"/>
-      <c r="H146" s="87"/>
-      <c r="I146" s="87"/>
-      <c r="J146" s="87"/>
+      <c r="A146" s="88"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="88"/>
+      <c r="D146" s="88"/>
+      <c r="E146" s="88"/>
+      <c r="F146" s="88"/>
+      <c r="G146" s="88"/>
+      <c r="H146" s="88"/>
+      <c r="I146" s="88"/>
+      <c r="J146" s="88"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="87"/>
-      <c r="B147" s="87"/>
-      <c r="C147" s="87"/>
-      <c r="D147" s="87"/>
-      <c r="E147" s="87"/>
-      <c r="F147" s="87"/>
-      <c r="G147" s="87"/>
-      <c r="H147" s="87"/>
-      <c r="I147" s="87"/>
-      <c r="J147" s="87"/>
+      <c r="A147" s="88"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="88"/>
+      <c r="D147" s="88"/>
+      <c r="E147" s="88"/>
+      <c r="F147" s="88"/>
+      <c r="G147" s="88"/>
+      <c r="H147" s="88"/>
+      <c r="I147" s="88"/>
+      <c r="J147" s="88"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="87"/>
-      <c r="B148" s="87"/>
-      <c r="C148" s="87"/>
-      <c r="D148" s="87"/>
-      <c r="E148" s="87"/>
-      <c r="F148" s="87"/>
-      <c r="G148" s="87"/>
-      <c r="H148" s="87"/>
-      <c r="I148" s="87"/>
-      <c r="J148" s="87"/>
+      <c r="A148" s="88"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="88"/>
+      <c r="D148" s="88"/>
+      <c r="E148" s="88"/>
+      <c r="F148" s="88"/>
+      <c r="G148" s="88"/>
+      <c r="H148" s="88"/>
+      <c r="I148" s="88"/>
+      <c r="J148" s="88"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="87"/>
-      <c r="B149" s="87"/>
-      <c r="C149" s="87"/>
-      <c r="D149" s="87"/>
-      <c r="E149" s="87"/>
-      <c r="F149" s="87"/>
-      <c r="G149" s="87"/>
-      <c r="H149" s="87"/>
-      <c r="I149" s="87"/>
-      <c r="J149" s="87"/>
+      <c r="A149" s="88"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="88"/>
+      <c r="D149" s="88"/>
+      <c r="E149" s="88"/>
+      <c r="F149" s="88"/>
+      <c r="G149" s="88"/>
+      <c r="H149" s="88"/>
+      <c r="I149" s="88"/>
+      <c r="J149" s="88"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="87"/>
-      <c r="B150" s="87"/>
-      <c r="C150" s="87"/>
-      <c r="D150" s="87"/>
-      <c r="E150" s="87"/>
-      <c r="F150" s="87"/>
-      <c r="G150" s="87"/>
-      <c r="H150" s="87"/>
-      <c r="I150" s="87"/>
-      <c r="J150" s="87"/>
+      <c r="A150" s="88"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="88"/>
+      <c r="D150" s="88"/>
+      <c r="E150" s="88"/>
+      <c r="F150" s="88"/>
+      <c r="G150" s="88"/>
+      <c r="H150" s="88"/>
+      <c r="I150" s="88"/>
+      <c r="J150" s="88"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="87"/>
-      <c r="B151" s="87"/>
-      <c r="C151" s="87"/>
-      <c r="D151" s="87"/>
-      <c r="E151" s="87"/>
-      <c r="F151" s="87"/>
-      <c r="G151" s="87"/>
-      <c r="H151" s="87"/>
-      <c r="I151" s="87"/>
-      <c r="J151" s="87"/>
+      <c r="A151" s="88"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="88"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="88"/>
+      <c r="F151" s="88"/>
+      <c r="G151" s="88"/>
+      <c r="H151" s="88"/>
+      <c r="I151" s="88"/>
+      <c r="J151" s="88"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="87"/>
-      <c r="B152" s="87"/>
-      <c r="C152" s="87"/>
-      <c r="D152" s="87"/>
-      <c r="E152" s="87"/>
-      <c r="F152" s="87"/>
-      <c r="G152" s="87"/>
-      <c r="H152" s="87"/>
-      <c r="I152" s="87"/>
-      <c r="J152" s="87"/>
+      <c r="A152" s="88"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="88"/>
+      <c r="D152" s="88"/>
+      <c r="E152" s="88"/>
+      <c r="F152" s="88"/>
+      <c r="G152" s="88"/>
+      <c r="H152" s="88"/>
+      <c r="I152" s="88"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="87"/>
-      <c r="B153" s="87"/>
-      <c r="C153" s="87"/>
-      <c r="D153" s="87"/>
-      <c r="E153" s="87"/>
-      <c r="F153" s="87"/>
-      <c r="G153" s="87"/>
-      <c r="H153" s="87"/>
-      <c r="I153" s="87"/>
-      <c r="J153" s="87"/>
+      <c r="A153" s="88"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="88"/>
+      <c r="D153" s="88"/>
+      <c r="E153" s="88"/>
+      <c r="F153" s="88"/>
+      <c r="G153" s="88"/>
+      <c r="H153" s="88"/>
+      <c r="I153" s="88"/>
+      <c r="J153" s="88"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="87"/>
-      <c r="B154" s="87"/>
-      <c r="C154" s="87"/>
-      <c r="D154" s="87"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="87"/>
-      <c r="G154" s="87"/>
-      <c r="H154" s="87"/>
-      <c r="I154" s="87"/>
-      <c r="J154" s="87"/>
+      <c r="A154" s="88"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="88"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="88"/>
+      <c r="F154" s="88"/>
+      <c r="G154" s="88"/>
+      <c r="H154" s="88"/>
+      <c r="I154" s="88"/>
+      <c r="J154" s="88"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="87"/>
-      <c r="B155" s="87"/>
-      <c r="C155" s="87"/>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
-      <c r="F155" s="87"/>
-      <c r="G155" s="87"/>
-      <c r="H155" s="87"/>
-      <c r="I155" s="87"/>
-      <c r="J155" s="87"/>
+      <c r="A155" s="88"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="88"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="88"/>
+      <c r="G155" s="88"/>
+      <c r="H155" s="88"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="88"/>
     </row>
     <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="87"/>
-      <c r="B156" s="87"/>
-      <c r="C156" s="87"/>
-      <c r="D156" s="87"/>
-      <c r="E156" s="87"/>
-      <c r="F156" s="87"/>
-      <c r="G156" s="87"/>
-      <c r="H156" s="87"/>
-      <c r="I156" s="87"/>
-      <c r="J156" s="87"/>
+      <c r="A156" s="88"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="88"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="88"/>
+      <c r="H156" s="88"/>
+      <c r="I156" s="88"/>
+      <c r="J156" s="88"/>
     </row>
     <row r="157" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="87"/>
-      <c r="B157" s="87"/>
-      <c r="C157" s="87"/>
-      <c r="D157" s="87"/>
-      <c r="E157" s="87"/>
-      <c r="F157" s="87"/>
-      <c r="G157" s="87"/>
-      <c r="H157" s="87"/>
-      <c r="I157" s="87"/>
-      <c r="J157" s="87"/>
-    </row>
-    <row r="158" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="4"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
+      <c r="A157" s="88"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="88"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="88"/>
+      <c r="H157" s="88"/>
+      <c r="I157" s="88"/>
+      <c r="J157" s="88"/>
+    </row>
+    <row r="158" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="88"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="88"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="88"/>
+      <c r="J158" s="88"/>
     </row>
     <row r="159" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
@@ -4510,9 +4530,13 @@
       <c r="G159" s="15"/>
     </row>
     <row r="160" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="C160" s="4"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+    </row>
+    <row r="161" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" s="15"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
@@ -4526,13 +4550,16 @@
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" s="15"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D166" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A144:J157"/>
+    <mergeCell ref="A145:J158"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1F0C61-D925-4613-8F90-EA49E252F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CC2B2B-8876-4BA0-B35E-DF4E588E0D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -155,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 21st February 2023</t>
+    <t>Numbers last updated on 22nd March 2023</t>
   </si>
 </sst>
 </file>
@@ -290,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -397,6 +410,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1072,10 +1086,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1093,47 +1107,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1176,22 +1190,22 @@
     </row>
     <row r="9" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D9" s="15">
-        <v>621679.26430799998</v>
+        <v>591517.59899099998</v>
       </c>
       <c r="E9" s="15">
-        <v>20054.169816000001</v>
+        <v>19081.212869999999</v>
       </c>
       <c r="F9" s="25">
-        <v>3912138.7101554479</v>
+        <v>3722335.6634337073</v>
       </c>
       <c r="G9" s="25">
-        <v>126198.02290824025</v>
+        <v>120075.3439817325</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1202,22 +1216,24 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13">
+        <v>2022</v>
+      </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="15">
-        <v>581166.18618700001</v>
+        <v>621679.26430799998</v>
       </c>
       <c r="E10" s="15">
-        <v>19372.206205999999</v>
+        <v>20054.169816000001</v>
       </c>
       <c r="F10" s="25">
-        <v>3657195.7029101662</v>
+        <v>3912138.7101554479</v>
       </c>
       <c r="G10" s="25">
-        <v>121906.52343033889</v>
+        <v>126198.02290824025</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1228,22 +1244,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="15">
-        <v>689253.59670899995</v>
+        <v>581166.18618700001</v>
       </c>
       <c r="E11" s="15">
-        <v>22233.986990000001</v>
+        <v>19372.206205999999</v>
       </c>
       <c r="F11" s="25">
-        <v>4337374.3208254073</v>
+        <v>3657195.7029101662</v>
       </c>
       <c r="G11" s="25">
-        <v>139915.30067178735</v>
+        <v>121906.52343033889</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1254,22 +1270,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="15">
-        <v>605733.99690699996</v>
+        <v>689253.59670899995</v>
       </c>
       <c r="E12" s="15">
-        <v>20191.133229999999</v>
+        <v>22233.986990000001</v>
       </c>
       <c r="F12" s="25">
-        <v>3811797.4225741932</v>
+        <v>4337374.3208254073</v>
       </c>
       <c r="G12" s="25">
-        <v>127059.91408580645</v>
+        <v>139915.30067178735</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1280,22 +1296,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="15">
-        <v>764283.47460900003</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E13" s="15">
-        <v>24654.305632</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F13" s="25">
-        <v>4809526.6131775687</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G13" s="25">
-        <v>155146.01977992154</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1306,22 +1322,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="15">
-        <v>754659.58550000004</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E14" s="15">
-        <v>24343.857596000002</v>
+        <v>24654.305632</v>
       </c>
       <c r="F14" s="25">
-        <v>4748964.8552307729</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G14" s="25">
-        <v>153192.41468486364</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1332,22 +1348,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="15">
-        <v>811142.03678099997</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E15" s="15">
-        <v>27038.067891999999</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F15" s="25">
-        <v>5104400.8441515733</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G15" s="25">
-        <v>170146.69480505245</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1358,22 +1374,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="15">
-        <v>852839.47011300002</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E16" s="15">
-        <v>27510.950647999998</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F16" s="25">
-        <v>5366796.8293768829</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G16" s="25">
-        <v>173122.47836699622</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1384,22 +1400,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="15">
-        <v>687298.73723800003</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E17" s="15">
-        <v>22909.957907</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F17" s="25">
-        <v>4325072.6697193086</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G17" s="25">
-        <v>144169.08899064365</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1410,22 +1426,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="15">
-        <v>748262.834699</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E18" s="15">
-        <v>24137.510795999999</v>
+        <v>22909.957907</v>
       </c>
       <c r="F18" s="25">
-        <v>4708711.0171754453</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G18" s="25">
-        <v>151893.90377985305</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1436,22 +1452,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="15">
-        <v>555213.606959</v>
+        <v>748262.834699</v>
       </c>
       <c r="E19" s="15">
-        <v>19829.057390999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F19" s="25">
-        <v>3493879.8330471921</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G19" s="25">
-        <v>124781.42260882829</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1462,22 +1478,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="15">
-        <v>652563.46630800003</v>
+        <v>555213.606959</v>
       </c>
       <c r="E20" s="15">
-        <v>21050.434397000001</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F20" s="25">
-        <v>4106488.5769005618</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G20" s="25">
-        <v>132467.37344840521</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1488,24 +1504,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13">
-        <v>2021</v>
-      </c>
+    <row r="21" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="15">
-        <v>652019.38080000004</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E21" s="15">
-        <v>21032.883250999999</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F21" s="25">
-        <v>4103064.7246029456</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G21" s="25">
-        <v>132356.92660009503</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1516,22 +1530,24 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+    <row r="22" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13">
+        <v>2021</v>
+      </c>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="15">
-        <v>630694.20088599995</v>
+        <v>652019.38080000004</v>
       </c>
       <c r="E22" s="15">
-        <v>21023.140028999998</v>
+        <v>21032.883250999999</v>
       </c>
       <c r="F22" s="25">
-        <v>3968868.4169048714</v>
+        <v>4103064.7246029456</v>
       </c>
       <c r="G22" s="25">
-        <v>132295.61389682905</v>
+        <v>132356.92660009503</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1542,22 +1558,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="15">
-        <v>653554.90011000005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E23" s="15">
-        <v>21082.416131999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F23" s="25">
-        <v>4112727.5280415146</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G23" s="25">
-        <v>132668.62993682304</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1568,22 +1584,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="15">
-        <v>787255.85854499997</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E24" s="15">
-        <v>26241.861950999999</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F24" s="25">
-        <v>4954088.5402359134</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G24" s="25">
-        <v>165136.28467453044</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1594,22 +1610,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="15">
-        <v>835957.17292699998</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E25" s="15">
-        <v>26966.360417</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F25" s="25">
-        <v>5260558.9473538827</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G25" s="25">
-        <v>169695.44991464139</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1620,22 +1636,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="15">
-        <v>708627.37697600003</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E26" s="15">
-        <v>22858.947644</v>
+        <v>26966.360417</v>
       </c>
       <c r="F26" s="25">
-        <v>4459290.74959506</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G26" s="25">
-        <v>143848.08869661484</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1646,22 +1662,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="15">
-        <v>633252.08580700005</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E27" s="15">
-        <v>21108.402859999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F27" s="25">
-        <v>3984964.8209351809</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G27" s="25">
-        <v>132832.16069783937</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1672,22 +1688,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="15">
-        <v>631973.26563000004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E28" s="15">
-        <v>20386.234375</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F28" s="25">
-        <v>3976917.3884326047</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G28" s="25">
-        <v>128287.65769137435</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1698,22 +1714,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="15">
-        <v>619556.10921200004</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E29" s="15">
-        <v>20651.870307000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F29" s="25">
-        <v>3898777.9987474987</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G29" s="25">
-        <v>129959.26662491662</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1724,22 +1740,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="15">
-        <v>864945.59575500002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E30" s="15">
-        <v>27901.470829999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F30" s="25">
-        <v>5442978.9468660224</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G30" s="25">
-        <v>175579.9660279362</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1750,22 +1766,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="15">
-        <v>497767.01864000002</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E31" s="15">
-        <v>17777.393521999998</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F31" s="25">
-        <v>3132376.6676178547</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G31" s="25">
-        <v>111870.59527206622</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1776,22 +1792,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="15">
-        <v>958714.76984600001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E32" s="15">
-        <v>30926.282898000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F32" s="25">
-        <v>6033054.9504287895</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G32" s="25">
-        <v>194614.67582028356</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1802,24 +1818,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13">
-        <v>2020</v>
-      </c>
+    <row r="33" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D33" s="15">
-        <v>938216.01383800001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E33" s="15">
-        <v>30265.032704000001</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F33" s="25">
-        <v>5904059.2101925546</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G33" s="25">
-        <v>190453.52290943725</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1830,22 +1844,24 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
+    <row r="34" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13">
+        <v>2020</v>
+      </c>
       <c r="C34" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" s="15">
-        <v>825199.79770700005</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E34" s="15">
-        <v>27506.659922999999</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F34" s="25">
-        <v>5192864.323399079</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G34" s="25">
-        <v>173095.47744663598</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1856,22 +1872,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" s="15">
-        <v>457210.72882199998</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E35" s="15">
-        <v>14748.733187</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F35" s="25">
-        <v>2877161.7353426241</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G35" s="25">
-        <v>92811.668882020138</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1882,22 +1898,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="15">
-        <v>355962.18939100002</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E36" s="15">
-        <v>11865.406312999999</v>
+        <v>14748.733187</v>
       </c>
       <c r="F36" s="25">
-        <v>2240019.1552444799</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G36" s="25">
-        <v>74667.305174816007</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1908,22 +1924,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="15">
-        <v>251494.72360200001</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E37" s="15">
-        <v>8112.7330190000002</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F37" s="25">
-        <v>1582620.331881911</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G37" s="25">
-        <v>51052.268770384224</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1934,22 +1950,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" s="15">
-        <v>191467.74559999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E38" s="15">
-        <v>6176.37889</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F38" s="25">
-        <v>1204879.1431731791</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G38" s="25">
-        <v>38867.06913461868</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1960,22 +1976,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="15">
-        <v>204137.25868999999</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E39" s="15">
-        <v>6804.5752890000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F39" s="25">
-        <v>1284606.5773081775</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G39" s="25">
-        <v>42820.219243605912</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1986,22 +2002,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="15">
-        <v>285955.87647999998</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E40" s="15">
-        <v>9224.3831119999995</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F40" s="25">
-        <v>1799479.4389983031</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G40" s="25">
-        <v>58047.723838654943</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2012,22 +2028,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="15">
-        <v>744852.00140499999</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E41" s="15">
-        <v>24828.400045999999</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F41" s="25">
-        <v>4687247.1310054641</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G41" s="25">
-        <v>156241.57103351544</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2038,22 +2054,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="15">
-        <v>1726969.163712</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E42" s="15">
-        <v>55708.682699999998</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F42" s="25">
-        <v>10867569.990649205</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G42" s="25">
-        <v>350566.7738919098</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2064,22 +2080,22 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="15">
-        <v>1898618.6160540001</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E43" s="15">
-        <v>65469.607450000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F43" s="25">
-        <v>11947735.448365727</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G43" s="25">
-        <v>411990.87752985262</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2090,22 +2106,22 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="15">
-        <v>1989047.6002829999</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E44" s="15">
-        <v>64162.825814999997</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F44" s="25">
-        <v>12516792.114774078</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G44" s="25">
-        <v>403767.48757335736</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2116,24 +2132,22 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="13">
-        <v>2019</v>
-      </c>
+    <row r="45" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D45" s="15">
-        <v>1710070.2071700001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E45" s="15">
-        <v>55163.555070000002</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F45" s="25">
-        <v>10761227.273681184</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G45" s="25">
-        <v>347136.36366713495</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2144,22 +2158,24 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
+    <row r="46" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13">
+        <v>2019</v>
+      </c>
       <c r="C46" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" s="15">
-        <v>1441371.4144830001</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E46" s="15">
-        <v>48045.713816000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F46" s="25">
-        <v>9070344.1952292472</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G46" s="25">
-        <v>302344.80650764162</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2170,22 +2186,22 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" s="15">
-        <v>1330424.701689</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E47" s="15">
-        <v>42916.925860000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F47" s="25">
-        <v>8372172.3969965354</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G47" s="25">
-        <v>270070.07732246892</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2193,25 +2209,25 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="3"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
     </row>
     <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="15">
-        <v>1523602.3797500001</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E48" s="15">
-        <v>50786.745991000003</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F48" s="25">
-        <v>9587811.9006264452</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G48" s="25">
-        <v>319593.73002088151</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2225,19 +2241,19 @@
     <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="15">
-        <v>1583842.188998</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E49" s="15">
-        <v>51091.683515999997</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F49" s="25">
-        <v>9966892.4059313871</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G49" s="25">
-        <v>321512.65825585119</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2251,19 +2267,19 @@
     <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="15">
-        <v>1599425.591243</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E50" s="15">
-        <v>51594.373911000002</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F50" s="25">
-        <v>10064956.52783265</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G50" s="25">
-        <v>324676.01702685968</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2277,19 +2293,19 @@
     <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="15">
-        <v>1422059.9636609999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E51" s="15">
-        <v>47401.998787999997</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F51" s="25">
-        <v>8948819.996743869</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G51" s="25">
-        <v>298293.99989146233</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2303,19 +2319,19 @@
     <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="15">
-        <v>1459021.581333</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E52" s="15">
-        <v>47065.212301</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F52" s="25">
-        <v>9181414.1712424383</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G52" s="25">
-        <v>296174.65068523993</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2329,19 +2345,19 @@
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="15">
-        <v>1143952.7800350001</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E53" s="15">
-        <v>38131.759334000002</v>
+        <v>47065.212301</v>
       </c>
       <c r="F53" s="25">
-        <v>7198731.2595127104</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G53" s="25">
-        <v>239957.70865042368</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2355,19 +2371,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="15">
-        <v>857730.976517</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E54" s="15">
-        <v>27668.741177</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F54" s="25">
-        <v>5397578.3796918392</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G54" s="25">
-        <v>174115.43160296255</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -2381,19 +2397,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="15">
-        <v>589229.82238999999</v>
+        <v>857730.976517</v>
       </c>
       <c r="E55" s="15">
-        <v>21043.922227999999</v>
+        <v>27668.741177</v>
       </c>
       <c r="F55" s="25">
-        <v>3707939.0124356686</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G55" s="25">
-        <v>132426.39330127387</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -2407,19 +2423,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="15">
-        <v>1659957.116588</v>
+        <v>589229.82238999999</v>
       </c>
       <c r="E56" s="15">
-        <v>53547.00376</v>
+        <v>21043.922227999999</v>
       </c>
       <c r="F56" s="25">
-        <v>10445872.760820612</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G56" s="25">
-        <v>336963.6374458262</v>
+        <v>132426.39330127387</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -2431,25 +2447,23 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E57" s="25">
-        <v>57985.335477000001</v>
+        <v>9</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E57" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F57" s="25">
-        <v>11311696.151993278</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G57" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
@@ -2459,21 +2473,23 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
+      <c r="B58" s="13">
+        <v>2018</v>
+      </c>
       <c r="C58" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="25">
-        <v>1611713.268593</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E58" s="25">
-        <v>53723.775619</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F58" s="25">
-        <v>10142281.124258341</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G58" s="25">
-        <v>338076.03747527802</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="14"/>
@@ -2487,19 +2503,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" s="25">
-        <v>1705436.5561249999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E59" s="25">
-        <v>55014.082455000003</v>
+        <v>53723.775619</v>
       </c>
       <c r="F59" s="25">
-        <v>10732068.370267099</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G59" s="25">
-        <v>346195.75387958385</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="14"/>
@@ -2513,19 +2529,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="25">
-        <v>1354350.3933949999</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E60" s="25">
-        <v>45145.013113000001</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F60" s="25">
-        <v>8522733.3535284791</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G60" s="25">
-        <v>284091.11178428266</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="14"/>
@@ -2539,19 +2555,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" s="25">
-        <v>1190885.566602</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E61" s="25">
-        <v>38415.663438000003</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F61" s="25">
-        <v>7494072.5739903618</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G61" s="25">
-        <v>241744.27658033423</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="14"/>
@@ -2565,19 +2581,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" s="25">
-        <v>1053923.0213580001</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E62" s="25">
-        <v>33997.516817999996</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F62" s="25">
-        <v>6632186.8624138394</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G62" s="25">
-        <v>213941.51169076902</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="14"/>
@@ -2591,19 +2607,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="25">
-        <v>1020856.535961</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E63" s="25">
-        <v>34028.551198000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F63" s="25">
-        <v>6424104.1983179301</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G63" s="25">
-        <v>214136.80661059771</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2617,19 +2633,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="25">
-        <v>1048489.412457</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E64" s="25">
-        <v>33822.239111000003</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F64" s="25">
-        <v>6597993.9386059195</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G64" s="25">
-        <v>212838.51414857805</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="14"/>
@@ -2643,19 +2659,19 @@
     <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="25">
-        <v>950621.85583999997</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E65" s="25">
-        <v>31687.395194000001</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F65" s="25">
-        <v>5982127.3998757349</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G65" s="25">
-        <v>199404.24666252447</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="14"/>
@@ -2669,19 +2685,19 @@
     <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="25">
-        <v>906206.56853299995</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E66" s="25">
-        <v>29232.469951999999</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F66" s="25">
-        <v>5702628.3482388686</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G66" s="25">
-        <v>183955.75316899578</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="14"/>
@@ -2695,19 +2711,19 @@
     <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" s="25">
-        <v>634127.085036</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E67" s="25">
-        <v>22647.395894000001</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F67" s="25">
-        <v>3990471.0659583877</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G67" s="25">
-        <v>142516.82378422815</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="14"/>
@@ -2721,19 +2737,19 @@
     <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="25">
-        <v>773568.24248799996</v>
+        <v>634127.085036</v>
       </c>
       <c r="E68" s="25">
-        <v>24953.814273</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F68" s="25">
-        <v>4867954.3297183076</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G68" s="25">
-        <v>157030.78482962286</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="14"/>
@@ -2745,49 +2761,49 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E69" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F69" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G69" s="15">
-        <v>151939.78755453101</v>
+        <v>9</v>
+      </c>
+      <c r="D69" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E69" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F69" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G69" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
       <c r="N69" s="19"/>
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
+      <c r="B70" s="13">
+        <v>2017</v>
+      </c>
       <c r="C70" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70" s="15">
-        <v>707045.64604599995</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E70" s="15">
-        <v>23568.188201000001</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F70" s="15">
-        <v>4449337.1430400936</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G70" s="15">
-        <v>148311.23810133644</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2801,19 +2817,19 @@
     <row r="71" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="15">
-        <v>675767.54240100004</v>
+        <v>707045.64604599995</v>
       </c>
       <c r="E71" s="15">
-        <v>21798.952979999998</v>
+        <v>23568.188201000001</v>
       </c>
       <c r="F71" s="15">
-        <v>4252508.5095709292</v>
+        <v>4449337.1430400936</v>
       </c>
       <c r="G71" s="15">
-        <v>137177.69385712678</v>
+        <v>148311.23810133644</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2827,19 +2843,19 @@
     <row r="72" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E72" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F72" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G72" s="25">
-        <v>134132.10221928899</v>
+        <v>18</v>
+      </c>
+      <c r="D72" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E72" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F72" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G72" s="15">
+        <v>137177.69385712678</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2850,21 +2866,22 @@
       <c r="N72" s="19"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E73" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F73" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G73" s="15">
-        <v>119936.30980399683</v>
+        <v>17</v>
+      </c>
+      <c r="D73" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E73" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F73" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G73" s="25">
+        <v>134132.10221928899</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2876,21 +2893,20 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="9"/>
       <c r="C74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E74" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F74" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G74" s="25">
-        <v>92550.677545967614</v>
+        <v>16</v>
+      </c>
+      <c r="D74" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E74" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F74" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G74" s="15">
+        <v>119936.30980399683</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2902,46 +2918,46 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="9"/>
       <c r="C75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E75" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F75" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G75" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D76" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E76" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F76" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G76" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="3"/>
-      <c r="R75" s="7"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
-      <c r="C76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E76" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F76" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G76" s="25">
-        <v>130915.84472709542</v>
       </c>
       <c r="H76" s="28"/>
       <c r="I76" s="29"/>
@@ -2950,48 +2966,49 @@
       <c r="L76" s="29"/>
       <c r="N76" s="18"/>
       <c r="O76" s="3"/>
+      <c r="R76" s="7"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E77" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F77" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G77" s="12">
-        <v>149902.81557846148</v>
+        <v>13</v>
+      </c>
+      <c r="D77" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E77" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F77" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G77" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="21"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E78" s="12">
-        <v>24735.119016000001</v>
+        <v>12</v>
+      </c>
+      <c r="D78" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E78" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F78" s="12">
-        <v>4825291.5723541733</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G78" s="12">
-        <v>155654.56685013464</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H78" s="28"/>
       <c r="I78" s="29"/>
@@ -3001,71 +3018,69 @@
       <c r="N78" s="20"/>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" s="12">
-        <v>590415.46140999999</v>
+        <v>766788.689518</v>
       </c>
       <c r="E79" s="12">
-        <v>21086.266478000001</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F79" s="12">
-        <v>3715400.0692421482</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G79" s="12">
-        <v>132692.85961579101</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H79" s="28"/>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="21"/>
+    </row>
+    <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" s="12">
-        <v>590534.02216000005</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E80" s="12">
-        <v>19049.484584999998</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F80" s="12">
-        <v>3716146.1550877113</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G80" s="12">
-        <v>119875.68242218423</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="13">
-        <v>2016</v>
-      </c>
+      <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81" s="12">
-        <v>627433.93557900004</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E81" s="12">
-        <v>20239.804372999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F81" s="12">
-        <v>3948352.0335458592</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G81" s="12">
-        <v>127366.19463051159</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
@@ -3076,93 +3091,96 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
+      <c r="B82" s="13">
+        <v>2016</v>
+      </c>
       <c r="C82" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" s="12">
-        <v>572234.87095899996</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E82" s="12">
-        <v>19074.495697999999</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F82" s="12">
-        <v>3600992.21335844</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G82" s="12">
-        <v>120033.07377861465</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
       <c r="J82" s="28"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
-      <c r="N82" s="20"/>
+      <c r="N82" s="18"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" s="12">
-        <v>505204.96276999998</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E83" s="12">
-        <v>16296.934282</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F83" s="12">
-        <v>3179182.5864019338</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G83" s="12">
-        <v>102554.27698070755</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
       <c r="J83" s="28"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="3"/>
     </row>
     <row r="84" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84" s="12">
-        <v>330334.59204000002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E84" s="12">
-        <v>11011.153068</v>
+        <v>16296.934282</v>
       </c>
       <c r="F84" s="12">
-        <v>2078748.3498610584</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G84" s="12">
-        <v>69291.611662035284</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
       <c r="J84" s="28"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
     </row>
     <row r="85" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D85" s="12">
-        <v>324494.77002</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E85" s="12">
-        <v>10467.573226</v>
+        <v>11011.153068</v>
       </c>
       <c r="F85" s="12">
-        <v>2041999.1849837471</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G85" s="12">
-        <v>65870.941451088613</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
@@ -3174,19 +3192,19 @@
     <row r="86" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" s="12">
-        <v>261529.28813999999</v>
+        <v>324494.77002</v>
       </c>
       <c r="E86" s="12">
-        <v>8436.4286489999995</v>
+        <v>10467.573226</v>
       </c>
       <c r="F86" s="12">
-        <v>1645766.4115768159</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G86" s="12">
-        <v>53089.239083123095</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -3198,19 +3216,19 @@
     <row r="87" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" s="12">
-        <v>205969.63078000001</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E87" s="12">
-        <v>6865.6543590000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F87" s="12">
-        <v>1296137.4328413385</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G87" s="12">
-        <v>43204.581094711277</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
@@ -3222,19 +3240,19 @@
     <row r="88" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" s="12">
-        <v>350179.493456</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E88" s="12">
-        <v>11296.112692000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F88" s="12">
-        <v>2203629.4766510436</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G88" s="12">
-        <v>71084.821827453023</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
@@ -3246,23 +3264,23 @@
     <row r="89" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="12">
-        <v>517689.187898</v>
+        <v>350179.493456</v>
       </c>
       <c r="E89" s="12">
-        <v>17256.306262999999</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F89" s="12">
-        <v>3257744.0298882448</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G89" s="12">
-        <v>108591.46766294149</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H89" s="28"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -3270,19 +3288,19 @@
     <row r="90" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="12">
-        <v>501998.54960799997</v>
+        <v>517689.187898</v>
       </c>
       <c r="E90" s="12">
-        <v>16193.5016</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F90" s="12">
-        <v>3159005.0868905503</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G90" s="12">
-        <v>101903.38989969516</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H90" s="28"/>
       <c r="I90" s="8"/>
@@ -3292,542 +3310,546 @@
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="12">
+        <v>501998.54960799997</v>
+      </c>
+      <c r="E91" s="12">
+        <v>16193.5016</v>
+      </c>
+      <c r="F91" s="12">
+        <v>3159005.0868905503</v>
+      </c>
+      <c r="G91" s="12">
+        <v>101903.38989969516</v>
+      </c>
+      <c r="H91" s="28"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <v>440679.500314</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E92" s="12">
         <v>15195.844838000001</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F92" s="12">
         <v>2773133.0783074568</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G92" s="12">
         <v>95625.278562326115</v>
       </c>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-    </row>
-    <row r="92" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="13"/>
-      <c r="C92" s="11" t="s">
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+    </row>
+    <row r="93" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="13"/>
+      <c r="C93" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <v>473238.57974199997</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E93" s="12">
         <v>15265.760636000001</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F93" s="12">
         <v>2978022.7091995031</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="12">
         <v>96065.248683854923</v>
       </c>
-      <c r="H92" s="28"/>
-    </row>
-    <row r="93" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="13">
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="13">
         <v>2015</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D94" s="12">
         <v>525645.38418599998</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E94" s="12">
         <v>16956.302715000002</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F94" s="12">
         <v>3307811.2353925598</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G94" s="12">
         <v>106703.58823846966</v>
-      </c>
-      <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="13"/>
-      <c r="C94" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="12">
-        <v>487772.50363599998</v>
-      </c>
-      <c r="E94" s="12">
-        <v>16259.083454</v>
-      </c>
-      <c r="F94" s="12">
-        <v>3069482.6139133279</v>
-      </c>
-      <c r="G94" s="12">
-        <v>102316.08713044427</v>
       </c>
       <c r="H94" s="28"/>
     </row>
     <row r="95" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" s="12">
-        <v>821728.209302</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E95" s="12">
-        <v>26507.36159</v>
+        <v>16259.083454</v>
       </c>
       <c r="F95" s="12">
-        <v>5171018.1140035549</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G95" s="12">
-        <v>166807.03593559857</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H95" s="28"/>
     </row>
     <row r="96" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" s="12">
-        <v>763584.49130500003</v>
+        <v>821728.209302</v>
       </c>
       <c r="E96" s="12">
-        <v>25452.816375999999</v>
+        <v>26507.36159</v>
       </c>
       <c r="F96" s="12">
-        <v>4805128.0112001086</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G96" s="12">
-        <v>160170.93370667027</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H96" s="28"/>
     </row>
     <row r="97" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97" s="12">
-        <v>526399.01066399994</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E97" s="12">
-        <v>16980.613247000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F97" s="12">
-        <v>3312553.6990500269</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G97" s="12">
-        <v>106856.57093709765</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H97" s="28"/>
     </row>
     <row r="98" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D98" s="12">
-        <v>409054.80754299997</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E98" s="12">
-        <v>13195.316371999999</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F98" s="12">
-        <v>2574123.40903062</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G98" s="12">
-        <v>83036.239000987756</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H98" s="28"/>
     </row>
     <row r="99" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" s="12">
-        <v>382950.03311700001</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E99" s="12">
-        <v>12765.001103000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F99" s="12">
-        <v>2409849.7965505454</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G99" s="12">
-        <v>80328.326551684848</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H99" s="28"/>
     </row>
     <row r="100" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" s="12">
-        <v>405087.92933900002</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E100" s="12">
-        <v>13067.352559000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F100" s="12">
-        <v>2549160.4117564312</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G100" s="12">
-        <v>82230.98102440103</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H100" s="28"/>
     </row>
     <row r="101" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" s="12">
-        <v>420967.39355099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E101" s="12">
-        <v>14032.246451000001</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F101" s="12">
-        <v>2649087.6092791655</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G101" s="12">
-        <v>88302.920309305511</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H101" s="28"/>
     </row>
     <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="12">
+        <v>420967.39355099999</v>
+      </c>
+      <c r="E102" s="12">
+        <v>14032.246451000001</v>
+      </c>
+      <c r="F102" s="12">
+        <v>2649087.6092791655</v>
+      </c>
+      <c r="G102" s="12">
+        <v>88302.920309305511</v>
+      </c>
+      <c r="H102" s="28"/>
+    </row>
+    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="13"/>
+      <c r="C103" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D103" s="12">
         <v>580246.22209699999</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E103" s="12">
         <v>18717.620067</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F103" s="12">
         <v>3651406.5004466609</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G103" s="12">
         <v>117787.30646602133</v>
       </c>
-      <c r="H102" s="28"/>
-    </row>
-    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="11" t="s">
+      <c r="H103" s="28"/>
+    </row>
+    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D104" s="12">
         <v>469322.27903799998</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E104" s="12">
         <v>16761.509965000001</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F104" s="12">
         <v>2953377.9889002317</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G104" s="12">
         <v>105477.7853178654</v>
       </c>
-      <c r="H103" s="28"/>
-    </row>
-    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="13"/>
-      <c r="C104" s="11" t="s">
+      <c r="H104" s="28"/>
+    </row>
+    <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="13"/>
+      <c r="C105" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D105" s="12">
         <v>663165.584088</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E105" s="12">
         <v>21392.438195999999</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F105" s="12">
         <v>4173206.1879872596</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G105" s="12">
         <v>134619.55445120193</v>
       </c>
-      <c r="H104" s="28"/>
-    </row>
-    <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="13">
+      <c r="H105" s="28"/>
+    </row>
+    <row r="106" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="13">
         <v>2014</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D106" s="12">
         <v>865311.98928099999</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E106" s="12">
         <v>27913.289976</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F106" s="12">
         <v>5445284.6089308662</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G106" s="12">
         <v>175654.34222357633</v>
-      </c>
-      <c r="H105" s="28"/>
-    </row>
-    <row r="106" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="13"/>
-      <c r="C106" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="12">
-        <v>719671.70044299995</v>
-      </c>
-      <c r="E106" s="12">
-        <v>23989.056680999998</v>
-      </c>
-      <c r="F106" s="12">
-        <v>4528791.0978346355</v>
-      </c>
-      <c r="G106" s="12">
-        <v>150959.70326115453</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" s="12">
-        <v>732720.57923100004</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E107" s="12">
-        <v>23636.147717</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F107" s="12">
-        <v>4610905.8260578532</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G107" s="12">
-        <v>148738.89761476943</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" s="12">
-        <v>853296.86337200005</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E108" s="12">
-        <v>28443.228779000001</v>
+        <v>23636.147717</v>
       </c>
       <c r="F108" s="12">
-        <v>5369675.1397485342</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G108" s="12">
-        <v>178989.17132495114</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109" s="12">
-        <v>765107.365124</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E109" s="12">
-        <v>24680.882744999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F109" s="12">
-        <v>4814711.2383721191</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G109" s="12">
-        <v>155313.26575393934</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H109" s="28"/>
     </row>
     <row r="110" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="12">
-        <v>808439.72412699996</v>
+        <v>765107.365124</v>
       </c>
       <c r="E110" s="12">
-        <v>26078.700777999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F110" s="12">
-        <v>5087395.5770506607</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G110" s="12">
-        <v>164109.5347435697</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H110" s="28"/>
     </row>
     <row r="111" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" s="12">
-        <v>696291.70361199998</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E111" s="12">
-        <v>23209.723452999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F111" s="12">
-        <v>4381664.1211166997</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G111" s="12">
-        <v>146055.47070388999</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H111" s="28"/>
     </row>
     <row r="112" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" s="12">
-        <v>776525.44836499996</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E112" s="12">
-        <v>25049.208010999999</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F112" s="12">
-        <v>4886563.6034218287</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G112" s="12">
-        <v>157631.08398134931</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H112" s="28"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" s="12">
-        <v>757771.62080999999</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E113" s="12">
-        <v>25259.054026999998</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F113" s="12">
-        <v>4768548.4484155541</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G113" s="12">
-        <v>158951.61494718515</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H113" s="28"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="12">
+        <v>757771.62080999999</v>
+      </c>
+      <c r="E114" s="12">
+        <v>25259.054026999998</v>
+      </c>
+      <c r="F114" s="12">
+        <v>4768548.4484155541</v>
+      </c>
+      <c r="G114" s="12">
+        <v>158951.61494718515</v>
+      </c>
+      <c r="H114" s="28"/>
+    </row>
+    <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="13"/>
+      <c r="C115" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D115" s="12">
         <v>850705.67475799995</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E115" s="12">
         <v>27442.118539999999</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F115" s="12">
         <v>5353369.1603406034</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G115" s="12">
         <v>172689.32775292269</v>
       </c>
-      <c r="H114" s="28"/>
-    </row>
-    <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="11" t="s">
+      <c r="H115" s="28"/>
+    </row>
+    <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D116" s="12">
         <v>725916.08318800002</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E116" s="12">
         <v>25925.574399000001</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F116" s="12">
         <v>4568086.1055021882</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G116" s="12">
         <v>163145.93233936388</v>
-      </c>
-      <c r="H115" s="28"/>
-      <c r="I115" s="22"/>
-    </row>
-    <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="13"/>
-      <c r="C116" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="12">
-        <v>784704.73359700001</v>
-      </c>
-      <c r="E116" s="12">
-        <v>25313.055922</v>
-      </c>
-      <c r="F116" s="12">
-        <v>4938034.6757490169</v>
-      </c>
-      <c r="G116" s="12">
-        <v>159291.44115319409</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D117" s="12">
-        <v>804980.50382999994</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E117" s="12">
-        <v>25967.113025999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F117" s="12">
-        <v>5065627.1983901421</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G117" s="12">
-        <v>163407.32898032718</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H117" s="28"/>
       <c r="I117" s="22"/>
     </row>
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="13"/>
+      <c r="B118" s="13">
+        <v>2013</v>
+      </c>
       <c r="C118" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" s="12">
-        <v>694876.63784600003</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E118" s="12">
-        <v>23162.554594000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F118" s="12">
-        <v>4372759.3146056654</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G118" s="12">
-        <v>145758.64382018885</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H118" s="28"/>
       <c r="I118" s="22"/>
@@ -3835,19 +3857,19 @@
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" s="12">
-        <v>641470.05047699995</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E119" s="12">
-        <v>20692.582273</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F119" s="12">
-        <v>4036679.2974345428</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G119" s="12">
-        <v>130215.4612075659</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="22"/>
@@ -3855,19 +3877,19 @@
     <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D120" s="12">
-        <v>558075.757491</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E120" s="12">
-        <v>18602.525248999998</v>
+        <v>20692.582273</v>
       </c>
       <c r="F120" s="12">
-        <v>3511890.9370575417</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G120" s="12">
-        <v>117063.03123525139</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H120" s="28"/>
       <c r="I120" s="22"/>
@@ -3875,39 +3897,39 @@
     <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" s="12">
-        <v>559110.83105899999</v>
+        <v>558075.757491</v>
       </c>
       <c r="E121" s="12">
-        <v>18035.833258999999</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F121" s="12">
-        <v>3518404.5070054457</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G121" s="12">
-        <v>113496.91958082083</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D122" s="12">
-        <v>661131.44749100006</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E122" s="12">
-        <v>21326.820886000001</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F122" s="12">
-        <v>4160405.6572638722</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G122" s="12">
-        <v>134206.63410528618</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="22"/>
@@ -3915,19 +3937,19 @@
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" s="12">
-        <v>663648.26149299997</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E123" s="12">
-        <v>22121.608715999999</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F123" s="12">
-        <v>4176243.6078740559</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G123" s="12">
-        <v>139208.12026246852</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H123" s="28"/>
       <c r="I123" s="22"/>
@@ -3935,411 +3957,415 @@
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124" s="12">
-        <v>647734.46579799999</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E124" s="12">
-        <v>20894.660187000001</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F124" s="12">
-        <v>4076100.3672382049</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G124" s="12">
-        <v>131487.10862058724</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="13"/>
       <c r="C125" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125" s="12">
-        <v>597610.93523199996</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E125" s="12">
-        <v>19920.364506999998</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F125" s="12">
-        <v>3760680.1570512378</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G125" s="12">
-        <v>125356.00523504126</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="22"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C126" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" s="12">
-        <v>565162.30006200005</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E126" s="12">
-        <v>18231.041937000002</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F126" s="12">
-        <v>3556485.5360812568</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G126" s="12">
-        <v>114725.33987358895</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H126" s="28"/>
       <c r="I126" s="22"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C127" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" s="12">
-        <v>443068.728405</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E127" s="12">
-        <v>15823.883157</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F127" s="12">
-        <v>2788168.1490245033</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G127" s="12">
-        <v>99577.433893732261</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H127" s="28"/>
+      <c r="I127" s="22"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C128" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="12">
+        <v>443068.728405</v>
+      </c>
+      <c r="E128" s="12">
+        <v>15823.883157</v>
+      </c>
+      <c r="F128" s="12">
+        <v>2788168.1490245033</v>
+      </c>
+      <c r="G128" s="12">
+        <v>99577.433893732261</v>
+      </c>
+      <c r="H128" s="28"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C129" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D129" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E129" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F129" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G129" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B129" s="13">
+      <c r="H129" s="28"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B130" s="13">
         <v>2012</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D130" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E130" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F130" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G130" s="12">
         <v>124824.36169300365</v>
-      </c>
-      <c r="H129" s="28"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C130" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="12">
-        <v>262269.19780000002</v>
-      </c>
-      <c r="E130" s="12">
-        <v>8742.3065929999993</v>
-      </c>
-      <c r="F130" s="12">
-        <v>1650422.5572601147</v>
-      </c>
-      <c r="G130" s="12">
-        <v>55014.085242003821</v>
       </c>
       <c r="H130" s="28"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C131" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="12">
+        <v>262269.19780000002</v>
+      </c>
+      <c r="E131" s="12">
+        <v>8742.3065929999993</v>
+      </c>
+      <c r="F131" s="12">
+        <v>1650422.5572601147</v>
+      </c>
+      <c r="G131" s="12">
+        <v>55014.085242003821</v>
+      </c>
+      <c r="H131" s="28"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D132" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E132" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F132" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G132" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H131" s="28"/>
-    </row>
-    <row r="132" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="13"/>
-      <c r="C132" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E132" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F132" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G132" s="12">
-        <v>67822.561910826538</v>
       </c>
       <c r="H132" s="28"/>
     </row>
     <row r="133" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="13"/>
       <c r="C133" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133" s="12">
-        <v>265901.88781699998</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E133" s="12">
-        <v>8577.4802519999994</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F133" s="12">
-        <v>1673282.5560624234</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G133" s="12">
-        <v>53976.856647174944</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H133" s="28"/>
     </row>
     <row r="134" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="13"/>
       <c r="C134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E134" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F134" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G134" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H134" s="28"/>
+    </row>
+    <row r="135" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="13"/>
+      <c r="C135" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D135" s="12">
         <v>247847.77045499999</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E135" s="12">
         <v>7995.0893690000003</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F135" s="12">
         <v>1559670.57724214</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G135" s="12">
         <v>50311.954104585158</v>
       </c>
-      <c r="H134" s="28"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C135" s="11" t="s">
+      <c r="H135" s="28"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D136" s="12">
         <v>160936.42993099999</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E136" s="12">
         <v>5364.5476639999997</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F136" s="12">
         <v>1012749.9396463028</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G136" s="12">
         <v>33758.331321543425</v>
-      </c>
-      <c r="H135" s="28"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B136" s="13"/>
-      <c r="C136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E136" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F136" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G136" s="12">
-        <v>33394.796852226835</v>
       </c>
       <c r="H136" s="28"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B137" s="13"/>
       <c r="C137" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D137" s="12">
-        <v>135951.57</v>
+        <v>164510.12670699999</v>
       </c>
       <c r="E137" s="12">
-        <v>4531.7190000000001</v>
+        <v>5306.7782800000004</v>
       </c>
       <c r="F137" s="12">
-        <v>855523.78893549007</v>
+        <v>1035238.702419032</v>
       </c>
       <c r="G137" s="12">
-        <v>28517.459631182999</v>
+        <v>33394.796852226835</v>
       </c>
       <c r="H137" s="28"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B138" s="13"/>
       <c r="C138" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E138" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F138" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G138" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H138" s="28"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B139" s="13"/>
+      <c r="C139" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D139" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E139" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F139" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G139" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H138" s="28"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C139" s="11" t="s">
+      <c r="H139" s="28"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C140" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D140" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E140" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F140" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G140" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H139" s="22"/>
-    </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="11" t="s">
+      <c r="H140" s="22"/>
+    </row>
+    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D140" s="17">
+      <c r="D141" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E140" s="12">
+      <c r="E141" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F140" s="12">
+      <c r="F141" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G140" s="12">
+      <c r="G141" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H140" s="23"/>
-    </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="30"/>
-      <c r="B141" s="31" t="s">
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="30"/>
+      <c r="B142" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="32"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-    </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142" s="11"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="34"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="40"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="40"/>
+    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="41"/>
-      <c r="B144" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="43"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="43"/>
-      <c r="I144" s="43"/>
-      <c r="J144" s="43"/>
+    <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B145" s="87"/>
-      <c r="C145" s="87"/>
-      <c r="D145" s="87"/>
-      <c r="E145" s="87"/>
-      <c r="F145" s="87"/>
-      <c r="G145" s="87"/>
-      <c r="H145" s="87"/>
-      <c r="I145" s="87"/>
-      <c r="J145" s="87"/>
+    <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="41"/>
+      <c r="B145" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="43"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="88"/>
+      <c r="A146" s="88" t="s">
+        <v>22</v>
+      </c>
       <c r="B146" s="88"/>
       <c r="C146" s="88"/>
       <c r="D146" s="88"/>
@@ -4355,179 +4381,188 @@
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="88"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="88"/>
-      <c r="E147" s="88"/>
-      <c r="F147" s="88"/>
-      <c r="G147" s="88"/>
-      <c r="H147" s="88"/>
-      <c r="I147" s="88"/>
-      <c r="J147" s="88"/>
+      <c r="A147" s="89"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="89"/>
+      <c r="G147" s="89"/>
+      <c r="H147" s="89"/>
+      <c r="I147" s="89"/>
+      <c r="J147" s="89"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="88"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="88"/>
-      <c r="D148" s="88"/>
-      <c r="E148" s="88"/>
-      <c r="F148" s="88"/>
-      <c r="G148" s="88"/>
-      <c r="H148" s="88"/>
-      <c r="I148" s="88"/>
-      <c r="J148" s="88"/>
+      <c r="A148" s="89"/>
+      <c r="B148" s="89"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="89"/>
+      <c r="G148" s="89"/>
+      <c r="H148" s="89"/>
+      <c r="I148" s="89"/>
+      <c r="J148" s="89"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="88"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="88"/>
-      <c r="D149" s="88"/>
-      <c r="E149" s="88"/>
-      <c r="F149" s="88"/>
-      <c r="G149" s="88"/>
-      <c r="H149" s="88"/>
-      <c r="I149" s="88"/>
-      <c r="J149" s="88"/>
+      <c r="A149" s="89"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="89"/>
+      <c r="F149" s="89"/>
+      <c r="G149" s="89"/>
+      <c r="H149" s="89"/>
+      <c r="I149" s="89"/>
+      <c r="J149" s="89"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="88"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="88"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="88"/>
-      <c r="F150" s="88"/>
-      <c r="G150" s="88"/>
-      <c r="H150" s="88"/>
-      <c r="I150" s="88"/>
-      <c r="J150" s="88"/>
+      <c r="A150" s="89"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="89"/>
+      <c r="H150" s="89"/>
+      <c r="I150" s="89"/>
+      <c r="J150" s="89"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="88"/>
-      <c r="B151" s="88"/>
-      <c r="C151" s="88"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="88"/>
-      <c r="F151" s="88"/>
-      <c r="G151" s="88"/>
-      <c r="H151" s="88"/>
-      <c r="I151" s="88"/>
-      <c r="J151" s="88"/>
+      <c r="A151" s="89"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="89"/>
+      <c r="F151" s="89"/>
+      <c r="G151" s="89"/>
+      <c r="H151" s="89"/>
+      <c r="I151" s="89"/>
+      <c r="J151" s="89"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="88"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="88"/>
-      <c r="D152" s="88"/>
-      <c r="E152" s="88"/>
-      <c r="F152" s="88"/>
-      <c r="G152" s="88"/>
-      <c r="H152" s="88"/>
-      <c r="I152" s="88"/>
-      <c r="J152" s="88"/>
+      <c r="A152" s="89"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
+      <c r="I152" s="89"/>
+      <c r="J152" s="89"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="88"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="88"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="88"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="88"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="88"/>
+      <c r="A153" s="89"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="89"/>
+      <c r="G153" s="89"/>
+      <c r="H153" s="89"/>
+      <c r="I153" s="89"/>
+      <c r="J153" s="89"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="88"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="88"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="88"/>
-      <c r="F154" s="88"/>
-      <c r="G154" s="88"/>
-      <c r="H154" s="88"/>
-      <c r="I154" s="88"/>
-      <c r="J154" s="88"/>
+      <c r="A154" s="89"/>
+      <c r="B154" s="89"/>
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="89"/>
+      <c r="G154" s="89"/>
+      <c r="H154" s="89"/>
+      <c r="I154" s="89"/>
+      <c r="J154" s="89"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="88"/>
-      <c r="B155" s="88"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="88"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="88"/>
-      <c r="I155" s="88"/>
-      <c r="J155" s="88"/>
+      <c r="A155" s="89"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="89"/>
+      <c r="G155" s="89"/>
+      <c r="H155" s="89"/>
+      <c r="I155" s="89"/>
+      <c r="J155" s="89"/>
     </row>
     <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="88"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="88"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="88"/>
-      <c r="G156" s="88"/>
-      <c r="H156" s="88"/>
-      <c r="I156" s="88"/>
-      <c r="J156" s="88"/>
+      <c r="A156" s="89"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="89"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="89"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="89"/>
+      <c r="I156" s="89"/>
+      <c r="J156" s="89"/>
     </row>
     <row r="157" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="88"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="88"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="88"/>
-      <c r="G157" s="88"/>
-      <c r="H157" s="88"/>
-      <c r="I157" s="88"/>
-      <c r="J157" s="88"/>
+      <c r="A157" s="89"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="89"/>
+      <c r="G157" s="89"/>
+      <c r="H157" s="89"/>
+      <c r="I157" s="89"/>
+      <c r="J157" s="89"/>
     </row>
     <row r="158" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="88"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="88"/>
-      <c r="G158" s="88"/>
-      <c r="H158" s="88"/>
-      <c r="I158" s="88"/>
-      <c r="J158" s="88"/>
-    </row>
-    <row r="159" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="4"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+      <c r="A158" s="89"/>
+      <c r="B158" s="89"/>
+      <c r="C158" s="89"/>
+      <c r="D158" s="89"/>
+      <c r="E158" s="89"/>
+      <c r="F158" s="89"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="89"/>
+      <c r="I158" s="89"/>
+      <c r="J158" s="89"/>
+    </row>
+    <row r="159" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="89"/>
+      <c r="B159" s="89"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="89"/>
+      <c r="E159" s="89"/>
+      <c r="F159" s="89"/>
+      <c r="G159" s="89"/>
+      <c r="H159" s="89"/>
+      <c r="I159" s="89"/>
+      <c r="J159" s="89"/>
     </row>
     <row r="160" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
@@ -4536,30 +4571,37 @@
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="4"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+    </row>
+    <row r="162" spans="3:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D163" s="15"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D164" s="15"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D165" s="15"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D166" s="15"/>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D167" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A145:J158"/>
+    <mergeCell ref="A146:J159"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4568,4 +4610,275 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEF22DAF496ADE498A94ECACB103F1AD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8239a3cb3a6e6190bb3251888f782d64">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee349bb3-f777-4768-a131-ca5c9eb9e69a" xmlns:ns3="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcfb702ae5665faf2796e51a452fc314" ns2:_="" ns3:_="">
+    <xsd:import namespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <xsd:import namespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:parentID" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:Status" minOccurs="0"/>
+                <xsd:element ref="ns2:Key" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="parentID" ma:index="8" nillable="true" ma:displayName="parentID" ma:internalName="parentID">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="10" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5ff227e3-1287-4ea4-9684-11ab6ab51f50" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Status" ma:index="18" nillable="true" ma:displayName="Status" ma:default="New" ma:format="Dropdown" ma:internalName="Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="New"/>
+          <xsd:enumeration value="Assigned"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Key" ma:index="19" nillable="true" ma:displayName="Key" ma:decimals="0" ma:description="Unique temp number" ma:internalName="Key" ma:percentage="FALSE">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6fe0f7e7-03c0-4c14-a516-3f40f384aae2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
+    <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
+    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">167</parentID>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B6F63E-AEF7-4418-B6C8-B6A7DC18134E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2327CEA6-11F9-43BB-803B-300A171EAC9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D750757-B218-4446-BA21-A91EF1FF7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CC2B2B-8876-4BA0-B35E-DF4E588E0D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A779C520-C5A0-4FC3-A576-6AC124E70CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 22nd March 2023</t>
+    <t>Numbers last updated on 28th August 2023</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -410,6 +410,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1086,10 +1091,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1107,47 +1112,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1193,19 +1198,19 @@
         <v>2023</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" s="15">
-        <v>591517.59899099998</v>
+        <v>489767.26876200002</v>
       </c>
       <c r="E9" s="15">
-        <v>19081.212869999999</v>
-      </c>
-      <c r="F9" s="25">
-        <v>3722335.6634337073</v>
-      </c>
-      <c r="G9" s="25">
-        <v>120075.3439817325</v>
+        <v>16325.575624999999</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3082035.385599833</v>
+      </c>
+      <c r="G9" s="15">
+        <v>102734.51285332776</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1216,24 +1221,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
-        <v>2022</v>
-      </c>
+    <row r="10" spans="1:15" s="88" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10" s="15">
-        <v>621679.26430799998</v>
+        <v>387923.87491900002</v>
       </c>
       <c r="E10" s="15">
-        <v>20054.169816000001</v>
-      </c>
-      <c r="F10" s="25">
-        <v>3912138.7101554479</v>
-      </c>
-      <c r="G10" s="25">
-        <v>126198.02290824025</v>
+        <v>12513.673384</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2441149.4717511535</v>
+      </c>
+      <c r="G10" s="15">
+        <v>78746.757153263025</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1244,22 +1247,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="87" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15">
-        <v>581166.18618700001</v>
+        <v>381507.83930300002</v>
       </c>
       <c r="E11" s="15">
-        <v>19372.206205999999</v>
-      </c>
-      <c r="F11" s="25">
-        <v>3657195.7029101662</v>
-      </c>
-      <c r="G11" s="25">
-        <v>121906.52343033889</v>
+        <v>12716.927976000001</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2400774.2771127587</v>
+      </c>
+      <c r="G11" s="15">
+        <v>80025.809237091948</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1270,22 +1273,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="86" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" s="15">
-        <v>689253.59670899995</v>
+        <v>481868.324853</v>
       </c>
       <c r="E12" s="15">
-        <v>22233.986990000001</v>
-      </c>
-      <c r="F12" s="25">
-        <v>4337374.3208254073</v>
-      </c>
-      <c r="G12" s="25">
-        <v>139915.30067178735</v>
+        <v>15544.139510999999</v>
+      </c>
+      <c r="F12" s="15">
+        <v>3032328.4611294749</v>
+      </c>
+      <c r="G12" s="15">
+        <v>97817.047133208864</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1296,22 +1299,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="85" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D13" s="15">
-        <v>605733.99690699996</v>
+        <v>442221.267445</v>
       </c>
       <c r="E13" s="15">
-        <v>20191.133229999999</v>
+        <v>15793.616694</v>
       </c>
       <c r="F13" s="25">
-        <v>3811797.4225741932</v>
+        <v>2782835.1983901402</v>
       </c>
       <c r="G13" s="25">
-        <v>127059.91408580645</v>
+        <v>99386.971371076448</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1322,22 +1325,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="84" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D14" s="15">
-        <v>764283.47460900003</v>
+        <v>591517.59899099998</v>
       </c>
       <c r="E14" s="15">
-        <v>24654.305632</v>
+        <v>19081.212869999999</v>
       </c>
       <c r="F14" s="25">
-        <v>4809526.6131775687</v>
+        <v>3722335.6634337073</v>
       </c>
       <c r="G14" s="25">
-        <v>155146.01977992154</v>
+        <v>120075.3439817325</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1348,22 +1351,24 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13">
+        <v>2022</v>
+      </c>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="15">
-        <v>754659.58550000004</v>
+        <v>621679.26430799998</v>
       </c>
       <c r="E15" s="15">
-        <v>24343.857596000002</v>
+        <v>20054.169816000001</v>
       </c>
       <c r="F15" s="25">
-        <v>4748964.8552307729</v>
+        <v>3912138.7101554479</v>
       </c>
       <c r="G15" s="25">
-        <v>153192.41468486364</v>
+        <v>126198.02290824025</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1374,22 +1379,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16" s="15">
-        <v>811142.03678099997</v>
+        <v>581166.18618700001</v>
       </c>
       <c r="E16" s="15">
-        <v>27038.067891999999</v>
+        <v>19372.206205999999</v>
       </c>
       <c r="F16" s="25">
-        <v>5104400.8441515733</v>
+        <v>3657195.7029101662</v>
       </c>
       <c r="G16" s="25">
-        <v>170146.69480505245</v>
+        <v>121906.52343033889</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1400,22 +1405,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17" s="15">
-        <v>852839.47011300002</v>
+        <v>689253.59670899995</v>
       </c>
       <c r="E17" s="15">
-        <v>27510.950647999998</v>
+        <v>22233.986990000001</v>
       </c>
       <c r="F17" s="25">
-        <v>5366796.8293768829</v>
+        <v>4337374.3208254073</v>
       </c>
       <c r="G17" s="25">
-        <v>173122.47836699622</v>
+        <v>139915.30067178735</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1426,22 +1431,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="15">
-        <v>687298.73723800003</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E18" s="15">
-        <v>22909.957907</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F18" s="25">
-        <v>4325072.6697193086</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G18" s="25">
-        <v>144169.08899064365</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1452,22 +1457,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="15">
-        <v>748262.834699</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E19" s="15">
-        <v>24137.510795999999</v>
+        <v>24654.305632</v>
       </c>
       <c r="F19" s="25">
-        <v>4708711.0171754453</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G19" s="25">
-        <v>151893.90377985305</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1478,22 +1483,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" s="15">
-        <v>555213.606959</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E20" s="15">
-        <v>19829.057390999998</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F20" s="25">
-        <v>3493879.8330471921</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G20" s="25">
-        <v>124781.42260882829</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1504,22 +1509,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="15">
-        <v>652563.46630800003</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E21" s="15">
-        <v>21050.434397000001</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F21" s="25">
-        <v>4106488.5769005618</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G21" s="25">
-        <v>132467.37344840521</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1530,24 +1535,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13">
-        <v>2021</v>
-      </c>
+    <row r="22" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D22" s="15">
-        <v>652019.38080000004</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E22" s="15">
-        <v>21032.883250999999</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F22" s="25">
-        <v>4103064.7246029456</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G22" s="25">
-        <v>132356.92660009503</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1558,22 +1561,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D23" s="15">
-        <v>630694.20088599995</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E23" s="15">
-        <v>21023.140028999998</v>
+        <v>22909.957907</v>
       </c>
       <c r="F23" s="25">
-        <v>3968868.4169048714</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G23" s="25">
-        <v>132295.61389682905</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1584,22 +1587,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D24" s="15">
-        <v>653554.90011000005</v>
+        <v>748262.834699</v>
       </c>
       <c r="E24" s="15">
-        <v>21082.416131999998</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F24" s="25">
-        <v>4112727.5280415146</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G24" s="25">
-        <v>132668.62993682304</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1610,22 +1613,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D25" s="15">
-        <v>787255.85854499997</v>
+        <v>555213.606959</v>
       </c>
       <c r="E25" s="15">
-        <v>26241.861950999999</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F25" s="25">
-        <v>4954088.5402359134</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G25" s="25">
-        <v>165136.28467453044</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1636,22 +1639,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="15">
-        <v>835957.17292699998</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E26" s="15">
-        <v>26966.360417</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F26" s="25">
-        <v>5260558.9473538827</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G26" s="25">
-        <v>169695.44991464139</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1662,22 +1665,24 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+    <row r="27" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13">
+        <v>2021</v>
+      </c>
       <c r="C27" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" s="15">
-        <v>708627.37697600003</v>
+        <v>652019.38080000004</v>
       </c>
       <c r="E27" s="15">
-        <v>22858.947644</v>
+        <v>21032.883250999999</v>
       </c>
       <c r="F27" s="25">
-        <v>4459290.74959506</v>
+        <v>4103064.7246029456</v>
       </c>
       <c r="G27" s="25">
-        <v>143848.08869661484</v>
+        <v>132356.92660009503</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1688,22 +1693,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D28" s="15">
-        <v>633252.08580700005</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E28" s="15">
-        <v>21108.402859999998</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F28" s="25">
-        <v>3984964.8209351809</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G28" s="25">
-        <v>132832.16069783937</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1714,22 +1719,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D29" s="15">
-        <v>631973.26563000004</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E29" s="15">
-        <v>20386.234375</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F29" s="25">
-        <v>3976917.3884326047</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G29" s="25">
-        <v>128287.65769137435</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1740,22 +1745,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="15">
-        <v>619556.10921200004</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E30" s="15">
-        <v>20651.870307000001</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F30" s="25">
-        <v>3898777.9987474987</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G30" s="25">
-        <v>129959.26662491662</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1766,22 +1771,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="15">
-        <v>864945.59575500002</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E31" s="15">
-        <v>27901.470829999998</v>
+        <v>26966.360417</v>
       </c>
       <c r="F31" s="25">
-        <v>5442978.9468660224</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G31" s="25">
-        <v>175579.9660279362</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1792,22 +1797,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" s="15">
-        <v>497767.01864000002</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E32" s="15">
-        <v>17777.393521999998</v>
+        <v>22858.947644</v>
       </c>
       <c r="F32" s="25">
-        <v>3132376.6676178547</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G32" s="25">
-        <v>111870.59527206622</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1818,22 +1823,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="15">
-        <v>958714.76984600001</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E33" s="15">
-        <v>30926.282898000001</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F33" s="25">
-        <v>6033054.9504287895</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G33" s="25">
-        <v>194614.67582028356</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1844,24 +1849,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13">
-        <v>2020</v>
-      </c>
+    <row r="34" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D34" s="15">
-        <v>938216.01383800001</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E34" s="15">
-        <v>30265.032704000001</v>
+        <v>20386.234375</v>
       </c>
       <c r="F34" s="25">
-        <v>5904059.2101925546</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G34" s="25">
-        <v>190453.52290943725</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1872,22 +1875,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D35" s="15">
-        <v>825199.79770700005</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E35" s="15">
-        <v>27506.659922999999</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F35" s="25">
-        <v>5192864.323399079</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G35" s="25">
-        <v>173095.47744663598</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1898,22 +1901,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D36" s="15">
-        <v>457210.72882199998</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E36" s="15">
-        <v>14748.733187</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F36" s="25">
-        <v>2877161.7353426241</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G36" s="25">
-        <v>92811.668882020138</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1924,22 +1927,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D37" s="15">
-        <v>355962.18939100002</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E37" s="15">
-        <v>11865.406312999999</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F37" s="25">
-        <v>2240019.1552444799</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G37" s="25">
-        <v>74667.305174816007</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1950,22 +1953,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="15">
-        <v>251494.72360200001</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E38" s="15">
-        <v>8112.7330190000002</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F38" s="25">
-        <v>1582620.331881911</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G38" s="25">
-        <v>51052.268770384224</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1976,22 +1979,24 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13"/>
+    <row r="39" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13">
+        <v>2020</v>
+      </c>
       <c r="C39" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" s="15">
-        <v>191467.74559999999</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E39" s="15">
-        <v>6176.37889</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F39" s="25">
-        <v>1204879.1431731791</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G39" s="25">
-        <v>38867.06913461868</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -2002,22 +2007,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D40" s="15">
-        <v>204137.25868999999</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E40" s="15">
-        <v>6804.5752890000003</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F40" s="25">
-        <v>1284606.5773081775</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G40" s="25">
-        <v>42820.219243605912</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2028,22 +2033,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" s="15">
-        <v>285955.87647999998</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E41" s="15">
-        <v>9224.3831119999995</v>
+        <v>14748.733187</v>
       </c>
       <c r="F41" s="25">
-        <v>1799479.4389983031</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G41" s="25">
-        <v>58047.723838654943</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2054,22 +2059,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D42" s="15">
-        <v>744852.00140499999</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E42" s="15">
-        <v>24828.400045999999</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F42" s="25">
-        <v>4687247.1310054641</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G42" s="25">
-        <v>156241.57103351544</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2080,22 +2085,22 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="15">
-        <v>1726969.163712</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E43" s="15">
-        <v>55708.682699999998</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F43" s="25">
-        <v>10867569.990649205</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G43" s="25">
-        <v>350566.7738919098</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2106,22 +2111,22 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" s="15">
-        <v>1898618.6160540001</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E44" s="15">
-        <v>65469.607450000003</v>
+        <v>6176.37889</v>
       </c>
       <c r="F44" s="25">
-        <v>11947735.448365727</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G44" s="25">
-        <v>411990.87752985262</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2132,22 +2137,22 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="15">
-        <v>1989047.6002829999</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E45" s="15">
-        <v>64162.825814999997</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F45" s="25">
-        <v>12516792.114774078</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G45" s="25">
-        <v>403767.48757335736</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2158,24 +2163,22 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13">
-        <v>2019</v>
-      </c>
+    <row r="46" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D46" s="15">
-        <v>1710070.2071700001</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E46" s="15">
-        <v>55163.555070000002</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F46" s="25">
-        <v>10761227.273681184</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G46" s="25">
-        <v>347136.36366713495</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2186,22 +2189,22 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D47" s="15">
-        <v>1441371.4144830001</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E47" s="15">
-        <v>48045.713816000003</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F47" s="25">
-        <v>9070344.1952292472</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G47" s="25">
-        <v>302344.80650764162</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2212,22 +2215,22 @@
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D48" s="15">
-        <v>1330424.701689</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E48" s="15">
-        <v>42916.925860000003</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F48" s="25">
-        <v>8372172.3969965354</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G48" s="25">
-        <v>270070.07732246892</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2235,25 +2238,25 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D49" s="15">
-        <v>1523602.3797500001</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E49" s="15">
-        <v>50786.745991000003</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F49" s="25">
-        <v>9587811.9006264452</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G49" s="25">
-        <v>319593.73002088151</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2261,25 +2264,25 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="15">
-        <v>1583842.188998</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E50" s="15">
-        <v>51091.683515999997</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F50" s="25">
-        <v>9966892.4059313871</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G50" s="25">
-        <v>321512.65825585119</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2287,25 +2290,27 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="13">
+        <v>2019</v>
+      </c>
       <c r="C51" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D51" s="15">
-        <v>1599425.591243</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E51" s="15">
-        <v>51594.373911000002</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F51" s="25">
-        <v>10064956.52783265</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G51" s="25">
-        <v>324676.01702685968</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2313,25 +2318,25 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D52" s="15">
-        <v>1422059.9636609999</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E52" s="15">
-        <v>47401.998787999997</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F52" s="25">
-        <v>8948819.996743869</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G52" s="25">
-        <v>298293.99989146233</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2339,25 +2344,25 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="3"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
     </row>
     <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D53" s="15">
-        <v>1459021.581333</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E53" s="15">
-        <v>47065.212301</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F53" s="25">
-        <v>9181414.1712424383</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G53" s="25">
-        <v>296174.65068523993</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2371,19 +2376,19 @@
     <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D54" s="15">
-        <v>1143952.7800350001</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E54" s="15">
-        <v>38131.759334000002</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F54" s="25">
-        <v>7198731.2595127104</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G54" s="25">
-        <v>239957.70865042368</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -2397,19 +2402,19 @@
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" s="15">
-        <v>857730.976517</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E55" s="15">
-        <v>27668.741177</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F55" s="25">
-        <v>5397578.3796918392</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G55" s="25">
-        <v>174115.43160296255</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -2423,19 +2428,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56" s="15">
-        <v>589229.82238999999</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E56" s="15">
-        <v>21043.922227999999</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F56" s="25">
-        <v>3707939.0124356686</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G56" s="25">
-        <v>132426.39330127387</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -2449,19 +2454,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="15">
-        <v>1659957.116588</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E57" s="15">
-        <v>53547.00376</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F57" s="25">
-        <v>10445872.760820612</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G57" s="25">
-        <v>336963.6374458262</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -2473,25 +2478,23 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E58" s="25">
-        <v>57985.335477000001</v>
+        <v>13</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1459021.581333</v>
+      </c>
+      <c r="E58" s="15">
+        <v>47065.212301</v>
       </c>
       <c r="F58" s="25">
-        <v>11311696.151993278</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G58" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>296174.65068523993</v>
+      </c>
+      <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
@@ -2503,21 +2506,21 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="25">
-        <v>1611713.268593</v>
-      </c>
-      <c r="E59" s="25">
-        <v>53723.775619</v>
+        <v>12</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1143952.7800350001</v>
+      </c>
+      <c r="E59" s="15">
+        <v>38131.759334000002</v>
       </c>
       <c r="F59" s="25">
-        <v>10142281.124258341</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G59" s="25">
-        <v>338076.03747527802</v>
-      </c>
-      <c r="H59" s="1"/>
+        <v>239957.70865042368</v>
+      </c>
+      <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
@@ -2529,21 +2532,21 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="25">
-        <v>1705436.5561249999</v>
-      </c>
-      <c r="E60" s="25">
-        <v>55014.082455000003</v>
+        <v>11</v>
+      </c>
+      <c r="D60" s="15">
+        <v>857730.976517</v>
+      </c>
+      <c r="E60" s="15">
+        <v>27668.741177</v>
       </c>
       <c r="F60" s="25">
-        <v>10732068.370267099</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G60" s="25">
-        <v>346195.75387958385</v>
-      </c>
-      <c r="H60" s="1"/>
+        <v>174115.43160296255</v>
+      </c>
+      <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
@@ -2555,21 +2558,21 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="25">
-        <v>1354350.3933949999</v>
-      </c>
-      <c r="E61" s="25">
-        <v>45145.013113000001</v>
+        <v>10</v>
+      </c>
+      <c r="D61" s="15">
+        <v>589229.82238999999</v>
+      </c>
+      <c r="E61" s="15">
+        <v>21043.922227999999</v>
       </c>
       <c r="F61" s="25">
-        <v>8522733.3535284791</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G61" s="25">
-        <v>284091.11178428266</v>
-      </c>
-      <c r="H61" s="1"/>
+        <v>132426.39330127387</v>
+      </c>
+      <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
@@ -2581,21 +2584,21 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="25">
-        <v>1190885.566602</v>
-      </c>
-      <c r="E62" s="25">
-        <v>38415.663438000003</v>
+        <v>9</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E62" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F62" s="25">
-        <v>7494072.5739903618</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G62" s="25">
-        <v>241744.27658033423</v>
-      </c>
-      <c r="H62" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14"/>
@@ -2605,21 +2608,23 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="13"/>
+      <c r="B63" s="13">
+        <v>2018</v>
+      </c>
       <c r="C63" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D63" s="25">
-        <v>1053923.0213580001</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E63" s="25">
-        <v>33997.516817999996</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F63" s="25">
-        <v>6632186.8624138394</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G63" s="25">
-        <v>213941.51169076902</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="14"/>
@@ -2633,19 +2638,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D64" s="25">
-        <v>1020856.535961</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E64" s="25">
-        <v>34028.551198000001</v>
+        <v>53723.775619</v>
       </c>
       <c r="F64" s="25">
-        <v>6424104.1983179301</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G64" s="25">
-        <v>214136.80661059771</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="14"/>
@@ -2656,22 +2661,22 @@
       <c r="N64" s="19"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D65" s="25">
-        <v>1048489.412457</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E65" s="25">
-        <v>33822.239111000003</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F65" s="25">
-        <v>6597993.9386059195</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G65" s="25">
-        <v>212838.51414857805</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="14"/>
@@ -2682,22 +2687,22 @@
       <c r="N65" s="19"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D66" s="25">
-        <v>950621.85583999997</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E66" s="25">
-        <v>31687.395194000001</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F66" s="25">
-        <v>5982127.3998757349</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G66" s="25">
-        <v>199404.24666252447</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="14"/>
@@ -2708,22 +2713,22 @@
       <c r="N66" s="19"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D67" s="25">
-        <v>906206.56853299995</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E67" s="25">
-        <v>29232.469951999999</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F67" s="25">
-        <v>5702628.3482388686</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G67" s="25">
-        <v>183955.75316899578</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="14"/>
@@ -2734,22 +2739,22 @@
       <c r="N67" s="19"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D68" s="25">
-        <v>634127.085036</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E68" s="25">
-        <v>22647.395894000001</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F68" s="25">
-        <v>3990471.0659583877</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G68" s="25">
-        <v>142516.82378422815</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="14"/>
@@ -2760,22 +2765,22 @@
       <c r="N68" s="19"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="25">
-        <v>773568.24248799996</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E69" s="25">
-        <v>24953.814273</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F69" s="25">
-        <v>4867954.3297183076</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G69" s="25">
-        <v>157030.78482962286</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="14"/>
@@ -2786,153 +2791,154 @@
       <c r="N69" s="19"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="13">
-        <v>2017</v>
-      </c>
+    <row r="70" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E70" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F70" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G70" s="15">
-        <v>151939.78755453101</v>
+        <v>13</v>
+      </c>
+      <c r="D70" s="25">
+        <v>1048489.412457</v>
+      </c>
+      <c r="E70" s="25">
+        <v>33822.239111000003</v>
+      </c>
+      <c r="F70" s="25">
+        <v>6597993.9386059195</v>
+      </c>
+      <c r="G70" s="25">
+        <v>212838.51414857805</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
       <c r="N70" s="19"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="15">
-        <v>707045.64604599995</v>
-      </c>
-      <c r="E71" s="15">
-        <v>23568.188201000001</v>
-      </c>
-      <c r="F71" s="15">
-        <v>4449337.1430400936</v>
-      </c>
-      <c r="G71" s="15">
-        <v>148311.23810133644</v>
+        <v>12</v>
+      </c>
+      <c r="D71" s="25">
+        <v>950621.85583999997</v>
+      </c>
+      <c r="E71" s="25">
+        <v>31687.395194000001</v>
+      </c>
+      <c r="F71" s="25">
+        <v>5982127.3998757349</v>
+      </c>
+      <c r="G71" s="25">
+        <v>199404.24666252447</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
       <c r="N71" s="19"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="15">
-        <v>675767.54240100004</v>
-      </c>
-      <c r="E72" s="15">
-        <v>21798.952979999998</v>
-      </c>
-      <c r="F72" s="15">
-        <v>4252508.5095709292</v>
-      </c>
-      <c r="G72" s="15">
-        <v>137177.69385712678</v>
+        <v>11</v>
+      </c>
+      <c r="D72" s="25">
+        <v>906206.56853299995</v>
+      </c>
+      <c r="E72" s="25">
+        <v>29232.469951999999</v>
+      </c>
+      <c r="F72" s="25">
+        <v>5702628.3482388686</v>
+      </c>
+      <c r="G72" s="25">
+        <v>183955.75316899578</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
       <c r="N72" s="19"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D73" s="25">
-        <v>639449.31000000006</v>
+        <v>634127.085036</v>
       </c>
       <c r="E73" s="25">
-        <v>21314.976999999999</v>
+        <v>22647.395894000001</v>
       </c>
       <c r="F73" s="25">
-        <v>4023963.0665786699</v>
+        <v>3990471.0659583877</v>
       </c>
       <c r="G73" s="25">
-        <v>134132.10221928899</v>
+        <v>142516.82378422815</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
       <c r="N73" s="19"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E74" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F74" s="26">
-        <v>3718025.6039239019</v>
-      </c>
-      <c r="G74" s="15">
-        <v>119936.30980399683</v>
+        <v>9</v>
+      </c>
+      <c r="D74" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E74" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F74" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G74" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
       <c r="N74" s="19"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="9"/>
+    <row r="75" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="13">
+        <v>2017</v>
+      </c>
       <c r="C75" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="25">
-        <v>455925.02799999999</v>
-      </c>
-      <c r="E75" s="25">
-        <v>14707.258967</v>
-      </c>
-      <c r="F75" s="25">
-        <v>2869071.0039249961</v>
-      </c>
-      <c r="G75" s="25">
-        <v>92550.677545967614</v>
+        <v>20</v>
+      </c>
+      <c r="D75" s="15">
+        <v>748488.86828199995</v>
+      </c>
+      <c r="E75" s="15">
+        <v>24144.802201999999</v>
+      </c>
+      <c r="F75" s="15">
+        <v>4710133.4141904619</v>
+      </c>
+      <c r="G75" s="15">
+        <v>151939.78755453101</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2943,973 +2949,1000 @@
       <c r="N75" s="19"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="24">
-        <v>522049.42700000003</v>
-      </c>
-      <c r="E76" s="25">
-        <v>17401.647566</v>
-      </c>
-      <c r="F76" s="25">
-        <v>3285182.3910429389</v>
-      </c>
-      <c r="G76" s="25">
-        <v>109506.0797014313</v>
-      </c>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="N76" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="D76" s="15">
+        <v>707045.64604599995</v>
+      </c>
+      <c r="E76" s="15">
+        <v>23568.188201000001</v>
+      </c>
+      <c r="F76" s="15">
+        <v>4449337.1430400936</v>
+      </c>
+      <c r="G76" s="15">
+        <v>148311.23810133644</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="19"/>
       <c r="O76" s="3"/>
-      <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E77" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F77" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G77" s="25">
-        <v>130915.84472709542</v>
-      </c>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="N77" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="D77" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E77" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F77" s="15">
+        <v>4252508.5095709292</v>
+      </c>
+      <c r="G77" s="15">
+        <v>137177.69385712678</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="19"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E78" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F78" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G78" s="12">
-        <v>149902.81557846148</v>
-      </c>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="21"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="D78" s="25">
+        <v>639449.31000000006</v>
+      </c>
+      <c r="E78" s="25">
+        <v>21314.976999999999</v>
+      </c>
+      <c r="F78" s="25">
+        <v>4023963.0665786699</v>
+      </c>
+      <c r="G78" s="25">
+        <v>134132.10221928899</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C79" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E79" s="12">
-        <v>24735.119016000001</v>
-      </c>
-      <c r="F79" s="12">
-        <v>4825291.5723541733</v>
-      </c>
-      <c r="G79" s="12">
-        <v>155654.56685013464</v>
-      </c>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="21"/>
-    </row>
-    <row r="80" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D79" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E79" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F79" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G79" s="15">
+        <v>119936.30980399683</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="9"/>
       <c r="C80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="12">
-        <v>590415.46140999999</v>
-      </c>
-      <c r="E80" s="12">
-        <v>21086.266478000001</v>
-      </c>
-      <c r="F80" s="12">
-        <v>3715400.0692421482</v>
-      </c>
-      <c r="G80" s="12">
-        <v>132692.85961579101</v>
-      </c>
-      <c r="H80" s="28"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D80" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E80" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F80" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G80" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="12">
-        <v>590534.02216000005</v>
-      </c>
-      <c r="E81" s="12">
-        <v>19049.484584999998</v>
-      </c>
-      <c r="F81" s="12">
-        <v>3716146.1550877113</v>
-      </c>
-      <c r="G81" s="12">
-        <v>119875.68242218423</v>
+        <v>14</v>
+      </c>
+      <c r="D81" s="24">
+        <v>522049.42700000003</v>
+      </c>
+      <c r="E81" s="25">
+        <v>17401.647566</v>
+      </c>
+      <c r="F81" s="25">
+        <v>3285182.3910429389</v>
+      </c>
+      <c r="G81" s="25">
+        <v>109506.0797014313</v>
       </c>
       <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="N81" s="18"/>
       <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="13">
-        <v>2016</v>
-      </c>
+      <c r="R81" s="7"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="12">
-        <v>627433.93557900004</v>
-      </c>
-      <c r="E82" s="12">
-        <v>20239.804372999999</v>
-      </c>
-      <c r="F82" s="12">
-        <v>3948352.0335458592</v>
-      </c>
-      <c r="G82" s="12">
-        <v>127366.19463051159</v>
+        <v>13</v>
+      </c>
+      <c r="D82" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E82" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F82" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G82" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29"/>
       <c r="N82" s="18"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="12">
-        <v>572234.87095899996</v>
-      </c>
-      <c r="E83" s="12">
-        <v>19074.495697999999</v>
+        <v>12</v>
+      </c>
+      <c r="D83" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E83" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F83" s="12">
-        <v>3600992.21335844</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G83" s="12">
-        <v>120033.07377861465</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
       <c r="N83" s="20"/>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O83" s="21"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D84" s="12">
-        <v>505204.96276999998</v>
+        <v>766788.689518</v>
       </c>
       <c r="E84" s="12">
-        <v>16296.934282</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F84" s="12">
-        <v>3179182.5864019338</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G84" s="12">
-        <v>102554.27698070755</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
-    </row>
-    <row r="85" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="21"/>
+    </row>
+    <row r="85" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D85" s="12">
-        <v>330334.59204000002</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E85" s="12">
-        <v>11011.153068</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F85" s="12">
-        <v>2078748.3498610584</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G85" s="12">
-        <v>69291.611662035284</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D86" s="12">
-        <v>324494.77002</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E86" s="12">
-        <v>10467.573226</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F86" s="12">
-        <v>2041999.1849837471</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G86" s="12">
-        <v>65870.941451088613</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B87" s="13">
+        <v>2016</v>
+      </c>
       <c r="C87" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D87" s="12">
-        <v>261529.28813999999</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E87" s="12">
-        <v>8436.4286489999995</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F87" s="12">
-        <v>1645766.4115768159</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G87" s="12">
-        <v>53089.239083123095</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
       <c r="J87" s="28"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D88" s="12">
-        <v>205969.63078000001</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E88" s="12">
-        <v>6865.6543590000001</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F88" s="12">
-        <v>1296137.4328413385</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G88" s="12">
-        <v>43204.581094711277</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
       <c r="J88" s="28"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D89" s="12">
-        <v>350179.493456</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E89" s="12">
-        <v>11296.112692000001</v>
+        <v>16296.934282</v>
       </c>
       <c r="F89" s="12">
-        <v>2203629.4766510436</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G89" s="12">
-        <v>71084.821827453023</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="28"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+    </row>
+    <row r="90" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D90" s="12">
-        <v>517689.187898</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E90" s="12">
-        <v>17256.306262999999</v>
+        <v>11011.153068</v>
       </c>
       <c r="F90" s="12">
-        <v>3257744.0298882448</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G90" s="12">
-        <v>108591.46766294149</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H90" s="28"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D91" s="12">
-        <v>501998.54960799997</v>
+        <v>324494.77002</v>
       </c>
       <c r="E91" s="12">
-        <v>16193.5016</v>
+        <v>10467.573226</v>
       </c>
       <c r="F91" s="12">
-        <v>3159005.0868905503</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G91" s="12">
-        <v>101903.38989969516</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H91" s="28"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D92" s="12">
-        <v>440679.500314</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E92" s="12">
-        <v>15195.844838000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F92" s="12">
-        <v>2773133.0783074568</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G92" s="12">
-        <v>95625.278562326115</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
       <c r="J92" s="28"/>
-    </row>
-    <row r="93" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="12">
-        <v>473238.57974199997</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E93" s="12">
-        <v>15265.760636000001</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F93" s="12">
-        <v>2978022.7091995031</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G93" s="12">
-        <v>96065.248683854923</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H93" s="28"/>
-    </row>
-    <row r="94" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="13">
-        <v>2015</v>
-      </c>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D94" s="12">
-        <v>525645.38418599998</v>
+        <v>350179.493456</v>
       </c>
       <c r="E94" s="12">
-        <v>16956.302715000002</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F94" s="12">
-        <v>3307811.2353925598</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G94" s="12">
-        <v>106703.58823846966</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D95" s="12">
-        <v>487772.50363599998</v>
+        <v>517689.187898</v>
       </c>
       <c r="E95" s="12">
-        <v>16259.083454</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F95" s="12">
-        <v>3069482.6139133279</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G95" s="12">
-        <v>102316.08713044427</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D96" s="12">
-        <v>821728.209302</v>
+        <v>501998.54960799997</v>
       </c>
       <c r="E96" s="12">
-        <v>26507.36159</v>
+        <v>16193.5016</v>
       </c>
       <c r="F96" s="12">
-        <v>5171018.1140035549</v>
+        <v>3159005.0868905503</v>
       </c>
       <c r="G96" s="12">
-        <v>166807.03593559857</v>
+        <v>101903.38989969516</v>
       </c>
       <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D97" s="12">
-        <v>763584.49130500003</v>
+        <v>440679.500314</v>
       </c>
       <c r="E97" s="12">
-        <v>25452.816375999999</v>
+        <v>15195.844838000001</v>
       </c>
       <c r="F97" s="12">
-        <v>4805128.0112001086</v>
+        <v>2773133.0783074568</v>
       </c>
       <c r="G97" s="12">
-        <v>160170.93370667027</v>
+        <v>95625.278562326115</v>
       </c>
       <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+    </row>
+    <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" s="12">
-        <v>526399.01066399994</v>
+        <v>473238.57974199997</v>
       </c>
       <c r="E98" s="12">
-        <v>16980.613247000001</v>
+        <v>15265.760636000001</v>
       </c>
       <c r="F98" s="12">
-        <v>3312553.6990500269</v>
+        <v>2978022.7091995031</v>
       </c>
       <c r="G98" s="12">
-        <v>106856.57093709765</v>
+        <v>96065.248683854923</v>
       </c>
       <c r="H98" s="28"/>
     </row>
-    <row r="99" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
+    <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="13">
+        <v>2015</v>
+      </c>
       <c r="C99" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D99" s="12">
-        <v>409054.80754299997</v>
+        <v>525645.38418599998</v>
       </c>
       <c r="E99" s="12">
-        <v>13195.316371999999</v>
+        <v>16956.302715000002</v>
       </c>
       <c r="F99" s="12">
-        <v>2574123.40903062</v>
+        <v>3307811.2353925598</v>
       </c>
       <c r="G99" s="12">
-        <v>83036.239000987756</v>
+        <v>106703.58823846966</v>
       </c>
       <c r="H99" s="28"/>
     </row>
-    <row r="100" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D100" s="12">
-        <v>382950.03311700001</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E100" s="12">
-        <v>12765.001103000001</v>
+        <v>16259.083454</v>
       </c>
       <c r="F100" s="12">
-        <v>2409849.7965505454</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G100" s="12">
-        <v>80328.326551684848</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H100" s="28"/>
     </row>
-    <row r="101" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D101" s="12">
-        <v>405087.92933900002</v>
+        <v>821728.209302</v>
       </c>
       <c r="E101" s="12">
-        <v>13067.352559000001</v>
+        <v>26507.36159</v>
       </c>
       <c r="F101" s="12">
-        <v>2549160.4117564312</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G101" s="12">
-        <v>82230.98102440103</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H101" s="28"/>
     </row>
-    <row r="102" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D102" s="12">
-        <v>420967.39355099999</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E102" s="12">
-        <v>14032.246451000001</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F102" s="12">
-        <v>2649087.6092791655</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G102" s="12">
-        <v>88302.920309305511</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H102" s="28"/>
     </row>
-    <row r="103" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D103" s="12">
-        <v>580246.22209699999</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E103" s="12">
-        <v>18717.620067</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F103" s="12">
-        <v>3651406.5004466609</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G103" s="12">
-        <v>117787.30646602133</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H103" s="28"/>
     </row>
-    <row r="104" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D104" s="12">
-        <v>469322.27903799998</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E104" s="12">
-        <v>16761.509965000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F104" s="12">
-        <v>2953377.9889002317</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G104" s="12">
-        <v>105477.7853178654</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="12">
-        <v>663165.584088</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E105" s="12">
-        <v>21392.438195999999</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F105" s="12">
-        <v>4173206.1879872596</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G105" s="12">
-        <v>134619.55445120193</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="13">
-        <v>2014</v>
-      </c>
+    <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D106" s="12">
-        <v>865311.98928099999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E106" s="12">
-        <v>27913.289976</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F106" s="12">
-        <v>5445284.6089308662</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G106" s="12">
-        <v>175654.34222357633</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H106" s="28"/>
     </row>
-    <row r="107" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D107" s="12">
-        <v>719671.70044299995</v>
+        <v>420967.39355099999</v>
       </c>
       <c r="E107" s="12">
-        <v>23989.056680999998</v>
+        <v>14032.246451000001</v>
       </c>
       <c r="F107" s="12">
-        <v>4528791.0978346355</v>
+        <v>2649087.6092791655</v>
       </c>
       <c r="G107" s="12">
-        <v>150959.70326115453</v>
+        <v>88302.920309305511</v>
       </c>
       <c r="H107" s="28"/>
     </row>
-    <row r="108" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D108" s="12">
-        <v>732720.57923100004</v>
+        <v>580246.22209699999</v>
       </c>
       <c r="E108" s="12">
-        <v>23636.147717</v>
+        <v>18717.620067</v>
       </c>
       <c r="F108" s="12">
-        <v>4610905.8260578532</v>
+        <v>3651406.5004466609</v>
       </c>
       <c r="G108" s="12">
-        <v>148738.89761476943</v>
+        <v>117787.30646602133</v>
       </c>
       <c r="H108" s="28"/>
     </row>
-    <row r="109" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="13"/>
+    <row r="109" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D109" s="12">
-        <v>853296.86337200005</v>
+        <v>469322.27903799998</v>
       </c>
       <c r="E109" s="12">
-        <v>28443.228779000001</v>
+        <v>16761.509965000001</v>
       </c>
       <c r="F109" s="12">
-        <v>5369675.1397485342</v>
+        <v>2953377.9889002317</v>
       </c>
       <c r="G109" s="12">
-        <v>178989.17132495114</v>
+        <v>105477.7853178654</v>
       </c>
       <c r="H109" s="28"/>
     </row>
-    <row r="110" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D110" s="12">
-        <v>765107.365124</v>
+        <v>663165.584088</v>
       </c>
       <c r="E110" s="12">
-        <v>24680.882744999999</v>
+        <v>21392.438195999999</v>
       </c>
       <c r="F110" s="12">
-        <v>4814711.2383721191</v>
+        <v>4173206.1879872596</v>
       </c>
       <c r="G110" s="12">
-        <v>155313.26575393934</v>
+        <v>134619.55445120193</v>
       </c>
       <c r="H110" s="28"/>
     </row>
-    <row r="111" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="13"/>
+    <row r="111" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="13">
+        <v>2014</v>
+      </c>
       <c r="C111" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D111" s="12">
-        <v>808439.72412699996</v>
+        <v>865311.98928099999</v>
       </c>
       <c r="E111" s="12">
-        <v>26078.700777999999</v>
+        <v>27913.289976</v>
       </c>
       <c r="F111" s="12">
-        <v>5087395.5770506607</v>
+        <v>5445284.6089308662</v>
       </c>
       <c r="G111" s="12">
-        <v>164109.5347435697</v>
+        <v>175654.34222357633</v>
       </c>
       <c r="H111" s="28"/>
     </row>
-    <row r="112" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D112" s="12">
-        <v>696291.70361199998</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E112" s="12">
-        <v>23209.723452999999</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F112" s="12">
-        <v>4381664.1211166997</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G112" s="12">
-        <v>146055.47070388999</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H112" s="28"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="13"/>
       <c r="C113" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D113" s="12">
-        <v>776525.44836499996</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E113" s="12">
-        <v>25049.208010999999</v>
+        <v>23636.147717</v>
       </c>
       <c r="F113" s="12">
-        <v>4886563.6034218287</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G113" s="12">
-        <v>157631.08398134931</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H113" s="28"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D114" s="12">
-        <v>757771.62080999999</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E114" s="12">
-        <v>25259.054026999998</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F114" s="12">
-        <v>4768548.4484155541</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G114" s="12">
-        <v>158951.61494718515</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H114" s="28"/>
     </row>
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D115" s="12">
-        <v>850705.67475799995</v>
+        <v>765107.365124</v>
       </c>
       <c r="E115" s="12">
-        <v>27442.118539999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F115" s="12">
-        <v>5353369.1603406034</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G115" s="12">
-        <v>172689.32775292269</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H115" s="28"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D116" s="12">
-        <v>725916.08318800002</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E116" s="12">
-        <v>25925.574399000001</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F116" s="12">
-        <v>4568086.1055021882</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G116" s="12">
-        <v>163145.93233936388</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H116" s="28"/>
-      <c r="I116" s="22"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D117" s="12">
-        <v>784704.73359700001</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E117" s="12">
-        <v>25313.055922</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F117" s="12">
-        <v>4938034.6757490169</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G117" s="12">
-        <v>159291.44115319409</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H117" s="28"/>
-      <c r="I117" s="22"/>
     </row>
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="13">
-        <v>2013</v>
-      </c>
+      <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D118" s="12">
-        <v>804980.50382999994</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E118" s="12">
-        <v>25967.113025999999</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F118" s="12">
-        <v>5065627.1983901421</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G118" s="12">
-        <v>163407.32898032718</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H118" s="28"/>
-      <c r="I118" s="22"/>
     </row>
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D119" s="12">
-        <v>694876.63784600003</v>
+        <v>757771.62080999999</v>
       </c>
       <c r="E119" s="12">
-        <v>23162.554594000001</v>
+        <v>25259.054026999998</v>
       </c>
       <c r="F119" s="12">
-        <v>4372759.3146056654</v>
+        <v>4768548.4484155541</v>
       </c>
       <c r="G119" s="12">
-        <v>145758.64382018885</v>
+        <v>158951.61494718515</v>
       </c>
       <c r="H119" s="28"/>
-      <c r="I119" s="22"/>
     </row>
     <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D120" s="12">
-        <v>641470.05047699995</v>
+        <v>850705.67475799995</v>
       </c>
       <c r="E120" s="12">
-        <v>20692.582273</v>
+        <v>27442.118539999999</v>
       </c>
       <c r="F120" s="12">
-        <v>4036679.2974345428</v>
+        <v>5353369.1603406034</v>
       </c>
       <c r="G120" s="12">
-        <v>130215.4612075659</v>
+        <v>172689.32775292269</v>
       </c>
       <c r="H120" s="28"/>
-      <c r="I120" s="22"/>
     </row>
     <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D121" s="12">
-        <v>558075.757491</v>
+        <v>725916.08318800002</v>
       </c>
       <c r="E121" s="12">
-        <v>18602.525248999998</v>
+        <v>25925.574399000001</v>
       </c>
       <c r="F121" s="12">
-        <v>3511890.9370575417</v>
+        <v>4568086.1055021882</v>
       </c>
       <c r="G121" s="12">
-        <v>117063.03123525139</v>
+        <v>163145.93233936388</v>
       </c>
       <c r="H121" s="28"/>
       <c r="I121" s="22"/>
@@ -3917,691 +3950,793 @@
     <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" s="12">
-        <v>559110.83105899999</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E122" s="12">
-        <v>18035.833258999999</v>
+        <v>25313.055922</v>
       </c>
       <c r="F122" s="12">
-        <v>3518404.5070054457</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G122" s="12">
-        <v>113496.91958082083</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H122" s="28"/>
       <c r="I122" s="22"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="13"/>
+    <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="13">
+        <v>2013</v>
+      </c>
       <c r="C123" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D123" s="12">
-        <v>661131.44749100006</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E123" s="12">
-        <v>21326.820886000001</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F123" s="12">
-        <v>4160405.6572638722</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G123" s="12">
-        <v>134206.63410528618</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H123" s="28"/>
       <c r="I123" s="22"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D124" s="12">
-        <v>663648.26149299997</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E124" s="12">
-        <v>22121.608715999999</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F124" s="12">
-        <v>4176243.6078740559</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G124" s="12">
-        <v>139208.12026246852</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="22"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="13"/>
       <c r="C125" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D125" s="12">
-        <v>647734.46579799999</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E125" s="12">
-        <v>20894.660187000001</v>
+        <v>20692.582273</v>
       </c>
       <c r="F125" s="12">
-        <v>4076100.3672382049</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G125" s="12">
-        <v>131487.10862058724</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="22"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D126" s="12">
-        <v>597610.93523199996</v>
+        <v>558075.757491</v>
       </c>
       <c r="E126" s="12">
-        <v>19920.364506999998</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F126" s="12">
-        <v>3760680.1570512378</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G126" s="12">
-        <v>125356.00523504126</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H126" s="28"/>
       <c r="I126" s="22"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="13"/>
       <c r="C127" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D127" s="12">
-        <v>565162.30006200005</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E127" s="12">
-        <v>18231.041937000002</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F127" s="12">
-        <v>3556485.5360812568</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G127" s="12">
-        <v>114725.33987358895</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H127" s="28"/>
       <c r="I127" s="22"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="12">
+        <v>661131.44749100006</v>
+      </c>
+      <c r="E128" s="12">
+        <v>21326.820886000001</v>
+      </c>
+      <c r="F128" s="12">
+        <v>4160405.6572638722</v>
+      </c>
+      <c r="G128" s="12">
+        <v>134206.63410528618</v>
+      </c>
+      <c r="H128" s="28"/>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B129" s="13"/>
+      <c r="C129" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="12">
+        <v>663648.26149299997</v>
+      </c>
+      <c r="E129" s="12">
+        <v>22121.608715999999</v>
+      </c>
+      <c r="F129" s="12">
+        <v>4176243.6078740559</v>
+      </c>
+      <c r="G129" s="12">
+        <v>139208.12026246852</v>
+      </c>
+      <c r="H129" s="28"/>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" s="13"/>
+      <c r="C130" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="12">
+        <v>647734.46579799999</v>
+      </c>
+      <c r="E130" s="12">
+        <v>20894.660187000001</v>
+      </c>
+      <c r="F130" s="12">
+        <v>4076100.3672382049</v>
+      </c>
+      <c r="G130" s="12">
+        <v>131487.10862058724</v>
+      </c>
+      <c r="H130" s="28"/>
+      <c r="I130" s="22"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="12">
+        <v>597610.93523199996</v>
+      </c>
+      <c r="E131" s="12">
+        <v>19920.364506999998</v>
+      </c>
+      <c r="F131" s="12">
+        <v>3760680.1570512378</v>
+      </c>
+      <c r="G131" s="12">
+        <v>125356.00523504126</v>
+      </c>
+      <c r="H131" s="28"/>
+      <c r="I131" s="22"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="12">
+        <v>565162.30006200005</v>
+      </c>
+      <c r="E132" s="12">
+        <v>18231.041937000002</v>
+      </c>
+      <c r="F132" s="12">
+        <v>3556485.5360812568</v>
+      </c>
+      <c r="G132" s="12">
+        <v>114725.33987358895</v>
+      </c>
+      <c r="H132" s="28"/>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D133" s="12">
         <v>443068.728405</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E133" s="12">
         <v>15823.883157</v>
       </c>
-      <c r="F128" s="12">
+      <c r="F133" s="12">
         <v>2788168.1490245033</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G133" s="12">
         <v>99577.433893732261</v>
       </c>
-      <c r="H128" s="28"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C129" s="11" t="s">
+      <c r="H133" s="28"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C134" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D134" s="12">
         <v>484594.69508400001</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E134" s="12">
         <v>15632.086938</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F134" s="12">
         <v>3049485.1191222151</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G134" s="12">
         <v>98370.487713619834</v>
       </c>
-      <c r="H129" s="28"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B130" s="13">
+      <c r="H134" s="28"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B135" s="13">
         <v>2012</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C135" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D135" s="12">
         <v>614912.306522</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E135" s="12">
         <v>19835.880854999999</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F135" s="12">
         <v>3869555.2124831136</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G135" s="12">
         <v>124824.36169300365</v>
       </c>
-      <c r="H130" s="28"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C131" s="11" t="s">
+      <c r="H135" s="28"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D136" s="12">
         <v>262269.19780000002</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E136" s="12">
         <v>8742.3065929999993</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F136" s="12">
         <v>1650422.5572601147</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G136" s="12">
         <v>55014.085242003821</v>
       </c>
-      <c r="H131" s="28"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C132" s="11" t="s">
+      <c r="H136" s="28"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C137" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D137" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E137" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F137" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G137" s="12">
         <v>58651.948870419023</v>
       </c>
-      <c r="H132" s="28"/>
-    </row>
-    <row r="133" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="13"/>
-      <c r="C133" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E133" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F133" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G133" s="12">
-        <v>67822.561910826538</v>
-      </c>
-      <c r="H133" s="28"/>
-    </row>
-    <row r="134" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="13"/>
-      <c r="C134" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="12">
-        <v>265901.88781699998</v>
-      </c>
-      <c r="E134" s="12">
-        <v>8577.4802519999994</v>
-      </c>
-      <c r="F134" s="12">
-        <v>1673282.5560624234</v>
-      </c>
-      <c r="G134" s="12">
-        <v>53976.856647174944</v>
-      </c>
-      <c r="H134" s="28"/>
-    </row>
-    <row r="135" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="13"/>
-      <c r="C135" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="12">
-        <v>247847.77045499999</v>
-      </c>
-      <c r="E135" s="12">
-        <v>7995.0893690000003</v>
-      </c>
-      <c r="F135" s="12">
-        <v>1559670.57724214</v>
-      </c>
-      <c r="G135" s="12">
-        <v>50311.954104585158</v>
-      </c>
-      <c r="H135" s="28"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C136" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="12">
-        <v>160936.42993099999</v>
-      </c>
-      <c r="E136" s="12">
-        <v>5364.5476639999997</v>
-      </c>
-      <c r="F136" s="12">
-        <v>1012749.9396463028</v>
-      </c>
-      <c r="G136" s="12">
-        <v>33758.331321543425</v>
-      </c>
-      <c r="H136" s="28"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B137" s="13"/>
-      <c r="C137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="12">
-        <v>164510.12670699999</v>
-      </c>
-      <c r="E137" s="12">
-        <v>5306.7782800000004</v>
-      </c>
-      <c r="F137" s="12">
-        <v>1035238.702419032</v>
-      </c>
-      <c r="G137" s="12">
-        <v>33394.796852226835</v>
-      </c>
       <c r="H137" s="28"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="13"/>
       <c r="C138" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D138" s="12">
-        <v>135951.57</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E138" s="12">
-        <v>4531.7190000000001</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F138" s="12">
-        <v>855523.78893549007</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G138" s="12">
-        <v>28517.459631182999</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H138" s="28"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="13"/>
       <c r="C139" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="12">
+        <v>265901.88781699998</v>
+      </c>
+      <c r="E139" s="12">
+        <v>8577.4802519999994</v>
+      </c>
+      <c r="F139" s="12">
+        <v>1673282.5560624234</v>
+      </c>
+      <c r="G139" s="12">
+        <v>53976.856647174944</v>
+      </c>
+      <c r="H139" s="28"/>
+    </row>
+    <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="13"/>
+      <c r="C140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="12">
+        <v>247847.77045499999</v>
+      </c>
+      <c r="E140" s="12">
+        <v>7995.0893690000003</v>
+      </c>
+      <c r="F140" s="12">
+        <v>1559670.57724214</v>
+      </c>
+      <c r="G140" s="12">
+        <v>50311.954104585158</v>
+      </c>
+      <c r="H140" s="28"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C141" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="12">
+        <v>160936.42993099999</v>
+      </c>
+      <c r="E141" s="12">
+        <v>5364.5476639999997</v>
+      </c>
+      <c r="F141" s="12">
+        <v>1012749.9396463028</v>
+      </c>
+      <c r="G141" s="12">
+        <v>33758.331321543425</v>
+      </c>
+      <c r="H141" s="28"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B142" s="13"/>
+      <c r="C142" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="12">
+        <v>164510.12670699999</v>
+      </c>
+      <c r="E142" s="12">
+        <v>5306.7782800000004</v>
+      </c>
+      <c r="F142" s="12">
+        <v>1035238.702419032</v>
+      </c>
+      <c r="G142" s="12">
+        <v>33394.796852226835</v>
+      </c>
+      <c r="H142" s="28"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B143" s="13"/>
+      <c r="C143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E143" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F143" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G143" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H143" s="28"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B144" s="13"/>
+      <c r="C144" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D144" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E144" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F144" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G144" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H139" s="28"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C140" s="11" t="s">
+      <c r="H144" s="28"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C145" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D145" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E140" s="12">
+      <c r="E145" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F140" s="12">
+      <c r="F145" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G140" s="12">
+      <c r="G145" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H140" s="22"/>
-    </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="11" t="s">
+      <c r="H145" s="22"/>
+    </row>
+    <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="17">
+      <c r="D146" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E146" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F141" s="12">
+      <c r="F146" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G141" s="12">
+      <c r="G146" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H141" s="23"/>
-    </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="30"/>
-      <c r="B142" s="31" t="s">
+      <c r="H146" s="23"/>
+    </row>
+    <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="30"/>
+      <c r="B147" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="32"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-    </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-    </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="40"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="40"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-    </row>
-    <row r="145" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="41"/>
-      <c r="B145" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="43"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="43"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="43"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-    </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="88"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="88"/>
-      <c r="I146" s="88"/>
-      <c r="J146" s="88"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-    </row>
-    <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="89"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="89"/>
-      <c r="G147" s="89"/>
-      <c r="H147" s="89"/>
-      <c r="I147" s="89"/>
-      <c r="J147" s="89"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="34"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
     <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="89"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="89"/>
-      <c r="G148" s="89"/>
-      <c r="H148" s="89"/>
-      <c r="I148" s="89"/>
-      <c r="J148" s="89"/>
+      <c r="B148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="89"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="89"/>
-      <c r="G149" s="89"/>
-      <c r="H149" s="89"/>
-      <c r="I149" s="89"/>
-      <c r="J149" s="89"/>
+    <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="35"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="38"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="40"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="89"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="89"/>
-      <c r="G150" s="89"/>
-      <c r="H150" s="89"/>
-      <c r="I150" s="89"/>
-      <c r="J150" s="89"/>
+    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="41"/>
+      <c r="B150" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="43"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
     <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="89"/>
-      <c r="B151" s="89"/>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="89"/>
-      <c r="G151" s="89"/>
-      <c r="H151" s="89"/>
-      <c r="I151" s="89"/>
-      <c r="J151" s="89"/>
+      <c r="A151" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="93"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="93"/>
+      <c r="E151" s="93"/>
+      <c r="F151" s="93"/>
+      <c r="G151" s="93"/>
+      <c r="H151" s="93"/>
+      <c r="I151" s="93"/>
+      <c r="J151" s="93"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
     <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="89"/>
-      <c r="G152" s="89"/>
-      <c r="H152" s="89"/>
-      <c r="I152" s="89"/>
-      <c r="J152" s="89"/>
+      <c r="A152" s="94"/>
+      <c r="B152" s="94"/>
+      <c r="C152" s="94"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="94"/>
+      <c r="F152" s="94"/>
+      <c r="G152" s="94"/>
+      <c r="H152" s="94"/>
+      <c r="I152" s="94"/>
+      <c r="J152" s="94"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="89"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="89"/>
-      <c r="G153" s="89"/>
-      <c r="H153" s="89"/>
-      <c r="I153" s="89"/>
-      <c r="J153" s="89"/>
+      <c r="A153" s="94"/>
+      <c r="B153" s="94"/>
+      <c r="C153" s="94"/>
+      <c r="D153" s="94"/>
+      <c r="E153" s="94"/>
+      <c r="F153" s="94"/>
+      <c r="G153" s="94"/>
+      <c r="H153" s="94"/>
+      <c r="I153" s="94"/>
+      <c r="J153" s="94"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="89"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="89"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="89"/>
-      <c r="G154" s="89"/>
-      <c r="H154" s="89"/>
-      <c r="I154" s="89"/>
-      <c r="J154" s="89"/>
+      <c r="A154" s="94"/>
+      <c r="B154" s="94"/>
+      <c r="C154" s="94"/>
+      <c r="D154" s="94"/>
+      <c r="E154" s="94"/>
+      <c r="F154" s="94"/>
+      <c r="G154" s="94"/>
+      <c r="H154" s="94"/>
+      <c r="I154" s="94"/>
+      <c r="J154" s="94"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="89"/>
-      <c r="B155" s="89"/>
-      <c r="C155" s="89"/>
-      <c r="D155" s="89"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="89"/>
-      <c r="G155" s="89"/>
-      <c r="H155" s="89"/>
-      <c r="I155" s="89"/>
-      <c r="J155" s="89"/>
+      <c r="A155" s="94"/>
+      <c r="B155" s="94"/>
+      <c r="C155" s="94"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="94"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="94"/>
+      <c r="J155" s="94"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
     </row>
     <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="89"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="89"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="89"/>
-      <c r="G156" s="89"/>
-      <c r="H156" s="89"/>
-      <c r="I156" s="89"/>
-      <c r="J156" s="89"/>
+      <c r="A156" s="94"/>
+      <c r="B156" s="94"/>
+      <c r="C156" s="94"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="94"/>
+      <c r="F156" s="94"/>
+      <c r="G156" s="94"/>
+      <c r="H156" s="94"/>
+      <c r="I156" s="94"/>
+      <c r="J156" s="94"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
     </row>
     <row r="157" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="89"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="89"/>
-      <c r="G157" s="89"/>
-      <c r="H157" s="89"/>
-      <c r="I157" s="89"/>
-      <c r="J157" s="89"/>
+      <c r="A157" s="94"/>
+      <c r="B157" s="94"/>
+      <c r="C157" s="94"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="94"/>
+      <c r="F157" s="94"/>
+      <c r="G157" s="94"/>
+      <c r="H157" s="94"/>
+      <c r="I157" s="94"/>
+      <c r="J157" s="94"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
     </row>
     <row r="158" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="89"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="89"/>
-      <c r="D158" s="89"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="89"/>
-      <c r="G158" s="89"/>
-      <c r="H158" s="89"/>
-      <c r="I158" s="89"/>
-      <c r="J158" s="89"/>
+      <c r="A158" s="94"/>
+      <c r="B158" s="94"/>
+      <c r="C158" s="94"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="94"/>
+      <c r="F158" s="94"/>
+      <c r="G158" s="94"/>
+      <c r="H158" s="94"/>
+      <c r="I158" s="94"/>
+      <c r="J158" s="94"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
     </row>
     <row r="159" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="89"/>
-      <c r="B159" s="89"/>
-      <c r="C159" s="89"/>
-      <c r="D159" s="89"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="89"/>
-      <c r="G159" s="89"/>
-      <c r="H159" s="89"/>
-      <c r="I159" s="89"/>
-      <c r="J159" s="89"/>
-    </row>
-    <row r="160" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="4"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-    </row>
-    <row r="161" spans="3:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="4"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-    </row>
-    <row r="162" spans="3:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D163" s="15"/>
-    </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D164" s="15"/>
-    </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D165" s="15"/>
-    </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D166" s="15"/>
-    </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="94"/>
+      <c r="B159" s="94"/>
+      <c r="C159" s="94"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="94"/>
+      <c r="F159" s="94"/>
+      <c r="G159" s="94"/>
+      <c r="H159" s="94"/>
+      <c r="I159" s="94"/>
+      <c r="J159" s="94"/>
+    </row>
+    <row r="160" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="94"/>
+      <c r="B160" s="94"/>
+      <c r="C160" s="94"/>
+      <c r="D160" s="94"/>
+      <c r="E160" s="94"/>
+      <c r="F160" s="94"/>
+      <c r="G160" s="94"/>
+      <c r="H160" s="94"/>
+      <c r="I160" s="94"/>
+      <c r="J160" s="94"/>
+    </row>
+    <row r="161" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="94"/>
+      <c r="B161" s="94"/>
+      <c r="C161" s="94"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="94"/>
+      <c r="F161" s="94"/>
+      <c r="G161" s="94"/>
+      <c r="H161" s="94"/>
+      <c r="I161" s="94"/>
+      <c r="J161" s="94"/>
+    </row>
+    <row r="162" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="94"/>
+      <c r="B162" s="94"/>
+      <c r="C162" s="94"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="94"/>
+      <c r="F162" s="94"/>
+      <c r="G162" s="94"/>
+      <c r="H162" s="94"/>
+      <c r="I162" s="94"/>
+      <c r="J162" s="94"/>
+    </row>
+    <row r="163" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="94"/>
+      <c r="B163" s="94"/>
+      <c r="C163" s="94"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="94"/>
+      <c r="F163" s="94"/>
+      <c r="G163" s="94"/>
+      <c r="H163" s="94"/>
+      <c r="I163" s="94"/>
+      <c r="J163" s="94"/>
+    </row>
+    <row r="164" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="94"/>
+      <c r="B164" s="94"/>
+      <c r="C164" s="94"/>
+      <c r="D164" s="94"/>
+      <c r="E164" s="94"/>
+      <c r="F164" s="94"/>
+      <c r="G164" s="94"/>
+      <c r="H164" s="94"/>
+      <c r="I164" s="94"/>
+      <c r="J164" s="94"/>
+    </row>
+    <row r="165" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="4"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+    </row>
+    <row r="166" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="4"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+    </row>
+    <row r="167" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" s="15"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D168" s="15"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D169" s="15"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D170" s="15"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D171" s="15"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D172" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A146:J159"/>
+    <mergeCell ref="A151:J164"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4622,8 +4757,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEF22DAF496ADE498A94ECACB103F1AD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8239a3cb3a6e6190bb3251888f782d64">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee349bb3-f777-4768-a131-ca5c9eb9e69a" xmlns:ns3="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcfb702ae5665faf2796e51a452fc314" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEF22DAF496ADE498A94ECACB103F1AD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94ca56df59429f33e9578fc51d07b71b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee349bb3-f777-4768-a131-ca5c9eb9e69a" xmlns:ns3="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a936563a2c046556d5fbda508711cd0" ns2:_="" ns3:_="">
     <xsd:import namespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
     <xsd:import namespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
     <xsd:element name="properties">
@@ -4643,6 +4778,8 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:Status" minOccurs="0"/>
                 <xsd:element ref="ns2:Key" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4708,6 +4845,16 @@
     <xsd:element name="Key" ma:index="19" nillable="true" ma:displayName="Key" ma:decimals="0" ma:description="Unique temp number" ma:internalName="Key" ma:percentage="FALSE">
       <xsd:simpleType>
         <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4828,19 +4975,19 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
+    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">643</parentID>
     <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
-    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">167</parentID>
+    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
+    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B6F63E-AEF7-4418-B6C8-B6A7DC18134E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D627CC55-FF2E-4BF9-8236-FF4112E9FEFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -4848,7 +4995,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2327CEA6-11F9-43BB-803B-300A171EAC9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A9580F-62C1-4A7C-9B6B-29237D2F0B95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4867,18 +5014,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D750757-B218-4446-BA21-A91EF1FF7BE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5906534C-BD9A-44C4-A77F-38B53344385F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A779C520-C5A0-4FC3-A576-6AC124E70CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{342AEE2D-63DE-4463-8683-25F2AC37A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrudeOilExportsByRail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 28th August 2023</t>
+    <t>Numbers last updated on 27th October 2023</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -410,6 +410,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -675,9 +677,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="133350" y="142875"/>
-          <a:ext cx="1971675" cy="285750"/>
+        <a:xfrm rot="21540000">
+          <a:off x="136634" y="142875"/>
+          <a:ext cx="1967844" cy="284108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1091,10 +1093,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1112,47 +1114,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1198,19 +1200,19 @@
         <v>2023</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="15">
-        <v>489767.26876200002</v>
+        <v>732288.41940799996</v>
       </c>
       <c r="E9" s="15">
-        <v>16325.575624999999</v>
+        <v>23622.207076999999</v>
       </c>
       <c r="F9" s="15">
-        <v>3082035.385599833</v>
+        <v>4608186.3060905691</v>
       </c>
       <c r="G9" s="15">
-        <v>102734.51285332776</v>
+        <v>148651.1711642119</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1221,22 +1223,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="88" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="90" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="15">
-        <v>387923.87491900002</v>
+        <v>560523.45423999999</v>
       </c>
       <c r="E10" s="15">
-        <v>12513.673384</v>
+        <v>18081.401749000001</v>
       </c>
       <c r="F10" s="15">
-        <v>2441149.4717511535</v>
+        <v>3527293.9426783635</v>
       </c>
       <c r="G10" s="15">
-        <v>78746.757153263025</v>
+        <v>113783.6755702698</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1247,22 +1249,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="87" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="89" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="15">
-        <v>381507.83930300002</v>
+        <v>489767.26876200002</v>
       </c>
       <c r="E11" s="15">
-        <v>12716.927976000001</v>
+        <v>16325.575624999999</v>
       </c>
       <c r="F11" s="15">
-        <v>2400774.2771127587</v>
+        <v>3082035.385599833</v>
       </c>
       <c r="G11" s="15">
-        <v>80025.809237091948</v>
+        <v>102734.51285332776</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1273,22 +1275,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="86" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="88" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="15">
-        <v>481868.324853</v>
+        <v>387923.87491900002</v>
       </c>
       <c r="E12" s="15">
-        <v>15544.139510999999</v>
+        <v>12513.673384</v>
       </c>
       <c r="F12" s="15">
-        <v>3032328.4611294749</v>
+        <v>2441149.4717511535</v>
       </c>
       <c r="G12" s="15">
-        <v>97817.047133208864</v>
+        <v>78746.757153263025</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1299,22 +1301,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="85" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="87" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="15">
-        <v>442221.267445</v>
+        <v>381507.83930300002</v>
       </c>
       <c r="E13" s="15">
-        <v>15793.616694</v>
-      </c>
-      <c r="F13" s="25">
-        <v>2782835.1983901402</v>
-      </c>
-      <c r="G13" s="25">
-        <v>99386.971371076448</v>
+        <v>12716.927976000001</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2400774.2771127587</v>
+      </c>
+      <c r="G13" s="15">
+        <v>80025.809237091948</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1325,22 +1327,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="84" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="86" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="15">
-        <v>591517.59899099998</v>
+        <v>481868.324853</v>
       </c>
       <c r="E14" s="15">
-        <v>19081.212869999999</v>
-      </c>
-      <c r="F14" s="25">
-        <v>3722335.6634337073</v>
-      </c>
-      <c r="G14" s="25">
-        <v>120075.3439817325</v>
+        <v>15544.139510999999</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3032328.4611294749</v>
+      </c>
+      <c r="G14" s="15">
+        <v>97817.047133208864</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1351,24 +1353,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13">
-        <v>2022</v>
-      </c>
+    <row r="15" spans="1:15" s="85" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15" s="15">
-        <v>621679.26430799998</v>
+        <v>442221.267445</v>
       </c>
       <c r="E15" s="15">
-        <v>20054.169816000001</v>
+        <v>15793.616694</v>
       </c>
       <c r="F15" s="25">
-        <v>3912138.7101554479</v>
+        <v>2782835.1983901402</v>
       </c>
       <c r="G15" s="25">
-        <v>126198.02290824025</v>
+        <v>99386.971371076448</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1379,22 +1379,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="84" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D16" s="15">
-        <v>581166.18618700001</v>
+        <v>591517.59899099998</v>
       </c>
       <c r="E16" s="15">
-        <v>19372.206205999999</v>
+        <v>19081.212869999999</v>
       </c>
       <c r="F16" s="25">
-        <v>3657195.7029101662</v>
+        <v>3722335.6634337073</v>
       </c>
       <c r="G16" s="25">
-        <v>121906.52343033889</v>
+        <v>120075.3439817325</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1405,22 +1405,24 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
+    <row r="17" spans="2:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13">
+        <v>2022</v>
+      </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="15">
-        <v>689253.59670899995</v>
+        <v>621679.26430799998</v>
       </c>
       <c r="E17" s="15">
-        <v>22233.986990000001</v>
+        <v>20054.169816000001</v>
       </c>
       <c r="F17" s="25">
-        <v>4337374.3208254073</v>
+        <v>3912138.7101554479</v>
       </c>
       <c r="G17" s="25">
-        <v>139915.30067178735</v>
+        <v>126198.02290824025</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1431,22 +1433,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="15">
-        <v>605733.99690699996</v>
+        <v>581166.18618700001</v>
       </c>
       <c r="E18" s="15">
-        <v>20191.133229999999</v>
+        <v>19372.206205999999</v>
       </c>
       <c r="F18" s="25">
-        <v>3811797.4225741932</v>
+        <v>3657195.7029101662</v>
       </c>
       <c r="G18" s="25">
-        <v>127059.91408580645</v>
+        <v>121906.52343033889</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1457,22 +1459,22 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="15">
-        <v>764283.47460900003</v>
+        <v>689253.59670899995</v>
       </c>
       <c r="E19" s="15">
-        <v>24654.305632</v>
+        <v>22233.986990000001</v>
       </c>
       <c r="F19" s="25">
-        <v>4809526.6131775687</v>
+        <v>4337374.3208254073</v>
       </c>
       <c r="G19" s="25">
-        <v>155146.01977992154</v>
+        <v>139915.30067178735</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1483,22 +1485,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="15">
-        <v>754659.58550000004</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E20" s="15">
-        <v>24343.857596000002</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F20" s="25">
-        <v>4748964.8552307729</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G20" s="25">
-        <v>153192.41468486364</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1509,22 +1511,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="15">
-        <v>811142.03678099997</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E21" s="15">
-        <v>27038.067891999999</v>
+        <v>24654.305632</v>
       </c>
       <c r="F21" s="25">
-        <v>5104400.8441515733</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G21" s="25">
-        <v>170146.69480505245</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1535,22 +1537,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="15">
-        <v>852839.47011300002</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E22" s="15">
-        <v>27510.950647999998</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F22" s="25">
-        <v>5366796.8293768829</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G22" s="25">
-        <v>173122.47836699622</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1561,22 +1563,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" s="15">
-        <v>687298.73723800003</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E23" s="15">
-        <v>22909.957907</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F23" s="25">
-        <v>4325072.6697193086</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G23" s="25">
-        <v>144169.08899064365</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1587,22 +1589,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" s="15">
-        <v>748262.834699</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E24" s="15">
-        <v>24137.510795999999</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F24" s="25">
-        <v>4708711.0171754453</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G24" s="25">
-        <v>151893.90377985305</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1613,22 +1615,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" s="15">
-        <v>555213.606959</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E25" s="15">
-        <v>19829.057390999998</v>
+        <v>22909.957907</v>
       </c>
       <c r="F25" s="25">
-        <v>3493879.8330471921</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G25" s="25">
-        <v>124781.42260882829</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1639,22 +1641,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26" s="15">
-        <v>652563.46630800003</v>
+        <v>748262.834699</v>
       </c>
       <c r="E26" s="15">
-        <v>21050.434397000001</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F26" s="25">
-        <v>4106488.5769005618</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G26" s="25">
-        <v>132467.37344840521</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1665,24 +1667,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13">
-        <v>2021</v>
-      </c>
+    <row r="27" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D27" s="15">
-        <v>652019.38080000004</v>
+        <v>555213.606959</v>
       </c>
       <c r="E27" s="15">
-        <v>21032.883250999999</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F27" s="25">
-        <v>4103064.7246029456</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G27" s="25">
-        <v>132356.92660009503</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1693,22 +1693,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15">
-        <v>630694.20088599995</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E28" s="15">
-        <v>21023.140028999998</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F28" s="25">
-        <v>3968868.4169048714</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G28" s="25">
-        <v>132295.61389682905</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1719,22 +1719,24 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
+    <row r="29" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13">
+        <v>2021</v>
+      </c>
       <c r="C29" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" s="15">
-        <v>653554.90011000005</v>
+        <v>652019.38080000004</v>
       </c>
       <c r="E29" s="15">
-        <v>21082.416131999998</v>
+        <v>21032.883250999999</v>
       </c>
       <c r="F29" s="25">
-        <v>4112727.5280415146</v>
+        <v>4103064.7246029456</v>
       </c>
       <c r="G29" s="25">
-        <v>132668.62993682304</v>
+        <v>132356.92660009503</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1745,22 +1747,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" s="15">
-        <v>787255.85854499997</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E30" s="15">
-        <v>26241.861950999999</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F30" s="25">
-        <v>4954088.5402359134</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G30" s="25">
-        <v>165136.28467453044</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1771,22 +1773,22 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="15">
-        <v>835957.17292699998</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E31" s="15">
-        <v>26966.360417</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F31" s="25">
-        <v>5260558.9473538827</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G31" s="25">
-        <v>169695.44991464139</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1797,22 +1799,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="15">
-        <v>708627.37697600003</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E32" s="15">
-        <v>22858.947644</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F32" s="25">
-        <v>4459290.74959506</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G32" s="25">
-        <v>143848.08869661484</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1823,22 +1825,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="15">
-        <v>633252.08580700005</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E33" s="15">
-        <v>21108.402859999998</v>
+        <v>26966.360417</v>
       </c>
       <c r="F33" s="25">
-        <v>3984964.8209351809</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G33" s="25">
-        <v>132832.16069783937</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1849,22 +1851,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" s="15">
-        <v>631973.26563000004</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E34" s="15">
-        <v>20386.234375</v>
+        <v>22858.947644</v>
       </c>
       <c r="F34" s="25">
-        <v>3976917.3884326047</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G34" s="25">
-        <v>128287.65769137435</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1875,22 +1877,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="15">
-        <v>619556.10921200004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E35" s="15">
-        <v>20651.870307000001</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F35" s="25">
-        <v>3898777.9987474987</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G35" s="25">
-        <v>129959.26662491662</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1901,22 +1903,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" s="15">
-        <v>864945.59575500002</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E36" s="15">
-        <v>27901.470829999998</v>
+        <v>20386.234375</v>
       </c>
       <c r="F36" s="25">
-        <v>5442978.9468660224</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G36" s="25">
-        <v>175579.9660279362</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1927,22 +1929,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" s="15">
-        <v>497767.01864000002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E37" s="15">
-        <v>17777.393521999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F37" s="25">
-        <v>3132376.6676178547</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G37" s="25">
-        <v>111870.59527206622</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1953,22 +1955,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38" s="15">
-        <v>958714.76984600001</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E38" s="15">
-        <v>30926.282898000001</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F38" s="25">
-        <v>6033054.9504287895</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G38" s="25">
-        <v>194614.67582028356</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1979,24 +1981,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="13">
-        <v>2020</v>
-      </c>
+    <row r="39" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D39" s="15">
-        <v>938216.01383800001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E39" s="15">
-        <v>30265.032704000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F39" s="25">
-        <v>5904059.2101925546</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G39" s="25">
-        <v>190453.52290943725</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -2007,22 +2007,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="15">
-        <v>825199.79770700005</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E40" s="15">
-        <v>27506.659922999999</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F40" s="25">
-        <v>5192864.323399079</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G40" s="25">
-        <v>173095.47744663598</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2033,22 +2033,24 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
+    <row r="41" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13">
+        <v>2020</v>
+      </c>
       <c r="C41" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" s="15">
-        <v>457210.72882199998</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E41" s="15">
-        <v>14748.733187</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F41" s="25">
-        <v>2877161.7353426241</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G41" s="25">
-        <v>92811.668882020138</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2059,22 +2061,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D42" s="15">
-        <v>355962.18939100002</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E42" s="15">
-        <v>11865.406312999999</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F42" s="25">
-        <v>2240019.1552444799</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G42" s="25">
-        <v>74667.305174816007</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2085,22 +2087,22 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D43" s="15">
-        <v>251494.72360200001</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E43" s="15">
-        <v>8112.7330190000002</v>
+        <v>14748.733187</v>
       </c>
       <c r="F43" s="25">
-        <v>1582620.331881911</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G43" s="25">
-        <v>51052.268770384224</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2111,22 +2113,22 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44" s="15">
-        <v>191467.74559999999</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E44" s="15">
-        <v>6176.37889</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F44" s="25">
-        <v>1204879.1431731791</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G44" s="25">
-        <v>38867.06913461868</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2137,22 +2139,22 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="15">
-        <v>204137.25868999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E45" s="15">
-        <v>6804.5752890000003</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F45" s="25">
-        <v>1284606.5773081775</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G45" s="25">
-        <v>42820.219243605912</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2163,22 +2165,22 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" s="15">
-        <v>285955.87647999998</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E46" s="15">
-        <v>9224.3831119999995</v>
+        <v>6176.37889</v>
       </c>
       <c r="F46" s="25">
-        <v>1799479.4389983031</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G46" s="25">
-        <v>58047.723838654943</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2189,22 +2191,22 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="15">
-        <v>744852.00140499999</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E47" s="15">
-        <v>24828.400045999999</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F47" s="25">
-        <v>4687247.1310054641</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G47" s="25">
-        <v>156241.57103351544</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2215,22 +2217,22 @@
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="15">
-        <v>1726969.163712</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E48" s="15">
-        <v>55708.682699999998</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F48" s="25">
-        <v>10867569.990649205</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G48" s="25">
-        <v>350566.7738919098</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2241,22 +2243,22 @@
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49" s="15">
-        <v>1898618.6160540001</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E49" s="15">
-        <v>65469.607450000003</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F49" s="25">
-        <v>11947735.448365727</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G49" s="25">
-        <v>411990.87752985262</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2267,22 +2269,22 @@
       <c r="N49" s="14"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="15">
-        <v>1989047.6002829999</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E50" s="15">
-        <v>64162.825814999997</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F50" s="25">
-        <v>12516792.114774078</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G50" s="25">
-        <v>403767.48757335736</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2293,24 +2295,22 @@
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="13">
-        <v>2019</v>
-      </c>
+    <row r="51" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D51" s="15">
-        <v>1710070.2071700001</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E51" s="15">
-        <v>55163.555070000002</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F51" s="25">
-        <v>10761227.273681184</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G51" s="25">
-        <v>347136.36366713495</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2321,22 +2321,22 @@
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="15">
-        <v>1441371.4144830001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E52" s="15">
-        <v>48045.713816000003</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F52" s="25">
-        <v>9070344.1952292472</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G52" s="25">
-        <v>302344.80650764162</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2347,22 +2347,24 @@
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="13"/>
+    <row r="53" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="13">
+        <v>2019</v>
+      </c>
       <c r="C53" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="15">
-        <v>1330424.701689</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E53" s="15">
-        <v>42916.925860000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F53" s="25">
-        <v>8372172.3969965354</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G53" s="25">
-        <v>270070.07732246892</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2370,25 +2372,25 @@
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" s="15">
-        <v>1523602.3797500001</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E54" s="15">
-        <v>50786.745991000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F54" s="25">
-        <v>9587811.9006264452</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G54" s="25">
-        <v>319593.73002088151</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -2396,25 +2398,25 @@
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="3"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
     </row>
     <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55" s="15">
-        <v>1583842.188998</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E55" s="15">
-        <v>51091.683515999997</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F55" s="25">
-        <v>9966892.4059313871</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G55" s="25">
-        <v>321512.65825585119</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -2428,19 +2430,19 @@
     <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="15">
-        <v>1599425.591243</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E56" s="15">
-        <v>51594.373911000002</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F56" s="25">
-        <v>10064956.52783265</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G56" s="25">
-        <v>324676.01702685968</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -2454,19 +2456,19 @@
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" s="15">
-        <v>1422059.9636609999</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E57" s="15">
-        <v>47401.998787999997</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F57" s="25">
-        <v>8948819.996743869</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G57" s="25">
-        <v>298293.99989146233</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -2480,19 +2482,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D58" s="15">
-        <v>1459021.581333</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E58" s="15">
-        <v>47065.212301</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F58" s="25">
-        <v>9181414.1712424383</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G58" s="25">
-        <v>296174.65068523993</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
@@ -2506,19 +2508,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" s="15">
-        <v>1143952.7800350001</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E59" s="15">
-        <v>38131.759334000002</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F59" s="25">
-        <v>7198731.2595127104</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G59" s="25">
-        <v>239957.70865042368</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -2532,19 +2534,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60" s="15">
-        <v>857730.976517</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E60" s="15">
-        <v>27668.741177</v>
+        <v>47065.212301</v>
       </c>
       <c r="F60" s="25">
-        <v>5397578.3796918392</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G60" s="25">
-        <v>174115.43160296255</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
@@ -2558,19 +2560,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D61" s="15">
-        <v>589229.82238999999</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E61" s="15">
-        <v>21043.922227999999</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F61" s="25">
-        <v>3707939.0124356686</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G61" s="25">
-        <v>132426.39330127387</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -2584,19 +2586,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" s="15">
-        <v>1659957.116588</v>
+        <v>857730.976517</v>
       </c>
       <c r="E62" s="15">
-        <v>53547.00376</v>
+        <v>27668.741177</v>
       </c>
       <c r="F62" s="25">
-        <v>10445872.760820612</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G62" s="25">
-        <v>336963.6374458262</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -2608,25 +2610,23 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E63" s="25">
-        <v>57985.335477000001</v>
+        <v>10</v>
+      </c>
+      <c r="D63" s="15">
+        <v>589229.82238999999</v>
+      </c>
+      <c r="E63" s="15">
+        <v>21043.922227999999</v>
       </c>
       <c r="F63" s="25">
-        <v>11311696.151993278</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G63" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H63" s="1"/>
+        <v>132426.39330127387</v>
+      </c>
+      <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
@@ -2638,21 +2638,21 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="25">
-        <v>1611713.268593</v>
-      </c>
-      <c r="E64" s="25">
-        <v>53723.775619</v>
+        <v>9</v>
+      </c>
+      <c r="D64" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E64" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F64" s="25">
-        <v>10142281.124258341</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G64" s="25">
-        <v>338076.03747527802</v>
-      </c>
-      <c r="H64" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
@@ -2662,21 +2662,23 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
+      <c r="B65" s="13">
+        <v>2018</v>
+      </c>
       <c r="C65" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D65" s="25">
-        <v>1705436.5561249999</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E65" s="25">
-        <v>55014.082455000003</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F65" s="25">
-        <v>10732068.370267099</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G65" s="25">
-        <v>346195.75387958385</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="14"/>
@@ -2690,19 +2692,19 @@
     <row r="66" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D66" s="25">
-        <v>1354350.3933949999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E66" s="25">
-        <v>45145.013113000001</v>
+        <v>53723.775619</v>
       </c>
       <c r="F66" s="25">
-        <v>8522733.3535284791</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G66" s="25">
-        <v>284091.11178428266</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="14"/>
@@ -2716,19 +2718,19 @@
     <row r="67" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D67" s="25">
-        <v>1190885.566602</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E67" s="25">
-        <v>38415.663438000003</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F67" s="25">
-        <v>7494072.5739903618</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G67" s="25">
-        <v>241744.27658033423</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="14"/>
@@ -2742,19 +2744,19 @@
     <row r="68" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" s="25">
-        <v>1053923.0213580001</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E68" s="25">
-        <v>33997.516817999996</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F68" s="25">
-        <v>6632186.8624138394</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G68" s="25">
-        <v>213941.51169076902</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="14"/>
@@ -2768,19 +2770,19 @@
     <row r="69" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D69" s="25">
-        <v>1020856.535961</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E69" s="25">
-        <v>34028.551198000001</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F69" s="25">
-        <v>6424104.1983179301</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G69" s="25">
-        <v>214136.80661059771</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="14"/>
@@ -2794,19 +2796,19 @@
     <row r="70" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D70" s="25">
-        <v>1048489.412457</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E70" s="25">
-        <v>33822.239111000003</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F70" s="25">
-        <v>6597993.9386059195</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G70" s="25">
-        <v>212838.51414857805</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="14"/>
@@ -2820,19 +2822,19 @@
     <row r="71" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D71" s="25">
-        <v>950621.85583999997</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E71" s="25">
-        <v>31687.395194000001</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F71" s="25">
-        <v>5982127.3998757349</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G71" s="25">
-        <v>199404.24666252447</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="14"/>
@@ -2846,19 +2848,19 @@
     <row r="72" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72" s="25">
-        <v>906206.56853299995</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E72" s="25">
-        <v>29232.469951999999</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F72" s="25">
-        <v>5702628.3482388686</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G72" s="25">
-        <v>183955.75316899578</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="14"/>
@@ -2872,19 +2874,19 @@
     <row r="73" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D73" s="25">
-        <v>634127.085036</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E73" s="25">
-        <v>22647.395894000001</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F73" s="25">
-        <v>3990471.0659583877</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G73" s="25">
-        <v>142516.82378422815</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="14"/>
@@ -2898,19 +2900,19 @@
     <row r="74" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D74" s="25">
-        <v>773568.24248799996</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E74" s="25">
-        <v>24953.814273</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F74" s="25">
-        <v>4867954.3297183076</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G74" s="25">
-        <v>157030.78482962286</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="14"/>
@@ -2922,75 +2924,75 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E75" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F75" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G75" s="15">
-        <v>151939.78755453101</v>
+        <v>10</v>
+      </c>
+      <c r="D75" s="25">
+        <v>634127.085036</v>
+      </c>
+      <c r="E75" s="25">
+        <v>22647.395894000001</v>
+      </c>
+      <c r="F75" s="25">
+        <v>3990471.0659583877</v>
+      </c>
+      <c r="G75" s="25">
+        <v>142516.82378422815</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
       <c r="N75" s="19"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="15">
-        <v>707045.64604599995</v>
-      </c>
-      <c r="E76" s="15">
-        <v>23568.188201000001</v>
-      </c>
-      <c r="F76" s="15">
-        <v>4449337.1430400936</v>
-      </c>
-      <c r="G76" s="15">
-        <v>148311.23810133644</v>
+        <v>9</v>
+      </c>
+      <c r="D76" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E76" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F76" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G76" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
       <c r="N76" s="19"/>
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
+      <c r="B77" s="13">
+        <v>2017</v>
+      </c>
       <c r="C77" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D77" s="15">
-        <v>675767.54240100004</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E77" s="15">
-        <v>21798.952979999998</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F77" s="15">
-        <v>4252508.5095709292</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G77" s="15">
-        <v>137177.69385712678</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3004,19 +3006,19 @@
     <row r="78" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E78" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F78" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G78" s="25">
-        <v>134132.10221928899</v>
+        <v>19</v>
+      </c>
+      <c r="D78" s="15">
+        <v>707045.64604599995</v>
+      </c>
+      <c r="E78" s="15">
+        <v>23568.188201000001</v>
+      </c>
+      <c r="F78" s="15">
+        <v>4449337.1430400936</v>
+      </c>
+      <c r="G78" s="15">
+        <v>148311.23810133644</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3027,21 +3029,22 @@
       <c r="N78" s="19"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="13"/>
       <c r="C79" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E79" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F79" s="26">
-        <v>3718025.6039239019</v>
+        <v>18</v>
+      </c>
+      <c r="D79" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E79" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F79" s="15">
+        <v>4252508.5095709292</v>
       </c>
       <c r="G79" s="15">
-        <v>119936.30980399683</v>
+        <v>137177.69385712678</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3052,22 +3055,22 @@
       <c r="N79" s="19"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="9"/>
+    <row r="80" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80" s="25">
-        <v>455925.02799999999</v>
+        <v>639449.31000000006</v>
       </c>
       <c r="E80" s="25">
-        <v>14707.258967</v>
+        <v>21314.976999999999</v>
       </c>
       <c r="F80" s="25">
-        <v>2869071.0039249961</v>
+        <v>4023963.0665786699</v>
       </c>
       <c r="G80" s="25">
-        <v>92550.677545967614</v>
+        <v>134132.10221928899</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3080,290 +3083,293 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E81" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F81" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G81" s="15">
+        <v>119936.30980399683</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B82" s="9"/>
+      <c r="C82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E82" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F82" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G82" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D83" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E83" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F83" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G83" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="3"/>
-      <c r="R81" s="7"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="C82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E82" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F82" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G82" s="25">
-        <v>130915.84472709542</v>
-      </c>
-      <c r="H82" s="28"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
-      <c r="C83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E83" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F83" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G83" s="12">
-        <v>149902.81557846148</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="21"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="3"/>
+      <c r="R83" s="7"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E84" s="12">
-        <v>24735.119016000001</v>
-      </c>
-      <c r="F84" s="12">
-        <v>4825291.5723541733</v>
-      </c>
-      <c r="G84" s="12">
-        <v>155654.56685013464</v>
+        <v>13</v>
+      </c>
+      <c r="D84" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E84" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F84" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G84" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="29"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="21"/>
-    </row>
-    <row r="85" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N84" s="18"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
       <c r="C85" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="12">
-        <v>590415.46140999999</v>
-      </c>
-      <c r="E85" s="12">
-        <v>21086.266478000001</v>
+        <v>12</v>
+      </c>
+      <c r="D85" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E85" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F85" s="12">
-        <v>3715400.0692421482</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G85" s="12">
-        <v>132692.85961579101</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
       <c r="L85" s="29"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="21"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D86" s="12">
-        <v>590534.02216000005</v>
+        <v>766788.689518</v>
       </c>
       <c r="E86" s="12">
-        <v>19049.484584999998</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F86" s="12">
-        <v>3716146.1550877113</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G86" s="12">
-        <v>119875.68242218423</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
       <c r="K86" s="29"/>
       <c r="L86" s="29"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="13">
-        <v>2016</v>
-      </c>
+      <c r="N86" s="20"/>
+      <c r="O86" s="21"/>
+    </row>
+    <row r="87" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D87" s="12">
-        <v>627433.93557900004</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E87" s="12">
-        <v>20239.804372999999</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F87" s="12">
-        <v>3948352.0335458592</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G87" s="12">
-        <v>127366.19463051159</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="3"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="12">
-        <v>572234.87095899996</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E88" s="12">
-        <v>19074.495697999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F88" s="12">
-        <v>3600992.21335844</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G88" s="12">
-        <v>120033.07377861465</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
       <c r="J88" s="28"/>
       <c r="K88" s="29"/>
       <c r="L88" s="29"/>
-      <c r="N88" s="20"/>
+      <c r="N88" s="18"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B89" s="13">
+        <v>2016</v>
+      </c>
       <c r="C89" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D89" s="12">
-        <v>505204.96276999998</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E89" s="12">
-        <v>16296.934282</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F89" s="12">
-        <v>3179182.5864019338</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G89" s="12">
-        <v>102554.27698070755</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
       <c r="J89" s="28"/>
       <c r="K89" s="29"/>
       <c r="L89" s="29"/>
-    </row>
-    <row r="90" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N89" s="18"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D90" s="12">
-        <v>330334.59204000002</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E90" s="12">
-        <v>11011.153068</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F90" s="12">
-        <v>2078748.3498610584</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G90" s="12">
-        <v>69291.611662035284</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="3"/>
     </row>
     <row r="91" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D91" s="12">
-        <v>324494.77002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E91" s="12">
-        <v>10467.573226</v>
+        <v>16296.934282</v>
       </c>
       <c r="F91" s="12">
-        <v>2041999.1849837471</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G91" s="12">
-        <v>65870.941451088613</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
       <c r="J91" s="28"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92" s="12">
-        <v>261529.28813999999</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E92" s="12">
-        <v>8436.4286489999995</v>
+        <v>11011.153068</v>
       </c>
       <c r="F92" s="12">
-        <v>1645766.4115768159</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G92" s="12">
-        <v>53089.239083123095</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
@@ -3375,19 +3381,19 @@
     <row r="93" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D93" s="12">
-        <v>205969.63078000001</v>
+        <v>324494.77002</v>
       </c>
       <c r="E93" s="12">
-        <v>6865.6543590000001</v>
+        <v>10467.573226</v>
       </c>
       <c r="F93" s="12">
-        <v>1296137.4328413385</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G93" s="12">
-        <v>43204.581094711277</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
@@ -3399,19 +3405,19 @@
     <row r="94" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D94" s="12">
-        <v>350179.493456</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E94" s="12">
-        <v>11296.112692000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F94" s="12">
-        <v>2203629.4766510436</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G94" s="12">
-        <v>71084.821827453023</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
@@ -3423,23 +3429,23 @@
     <row r="95" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D95" s="12">
-        <v>517689.187898</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E95" s="12">
-        <v>17256.306262999999</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F95" s="12">
-        <v>3257744.0298882448</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G95" s="12">
-        <v>108591.46766294149</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H95" s="28"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -3447,544 +3453,550 @@
     <row r="96" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96" s="12">
-        <v>501998.54960799997</v>
+        <v>350179.493456</v>
       </c>
       <c r="E96" s="12">
-        <v>16193.5016</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F96" s="12">
-        <v>3159005.0868905503</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G96" s="12">
-        <v>101903.38989969516</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H96" s="28"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97" s="12">
-        <v>440679.500314</v>
+        <v>517689.187898</v>
       </c>
       <c r="E97" s="12">
-        <v>15195.844838000001</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F97" s="12">
-        <v>2773133.0783074568</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G97" s="12">
-        <v>95625.278562326115</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-    </row>
-    <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D98" s="12">
-        <v>473238.57974199997</v>
+        <v>501998.54960799997</v>
       </c>
       <c r="E98" s="12">
-        <v>15265.760636000001</v>
+        <v>16193.5016</v>
       </c>
       <c r="F98" s="12">
-        <v>2978022.7091995031</v>
+        <v>3159005.0868905503</v>
       </c>
       <c r="G98" s="12">
-        <v>96065.248683854923</v>
+        <v>101903.38989969516</v>
       </c>
       <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="13">
-        <v>2015</v>
-      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D99" s="12">
-        <v>525645.38418599998</v>
+        <v>440679.500314</v>
       </c>
       <c r="E99" s="12">
-        <v>16956.302715000002</v>
+        <v>15195.844838000001</v>
       </c>
       <c r="F99" s="12">
-        <v>3307811.2353925598</v>
+        <v>2773133.0783074568</v>
       </c>
       <c r="G99" s="12">
-        <v>106703.58823846966</v>
+        <v>95625.278562326115</v>
       </c>
       <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+    </row>
+    <row r="100" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="12">
-        <v>487772.50363599998</v>
+        <v>473238.57974199997</v>
       </c>
       <c r="E100" s="12">
-        <v>16259.083454</v>
+        <v>15265.760636000001</v>
       </c>
       <c r="F100" s="12">
-        <v>3069482.6139133279</v>
+        <v>2978022.7091995031</v>
       </c>
       <c r="G100" s="12">
-        <v>102316.08713044427</v>
+        <v>96065.248683854923</v>
       </c>
       <c r="H100" s="28"/>
     </row>
-    <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="13"/>
+    <row r="101" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="13">
+        <v>2015</v>
+      </c>
       <c r="C101" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D101" s="12">
-        <v>821728.209302</v>
+        <v>525645.38418599998</v>
       </c>
       <c r="E101" s="12">
-        <v>26507.36159</v>
+        <v>16956.302715000002</v>
       </c>
       <c r="F101" s="12">
-        <v>5171018.1140035549</v>
+        <v>3307811.2353925598</v>
       </c>
       <c r="G101" s="12">
-        <v>166807.03593559857</v>
+        <v>106703.58823846966</v>
       </c>
       <c r="H101" s="28"/>
     </row>
-    <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D102" s="12">
-        <v>763584.49130500003</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E102" s="12">
-        <v>25452.816375999999</v>
+        <v>16259.083454</v>
       </c>
       <c r="F102" s="12">
-        <v>4805128.0112001086</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G102" s="12">
-        <v>160170.93370667027</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H102" s="28"/>
     </row>
-    <row r="103" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D103" s="12">
-        <v>526399.01066399994</v>
+        <v>821728.209302</v>
       </c>
       <c r="E103" s="12">
-        <v>16980.613247000001</v>
+        <v>26507.36159</v>
       </c>
       <c r="F103" s="12">
-        <v>3312553.6990500269</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G103" s="12">
-        <v>106856.57093709765</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H103" s="28"/>
     </row>
-    <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D104" s="12">
-        <v>409054.80754299997</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E104" s="12">
-        <v>13195.316371999999</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F104" s="12">
-        <v>2574123.40903062</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G104" s="12">
-        <v>83036.239000987756</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" s="12">
-        <v>382950.03311700001</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E105" s="12">
-        <v>12765.001103000001</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F105" s="12">
-        <v>2409849.7965505454</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G105" s="12">
-        <v>80328.326551684848</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D106" s="12">
-        <v>405087.92933900002</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E106" s="12">
-        <v>13067.352559000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F106" s="12">
-        <v>2549160.4117564312</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G106" s="12">
-        <v>82230.98102440103</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H106" s="28"/>
     </row>
-    <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D107" s="12">
-        <v>420967.39355099999</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E107" s="12">
-        <v>14032.246451000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F107" s="12">
-        <v>2649087.6092791655</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G107" s="12">
-        <v>88302.920309305511</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H107" s="28"/>
     </row>
-    <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D108" s="12">
-        <v>580246.22209699999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E108" s="12">
-        <v>18717.620067</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F108" s="12">
-        <v>3651406.5004466609</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G108" s="12">
-        <v>117787.30646602133</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H108" s="28"/>
     </row>
-    <row r="109" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D109" s="12">
-        <v>469322.27903799998</v>
+        <v>420967.39355099999</v>
       </c>
       <c r="E109" s="12">
-        <v>16761.509965000001</v>
+        <v>14032.246451000001</v>
       </c>
       <c r="F109" s="12">
-        <v>2953377.9889002317</v>
+        <v>2649087.6092791655</v>
       </c>
       <c r="G109" s="12">
-        <v>105477.7853178654</v>
+        <v>88302.920309305511</v>
       </c>
       <c r="H109" s="28"/>
     </row>
-    <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D110" s="12">
-        <v>663165.584088</v>
+        <v>580246.22209699999</v>
       </c>
       <c r="E110" s="12">
-        <v>21392.438195999999</v>
+        <v>18717.620067</v>
       </c>
       <c r="F110" s="12">
-        <v>4173206.1879872596</v>
+        <v>3651406.5004466609</v>
       </c>
       <c r="G110" s="12">
-        <v>134619.55445120193</v>
+        <v>117787.30646602133</v>
       </c>
       <c r="H110" s="28"/>
     </row>
-    <row r="111" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="13">
-        <v>2014</v>
-      </c>
+    <row r="111" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D111" s="12">
-        <v>865311.98928099999</v>
+        <v>469322.27903799998</v>
       </c>
       <c r="E111" s="12">
-        <v>27913.289976</v>
+        <v>16761.509965000001</v>
       </c>
       <c r="F111" s="12">
-        <v>5445284.6089308662</v>
+        <v>2953377.9889002317</v>
       </c>
       <c r="G111" s="12">
-        <v>175654.34222357633</v>
+        <v>105477.7853178654</v>
       </c>
       <c r="H111" s="28"/>
     </row>
-    <row r="112" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="12">
-        <v>719671.70044299995</v>
+        <v>663165.584088</v>
       </c>
       <c r="E112" s="12">
-        <v>23989.056680999998</v>
+        <v>21392.438195999999</v>
       </c>
       <c r="F112" s="12">
-        <v>4528791.0978346355</v>
+        <v>4173206.1879872596</v>
       </c>
       <c r="G112" s="12">
-        <v>150959.70326115453</v>
+        <v>134619.55445120193</v>
       </c>
       <c r="H112" s="28"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="13"/>
+      <c r="B113" s="13">
+        <v>2014</v>
+      </c>
       <c r="C113" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D113" s="12">
-        <v>732720.57923100004</v>
+        <v>865311.98928099999</v>
       </c>
       <c r="E113" s="12">
-        <v>23636.147717</v>
+        <v>27913.289976</v>
       </c>
       <c r="F113" s="12">
-        <v>4610905.8260578532</v>
+        <v>5445284.6089308662</v>
       </c>
       <c r="G113" s="12">
-        <v>148738.89761476943</v>
+        <v>175654.34222357633</v>
       </c>
       <c r="H113" s="28"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D114" s="12">
-        <v>853296.86337200005</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E114" s="12">
-        <v>28443.228779000001</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F114" s="12">
-        <v>5369675.1397485342</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G114" s="12">
-        <v>178989.17132495114</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H114" s="28"/>
     </row>
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13"/>
       <c r="C115" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D115" s="12">
-        <v>765107.365124</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E115" s="12">
-        <v>24680.882744999999</v>
+        <v>23636.147717</v>
       </c>
       <c r="F115" s="12">
-        <v>4814711.2383721191</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G115" s="12">
-        <v>155313.26575393934</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H115" s="28"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D116" s="12">
-        <v>808439.72412699996</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E116" s="12">
-        <v>26078.700777999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F116" s="12">
-        <v>5087395.5770506607</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G116" s="12">
-        <v>164109.5347435697</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H116" s="28"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D117" s="12">
-        <v>696291.70361199998</v>
+        <v>765107.365124</v>
       </c>
       <c r="E117" s="12">
-        <v>23209.723452999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F117" s="12">
-        <v>4381664.1211166997</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G117" s="12">
-        <v>146055.47070388999</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H117" s="28"/>
     </row>
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D118" s="12">
-        <v>776525.44836499996</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E118" s="12">
-        <v>25049.208010999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F118" s="12">
-        <v>4886563.6034218287</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G118" s="12">
-        <v>157631.08398134931</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H118" s="28"/>
     </row>
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D119" s="12">
-        <v>757771.62080999999</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E119" s="12">
-        <v>25259.054026999998</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F119" s="12">
-        <v>4768548.4484155541</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G119" s="12">
-        <v>158951.61494718515</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H119" s="28"/>
     </row>
     <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D120" s="12">
-        <v>850705.67475799995</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E120" s="12">
-        <v>27442.118539999999</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F120" s="12">
-        <v>5353369.1603406034</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G120" s="12">
-        <v>172689.32775292269</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H120" s="28"/>
     </row>
     <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D121" s="12">
-        <v>725916.08318800002</v>
+        <v>757771.62080999999</v>
       </c>
       <c r="E121" s="12">
-        <v>25925.574399000001</v>
+        <v>25259.054026999998</v>
       </c>
       <c r="F121" s="12">
-        <v>4568086.1055021882</v>
+        <v>4768548.4484155541</v>
       </c>
       <c r="G121" s="12">
-        <v>163145.93233936388</v>
+        <v>158951.61494718515</v>
       </c>
       <c r="H121" s="28"/>
-      <c r="I121" s="22"/>
     </row>
     <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D122" s="12">
-        <v>784704.73359700001</v>
+        <v>850705.67475799995</v>
       </c>
       <c r="E122" s="12">
-        <v>25313.055922</v>
+        <v>27442.118539999999</v>
       </c>
       <c r="F122" s="12">
-        <v>4938034.6757490169</v>
+        <v>5353369.1603406034</v>
       </c>
       <c r="G122" s="12">
-        <v>159291.44115319409</v>
+        <v>172689.32775292269</v>
       </c>
       <c r="H122" s="28"/>
-      <c r="I122" s="22"/>
     </row>
     <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="13">
-        <v>2013</v>
-      </c>
       <c r="C123" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D123" s="12">
-        <v>804980.50382999994</v>
+        <v>725916.08318800002</v>
       </c>
       <c r="E123" s="12">
-        <v>25967.113025999999</v>
+        <v>25925.574399000001</v>
       </c>
       <c r="F123" s="12">
-        <v>5065627.1983901421</v>
+        <v>4568086.1055021882</v>
       </c>
       <c r="G123" s="12">
-        <v>163407.32898032718</v>
+        <v>163145.93233936388</v>
       </c>
       <c r="H123" s="28"/>
       <c r="I123" s="22"/>
@@ -3992,39 +4004,41 @@
     <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="12">
-        <v>694876.63784600003</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E124" s="12">
-        <v>23162.554594000001</v>
+        <v>25313.055922</v>
       </c>
       <c r="F124" s="12">
-        <v>4372759.3146056654</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G124" s="12">
-        <v>145758.64382018885</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H124" s="28"/>
       <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="13"/>
+      <c r="B125" s="13">
+        <v>2013</v>
+      </c>
       <c r="C125" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D125" s="12">
-        <v>641470.05047699995</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E125" s="12">
-        <v>20692.582273</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F125" s="12">
-        <v>4036679.2974345428</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G125" s="12">
-        <v>130215.4612075659</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="22"/>
@@ -4032,19 +4046,19 @@
     <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D126" s="12">
-        <v>558075.757491</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E126" s="12">
-        <v>18602.525248999998</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F126" s="12">
-        <v>3511890.9370575417</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G126" s="12">
-        <v>117063.03123525139</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H126" s="28"/>
       <c r="I126" s="22"/>
@@ -4052,59 +4066,59 @@
     <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="13"/>
       <c r="C127" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D127" s="12">
-        <v>559110.83105899999</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E127" s="12">
-        <v>18035.833258999999</v>
+        <v>20692.582273</v>
       </c>
       <c r="F127" s="12">
-        <v>3518404.5070054457</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G127" s="12">
-        <v>113496.91958082083</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H127" s="28"/>
       <c r="I127" s="22"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D128" s="12">
-        <v>661131.44749100006</v>
+        <v>558075.757491</v>
       </c>
       <c r="E128" s="12">
-        <v>21326.820886000001</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F128" s="12">
-        <v>4160405.6572638722</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G128" s="12">
-        <v>134206.63410528618</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H128" s="28"/>
       <c r="I128" s="22"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D129" s="12">
-        <v>663648.26149299997</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E129" s="12">
-        <v>22121.608715999999</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F129" s="12">
-        <v>4176243.6078740559</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G129" s="12">
-        <v>139208.12026246852</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H129" s="28"/>
       <c r="I129" s="22"/>
@@ -4112,614 +4126,648 @@
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
       <c r="C130" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D130" s="12">
-        <v>647734.46579799999</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E130" s="12">
-        <v>20894.660187000001</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F130" s="12">
-        <v>4076100.3672382049</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G130" s="12">
-        <v>131487.10862058724</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H130" s="28"/>
       <c r="I130" s="22"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B131" s="13"/>
       <c r="C131" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D131" s="12">
-        <v>597610.93523199996</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E131" s="12">
-        <v>19920.364506999998</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F131" s="12">
-        <v>3760680.1570512378</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G131" s="12">
-        <v>125356.00523504126</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H131" s="28"/>
       <c r="I131" s="22"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B132" s="13"/>
       <c r="C132" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D132" s="12">
-        <v>565162.30006200005</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E132" s="12">
-        <v>18231.041937000002</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F132" s="12">
-        <v>3556485.5360812568</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G132" s="12">
-        <v>114725.33987358895</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H132" s="28"/>
       <c r="I132" s="22"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C133" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D133" s="12">
-        <v>443068.728405</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E133" s="12">
-        <v>15823.883157</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F133" s="12">
-        <v>2788168.1490245033</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G133" s="12">
-        <v>99577.433893732261</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H133" s="28"/>
+      <c r="I133" s="22"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C134" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D134" s="12">
-        <v>484594.69508400001</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E134" s="12">
-        <v>15632.086938</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F134" s="12">
-        <v>3049485.1191222151</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G134" s="12">
-        <v>98370.487713619834</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H134" s="28"/>
+      <c r="I134" s="22"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="13">
-        <v>2012</v>
-      </c>
       <c r="C135" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D135" s="12">
-        <v>614912.306522</v>
+        <v>443068.728405</v>
       </c>
       <c r="E135" s="12">
-        <v>19835.880854999999</v>
+        <v>15823.883157</v>
       </c>
       <c r="F135" s="12">
-        <v>3869555.2124831136</v>
+        <v>2788168.1490245033</v>
       </c>
       <c r="G135" s="12">
-        <v>124824.36169300365</v>
+        <v>99577.433893732261</v>
       </c>
       <c r="H135" s="28"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="12">
+        <v>484594.69508400001</v>
+      </c>
+      <c r="E136" s="12">
+        <v>15632.086938</v>
+      </c>
+      <c r="F136" s="12">
+        <v>3049485.1191222151</v>
+      </c>
+      <c r="G136" s="12">
+        <v>98370.487713619834</v>
+      </c>
+      <c r="H136" s="28"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="12">
+        <v>614912.306522</v>
+      </c>
+      <c r="E137" s="12">
+        <v>19835.880854999999</v>
+      </c>
+      <c r="F137" s="12">
+        <v>3869555.2124831136</v>
+      </c>
+      <c r="G137" s="12">
+        <v>124824.36169300365</v>
+      </c>
+      <c r="H137" s="28"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C138" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D138" s="12">
         <v>262269.19780000002</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E138" s="12">
         <v>8742.3065929999993</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F138" s="12">
         <v>1650422.5572601147</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G138" s="12">
         <v>55014.085242003821</v>
       </c>
-      <c r="H136" s="28"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C137" s="11" t="s">
+      <c r="H138" s="28"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C139" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D139" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E139" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F137" s="12">
+      <c r="F139" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G139" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H137" s="28"/>
-    </row>
-    <row r="138" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="13"/>
-      <c r="C138" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E138" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F138" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G138" s="12">
-        <v>67822.561910826538</v>
-      </c>
-      <c r="H138" s="28"/>
-    </row>
-    <row r="139" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="13"/>
-      <c r="C139" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" s="12">
-        <v>265901.88781699998</v>
-      </c>
-      <c r="E139" s="12">
-        <v>8577.4802519999994</v>
-      </c>
-      <c r="F139" s="12">
-        <v>1673282.5560624234</v>
-      </c>
-      <c r="G139" s="12">
-        <v>53976.856647174944</v>
       </c>
       <c r="H139" s="28"/>
     </row>
     <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="13"/>
       <c r="C140" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D140" s="12">
-        <v>247847.77045499999</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E140" s="12">
-        <v>7995.0893690000003</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F140" s="12">
-        <v>1559670.57724214</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G140" s="12">
-        <v>50311.954104585158</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H140" s="28"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="13"/>
       <c r="C141" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D141" s="12">
-        <v>160936.42993099999</v>
+        <v>265901.88781699998</v>
       </c>
       <c r="E141" s="12">
-        <v>5364.5476639999997</v>
+        <v>8577.4802519999994</v>
       </c>
       <c r="F141" s="12">
-        <v>1012749.9396463028</v>
+        <v>1673282.5560624234</v>
       </c>
       <c r="G141" s="12">
-        <v>33758.331321543425</v>
+        <v>53976.856647174944</v>
       </c>
       <c r="H141" s="28"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="13"/>
       <c r="C142" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D142" s="12">
-        <v>164510.12670699999</v>
+        <v>247847.77045499999</v>
       </c>
       <c r="E142" s="12">
-        <v>5306.7782800000004</v>
+        <v>7995.0893690000003</v>
       </c>
       <c r="F142" s="12">
-        <v>1035238.702419032</v>
+        <v>1559670.57724214</v>
       </c>
       <c r="G142" s="12">
-        <v>33394.796852226835</v>
+        <v>50311.954104585158</v>
       </c>
       <c r="H142" s="28"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" s="13"/>
       <c r="C143" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D143" s="12">
-        <v>135951.57</v>
+        <v>160936.42993099999</v>
       </c>
       <c r="E143" s="12">
-        <v>4531.7190000000001</v>
+        <v>5364.5476639999997</v>
       </c>
       <c r="F143" s="12">
-        <v>855523.78893549007</v>
+        <v>1012749.9396463028</v>
       </c>
       <c r="G143" s="12">
-        <v>28517.459631182999</v>
+        <v>33758.331321543425</v>
       </c>
       <c r="H143" s="28"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="13"/>
       <c r="C144" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="12">
+        <v>164510.12670699999</v>
+      </c>
+      <c r="E144" s="12">
+        <v>5306.7782800000004</v>
+      </c>
+      <c r="F144" s="12">
+        <v>1035238.702419032</v>
+      </c>
+      <c r="G144" s="12">
+        <v>33394.796852226835</v>
+      </c>
+      <c r="H144" s="28"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B145" s="13"/>
+      <c r="C145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E145" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F145" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G145" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H145" s="28"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B146" s="13"/>
+      <c r="C146" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D146" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E146" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F144" s="12">
+      <c r="F146" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G144" s="12">
+      <c r="G146" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H144" s="28"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C145" s="11" t="s">
+      <c r="H146" s="28"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C147" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D147" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E147" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F147" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G145" s="12">
+      <c r="G147" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H145" s="22"/>
-    </row>
-    <row r="146" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="11" t="s">
+      <c r="H147" s="22"/>
+    </row>
+    <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="17">
+      <c r="D148" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E148" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F146" s="12">
+      <c r="F148" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G148" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H146" s="23"/>
-    </row>
-    <row r="147" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="30"/>
-      <c r="B147" s="31" t="s">
+      <c r="H148" s="23"/>
+    </row>
+    <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="30"/>
+      <c r="B149" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="32"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-    </row>
-    <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" s="11"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-    </row>
-    <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="38"/>
-      <c r="F149" s="38"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="40"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="34"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="41"/>
-      <c r="B150" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="43"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="43"/>
-      <c r="I150" s="43"/>
-      <c r="J150" s="43"/>
+    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" s="93"/>
-      <c r="C151" s="93"/>
-      <c r="D151" s="93"/>
-      <c r="E151" s="93"/>
-      <c r="F151" s="93"/>
-      <c r="G151" s="93"/>
-      <c r="H151" s="93"/>
-      <c r="I151" s="93"/>
-      <c r="J151" s="93"/>
+    <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="94"/>
-      <c r="B152" s="94"/>
-      <c r="C152" s="94"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="94"/>
-      <c r="F152" s="94"/>
-      <c r="G152" s="94"/>
-      <c r="H152" s="94"/>
-      <c r="I152" s="94"/>
-      <c r="J152" s="94"/>
+    <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="41"/>
+      <c r="B152" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="43"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
     <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="94"/>
-      <c r="B153" s="94"/>
-      <c r="C153" s="94"/>
-      <c r="D153" s="94"/>
-      <c r="E153" s="94"/>
-      <c r="F153" s="94"/>
-      <c r="G153" s="94"/>
-      <c r="H153" s="94"/>
-      <c r="I153" s="94"/>
-      <c r="J153" s="94"/>
+      <c r="A153" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="95"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="95"/>
+      <c r="G153" s="95"/>
+      <c r="H153" s="95"/>
+      <c r="I153" s="95"/>
+      <c r="J153" s="95"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
     <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="94"/>
-      <c r="B154" s="94"/>
-      <c r="C154" s="94"/>
-      <c r="D154" s="94"/>
-      <c r="E154" s="94"/>
-      <c r="F154" s="94"/>
-      <c r="G154" s="94"/>
-      <c r="H154" s="94"/>
-      <c r="I154" s="94"/>
-      <c r="J154" s="94"/>
+      <c r="A154" s="96"/>
+      <c r="B154" s="96"/>
+      <c r="C154" s="96"/>
+      <c r="D154" s="96"/>
+      <c r="E154" s="96"/>
+      <c r="F154" s="96"/>
+      <c r="G154" s="96"/>
+      <c r="H154" s="96"/>
+      <c r="I154" s="96"/>
+      <c r="J154" s="96"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="94"/>
-      <c r="B155" s="94"/>
-      <c r="C155" s="94"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="94"/>
-      <c r="F155" s="94"/>
-      <c r="G155" s="94"/>
-      <c r="H155" s="94"/>
-      <c r="I155" s="94"/>
-      <c r="J155" s="94"/>
+      <c r="A155" s="96"/>
+      <c r="B155" s="96"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="96"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="96"/>
+      <c r="G155" s="96"/>
+      <c r="H155" s="96"/>
+      <c r="I155" s="96"/>
+      <c r="J155" s="96"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
     </row>
     <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="94"/>
-      <c r="B156" s="94"/>
-      <c r="C156" s="94"/>
-      <c r="D156" s="94"/>
-      <c r="E156" s="94"/>
-      <c r="F156" s="94"/>
-      <c r="G156" s="94"/>
-      <c r="H156" s="94"/>
-      <c r="I156" s="94"/>
-      <c r="J156" s="94"/>
+      <c r="A156" s="96"/>
+      <c r="B156" s="96"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="96"/>
+      <c r="E156" s="96"/>
+      <c r="F156" s="96"/>
+      <c r="G156" s="96"/>
+      <c r="H156" s="96"/>
+      <c r="I156" s="96"/>
+      <c r="J156" s="96"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
     <row r="157" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="94"/>
-      <c r="B157" s="94"/>
-      <c r="C157" s="94"/>
-      <c r="D157" s="94"/>
-      <c r="E157" s="94"/>
-      <c r="F157" s="94"/>
-      <c r="G157" s="94"/>
-      <c r="H157" s="94"/>
-      <c r="I157" s="94"/>
-      <c r="J157" s="94"/>
+      <c r="A157" s="96"/>
+      <c r="B157" s="96"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="96"/>
+      <c r="E157" s="96"/>
+      <c r="F157" s="96"/>
+      <c r="G157" s="96"/>
+      <c r="H157" s="96"/>
+      <c r="I157" s="96"/>
+      <c r="J157" s="96"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
     </row>
     <row r="158" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="94"/>
-      <c r="B158" s="94"/>
-      <c r="C158" s="94"/>
-      <c r="D158" s="94"/>
-      <c r="E158" s="94"/>
-      <c r="F158" s="94"/>
-      <c r="G158" s="94"/>
-      <c r="H158" s="94"/>
-      <c r="I158" s="94"/>
-      <c r="J158" s="94"/>
+      <c r="A158" s="96"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="96"/>
+      <c r="H158" s="96"/>
+      <c r="I158" s="96"/>
+      <c r="J158" s="96"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
     <row r="159" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="94"/>
-      <c r="B159" s="94"/>
-      <c r="C159" s="94"/>
-      <c r="D159" s="94"/>
-      <c r="E159" s="94"/>
-      <c r="F159" s="94"/>
-      <c r="G159" s="94"/>
-      <c r="H159" s="94"/>
-      <c r="I159" s="94"/>
-      <c r="J159" s="94"/>
+      <c r="A159" s="96"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="96"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="96"/>
+      <c r="G159" s="96"/>
+      <c r="H159" s="96"/>
+      <c r="I159" s="96"/>
+      <c r="J159" s="96"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
     </row>
     <row r="160" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="94"/>
-      <c r="B160" s="94"/>
-      <c r="C160" s="94"/>
-      <c r="D160" s="94"/>
-      <c r="E160" s="94"/>
-      <c r="F160" s="94"/>
-      <c r="G160" s="94"/>
-      <c r="H160" s="94"/>
-      <c r="I160" s="94"/>
-      <c r="J160" s="94"/>
+      <c r="A160" s="96"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="96"/>
+      <c r="G160" s="96"/>
+      <c r="H160" s="96"/>
+      <c r="I160" s="96"/>
+      <c r="J160" s="96"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
     </row>
     <row r="161" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="94"/>
-      <c r="B161" s="94"/>
-      <c r="C161" s="94"/>
-      <c r="D161" s="94"/>
-      <c r="E161" s="94"/>
-      <c r="F161" s="94"/>
-      <c r="G161" s="94"/>
-      <c r="H161" s="94"/>
-      <c r="I161" s="94"/>
-      <c r="J161" s="94"/>
+      <c r="A161" s="96"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="96"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="96"/>
+      <c r="H161" s="96"/>
+      <c r="I161" s="96"/>
+      <c r="J161" s="96"/>
     </row>
     <row r="162" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="94"/>
-      <c r="B162" s="94"/>
-      <c r="C162" s="94"/>
-      <c r="D162" s="94"/>
-      <c r="E162" s="94"/>
-      <c r="F162" s="94"/>
-      <c r="G162" s="94"/>
-      <c r="H162" s="94"/>
-      <c r="I162" s="94"/>
-      <c r="J162" s="94"/>
+      <c r="A162" s="96"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="96"/>
+      <c r="E162" s="96"/>
+      <c r="F162" s="96"/>
+      <c r="G162" s="96"/>
+      <c r="H162" s="96"/>
+      <c r="I162" s="96"/>
+      <c r="J162" s="96"/>
     </row>
     <row r="163" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="94"/>
-      <c r="B163" s="94"/>
-      <c r="C163" s="94"/>
-      <c r="D163" s="94"/>
-      <c r="E163" s="94"/>
-      <c r="F163" s="94"/>
-      <c r="G163" s="94"/>
-      <c r="H163" s="94"/>
-      <c r="I163" s="94"/>
-      <c r="J163" s="94"/>
+      <c r="A163" s="96"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="96"/>
+      <c r="G163" s="96"/>
+      <c r="H163" s="96"/>
+      <c r="I163" s="96"/>
+      <c r="J163" s="96"/>
     </row>
     <row r="164" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="94"/>
-      <c r="B164" s="94"/>
-      <c r="C164" s="94"/>
-      <c r="D164" s="94"/>
-      <c r="E164" s="94"/>
-      <c r="F164" s="94"/>
-      <c r="G164" s="94"/>
-      <c r="H164" s="94"/>
-      <c r="I164" s="94"/>
-      <c r="J164" s="94"/>
-    </row>
-    <row r="165" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="4"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-    </row>
-    <row r="166" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="4"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
+      <c r="A164" s="96"/>
+      <c r="B164" s="96"/>
+      <c r="C164" s="96"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="96"/>
+      <c r="F164" s="96"/>
+      <c r="G164" s="96"/>
+      <c r="H164" s="96"/>
+      <c r="I164" s="96"/>
+      <c r="J164" s="96"/>
+    </row>
+    <row r="165" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="96"/>
+      <c r="B165" s="96"/>
+      <c r="C165" s="96"/>
+      <c r="D165" s="96"/>
+      <c r="E165" s="96"/>
+      <c r="F165" s="96"/>
+      <c r="G165" s="96"/>
+      <c r="H165" s="96"/>
+      <c r="I165" s="96"/>
+      <c r="J165" s="96"/>
+    </row>
+    <row r="166" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="96"/>
+      <c r="B166" s="96"/>
+      <c r="C166" s="96"/>
+      <c r="D166" s="96"/>
+      <c r="E166" s="96"/>
+      <c r="F166" s="96"/>
+      <c r="G166" s="96"/>
+      <c r="H166" s="96"/>
+      <c r="I166" s="96"/>
+      <c r="J166" s="96"/>
     </row>
     <row r="167" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D167" s="15"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D168" s="15"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C167" s="4"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+    </row>
+    <row r="168" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="4"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+    </row>
+    <row r="169" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" s="15"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -4730,13 +4778,19 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D172" s="15"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D173" s="15"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D174" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A151:J164"/>
+    <mergeCell ref="A153:J166"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4975,7 +5029,7 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">643</parentID>
+    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">864</parentID>
     <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
     <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
@@ -4987,7 +5041,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D627CC55-FF2E-4BF9-8236-FF4112E9FEFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AAE3EBE-521F-4C5D-B1ED-F99EA7ECA425}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -4995,7 +5049,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A9580F-62C1-4A7C-9B6B-29237D2F0B95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6C8017-1777-46D9-B49C-0A527F46CD64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5014,7 +5068,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5906534C-BD9A-44C4-A77F-38B53344385F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD778F90-621F-4F9C-BB8E-92E802A40EA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>

--- a/crude_by_rail.xlsx
+++ b/crude_by_rail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\en\data-analysis\energy-commodities\crude-oil-petroleum-products\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{342AEE2D-63DE-4463-8683-25F2AC37A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FEB6BC-A9E7-4BF0-99BF-AD721152DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="24">
   <si>
     <t>Volume
 (m³ per day)</t>
@@ -168,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>Numbers last updated on 27th October 2023</t>
+    <t>Numbers last updated on 18th December 2023</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
@@ -410,6 +410,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -677,9 +679,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="21540000">
-          <a:off x="136634" y="142875"/>
-          <a:ext cx="1967844" cy="284108"/>
+        <a:xfrm>
+          <a:off x="133350" y="142875"/>
+          <a:ext cx="1971675" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,10 +1095,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,47 +1116,47 @@
   <sheetData>
     <row r="1" spans="1:15" ht="0.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1200,19 +1202,19 @@
         <v>2023</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="15">
-        <v>732288.41940799996</v>
+        <v>718643.57739800005</v>
       </c>
       <c r="E9" s="15">
-        <v>23622.207076999999</v>
+        <v>23182.050883</v>
       </c>
       <c r="F9" s="15">
-        <v>4608186.3060905691</v>
+        <v>4522321.2665340463</v>
       </c>
       <c r="G9" s="15">
-        <v>148651.1711642119</v>
+        <v>145881.3311785176</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1223,22 +1225,22 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" s="90" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="92" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="15">
-        <v>560523.45423999999</v>
+        <v>689418.609299</v>
       </c>
       <c r="E10" s="15">
-        <v>18081.401749000001</v>
+        <v>22980.620309000002</v>
       </c>
       <c r="F10" s="15">
-        <v>3527293.9426783635</v>
+        <v>4338412.7214574767</v>
       </c>
       <c r="G10" s="15">
-        <v>113783.6755702698</v>
+        <v>144613.7573819159</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1249,22 +1251,22 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" s="89" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="91" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="15">
-        <v>489767.26876200002</v>
+        <v>616360.38942100003</v>
       </c>
       <c r="E11" s="15">
-        <v>16325.575624999999</v>
+        <v>19882.593207000002</v>
       </c>
       <c r="F11" s="15">
-        <v>3082035.385599833</v>
+        <v>3878667.7910906659</v>
       </c>
       <c r="G11" s="15">
-        <v>102734.51285332776</v>
+        <v>125118.31584163438</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1275,22 +1277,22 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" s="88" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="90" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15">
-        <v>387923.87491900002</v>
+        <v>537226.77150999999</v>
       </c>
       <c r="E12" s="15">
-        <v>12513.673384</v>
+        <v>17329.895854999999</v>
       </c>
       <c r="F12" s="15">
-        <v>2441149.4717511535</v>
+        <v>3380691.2496841042</v>
       </c>
       <c r="G12" s="15">
-        <v>78746.757153263025</v>
+        <v>109054.5564414227</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1301,22 +1303,22 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" s="87" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="89" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="15">
-        <v>381507.83930300002</v>
+        <v>489767.26876200002</v>
       </c>
       <c r="E13" s="15">
-        <v>12716.927976000001</v>
+        <v>16325.575624999999</v>
       </c>
       <c r="F13" s="15">
-        <v>2400774.2771127587</v>
+        <v>3082035.385599833</v>
       </c>
       <c r="G13" s="15">
-        <v>80025.809237091948</v>
+        <v>102734.51285332776</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1327,22 +1329,22 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" s="86" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="88" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="15">
-        <v>481868.324853</v>
+        <v>387923.87491900002</v>
       </c>
       <c r="E14" s="15">
-        <v>15544.139510999999</v>
+        <v>12513.673384</v>
       </c>
       <c r="F14" s="15">
-        <v>3032328.4611294749</v>
+        <v>2441149.4717511535</v>
       </c>
       <c r="G14" s="15">
-        <v>97817.047133208864</v>
+        <v>78746.757153263025</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1353,22 +1355,22 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="85" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="87" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="15">
-        <v>442221.267445</v>
+        <v>381507.83930300002</v>
       </c>
       <c r="E15" s="15">
-        <v>15793.616694</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2782835.1983901402</v>
-      </c>
-      <c r="G15" s="25">
-        <v>99386.971371076448</v>
+        <v>12716.927976000001</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2400774.2771127587</v>
+      </c>
+      <c r="G15" s="15">
+        <v>80025.809237091948</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1379,22 +1381,22 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="84" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="86" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="15">
-        <v>591517.59899099998</v>
+        <v>481868.324853</v>
       </c>
       <c r="E16" s="15">
-        <v>19081.212869999999</v>
-      </c>
-      <c r="F16" s="25">
-        <v>3722335.6634337073</v>
-      </c>
-      <c r="G16" s="25">
-        <v>120075.3439817325</v>
+        <v>15544.139510999999</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3032328.4611294749</v>
+      </c>
+      <c r="G16" s="15">
+        <v>97817.047133208864</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -1405,24 +1407,22 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="2:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13">
-        <v>2022</v>
-      </c>
+    <row r="17" spans="2:15" s="85" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D17" s="15">
-        <v>621679.26430799998</v>
+        <v>442221.267445</v>
       </c>
       <c r="E17" s="15">
-        <v>20054.169816000001</v>
+        <v>15793.616694</v>
       </c>
       <c r="F17" s="25">
-        <v>3912138.7101554479</v>
+        <v>2782835.1983901402</v>
       </c>
       <c r="G17" s="25">
-        <v>126198.02290824025</v>
+        <v>99386.971371076448</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -1433,22 +1433,22 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="2:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" s="84" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D18" s="15">
-        <v>581166.18618700001</v>
+        <v>591517.59899099998</v>
       </c>
       <c r="E18" s="15">
-        <v>19372.206205999999</v>
+        <v>19081.212869999999</v>
       </c>
       <c r="F18" s="25">
-        <v>3657195.7029101662</v>
+        <v>3722335.6634337073</v>
       </c>
       <c r="G18" s="25">
-        <v>121906.52343033889</v>
+        <v>120075.3439817325</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -1459,22 +1459,24 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="2:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+    <row r="19" spans="2:15" s="83" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13">
+        <v>2022</v>
+      </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="15">
-        <v>689253.59670899995</v>
+        <v>621679.26430799998</v>
       </c>
       <c r="E19" s="15">
-        <v>22233.986990000001</v>
+        <v>20054.169816000001</v>
       </c>
       <c r="F19" s="25">
-        <v>4337374.3208254073</v>
+        <v>3912138.7101554479</v>
       </c>
       <c r="G19" s="25">
-        <v>139915.30067178735</v>
+        <v>126198.02290824025</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1485,22 +1487,22 @@
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="2:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="82" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="15">
-        <v>605733.99690699996</v>
+        <v>581166.18618700001</v>
       </c>
       <c r="E20" s="15">
-        <v>20191.133229999999</v>
+        <v>19372.206205999999</v>
       </c>
       <c r="F20" s="25">
-        <v>3811797.4225741932</v>
+        <v>3657195.7029101662</v>
       </c>
       <c r="G20" s="25">
-        <v>127059.91408580645</v>
+        <v>121906.52343033889</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -1511,22 +1513,22 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="2:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" s="81" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="15">
-        <v>764283.47460900003</v>
+        <v>689253.59670899995</v>
       </c>
       <c r="E21" s="15">
-        <v>24654.305632</v>
+        <v>22233.986990000001</v>
       </c>
       <c r="F21" s="25">
-        <v>4809526.6131775687</v>
+        <v>4337374.3208254073</v>
       </c>
       <c r="G21" s="25">
-        <v>155146.01977992154</v>
+        <v>139915.30067178735</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1537,22 +1539,22 @@
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="2:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" s="80" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="15">
-        <v>754659.58550000004</v>
+        <v>605733.99690699996</v>
       </c>
       <c r="E22" s="15">
-        <v>24343.857596000002</v>
+        <v>20191.133229999999</v>
       </c>
       <c r="F22" s="25">
-        <v>4748964.8552307729</v>
+        <v>3811797.4225741932</v>
       </c>
       <c r="G22" s="25">
-        <v>153192.41468486364</v>
+        <v>127059.91408580645</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -1563,22 +1565,22 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="2:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" s="79" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="15">
-        <v>811142.03678099997</v>
+        <v>764283.47460900003</v>
       </c>
       <c r="E23" s="15">
-        <v>27038.067891999999</v>
+        <v>24654.305632</v>
       </c>
       <c r="F23" s="25">
-        <v>5104400.8441515733</v>
+        <v>4809526.6131775687</v>
       </c>
       <c r="G23" s="25">
-        <v>170146.69480505245</v>
+        <v>155146.01977992154</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1589,22 +1591,22 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" s="78" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="15">
-        <v>852839.47011300002</v>
+        <v>754659.58550000004</v>
       </c>
       <c r="E24" s="15">
-        <v>27510.950647999998</v>
+        <v>24343.857596000002</v>
       </c>
       <c r="F24" s="25">
-        <v>5366796.8293768829</v>
+        <v>4748964.8552307729</v>
       </c>
       <c r="G24" s="25">
-        <v>173122.47836699622</v>
+        <v>153192.41468486364</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -1615,22 +1617,22 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" s="77" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="15">
-        <v>687298.73723800003</v>
+        <v>811142.03678099997</v>
       </c>
       <c r="E25" s="15">
-        <v>22909.957907</v>
+        <v>27038.067891999999</v>
       </c>
       <c r="F25" s="25">
-        <v>4325072.6697193086</v>
+        <v>5104400.8441515733</v>
       </c>
       <c r="G25" s="25">
-        <v>144169.08899064365</v>
+        <v>170146.69480505245</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1641,22 +1643,22 @@
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" s="76" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D26" s="15">
-        <v>748262.834699</v>
+        <v>852839.47011300002</v>
       </c>
       <c r="E26" s="15">
-        <v>24137.510795999999</v>
+        <v>27510.950647999998</v>
       </c>
       <c r="F26" s="25">
-        <v>4708711.0171754453</v>
+        <v>5366796.8293768829</v>
       </c>
       <c r="G26" s="25">
-        <v>151893.90377985305</v>
+        <v>173122.47836699622</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1667,22 +1669,22 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" s="75" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27" s="15">
-        <v>555213.606959</v>
+        <v>687298.73723800003</v>
       </c>
       <c r="E27" s="15">
-        <v>19829.057390999998</v>
+        <v>22909.957907</v>
       </c>
       <c r="F27" s="25">
-        <v>3493879.8330471921</v>
+        <v>4325072.6697193086</v>
       </c>
       <c r="G27" s="25">
-        <v>124781.42260882829</v>
+        <v>144169.08899064365</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -1693,22 +1695,22 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" s="15">
-        <v>652563.46630800003</v>
+        <v>748262.834699</v>
       </c>
       <c r="E28" s="15">
-        <v>21050.434397000001</v>
+        <v>24137.510795999999</v>
       </c>
       <c r="F28" s="25">
-        <v>4106488.5769005618</v>
+        <v>4708711.0171754453</v>
       </c>
       <c r="G28" s="25">
-        <v>132467.37344840521</v>
+        <v>151893.90377985305</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -1719,24 +1721,22 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13">
-        <v>2021</v>
-      </c>
+    <row r="29" spans="2:15" s="73" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D29" s="15">
-        <v>652019.38080000004</v>
+        <v>555213.606959</v>
       </c>
       <c r="E29" s="15">
-        <v>21032.883250999999</v>
+        <v>19829.057390999998</v>
       </c>
       <c r="F29" s="25">
-        <v>4103064.7246029456</v>
+        <v>3493879.8330471921</v>
       </c>
       <c r="G29" s="25">
-        <v>132356.92660009503</v>
+        <v>124781.42260882829</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1747,22 +1747,22 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" s="72" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="15">
-        <v>630694.20088599995</v>
+        <v>652563.46630800003</v>
       </c>
       <c r="E30" s="15">
-        <v>21023.140028999998</v>
+        <v>21050.434397000001</v>
       </c>
       <c r="F30" s="25">
-        <v>3968868.4169048714</v>
+        <v>4106488.5769005618</v>
       </c>
       <c r="G30" s="25">
-        <v>132295.61389682905</v>
+        <v>132467.37344840521</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1773,22 +1773,24 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
+    <row r="31" spans="2:15" s="71" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13">
+        <v>2021</v>
+      </c>
       <c r="C31" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="15">
-        <v>653554.90011000005</v>
+        <v>652019.38080000004</v>
       </c>
       <c r="E31" s="15">
-        <v>21082.416131999998</v>
+        <v>21032.883250999999</v>
       </c>
       <c r="F31" s="25">
-        <v>4112727.5280415146</v>
+        <v>4103064.7246029456</v>
       </c>
       <c r="G31" s="25">
-        <v>132668.62993682304</v>
+        <v>132356.92660009503</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1799,22 +1801,22 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" s="70" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" s="15">
-        <v>787255.85854499997</v>
+        <v>630694.20088599995</v>
       </c>
       <c r="E32" s="15">
-        <v>26241.861950999999</v>
+        <v>21023.140028999998</v>
       </c>
       <c r="F32" s="25">
-        <v>4954088.5402359134</v>
+        <v>3968868.4169048714</v>
       </c>
       <c r="G32" s="25">
-        <v>165136.28467453044</v>
+        <v>132295.61389682905</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -1825,22 +1827,22 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" s="69" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33" s="15">
-        <v>835957.17292699998</v>
+        <v>653554.90011000005</v>
       </c>
       <c r="E33" s="15">
-        <v>26966.360417</v>
+        <v>21082.416131999998</v>
       </c>
       <c r="F33" s="25">
-        <v>5260558.9473538827</v>
+        <v>4112727.5280415146</v>
       </c>
       <c r="G33" s="25">
-        <v>169695.44991464139</v>
+        <v>132668.62993682304</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -1851,22 +1853,22 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" s="68" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="15">
-        <v>708627.37697600003</v>
+        <v>787255.85854499997</v>
       </c>
       <c r="E34" s="15">
-        <v>22858.947644</v>
+        <v>26241.861950999999</v>
       </c>
       <c r="F34" s="25">
-        <v>4459290.74959506</v>
+        <v>4954088.5402359134</v>
       </c>
       <c r="G34" s="25">
-        <v>143848.08869661484</v>
+        <v>165136.28467453044</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -1877,22 +1879,22 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" s="67" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" s="15">
-        <v>633252.08580700005</v>
+        <v>835957.17292699998</v>
       </c>
       <c r="E35" s="15">
-        <v>21108.402859999998</v>
+        <v>26966.360417</v>
       </c>
       <c r="F35" s="25">
-        <v>3984964.8209351809</v>
+        <v>5260558.9473538827</v>
       </c>
       <c r="G35" s="25">
-        <v>132832.16069783937</v>
+        <v>169695.44991464139</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -1903,22 +1905,22 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" s="66" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" s="15">
-        <v>631973.26563000004</v>
+        <v>708627.37697600003</v>
       </c>
       <c r="E36" s="15">
-        <v>20386.234375</v>
+        <v>22858.947644</v>
       </c>
       <c r="F36" s="25">
-        <v>3976917.3884326047</v>
+        <v>4459290.74959506</v>
       </c>
       <c r="G36" s="25">
-        <v>128287.65769137435</v>
+        <v>143848.08869661484</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -1929,22 +1931,22 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" s="65" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="15">
-        <v>619556.10921200004</v>
+        <v>633252.08580700005</v>
       </c>
       <c r="E37" s="15">
-        <v>20651.870307000001</v>
+        <v>21108.402859999998</v>
       </c>
       <c r="F37" s="25">
-        <v>3898777.9987474987</v>
+        <v>3984964.8209351809</v>
       </c>
       <c r="G37" s="25">
-        <v>129959.26662491662</v>
+        <v>132832.16069783937</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -1955,22 +1957,22 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="64" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="15">
-        <v>864945.59575500002</v>
+        <v>631973.26563000004</v>
       </c>
       <c r="E38" s="15">
-        <v>27901.470829999998</v>
+        <v>20386.234375</v>
       </c>
       <c r="F38" s="25">
-        <v>5442978.9468660224</v>
+        <v>3976917.3884326047</v>
       </c>
       <c r="G38" s="25">
-        <v>175579.9660279362</v>
+        <v>128287.65769137435</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -1981,22 +1983,22 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" s="63" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" s="15">
-        <v>497767.01864000002</v>
+        <v>619556.10921200004</v>
       </c>
       <c r="E39" s="15">
-        <v>17777.393521999998</v>
+        <v>20651.870307000001</v>
       </c>
       <c r="F39" s="25">
-        <v>3132376.6676178547</v>
+        <v>3898777.9987474987</v>
       </c>
       <c r="G39" s="25">
-        <v>111870.59527206622</v>
+        <v>129959.26662491662</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -2007,22 +2009,22 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" s="62" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" s="15">
-        <v>958714.76984600001</v>
+        <v>864945.59575500002</v>
       </c>
       <c r="E40" s="15">
-        <v>30926.282898000001</v>
+        <v>27901.470829999998</v>
       </c>
       <c r="F40" s="25">
-        <v>6033054.9504287895</v>
+        <v>5442978.9468660224</v>
       </c>
       <c r="G40" s="25">
-        <v>194614.67582028356</v>
+        <v>175579.9660279362</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2033,24 +2035,22 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13">
-        <v>2020</v>
-      </c>
+    <row r="41" spans="2:15" s="61" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D41" s="15">
-        <v>938216.01383800001</v>
+        <v>497767.01864000002</v>
       </c>
       <c r="E41" s="15">
-        <v>30265.032704000001</v>
+        <v>17777.393521999998</v>
       </c>
       <c r="F41" s="25">
-        <v>5904059.2101925546</v>
+        <v>3132376.6676178547</v>
       </c>
       <c r="G41" s="25">
-        <v>190453.52290943725</v>
+        <v>111870.59527206622</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2061,22 +2061,22 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" s="60" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="15">
-        <v>825199.79770700005</v>
+        <v>958714.76984600001</v>
       </c>
       <c r="E42" s="15">
-        <v>27506.659922999999</v>
+        <v>30926.282898000001</v>
       </c>
       <c r="F42" s="25">
-        <v>5192864.323399079</v>
+        <v>6033054.9504287895</v>
       </c>
       <c r="G42" s="25">
-        <v>173095.47744663598</v>
+        <v>194614.67582028356</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2087,22 +2087,24 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
+    <row r="43" spans="2:15" s="59" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13">
+        <v>2020</v>
+      </c>
       <c r="C43" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" s="15">
-        <v>457210.72882199998</v>
+        <v>938216.01383800001</v>
       </c>
       <c r="E43" s="15">
-        <v>14748.733187</v>
+        <v>30265.032704000001</v>
       </c>
       <c r="F43" s="25">
-        <v>2877161.7353426241</v>
+        <v>5904059.2101925546</v>
       </c>
       <c r="G43" s="25">
-        <v>92811.668882020138</v>
+        <v>190453.52290943725</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2113,22 +2115,22 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" s="58" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44" s="15">
-        <v>355962.18939100002</v>
+        <v>825199.79770700005</v>
       </c>
       <c r="E44" s="15">
-        <v>11865.406312999999</v>
+        <v>27506.659922999999</v>
       </c>
       <c r="F44" s="25">
-        <v>2240019.1552444799</v>
+        <v>5192864.323399079</v>
       </c>
       <c r="G44" s="25">
-        <v>74667.305174816007</v>
+        <v>173095.47744663598</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -2139,22 +2141,22 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" s="57" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D45" s="15">
-        <v>251494.72360200001</v>
+        <v>457210.72882199998</v>
       </c>
       <c r="E45" s="15">
-        <v>8112.7330190000002</v>
+        <v>14748.733187</v>
       </c>
       <c r="F45" s="25">
-        <v>1582620.331881911</v>
+        <v>2877161.7353426241</v>
       </c>
       <c r="G45" s="25">
-        <v>51052.268770384224</v>
+        <v>92811.668882020138</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2165,22 +2167,22 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" s="56" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="15">
-        <v>191467.74559999999</v>
+        <v>355962.18939100002</v>
       </c>
       <c r="E46" s="15">
-        <v>6176.37889</v>
+        <v>11865.406312999999</v>
       </c>
       <c r="F46" s="25">
-        <v>1204879.1431731791</v>
+        <v>2240019.1552444799</v>
       </c>
       <c r="G46" s="25">
-        <v>38867.06913461868</v>
+        <v>74667.305174816007</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -2191,22 +2193,22 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="55" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" s="15">
-        <v>204137.25868999999</v>
+        <v>251494.72360200001</v>
       </c>
       <c r="E47" s="15">
-        <v>6804.5752890000003</v>
+        <v>8112.7330190000002</v>
       </c>
       <c r="F47" s="25">
-        <v>1284606.5773081775</v>
+        <v>1582620.331881911</v>
       </c>
       <c r="G47" s="25">
-        <v>42820.219243605912</v>
+        <v>51052.268770384224</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -2217,22 +2219,22 @@
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="15">
-        <v>285955.87647999998</v>
+        <v>191467.74559999999</v>
       </c>
       <c r="E48" s="15">
-        <v>9224.3831119999995</v>
+        <v>6176.37889</v>
       </c>
       <c r="F48" s="25">
-        <v>1799479.4389983031</v>
+        <v>1204879.1431731791</v>
       </c>
       <c r="G48" s="25">
-        <v>58047.723838654943</v>
+        <v>38867.06913461868</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -2243,22 +2245,22 @@
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15" s="53" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" s="15">
-        <v>744852.00140499999</v>
+        <v>204137.25868999999</v>
       </c>
       <c r="E49" s="15">
-        <v>24828.400045999999</v>
+        <v>6804.5752890000003</v>
       </c>
       <c r="F49" s="25">
-        <v>4687247.1310054641</v>
+        <v>1284606.5773081775</v>
       </c>
       <c r="G49" s="25">
-        <v>156241.57103351544</v>
+        <v>42820.219243605912</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -2269,22 +2271,22 @@
       <c r="N49" s="14"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50" s="15">
-        <v>1726969.163712</v>
+        <v>285955.87647999998</v>
       </c>
       <c r="E50" s="15">
-        <v>55708.682699999998</v>
+        <v>9224.3831119999995</v>
       </c>
       <c r="F50" s="25">
-        <v>10867569.990649205</v>
+        <v>1799479.4389983031</v>
       </c>
       <c r="G50" s="25">
-        <v>350566.7738919098</v>
+        <v>58047.723838654943</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -2295,22 +2297,22 @@
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" s="51" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D51" s="15">
-        <v>1898618.6160540001</v>
+        <v>744852.00140499999</v>
       </c>
       <c r="E51" s="15">
-        <v>65469.607450000003</v>
+        <v>24828.400045999999</v>
       </c>
       <c r="F51" s="25">
-        <v>11947735.448365727</v>
+        <v>4687247.1310054641</v>
       </c>
       <c r="G51" s="25">
-        <v>411990.87752985262</v>
+        <v>156241.57103351544</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -2321,22 +2323,22 @@
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="15">
-        <v>1989047.6002829999</v>
+        <v>1726969.163712</v>
       </c>
       <c r="E52" s="15">
-        <v>64162.825814999997</v>
+        <v>55708.682699999998</v>
       </c>
       <c r="F52" s="25">
-        <v>12516792.114774078</v>
+        <v>10867569.990649205</v>
       </c>
       <c r="G52" s="25">
-        <v>403767.48757335736</v>
+        <v>350566.7738919098</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -2347,24 +2349,22 @@
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="13">
-        <v>2019</v>
-      </c>
+    <row r="53" spans="2:15" s="49" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="13"/>
       <c r="C53" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D53" s="15">
-        <v>1710070.2071700001</v>
+        <v>1898618.6160540001</v>
       </c>
       <c r="E53" s="15">
-        <v>55163.555070000002</v>
+        <v>65469.607450000003</v>
       </c>
       <c r="F53" s="25">
-        <v>10761227.273681184</v>
+        <v>11947735.448365727</v>
       </c>
       <c r="G53" s="25">
-        <v>347136.36366713495</v>
+        <v>411990.87752985262</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2375,22 +2375,22 @@
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" s="48" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="15">
-        <v>1441371.4144830001</v>
+        <v>1989047.6002829999</v>
       </c>
       <c r="E54" s="15">
-        <v>48045.713816000003</v>
+        <v>64162.825814999997</v>
       </c>
       <c r="F54" s="25">
-        <v>9070344.1952292472</v>
+        <v>12516792.114774078</v>
       </c>
       <c r="G54" s="25">
-        <v>302344.80650764162</v>
+        <v>403767.48757335736</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -2401,22 +2401,24 @@
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
+    <row r="55" spans="2:15" s="47" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="13">
+        <v>2019</v>
+      </c>
       <c r="C55" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55" s="15">
-        <v>1330424.701689</v>
+        <v>1710070.2071700001</v>
       </c>
       <c r="E55" s="15">
-        <v>42916.925860000003</v>
+        <v>55163.555070000002</v>
       </c>
       <c r="F55" s="25">
-        <v>8372172.3969965354</v>
+        <v>10761227.273681184</v>
       </c>
       <c r="G55" s="25">
-        <v>270070.07732246892</v>
+        <v>347136.36366713495</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -2424,25 +2426,25 @@
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="2:15" s="46" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D56" s="15">
-        <v>1523602.3797500001</v>
+        <v>1441371.4144830001</v>
       </c>
       <c r="E56" s="15">
-        <v>50786.745991000003</v>
+        <v>48045.713816000003</v>
       </c>
       <c r="F56" s="25">
-        <v>9587811.9006264452</v>
+        <v>9070344.1952292472</v>
       </c>
       <c r="G56" s="25">
-        <v>319593.73002088151</v>
+        <v>302344.80650764162</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -2450,25 +2452,25 @@
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="3"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
     </row>
     <row r="57" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" s="15">
-        <v>1583842.188998</v>
+        <v>1330424.701689</v>
       </c>
       <c r="E57" s="15">
-        <v>51091.683515999997</v>
+        <v>42916.925860000003</v>
       </c>
       <c r="F57" s="25">
-        <v>9966892.4059313871</v>
+        <v>8372172.3969965354</v>
       </c>
       <c r="G57" s="25">
-        <v>321512.65825585119</v>
+        <v>270070.07732246892</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -2482,19 +2484,19 @@
     <row r="58" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="15">
-        <v>1599425.591243</v>
+        <v>1523602.3797500001</v>
       </c>
       <c r="E58" s="15">
-        <v>51594.373911000002</v>
+        <v>50786.745991000003</v>
       </c>
       <c r="F58" s="25">
-        <v>10064956.52783265</v>
+        <v>9587811.9006264452</v>
       </c>
       <c r="G58" s="25">
-        <v>324676.01702685968</v>
+        <v>319593.73002088151</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
@@ -2508,19 +2510,19 @@
     <row r="59" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" s="15">
-        <v>1422059.9636609999</v>
+        <v>1583842.188998</v>
       </c>
       <c r="E59" s="15">
-        <v>47401.998787999997</v>
+        <v>51091.683515999997</v>
       </c>
       <c r="F59" s="25">
-        <v>8948819.996743869</v>
+        <v>9966892.4059313871</v>
       </c>
       <c r="G59" s="25">
-        <v>298293.99989146233</v>
+        <v>321512.65825585119</v>
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -2534,19 +2536,19 @@
     <row r="60" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D60" s="15">
-        <v>1459021.581333</v>
+        <v>1599425.591243</v>
       </c>
       <c r="E60" s="15">
-        <v>47065.212301</v>
+        <v>51594.373911000002</v>
       </c>
       <c r="F60" s="25">
-        <v>9181414.1712424383</v>
+        <v>10064956.52783265</v>
       </c>
       <c r="G60" s="25">
-        <v>296174.65068523993</v>
+        <v>324676.01702685968</v>
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
@@ -2560,19 +2562,19 @@
     <row r="61" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="15">
-        <v>1143952.7800350001</v>
+        <v>1422059.9636609999</v>
       </c>
       <c r="E61" s="15">
-        <v>38131.759334000002</v>
+        <v>47401.998787999997</v>
       </c>
       <c r="F61" s="25">
-        <v>7198731.2595127104</v>
+        <v>8948819.996743869</v>
       </c>
       <c r="G61" s="25">
-        <v>239957.70865042368</v>
+        <v>298293.99989146233</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -2586,19 +2588,19 @@
     <row r="62" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62" s="15">
-        <v>857730.976517</v>
+        <v>1459021.581333</v>
       </c>
       <c r="E62" s="15">
-        <v>27668.741177</v>
+        <v>47065.212301</v>
       </c>
       <c r="F62" s="25">
-        <v>5397578.3796918392</v>
+        <v>9181414.1712424383</v>
       </c>
       <c r="G62" s="25">
-        <v>174115.43160296255</v>
+        <v>296174.65068523993</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -2612,19 +2614,19 @@
     <row r="63" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D63" s="15">
-        <v>589229.82238999999</v>
+        <v>1143952.7800350001</v>
       </c>
       <c r="E63" s="15">
-        <v>21043.922227999999</v>
+        <v>38131.759334000002</v>
       </c>
       <c r="F63" s="25">
-        <v>3707939.0124356686</v>
+        <v>7198731.2595127104</v>
       </c>
       <c r="G63" s="25">
-        <v>132426.39330127387</v>
+        <v>239957.70865042368</v>
       </c>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
@@ -2638,19 +2640,19 @@
     <row r="64" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D64" s="15">
-        <v>1659957.116588</v>
+        <v>857730.976517</v>
       </c>
       <c r="E64" s="15">
-        <v>53547.00376</v>
+        <v>27668.741177</v>
       </c>
       <c r="F64" s="25">
-        <v>10445872.760820612</v>
+        <v>5397578.3796918392</v>
       </c>
       <c r="G64" s="25">
-        <v>336963.6374458262</v>
+        <v>174115.43160296255</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
@@ -2662,25 +2664,23 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="13">
-        <v>2018</v>
-      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="25">
-        <v>1797545.3998070001</v>
-      </c>
-      <c r="E65" s="25">
-        <v>57985.335477000001</v>
+        <v>10</v>
+      </c>
+      <c r="D65" s="15">
+        <v>589229.82238999999</v>
+      </c>
+      <c r="E65" s="15">
+        <v>21043.922227999999</v>
       </c>
       <c r="F65" s="25">
-        <v>11311696.151993278</v>
+        <v>3707939.0124356686</v>
       </c>
       <c r="G65" s="25">
-        <v>364893.42425784766</v>
-      </c>
-      <c r="H65" s="1"/>
+        <v>132426.39330127387</v>
+      </c>
+      <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
@@ -2692,21 +2692,21 @@
     <row r="66" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="25">
-        <v>1611713.268593</v>
-      </c>
-      <c r="E66" s="25">
-        <v>53723.775619</v>
+        <v>9</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1659957.116588</v>
+      </c>
+      <c r="E66" s="15">
+        <v>53547.00376</v>
       </c>
       <c r="F66" s="25">
-        <v>10142281.124258341</v>
+        <v>10445872.760820612</v>
       </c>
       <c r="G66" s="25">
-        <v>338076.03747527802</v>
-      </c>
-      <c r="H66" s="1"/>
+        <v>336963.6374458262</v>
+      </c>
+      <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -2716,21 +2716,23 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="13"/>
+      <c r="B67" s="13">
+        <v>2018</v>
+      </c>
       <c r="C67" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D67" s="25">
-        <v>1705436.5561249999</v>
+        <v>1797545.3998070001</v>
       </c>
       <c r="E67" s="25">
-        <v>55014.082455000003</v>
+        <v>57985.335477000001</v>
       </c>
       <c r="F67" s="25">
-        <v>10732068.370267099</v>
+        <v>11311696.151993278</v>
       </c>
       <c r="G67" s="25">
-        <v>346195.75387958385</v>
+        <v>364893.42425784766</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="14"/>
@@ -2744,19 +2746,19 @@
     <row r="68" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D68" s="25">
-        <v>1354350.3933949999</v>
+        <v>1611713.268593</v>
       </c>
       <c r="E68" s="25">
-        <v>45145.013113000001</v>
+        <v>53723.775619</v>
       </c>
       <c r="F68" s="25">
-        <v>8522733.3535284791</v>
+        <v>10142281.124258341</v>
       </c>
       <c r="G68" s="25">
-        <v>284091.11178428266</v>
+        <v>338076.03747527802</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="14"/>
@@ -2770,19 +2772,19 @@
     <row r="69" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D69" s="25">
-        <v>1190885.566602</v>
+        <v>1705436.5561249999</v>
       </c>
       <c r="E69" s="25">
-        <v>38415.663438000003</v>
+        <v>55014.082455000003</v>
       </c>
       <c r="F69" s="25">
-        <v>7494072.5739903618</v>
+        <v>10732068.370267099</v>
       </c>
       <c r="G69" s="25">
-        <v>241744.27658033423</v>
+        <v>346195.75387958385</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="14"/>
@@ -2796,19 +2798,19 @@
     <row r="70" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D70" s="25">
-        <v>1053923.0213580001</v>
+        <v>1354350.3933949999</v>
       </c>
       <c r="E70" s="25">
-        <v>33997.516817999996</v>
+        <v>45145.013113000001</v>
       </c>
       <c r="F70" s="25">
-        <v>6632186.8624138394</v>
+        <v>8522733.3535284791</v>
       </c>
       <c r="G70" s="25">
-        <v>213941.51169076902</v>
+        <v>284091.11178428266</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="14"/>
@@ -2822,19 +2824,19 @@
     <row r="71" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" s="25">
-        <v>1020856.535961</v>
+        <v>1190885.566602</v>
       </c>
       <c r="E71" s="25">
-        <v>34028.551198000001</v>
+        <v>38415.663438000003</v>
       </c>
       <c r="F71" s="25">
-        <v>6424104.1983179301</v>
+        <v>7494072.5739903618</v>
       </c>
       <c r="G71" s="25">
-        <v>214136.80661059771</v>
+        <v>241744.27658033423</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="14"/>
@@ -2848,19 +2850,19 @@
     <row r="72" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D72" s="25">
-        <v>1048489.412457</v>
+        <v>1053923.0213580001</v>
       </c>
       <c r="E72" s="25">
-        <v>33822.239111000003</v>
+        <v>33997.516817999996</v>
       </c>
       <c r="F72" s="25">
-        <v>6597993.9386059195</v>
+        <v>6632186.8624138394</v>
       </c>
       <c r="G72" s="25">
-        <v>212838.51414857805</v>
+        <v>213941.51169076902</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="14"/>
@@ -2874,19 +2876,19 @@
     <row r="73" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D73" s="25">
-        <v>950621.85583999997</v>
+        <v>1020856.535961</v>
       </c>
       <c r="E73" s="25">
-        <v>31687.395194000001</v>
+        <v>34028.551198000001</v>
       </c>
       <c r="F73" s="25">
-        <v>5982127.3998757349</v>
+        <v>6424104.1983179301</v>
       </c>
       <c r="G73" s="25">
-        <v>199404.24666252447</v>
+        <v>214136.80661059771</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="14"/>
@@ -2900,19 +2902,19 @@
     <row r="74" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74" s="25">
-        <v>906206.56853299995</v>
+        <v>1048489.412457</v>
       </c>
       <c r="E74" s="25">
-        <v>29232.469951999999</v>
+        <v>33822.239111000003</v>
       </c>
       <c r="F74" s="25">
-        <v>5702628.3482388686</v>
+        <v>6597993.9386059195</v>
       </c>
       <c r="G74" s="25">
-        <v>183955.75316899578</v>
+        <v>212838.51414857805</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="14"/>
@@ -2926,19 +2928,19 @@
     <row r="75" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75" s="25">
-        <v>634127.085036</v>
+        <v>950621.85583999997</v>
       </c>
       <c r="E75" s="25">
-        <v>22647.395894000001</v>
+        <v>31687.395194000001</v>
       </c>
       <c r="F75" s="25">
-        <v>3990471.0659583877</v>
+        <v>5982127.3998757349</v>
       </c>
       <c r="G75" s="25">
-        <v>142516.82378422815</v>
+        <v>199404.24666252447</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="14"/>
@@ -2952,19 +2954,19 @@
     <row r="76" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D76" s="25">
-        <v>773568.24248799996</v>
+        <v>906206.56853299995</v>
       </c>
       <c r="E76" s="25">
-        <v>24953.814273</v>
+        <v>29232.469951999999</v>
       </c>
       <c r="F76" s="25">
-        <v>4867954.3297183076</v>
+        <v>5702628.3482388686</v>
       </c>
       <c r="G76" s="25">
-        <v>157030.78482962286</v>
+        <v>183955.75316899578</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="14"/>
@@ -2976,75 +2978,75 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="13">
-        <v>2017</v>
-      </c>
+      <c r="B77" s="13"/>
       <c r="C77" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="15">
-        <v>748488.86828199995</v>
-      </c>
-      <c r="E77" s="15">
-        <v>24144.802201999999</v>
-      </c>
-      <c r="F77" s="15">
-        <v>4710133.4141904619</v>
-      </c>
-      <c r="G77" s="15">
-        <v>151939.78755453101</v>
+        <v>10</v>
+      </c>
+      <c r="D77" s="25">
+        <v>634127.085036</v>
+      </c>
+      <c r="E77" s="25">
+        <v>22647.395894000001</v>
+      </c>
+      <c r="F77" s="25">
+        <v>3990471.0659583877</v>
+      </c>
+      <c r="G77" s="25">
+        <v>142516.82378422815</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
       <c r="N77" s="19"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="15">
-        <v>707045.64604599995</v>
-      </c>
-      <c r="E78" s="15">
-        <v>23568.188201000001</v>
-      </c>
-      <c r="F78" s="15">
-        <v>4449337.1430400936</v>
-      </c>
-      <c r="G78" s="15">
-        <v>148311.23810133644</v>
+        <v>9</v>
+      </c>
+      <c r="D78" s="25">
+        <v>773568.24248799996</v>
+      </c>
+      <c r="E78" s="25">
+        <v>24953.814273</v>
+      </c>
+      <c r="F78" s="25">
+        <v>4867954.3297183076</v>
+      </c>
+      <c r="G78" s="25">
+        <v>157030.78482962286</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
       <c r="N78" s="19"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
+      <c r="B79" s="13">
+        <v>2017</v>
+      </c>
       <c r="C79" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79" s="15">
-        <v>675767.54240100004</v>
+        <v>748488.86828199995</v>
       </c>
       <c r="E79" s="15">
-        <v>21798.952979999998</v>
+        <v>24144.802201999999</v>
       </c>
       <c r="F79" s="15">
-        <v>4252508.5095709292</v>
+        <v>4710133.4141904619</v>
       </c>
       <c r="G79" s="15">
-        <v>137177.69385712678</v>
+        <v>151939.78755453101</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3058,19 +3060,19 @@
     <row r="80" spans="2:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="25">
-        <v>639449.31000000006</v>
-      </c>
-      <c r="E80" s="25">
-        <v>21314.976999999999</v>
-      </c>
-      <c r="F80" s="25">
-        <v>4023963.0665786699</v>
-      </c>
-      <c r="G80" s="25">
-        <v>134132.10221928899</v>
+        <v>19</v>
+      </c>
+      <c r="D80" s="15">
+        <v>707045.64604599995</v>
+      </c>
+      <c r="E80" s="15">
+        <v>23568.188201000001</v>
+      </c>
+      <c r="F80" s="15">
+        <v>4449337.1430400936</v>
+      </c>
+      <c r="G80" s="15">
+        <v>148311.23810133644</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3081,21 +3083,22 @@
       <c r="N80" s="19"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
       <c r="C81" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="26">
-        <v>590832.68599999999</v>
-      </c>
-      <c r="E81" s="27">
-        <v>19059.118902999999</v>
-      </c>
-      <c r="F81" s="26">
-        <v>3718025.6039239019</v>
+        <v>18</v>
+      </c>
+      <c r="D81" s="15">
+        <v>675767.54240100004</v>
+      </c>
+      <c r="E81" s="15">
+        <v>21798.952979999998</v>
+      </c>
+      <c r="F81" s="15">
+        <v>4252508.5095709292</v>
       </c>
       <c r="G81" s="15">
-        <v>119936.30980399683</v>
+        <v>137177.69385712678</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3106,22 +3109,22 @@
       <c r="N81" s="19"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="9"/>
+    <row r="82" spans="2:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
       <c r="C82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D82" s="25">
-        <v>455925.02799999999</v>
+        <v>639449.31000000006</v>
       </c>
       <c r="E82" s="25">
-        <v>14707.258967</v>
+        <v>21314.976999999999</v>
       </c>
       <c r="F82" s="25">
-        <v>2869071.0039249961</v>
+        <v>4023963.0665786699</v>
       </c>
       <c r="G82" s="25">
-        <v>92550.677545967614</v>
+        <v>134132.10221928899</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3134,290 +3137,293 @@
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C83" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="26">
+        <v>590832.68599999999</v>
+      </c>
+      <c r="E83" s="27">
+        <v>19059.118902999999</v>
+      </c>
+      <c r="F83" s="26">
+        <v>3718025.6039239019</v>
+      </c>
+      <c r="G83" s="15">
+        <v>119936.30980399683</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B84" s="9"/>
+      <c r="C84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="25">
+        <v>455925.02799999999</v>
+      </c>
+      <c r="E84" s="25">
+        <v>14707.258967</v>
+      </c>
+      <c r="F84" s="25">
+        <v>2869071.0039249961</v>
+      </c>
+      <c r="G84" s="25">
+        <v>92550.677545967614</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D85" s="24">
         <v>522049.42700000003</v>
       </c>
-      <c r="E83" s="25">
+      <c r="E85" s="25">
         <v>17401.647566</v>
       </c>
-      <c r="F83" s="25">
+      <c r="F85" s="25">
         <v>3285182.3910429389</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G85" s="25">
         <v>109506.0797014313</v>
-      </c>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="3"/>
-      <c r="R83" s="7"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="C84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="25">
-        <v>644920.29399999999</v>
-      </c>
-      <c r="E84" s="25">
-        <v>20803.880451000001</v>
-      </c>
-      <c r="F84" s="25">
-        <v>4058391.1865399578</v>
-      </c>
-      <c r="G84" s="25">
-        <v>130915.84472709542</v>
-      </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="17">
-        <v>714633.18924199999</v>
-      </c>
-      <c r="E85" s="8">
-        <v>23821.106307999999</v>
-      </c>
-      <c r="F85" s="12">
-        <v>4497084.4673538441</v>
-      </c>
-      <c r="G85" s="12">
-        <v>149902.81557846148</v>
       </c>
       <c r="H85" s="28"/>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
       <c r="L85" s="29"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="21"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="3"/>
+      <c r="R85" s="7"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="12">
-        <v>766788.689518</v>
-      </c>
-      <c r="E86" s="12">
-        <v>24735.119016000001</v>
-      </c>
-      <c r="F86" s="12">
-        <v>4825291.5723541733</v>
-      </c>
-      <c r="G86" s="12">
-        <v>155654.56685013464</v>
+        <v>13</v>
+      </c>
+      <c r="D86" s="25">
+        <v>644920.29399999999</v>
+      </c>
+      <c r="E86" s="25">
+        <v>20803.880451000001</v>
+      </c>
+      <c r="F86" s="25">
+        <v>4058391.1865399578</v>
+      </c>
+      <c r="G86" s="25">
+        <v>130915.84472709542</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
       <c r="L86" s="29"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="21"/>
-    </row>
-    <row r="87" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N86" s="18"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B87" s="13"/>
       <c r="C87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="12">
-        <v>590415.46140999999</v>
-      </c>
-      <c r="E87" s="12">
-        <v>21086.266478000001</v>
+        <v>12</v>
+      </c>
+      <c r="D87" s="17">
+        <v>714633.18924199999</v>
+      </c>
+      <c r="E87" s="8">
+        <v>23821.106307999999</v>
       </c>
       <c r="F87" s="12">
-        <v>3715400.0692421482</v>
+        <v>4497084.4673538441</v>
       </c>
       <c r="G87" s="12">
-        <v>132692.85961579101</v>
+        <v>149902.81557846148</v>
       </c>
       <c r="H87" s="28"/>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="21"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D88" s="12">
-        <v>590534.02216000005</v>
+        <v>766788.689518</v>
       </c>
       <c r="E88" s="12">
-        <v>19049.484584999998</v>
+        <v>24735.119016000001</v>
       </c>
       <c r="F88" s="12">
-        <v>3716146.1550877113</v>
+        <v>4825291.5723541733</v>
       </c>
       <c r="G88" s="12">
-        <v>119875.68242218423</v>
+        <v>155654.56685013464</v>
       </c>
       <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
       <c r="K88" s="29"/>
       <c r="L88" s="29"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="13">
-        <v>2016</v>
-      </c>
+      <c r="N88" s="20"/>
+      <c r="O88" s="21"/>
+    </row>
+    <row r="89" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D89" s="12">
-        <v>627433.93557900004</v>
+        <v>590415.46140999999</v>
       </c>
       <c r="E89" s="12">
-        <v>20239.804372999999</v>
+        <v>21086.266478000001</v>
       </c>
       <c r="F89" s="12">
-        <v>3948352.0335458592</v>
+        <v>3715400.0692421482</v>
       </c>
       <c r="G89" s="12">
-        <v>127366.19463051159</v>
+        <v>132692.85961579101</v>
       </c>
       <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
       <c r="K89" s="29"/>
       <c r="L89" s="29"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="3"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="12">
-        <v>572234.87095899996</v>
+        <v>590534.02216000005</v>
       </c>
       <c r="E90" s="12">
-        <v>19074.495697999999</v>
+        <v>19049.484584999998</v>
       </c>
       <c r="F90" s="12">
-        <v>3600992.21335844</v>
+        <v>3716146.1550877113</v>
       </c>
       <c r="G90" s="12">
-        <v>120033.07377861465</v>
+        <v>119875.68242218423</v>
       </c>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
       <c r="J90" s="28"/>
       <c r="K90" s="29"/>
       <c r="L90" s="29"/>
-      <c r="N90" s="20"/>
+      <c r="N90" s="18"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="13"/>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B91" s="13">
+        <v>2016</v>
+      </c>
       <c r="C91" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D91" s="12">
-        <v>505204.96276999998</v>
+        <v>627433.93557900004</v>
       </c>
       <c r="E91" s="12">
-        <v>16296.934282</v>
+        <v>20239.804372999999</v>
       </c>
       <c r="F91" s="12">
-        <v>3179182.5864019338</v>
+        <v>3948352.0335458592</v>
       </c>
       <c r="G91" s="12">
-        <v>102554.27698070755</v>
+        <v>127366.19463051159</v>
       </c>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
       <c r="J91" s="28"/>
       <c r="K91" s="29"/>
       <c r="L91" s="29"/>
-    </row>
-    <row r="92" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N91" s="18"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D92" s="12">
-        <v>330334.59204000002</v>
+        <v>572234.87095899996</v>
       </c>
       <c r="E92" s="12">
-        <v>11011.153068</v>
+        <v>19074.495697999999</v>
       </c>
       <c r="F92" s="12">
-        <v>2078748.3498610584</v>
+        <v>3600992.21335844</v>
       </c>
       <c r="G92" s="12">
-        <v>69291.611662035284</v>
+        <v>120033.07377861465</v>
       </c>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
       <c r="J92" s="28"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="3"/>
     </row>
     <row r="93" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93" s="12">
-        <v>324494.77002</v>
+        <v>505204.96276999998</v>
       </c>
       <c r="E93" s="12">
-        <v>10467.573226</v>
+        <v>16296.934282</v>
       </c>
       <c r="F93" s="12">
-        <v>2041999.1849837471</v>
+        <v>3179182.5864019338</v>
       </c>
       <c r="G93" s="12">
-        <v>65870.941451088613</v>
+        <v>102554.27698070755</v>
       </c>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
       <c r="J93" s="28"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
     </row>
     <row r="94" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94" s="12">
-        <v>261529.28813999999</v>
+        <v>330334.59204000002</v>
       </c>
       <c r="E94" s="12">
-        <v>8436.4286489999995</v>
+        <v>11011.153068</v>
       </c>
       <c r="F94" s="12">
-        <v>1645766.4115768159</v>
+        <v>2078748.3498610584</v>
       </c>
       <c r="G94" s="12">
-        <v>53089.239083123095</v>
+        <v>69291.611662035284</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
@@ -3429,19 +3435,19 @@
     <row r="95" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" s="12">
-        <v>205969.63078000001</v>
+        <v>324494.77002</v>
       </c>
       <c r="E95" s="12">
-        <v>6865.6543590000001</v>
+        <v>10467.573226</v>
       </c>
       <c r="F95" s="12">
-        <v>1296137.4328413385</v>
+        <v>2041999.1849837471</v>
       </c>
       <c r="G95" s="12">
-        <v>43204.581094711277</v>
+        <v>65870.941451088613</v>
       </c>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
@@ -3453,19 +3459,19 @@
     <row r="96" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D96" s="12">
-        <v>350179.493456</v>
+        <v>261529.28813999999</v>
       </c>
       <c r="E96" s="12">
-        <v>11296.112692000001</v>
+        <v>8436.4286489999995</v>
       </c>
       <c r="F96" s="12">
-        <v>2203629.4766510436</v>
+        <v>1645766.4115768159</v>
       </c>
       <c r="G96" s="12">
-        <v>71084.821827453023</v>
+        <v>53089.239083123095</v>
       </c>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
@@ -3477,23 +3483,23 @@
     <row r="97" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D97" s="12">
-        <v>517689.187898</v>
+        <v>205969.63078000001</v>
       </c>
       <c r="E97" s="12">
-        <v>17256.306262999999</v>
+        <v>6865.6543590000001</v>
       </c>
       <c r="F97" s="12">
-        <v>3257744.0298882448</v>
+        <v>1296137.4328413385</v>
       </c>
       <c r="G97" s="12">
-        <v>108591.46766294149</v>
+        <v>43204.581094711277</v>
       </c>
       <c r="H97" s="28"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -3501,544 +3507,550 @@
     <row r="98" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98" s="12">
-        <v>501998.54960799997</v>
+        <v>350179.493456</v>
       </c>
       <c r="E98" s="12">
-        <v>16193.5016</v>
+        <v>11296.112692000001</v>
       </c>
       <c r="F98" s="12">
-        <v>3159005.0868905503</v>
+        <v>2203629.4766510436</v>
       </c>
       <c r="G98" s="12">
-        <v>101903.38989969516</v>
+        <v>71084.821827453023</v>
       </c>
       <c r="H98" s="28"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="13"/>
       <c r="C99" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" s="12">
-        <v>440679.500314</v>
+        <v>517689.187898</v>
       </c>
       <c r="E99" s="12">
-        <v>15195.844838000001</v>
+        <v>17256.306262999999</v>
       </c>
       <c r="F99" s="12">
-        <v>2773133.0783074568</v>
+        <v>3257744.0298882448</v>
       </c>
       <c r="G99" s="12">
-        <v>95625.278562326115</v>
+        <v>108591.46766294149</v>
       </c>
       <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
     </row>
     <row r="100" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100" s="12">
-        <v>473238.57974199997</v>
+        <v>501998.54960799997</v>
       </c>
       <c r="E100" s="12">
-        <v>15265.760636000001</v>
+        <v>16193.5016</v>
       </c>
       <c r="F100" s="12">
-        <v>2978022.7091995031</v>
+        <v>3159005.0868905503</v>
       </c>
       <c r="G100" s="12">
-        <v>96065.248683854923</v>
+        <v>101903.38989969516</v>
       </c>
       <c r="H100" s="28"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
     </row>
     <row r="101" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="13">
-        <v>2015</v>
-      </c>
       <c r="C101" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D101" s="12">
-        <v>525645.38418599998</v>
+        <v>440679.500314</v>
       </c>
       <c r="E101" s="12">
-        <v>16956.302715000002</v>
+        <v>15195.844838000001</v>
       </c>
       <c r="F101" s="12">
-        <v>3307811.2353925598</v>
+        <v>2773133.0783074568</v>
       </c>
       <c r="G101" s="12">
-        <v>106703.58823846966</v>
+        <v>95625.278562326115</v>
       </c>
       <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
     </row>
     <row r="102" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="12">
-        <v>487772.50363599998</v>
+        <v>473238.57974199997</v>
       </c>
       <c r="E102" s="12">
-        <v>16259.083454</v>
+        <v>15265.760636000001</v>
       </c>
       <c r="F102" s="12">
-        <v>3069482.6139133279</v>
+        <v>2978022.7091995031</v>
       </c>
       <c r="G102" s="12">
-        <v>102316.08713044427</v>
+        <v>96065.248683854923</v>
       </c>
       <c r="H102" s="28"/>
     </row>
     <row r="103" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="13"/>
+      <c r="B103" s="13">
+        <v>2015</v>
+      </c>
       <c r="C103" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D103" s="12">
-        <v>821728.209302</v>
+        <v>525645.38418599998</v>
       </c>
       <c r="E103" s="12">
-        <v>26507.36159</v>
+        <v>16956.302715000002</v>
       </c>
       <c r="F103" s="12">
-        <v>5171018.1140035549</v>
+        <v>3307811.2353925598</v>
       </c>
       <c r="G103" s="12">
-        <v>166807.03593559857</v>
+        <v>106703.58823846966</v>
       </c>
       <c r="H103" s="28"/>
     </row>
     <row r="104" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D104" s="12">
-        <v>763584.49130500003</v>
+        <v>487772.50363599998</v>
       </c>
       <c r="E104" s="12">
-        <v>25452.816375999999</v>
+        <v>16259.083454</v>
       </c>
       <c r="F104" s="12">
-        <v>4805128.0112001086</v>
+        <v>3069482.6139133279</v>
       </c>
       <c r="G104" s="12">
-        <v>160170.93370667027</v>
+        <v>102316.08713044427</v>
       </c>
       <c r="H104" s="28"/>
     </row>
     <row r="105" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D105" s="12">
-        <v>526399.01066399994</v>
+        <v>821728.209302</v>
       </c>
       <c r="E105" s="12">
-        <v>16980.613247000001</v>
+        <v>26507.36159</v>
       </c>
       <c r="F105" s="12">
-        <v>3312553.6990500269</v>
+        <v>5171018.1140035549</v>
       </c>
       <c r="G105" s="12">
-        <v>106856.57093709765</v>
+        <v>166807.03593559857</v>
       </c>
       <c r="H105" s="28"/>
     </row>
     <row r="106" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D106" s="12">
-        <v>409054.80754299997</v>
+        <v>763584.49130500003</v>
       </c>
       <c r="E106" s="12">
-        <v>13195.316371999999</v>
+        <v>25452.816375999999</v>
       </c>
       <c r="F106" s="12">
-        <v>2574123.40903062</v>
+        <v>4805128.0112001086</v>
       </c>
       <c r="G106" s="12">
-        <v>83036.239000987756</v>
+        <v>160170.93370667027</v>
       </c>
       <c r="H106" s="28"/>
     </row>
     <row r="107" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" s="12">
-        <v>382950.03311700001</v>
+        <v>526399.01066399994</v>
       </c>
       <c r="E107" s="12">
-        <v>12765.001103000001</v>
+        <v>16980.613247000001</v>
       </c>
       <c r="F107" s="12">
-        <v>2409849.7965505454</v>
+        <v>3312553.6990500269</v>
       </c>
       <c r="G107" s="12">
-        <v>80328.326551684848</v>
+        <v>106856.57093709765</v>
       </c>
       <c r="H107" s="28"/>
     </row>
     <row r="108" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D108" s="12">
-        <v>405087.92933900002</v>
+        <v>409054.80754299997</v>
       </c>
       <c r="E108" s="12">
-        <v>13067.352559000001</v>
+        <v>13195.316371999999</v>
       </c>
       <c r="F108" s="12">
-        <v>2549160.4117564312</v>
+        <v>2574123.40903062</v>
       </c>
       <c r="G108" s="12">
-        <v>82230.98102440103</v>
+        <v>83036.239000987756</v>
       </c>
       <c r="H108" s="28"/>
     </row>
     <row r="109" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D109" s="12">
-        <v>420967.39355099999</v>
+        <v>382950.03311700001</v>
       </c>
       <c r="E109" s="12">
-        <v>14032.246451000001</v>
+        <v>12765.001103000001</v>
       </c>
       <c r="F109" s="12">
-        <v>2649087.6092791655</v>
+        <v>2409849.7965505454</v>
       </c>
       <c r="G109" s="12">
-        <v>88302.920309305511</v>
+        <v>80328.326551684848</v>
       </c>
       <c r="H109" s="28"/>
     </row>
     <row r="110" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="13"/>
       <c r="C110" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D110" s="12">
-        <v>580246.22209699999</v>
+        <v>405087.92933900002</v>
       </c>
       <c r="E110" s="12">
-        <v>18717.620067</v>
+        <v>13067.352559000001</v>
       </c>
       <c r="F110" s="12">
-        <v>3651406.5004466609</v>
+        <v>2549160.4117564312</v>
       </c>
       <c r="G110" s="12">
-        <v>117787.30646602133</v>
+        <v>82230.98102440103</v>
       </c>
       <c r="H110" s="28"/>
     </row>
     <row r="111" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="13"/>
       <c r="C111" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D111" s="12">
-        <v>469322.27903799998</v>
+        <v>420967.39355099999</v>
       </c>
       <c r="E111" s="12">
-        <v>16761.509965000001</v>
+        <v>14032.246451000001</v>
       </c>
       <c r="F111" s="12">
-        <v>2953377.9889002317</v>
+        <v>2649087.6092791655</v>
       </c>
       <c r="G111" s="12">
-        <v>105477.7853178654</v>
+        <v>88302.920309305511</v>
       </c>
       <c r="H111" s="28"/>
     </row>
     <row r="112" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13"/>
       <c r="C112" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D112" s="12">
-        <v>663165.584088</v>
+        <v>580246.22209699999</v>
       </c>
       <c r="E112" s="12">
-        <v>21392.438195999999</v>
+        <v>18717.620067</v>
       </c>
       <c r="F112" s="12">
-        <v>4173206.1879872596</v>
+        <v>3651406.5004466609</v>
       </c>
       <c r="G112" s="12">
-        <v>134619.55445120193</v>
+        <v>117787.30646602133</v>
       </c>
       <c r="H112" s="28"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="13">
-        <v>2014</v>
-      </c>
       <c r="C113" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D113" s="12">
-        <v>865311.98928099999</v>
+        <v>469322.27903799998</v>
       </c>
       <c r="E113" s="12">
-        <v>27913.289976</v>
+        <v>16761.509965000001</v>
       </c>
       <c r="F113" s="12">
-        <v>5445284.6089308662</v>
+        <v>2953377.9889002317</v>
       </c>
       <c r="G113" s="12">
-        <v>175654.34222357633</v>
+        <v>105477.7853178654</v>
       </c>
       <c r="H113" s="28"/>
     </row>
     <row r="114" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="13"/>
       <c r="C114" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="12">
-        <v>719671.70044299995</v>
+        <v>663165.584088</v>
       </c>
       <c r="E114" s="12">
-        <v>23989.056680999998</v>
+        <v>21392.438195999999</v>
       </c>
       <c r="F114" s="12">
-        <v>4528791.0978346355</v>
+        <v>4173206.1879872596</v>
       </c>
       <c r="G114" s="12">
-        <v>150959.70326115453</v>
+        <v>134619.55445120193</v>
       </c>
       <c r="H114" s="28"/>
     </row>
     <row r="115" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="13"/>
+      <c r="B115" s="13">
+        <v>2014</v>
+      </c>
       <c r="C115" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D115" s="12">
-        <v>732720.57923100004</v>
+        <v>865311.98928099999</v>
       </c>
       <c r="E115" s="12">
-        <v>23636.147717</v>
+        <v>27913.289976</v>
       </c>
       <c r="F115" s="12">
-        <v>4610905.8260578532</v>
+        <v>5445284.6089308662</v>
       </c>
       <c r="G115" s="12">
-        <v>148738.89761476943</v>
+        <v>175654.34222357633</v>
       </c>
       <c r="H115" s="28"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="13"/>
       <c r="C116" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D116" s="12">
-        <v>853296.86337200005</v>
+        <v>719671.70044299995</v>
       </c>
       <c r="E116" s="12">
-        <v>28443.228779000001</v>
+        <v>23989.056680999998</v>
       </c>
       <c r="F116" s="12">
-        <v>5369675.1397485342</v>
+        <v>4528791.0978346355</v>
       </c>
       <c r="G116" s="12">
-        <v>178989.17132495114</v>
+        <v>150959.70326115453</v>
       </c>
       <c r="H116" s="28"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="13"/>
       <c r="C117" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D117" s="12">
-        <v>765107.365124</v>
+        <v>732720.57923100004</v>
       </c>
       <c r="E117" s="12">
-        <v>24680.882744999999</v>
+        <v>23636.147717</v>
       </c>
       <c r="F117" s="12">
-        <v>4814711.2383721191</v>
+        <v>4610905.8260578532</v>
       </c>
       <c r="G117" s="12">
-        <v>155313.26575393934</v>
+        <v>148738.89761476943</v>
       </c>
       <c r="H117" s="28"/>
     </row>
     <row r="118" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13"/>
       <c r="C118" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118" s="12">
-        <v>808439.72412699996</v>
+        <v>853296.86337200005</v>
       </c>
       <c r="E118" s="12">
-        <v>26078.700777999999</v>
+        <v>28443.228779000001</v>
       </c>
       <c r="F118" s="12">
-        <v>5087395.5770506607</v>
+        <v>5369675.1397485342</v>
       </c>
       <c r="G118" s="12">
-        <v>164109.5347435697</v>
+        <v>178989.17132495114</v>
       </c>
       <c r="H118" s="28"/>
     </row>
     <row r="119" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="13"/>
       <c r="C119" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D119" s="12">
-        <v>696291.70361199998</v>
+        <v>765107.365124</v>
       </c>
       <c r="E119" s="12">
-        <v>23209.723452999999</v>
+        <v>24680.882744999999</v>
       </c>
       <c r="F119" s="12">
-        <v>4381664.1211166997</v>
+        <v>4814711.2383721191</v>
       </c>
       <c r="G119" s="12">
-        <v>146055.47070388999</v>
+        <v>155313.26575393934</v>
       </c>
       <c r="H119" s="28"/>
     </row>
     <row r="120" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="13"/>
       <c r="C120" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D120" s="12">
-        <v>776525.44836499996</v>
+        <v>808439.72412699996</v>
       </c>
       <c r="E120" s="12">
-        <v>25049.208010999999</v>
+        <v>26078.700777999999</v>
       </c>
       <c r="F120" s="12">
-        <v>4886563.6034218287</v>
+        <v>5087395.5770506607</v>
       </c>
       <c r="G120" s="12">
-        <v>157631.08398134931</v>
+        <v>164109.5347435697</v>
       </c>
       <c r="H120" s="28"/>
     </row>
     <row r="121" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="13"/>
       <c r="C121" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D121" s="12">
-        <v>757771.62080999999</v>
+        <v>696291.70361199998</v>
       </c>
       <c r="E121" s="12">
-        <v>25259.054026999998</v>
+        <v>23209.723452999999</v>
       </c>
       <c r="F121" s="12">
-        <v>4768548.4484155541</v>
+        <v>4381664.1211166997</v>
       </c>
       <c r="G121" s="12">
-        <v>158951.61494718515</v>
+        <v>146055.47070388999</v>
       </c>
       <c r="H121" s="28"/>
     </row>
     <row r="122" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="13"/>
       <c r="C122" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" s="12">
-        <v>850705.67475799995</v>
+        <v>776525.44836499996</v>
       </c>
       <c r="E122" s="12">
-        <v>27442.118539999999</v>
+        <v>25049.208010999999</v>
       </c>
       <c r="F122" s="12">
-        <v>5353369.1603406034</v>
+        <v>4886563.6034218287</v>
       </c>
       <c r="G122" s="12">
-        <v>172689.32775292269</v>
+        <v>157631.08398134931</v>
       </c>
       <c r="H122" s="28"/>
     </row>
     <row r="123" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="13"/>
       <c r="C123" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D123" s="12">
-        <v>725916.08318800002</v>
+        <v>757771.62080999999</v>
       </c>
       <c r="E123" s="12">
-        <v>25925.574399000001</v>
+        <v>25259.054026999998</v>
       </c>
       <c r="F123" s="12">
-        <v>4568086.1055021882</v>
+        <v>4768548.4484155541</v>
       </c>
       <c r="G123" s="12">
-        <v>163145.93233936388</v>
+        <v>158951.61494718515</v>
       </c>
       <c r="H123" s="28"/>
-      <c r="I123" s="22"/>
     </row>
     <row r="124" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D124" s="12">
-        <v>784704.73359700001</v>
+        <v>850705.67475799995</v>
       </c>
       <c r="E124" s="12">
-        <v>25313.055922</v>
+        <v>27442.118539999999</v>
       </c>
       <c r="F124" s="12">
-        <v>4938034.6757490169</v>
+        <v>5353369.1603406034</v>
       </c>
       <c r="G124" s="12">
-        <v>159291.44115319409</v>
+        <v>172689.32775292269</v>
       </c>
       <c r="H124" s="28"/>
-      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="13">
-        <v>2013</v>
-      </c>
       <c r="C125" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D125" s="12">
-        <v>804980.50382999994</v>
+        <v>725916.08318800002</v>
       </c>
       <c r="E125" s="12">
-        <v>25967.113025999999</v>
+        <v>25925.574399000001</v>
       </c>
       <c r="F125" s="12">
-        <v>5065627.1983901421</v>
+        <v>4568086.1055021882</v>
       </c>
       <c r="G125" s="12">
-        <v>163407.32898032718</v>
+        <v>163145.93233936388</v>
       </c>
       <c r="H125" s="28"/>
       <c r="I125" s="22"/>
@@ -4046,39 +4058,41 @@
     <row r="126" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D126" s="12">
-        <v>694876.63784600003</v>
+        <v>784704.73359700001</v>
       </c>
       <c r="E126" s="12">
-        <v>23162.554594000001</v>
+        <v>25313.055922</v>
       </c>
       <c r="F126" s="12">
-        <v>4372759.3146056654</v>
+        <v>4938034.6757490169</v>
       </c>
       <c r="G126" s="12">
-        <v>145758.64382018885</v>
+        <v>159291.44115319409</v>
       </c>
       <c r="H126" s="28"/>
       <c r="I126" s="22"/>
     </row>
     <row r="127" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="13"/>
+      <c r="B127" s="13">
+        <v>2013</v>
+      </c>
       <c r="C127" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D127" s="12">
-        <v>641470.05047699995</v>
+        <v>804980.50382999994</v>
       </c>
       <c r="E127" s="12">
-        <v>20692.582273</v>
+        <v>25967.113025999999</v>
       </c>
       <c r="F127" s="12">
-        <v>4036679.2974345428</v>
+        <v>5065627.1983901421</v>
       </c>
       <c r="G127" s="12">
-        <v>130215.4612075659</v>
+        <v>163407.32898032718</v>
       </c>
       <c r="H127" s="28"/>
       <c r="I127" s="22"/>
@@ -4086,19 +4100,19 @@
     <row r="128" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="13"/>
       <c r="C128" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D128" s="12">
-        <v>558075.757491</v>
+        <v>694876.63784600003</v>
       </c>
       <c r="E128" s="12">
-        <v>18602.525248999998</v>
+        <v>23162.554594000001</v>
       </c>
       <c r="F128" s="12">
-        <v>3511890.9370575417</v>
+        <v>4372759.3146056654</v>
       </c>
       <c r="G128" s="12">
-        <v>117063.03123525139</v>
+        <v>145758.64382018885</v>
       </c>
       <c r="H128" s="28"/>
       <c r="I128" s="22"/>
@@ -4106,59 +4120,59 @@
     <row r="129" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="13"/>
       <c r="C129" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D129" s="12">
-        <v>559110.83105899999</v>
+        <v>641470.05047699995</v>
       </c>
       <c r="E129" s="12">
-        <v>18035.833258999999</v>
+        <v>20692.582273</v>
       </c>
       <c r="F129" s="12">
-        <v>3518404.5070054457</v>
+        <v>4036679.2974345428</v>
       </c>
       <c r="G129" s="12">
-        <v>113496.91958082083</v>
+        <v>130215.4612075659</v>
       </c>
       <c r="H129" s="28"/>
       <c r="I129" s="22"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13"/>
       <c r="C130" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130" s="12">
-        <v>661131.44749100006</v>
+        <v>558075.757491</v>
       </c>
       <c r="E130" s="12">
-        <v>21326.820886000001</v>
+        <v>18602.525248999998</v>
       </c>
       <c r="F130" s="12">
-        <v>4160405.6572638722</v>
+        <v>3511890.9370575417</v>
       </c>
       <c r="G130" s="12">
-        <v>134206.63410528618</v>
+        <v>117063.03123525139</v>
       </c>
       <c r="H130" s="28"/>
       <c r="I130" s="22"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="13"/>
       <c r="C131" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D131" s="12">
-        <v>663648.26149299997</v>
+        <v>559110.83105899999</v>
       </c>
       <c r="E131" s="12">
-        <v>22121.608715999999</v>
+        <v>18035.833258999999</v>
       </c>
       <c r="F131" s="12">
-        <v>4176243.6078740559</v>
+        <v>3518404.5070054457</v>
       </c>
       <c r="G131" s="12">
-        <v>139208.12026246852</v>
+        <v>113496.91958082083</v>
       </c>
       <c r="H131" s="28"/>
       <c r="I131" s="22"/>
@@ -4166,631 +4180,671 @@
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="13"/>
       <c r="C132" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D132" s="12">
-        <v>647734.46579799999</v>
+        <v>661131.44749100006</v>
       </c>
       <c r="E132" s="12">
-        <v>20894.660187000001</v>
+        <v>21326.820886000001</v>
       </c>
       <c r="F132" s="12">
-        <v>4076100.3672382049</v>
+        <v>4160405.6572638722</v>
       </c>
       <c r="G132" s="12">
-        <v>131487.10862058724</v>
+        <v>134206.63410528618</v>
       </c>
       <c r="H132" s="28"/>
       <c r="I132" s="22"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B133" s="13"/>
       <c r="C133" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D133" s="12">
-        <v>597610.93523199996</v>
+        <v>663648.26149299997</v>
       </c>
       <c r="E133" s="12">
-        <v>19920.364506999998</v>
+        <v>22121.608715999999</v>
       </c>
       <c r="F133" s="12">
-        <v>3760680.1570512378</v>
+        <v>4176243.6078740559</v>
       </c>
       <c r="G133" s="12">
-        <v>125356.00523504126</v>
+        <v>139208.12026246852</v>
       </c>
       <c r="H133" s="28"/>
       <c r="I133" s="22"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B134" s="13"/>
       <c r="C134" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D134" s="12">
-        <v>565162.30006200005</v>
+        <v>647734.46579799999</v>
       </c>
       <c r="E134" s="12">
-        <v>18231.041937000002</v>
+        <v>20894.660187000001</v>
       </c>
       <c r="F134" s="12">
-        <v>3556485.5360812568</v>
+        <v>4076100.3672382049</v>
       </c>
       <c r="G134" s="12">
-        <v>114725.33987358895</v>
+        <v>131487.10862058724</v>
       </c>
       <c r="H134" s="28"/>
       <c r="I134" s="22"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C135" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D135" s="12">
-        <v>443068.728405</v>
+        <v>597610.93523199996</v>
       </c>
       <c r="E135" s="12">
-        <v>15823.883157</v>
+        <v>19920.364506999998</v>
       </c>
       <c r="F135" s="12">
-        <v>2788168.1490245033</v>
+        <v>3760680.1570512378</v>
       </c>
       <c r="G135" s="12">
-        <v>99577.433893732261</v>
+        <v>125356.00523504126</v>
       </c>
       <c r="H135" s="28"/>
+      <c r="I135" s="22"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C136" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D136" s="12">
-        <v>484594.69508400001</v>
+        <v>565162.30006200005</v>
       </c>
       <c r="E136" s="12">
-        <v>15632.086938</v>
+        <v>18231.041937000002</v>
       </c>
       <c r="F136" s="12">
-        <v>3049485.1191222151</v>
+        <v>3556485.5360812568</v>
       </c>
       <c r="G136" s="12">
-        <v>98370.487713619834</v>
+        <v>114725.33987358895</v>
       </c>
       <c r="H136" s="28"/>
+      <c r="I136" s="22"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="13">
-        <v>2012</v>
-      </c>
       <c r="C137" s="11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D137" s="12">
-        <v>614912.306522</v>
+        <v>443068.728405</v>
       </c>
       <c r="E137" s="12">
-        <v>19835.880854999999</v>
+        <v>15823.883157</v>
       </c>
       <c r="F137" s="12">
-        <v>3869555.2124831136</v>
+        <v>2788168.1490245033</v>
       </c>
       <c r="G137" s="12">
-        <v>124824.36169300365</v>
+        <v>99577.433893732261</v>
       </c>
       <c r="H137" s="28"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="12">
+        <v>484594.69508400001</v>
+      </c>
+      <c r="E138" s="12">
+        <v>15632.086938</v>
+      </c>
+      <c r="F138" s="12">
+        <v>3049485.1191222151</v>
+      </c>
+      <c r="G138" s="12">
+        <v>98370.487713619834</v>
+      </c>
+      <c r="H138" s="28"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="13">
+        <v>2012</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="12">
+        <v>614912.306522</v>
+      </c>
+      <c r="E139" s="12">
+        <v>19835.880854999999</v>
+      </c>
+      <c r="F139" s="12">
+        <v>3869555.2124831136</v>
+      </c>
+      <c r="G139" s="12">
+        <v>124824.36169300365</v>
+      </c>
+      <c r="H139" s="28"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C140" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D140" s="12">
         <v>262269.19780000002</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E140" s="12">
         <v>8742.3065929999993</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F140" s="12">
         <v>1650422.5572601147</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G140" s="12">
         <v>55014.085242003821</v>
       </c>
-      <c r="H138" s="28"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C139" s="11" t="s">
+      <c r="H140" s="28"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C141" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D141" s="12">
         <v>288932.42210700002</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E141" s="12">
         <v>9320.4007130000009</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F141" s="12">
         <v>1818210.4149829899</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G141" s="12">
         <v>58651.948870419023</v>
-      </c>
-      <c r="H139" s="28"/>
-    </row>
-    <row r="140" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="13"/>
-      <c r="C140" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="12">
-        <v>323331.17649500002</v>
-      </c>
-      <c r="E140" s="12">
-        <v>10777.705883000001</v>
-      </c>
-      <c r="F140" s="12">
-        <v>2034676.8573247963</v>
-      </c>
-      <c r="G140" s="12">
-        <v>67822.561910826538</v>
-      </c>
-      <c r="H140" s="28"/>
-    </row>
-    <row r="141" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="13"/>
-      <c r="C141" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="12">
-        <v>265901.88781699998</v>
-      </c>
-      <c r="E141" s="12">
-        <v>8577.4802519999994</v>
-      </c>
-      <c r="F141" s="12">
-        <v>1673282.5560624234</v>
-      </c>
-      <c r="G141" s="12">
-        <v>53976.856647174944</v>
       </c>
       <c r="H141" s="28"/>
     </row>
     <row r="142" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="13"/>
       <c r="C142" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D142" s="12">
-        <v>247847.77045499999</v>
+        <v>323331.17649500002</v>
       </c>
       <c r="E142" s="12">
-        <v>7995.0893690000003</v>
+        <v>10777.705883000001</v>
       </c>
       <c r="F142" s="12">
-        <v>1559670.57724214</v>
+        <v>2034676.8573247963</v>
       </c>
       <c r="G142" s="12">
-        <v>50311.954104585158</v>
+        <v>67822.561910826538</v>
       </c>
       <c r="H142" s="28"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="13"/>
       <c r="C143" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D143" s="12">
-        <v>160936.42993099999</v>
+        <v>265901.88781699998</v>
       </c>
       <c r="E143" s="12">
-        <v>5364.5476639999997</v>
+        <v>8577.4802519999994</v>
       </c>
       <c r="F143" s="12">
-        <v>1012749.9396463028</v>
+        <v>1673282.5560624234</v>
       </c>
       <c r="G143" s="12">
-        <v>33758.331321543425</v>
+        <v>53976.856647174944</v>
       </c>
       <c r="H143" s="28"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="13"/>
       <c r="C144" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D144" s="12">
-        <v>164510.12670699999</v>
+        <v>247847.77045499999</v>
       </c>
       <c r="E144" s="12">
-        <v>5306.7782800000004</v>
+        <v>7995.0893690000003</v>
       </c>
       <c r="F144" s="12">
-        <v>1035238.702419032</v>
+        <v>1559670.57724214</v>
       </c>
       <c r="G144" s="12">
-        <v>33394.796852226835</v>
+        <v>50311.954104585158</v>
       </c>
       <c r="H144" s="28"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B145" s="13"/>
       <c r="C145" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D145" s="12">
-        <v>135951.57</v>
+        <v>160936.42993099999</v>
       </c>
       <c r="E145" s="12">
-        <v>4531.7190000000001</v>
+        <v>5364.5476639999997</v>
       </c>
       <c r="F145" s="12">
-        <v>855523.78893549007</v>
+        <v>1012749.9396463028</v>
       </c>
       <c r="G145" s="12">
-        <v>28517.459631182999</v>
+        <v>33758.331321543425</v>
       </c>
       <c r="H145" s="28"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B146" s="13"/>
       <c r="C146" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="12">
+        <v>164510.12670699999</v>
+      </c>
+      <c r="E146" s="12">
+        <v>5306.7782800000004</v>
+      </c>
+      <c r="F146" s="12">
+        <v>1035238.702419032</v>
+      </c>
+      <c r="G146" s="12">
+        <v>33394.796852226835</v>
+      </c>
+      <c r="H146" s="28"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B147" s="13"/>
+      <c r="C147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="12">
+        <v>135951.57</v>
+      </c>
+      <c r="E147" s="12">
+        <v>4531.7190000000001</v>
+      </c>
+      <c r="F147" s="12">
+        <v>855523.78893549007</v>
+      </c>
+      <c r="G147" s="12">
+        <v>28517.459631182999</v>
+      </c>
+      <c r="H147" s="28"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B148" s="13"/>
+      <c r="C148" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D148" s="12">
         <v>104985.64</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E148" s="12">
         <v>3386.6335479999998</v>
       </c>
-      <c r="F146" s="12">
+      <c r="F148" s="12">
         <v>660659.61957347998</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G148" s="12">
         <v>21311.60063140258</v>
       </c>
-      <c r="H146" s="28"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C147" s="11" t="s">
+      <c r="H148" s="28"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C149" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D149" s="12">
         <v>79915.494000000006</v>
       </c>
-      <c r="E147" s="12">
+      <c r="E149" s="12">
         <v>2755.7066890000001</v>
       </c>
-      <c r="F147" s="12">
+      <c r="F149" s="12">
         <v>502896.775826358</v>
       </c>
-      <c r="G147" s="12">
+      <c r="G149" s="12">
         <v>17341.26813194338</v>
       </c>
-      <c r="H147" s="22"/>
-    </row>
-    <row r="148" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="11" t="s">
+      <c r="H149" s="22"/>
+    </row>
+    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="17">
+      <c r="D150" s="17">
         <v>46184.88</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E150" s="12">
         <v>1489.834838</v>
       </c>
-      <c r="F148" s="12">
+      <c r="F150" s="12">
         <v>290634.84540216002</v>
       </c>
-      <c r="G148" s="12">
+      <c r="G150" s="12">
         <v>9375.3175936180633</v>
       </c>
-      <c r="H148" s="23"/>
-    </row>
-    <row r="149" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="30"/>
-      <c r="B149" s="31" t="s">
+      <c r="H150" s="23"/>
+    </row>
+    <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="30"/>
+      <c r="B151" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="32"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-    </row>
-    <row r="150" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="11"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-    </row>
-    <row r="151" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="40"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="34"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="41"/>
-      <c r="B152" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="43"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
+    <row r="152" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="95"/>
-      <c r="H153" s="95"/>
-      <c r="I153" s="95"/>
-      <c r="J153" s="95"/>
+    <row r="153" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="35"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="96"/>
-      <c r="B154" s="96"/>
-      <c r="C154" s="96"/>
-      <c r="D154" s="96"/>
-      <c r="E154" s="96"/>
-      <c r="F154" s="96"/>
-      <c r="G154" s="96"/>
-      <c r="H154" s="96"/>
-      <c r="I154" s="96"/>
-      <c r="J154" s="96"/>
+    <row r="154" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="41"/>
+      <c r="B154" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="43"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="43"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
     </row>
     <row r="155" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="96"/>
-      <c r="B155" s="96"/>
-      <c r="C155" s="96"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="96"/>
-      <c r="F155" s="96"/>
-      <c r="G155" s="96"/>
-      <c r="H155" s="96"/>
-      <c r="I155" s="96"/>
-      <c r="J155" s="96"/>
+      <c r="A155" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" s="97"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="97"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="97"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="97"/>
+      <c r="I155" s="97"/>
+      <c r="J155" s="97"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
     </row>
     <row r="156" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="96"/>
-      <c r="B156" s="96"/>
-      <c r="C156" s="96"/>
-      <c r="D156" s="96"/>
-      <c r="E156" s="96"/>
-      <c r="F156" s="96"/>
-      <c r="G156" s="96"/>
-      <c r="H156" s="96"/>
-      <c r="I156" s="96"/>
-      <c r="J156" s="96"/>
+      <c r="A156" s="98"/>
+      <c r="B156" s="98"/>
+      <c r="C156" s="98"/>
+      <c r="D156" s="98"/>
+      <c r="E156" s="98"/>
+      <c r="F156" s="98"/>
+      <c r="G156" s="98"/>
+      <c r="H156" s="98"/>
+      <c r="I156" s="98"/>
+      <c r="J156" s="98"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
     <row r="157" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="96"/>
-      <c r="B157" s="96"/>
-      <c r="C157" s="96"/>
-      <c r="D157" s="96"/>
-      <c r="E157" s="96"/>
-      <c r="F157" s="96"/>
-      <c r="G157" s="96"/>
-      <c r="H157" s="96"/>
-      <c r="I157" s="96"/>
-      <c r="J157" s="96"/>
+      <c r="A157" s="98"/>
+      <c r="B157" s="98"/>
+      <c r="C157" s="98"/>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="98"/>
+      <c r="H157" s="98"/>
+      <c r="I157" s="98"/>
+      <c r="J157" s="98"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
     </row>
     <row r="158" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="96"/>
-      <c r="B158" s="96"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96"/>
-      <c r="G158" s="96"/>
-      <c r="H158" s="96"/>
-      <c r="I158" s="96"/>
-      <c r="J158" s="96"/>
+      <c r="A158" s="98"/>
+      <c r="B158" s="98"/>
+      <c r="C158" s="98"/>
+      <c r="D158" s="98"/>
+      <c r="E158" s="98"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="98"/>
+      <c r="H158" s="98"/>
+      <c r="I158" s="98"/>
+      <c r="J158" s="98"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
     <row r="159" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="96"/>
-      <c r="B159" s="96"/>
-      <c r="C159" s="96"/>
-      <c r="D159" s="96"/>
-      <c r="E159" s="96"/>
-      <c r="F159" s="96"/>
-      <c r="G159" s="96"/>
-      <c r="H159" s="96"/>
-      <c r="I159" s="96"/>
-      <c r="J159" s="96"/>
+      <c r="A159" s="98"/>
+      <c r="B159" s="98"/>
+      <c r="C159" s="98"/>
+      <c r="D159" s="98"/>
+      <c r="E159" s="98"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="98"/>
+      <c r="H159" s="98"/>
+      <c r="I159" s="98"/>
+      <c r="J159" s="98"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
     </row>
     <row r="160" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="96"/>
-      <c r="B160" s="96"/>
-      <c r="C160" s="96"/>
-      <c r="D160" s="96"/>
-      <c r="E160" s="96"/>
-      <c r="F160" s="96"/>
-      <c r="G160" s="96"/>
-      <c r="H160" s="96"/>
-      <c r="I160" s="96"/>
-      <c r="J160" s="96"/>
+      <c r="A160" s="98"/>
+      <c r="B160" s="98"/>
+      <c r="C160" s="98"/>
+      <c r="D160" s="98"/>
+      <c r="E160" s="98"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="98"/>
+      <c r="H160" s="98"/>
+      <c r="I160" s="98"/>
+      <c r="J160" s="98"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="96"/>
-      <c r="B161" s="96"/>
-      <c r="C161" s="96"/>
-      <c r="D161" s="96"/>
-      <c r="E161" s="96"/>
-      <c r="F161" s="96"/>
-      <c r="G161" s="96"/>
-      <c r="H161" s="96"/>
-      <c r="I161" s="96"/>
-      <c r="J161" s="96"/>
-    </row>
-    <row r="162" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="96"/>
-      <c r="B162" s="96"/>
-      <c r="C162" s="96"/>
-      <c r="D162" s="96"/>
-      <c r="E162" s="96"/>
-      <c r="F162" s="96"/>
-      <c r="G162" s="96"/>
-      <c r="H162" s="96"/>
-      <c r="I162" s="96"/>
-      <c r="J162" s="96"/>
-    </row>
-    <row r="163" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="96"/>
-      <c r="B163" s="96"/>
-      <c r="C163" s="96"/>
-      <c r="D163" s="96"/>
-      <c r="E163" s="96"/>
-      <c r="F163" s="96"/>
-      <c r="G163" s="96"/>
-      <c r="H163" s="96"/>
-      <c r="I163" s="96"/>
-      <c r="J163" s="96"/>
-    </row>
-    <row r="164" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="96"/>
-      <c r="B164" s="96"/>
-      <c r="C164" s="96"/>
-      <c r="D164" s="96"/>
-      <c r="E164" s="96"/>
-      <c r="F164" s="96"/>
-      <c r="G164" s="96"/>
-      <c r="H164" s="96"/>
-      <c r="I164" s="96"/>
-      <c r="J164" s="96"/>
-    </row>
-    <row r="165" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="96"/>
-      <c r="B165" s="96"/>
-      <c r="C165" s="96"/>
-      <c r="D165" s="96"/>
-      <c r="E165" s="96"/>
-      <c r="F165" s="96"/>
-      <c r="G165" s="96"/>
-      <c r="H165" s="96"/>
-      <c r="I165" s="96"/>
-      <c r="J165" s="96"/>
-    </row>
-    <row r="166" spans="1:10" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="96"/>
-      <c r="B166" s="96"/>
-      <c r="C166" s="96"/>
-      <c r="D166" s="96"/>
-      <c r="E166" s="96"/>
-      <c r="F166" s="96"/>
-      <c r="G166" s="96"/>
-      <c r="H166" s="96"/>
-      <c r="I166" s="96"/>
-      <c r="J166" s="96"/>
-    </row>
-    <row r="167" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="4"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-    </row>
-    <row r="168" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="4"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-    </row>
-    <row r="169" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D169" s="15"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D170" s="15"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="98"/>
+      <c r="B161" s="98"/>
+      <c r="C161" s="98"/>
+      <c r="D161" s="98"/>
+      <c r="E161" s="98"/>
+      <c r="F161" s="98"/>
+      <c r="G161" s="98"/>
+      <c r="H161" s="98"/>
+      <c r="I161" s="98"/>
+      <c r="J161" s="98"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+    </row>
+    <row r="162" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="98"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="98"/>
+      <c r="H162" s="98"/>
+      <c r="I162" s="98"/>
+      <c r="J162" s="98"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+    </row>
+    <row r="163" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="98"/>
+      <c r="B163" s="98"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="98"/>
+      <c r="E163" s="98"/>
+      <c r="F163" s="98"/>
+      <c r="G163" s="98"/>
+      <c r="H163" s="98"/>
+      <c r="I163" s="98"/>
+      <c r="J163" s="98"/>
+    </row>
+    <row r="164" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="98"/>
+      <c r="B164" s="98"/>
+      <c r="C164" s="98"/>
+      <c r="D164" s="98"/>
+      <c r="E164" s="98"/>
+      <c r="F164" s="98"/>
+      <c r="G164" s="98"/>
+      <c r="H164" s="98"/>
+      <c r="I164" s="98"/>
+      <c r="J164" s="98"/>
+    </row>
+    <row r="165" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="98"/>
+      <c r="B165" s="98"/>
+      <c r="C165" s="98"/>
+      <c r="D165" s="98"/>
+      <c r="E165" s="98"/>
+      <c r="F165" s="98"/>
+      <c r="G165" s="98"/>
+      <c r="H165" s="98"/>
+      <c r="I165" s="98"/>
+      <c r="J165" s="98"/>
+    </row>
+    <row r="166" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="98"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="98"/>
+      <c r="D166" s="98"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="98"/>
+      <c r="G166" s="98"/>
+      <c r="H166" s="98"/>
+      <c r="I166" s="98"/>
+      <c r="J166" s="98"/>
+    </row>
+    <row r="167" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="98"/>
+      <c r="B167" s="98"/>
+      <c r="C167" s="98"/>
+      <c r="D167" s="98"/>
+      <c r="E167" s="98"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="98"/>
+      <c r="H167" s="98"/>
+      <c r="I167" s="98"/>
+      <c r="J167" s="98"/>
+    </row>
+    <row r="168" spans="1:14" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="98"/>
+      <c r="B168" s="98"/>
+      <c r="C168" s="98"/>
+      <c r="D168" s="98"/>
+      <c r="E168" s="98"/>
+      <c r="F168" s="98"/>
+      <c r="G168" s="98"/>
+      <c r="H168" s="98"/>
+      <c r="I168" s="98"/>
+      <c r="J168" s="98"/>
+    </row>
+    <row r="169" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="4"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+    </row>
+    <row r="170" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="4"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+    </row>
+    <row r="171" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" s="15"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D172" s="15"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D173" s="15"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D174" s="15"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D175" s="15"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D176" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A153:J166"/>
+    <mergeCell ref="A155:J168"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4802,38 +4856,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEF22DAF496ADE498A94ECACB103F1AD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94ca56df59429f33e9578fc51d07b71b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee349bb3-f777-4768-a131-ca5c9eb9e69a" xmlns:ns3="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a936563a2c046556d5fbda508711cd0" ns2:_="" ns3:_="">
-    <xsd:import namespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
-    <xsd:import namespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F7021CE54158F40B7FBD32F91FAE89E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8619ed2f454b55ccb5bf7159381d8844">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="248c3f1b-2520-4887-bd4a-3e73fe911377" xmlns:ns4="ba9f5b98-2fc8-45b2-9672-05fdd2643308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c70d1c32a448232e2bfdbb89b7551674" ns3:_="" ns4:_="">
+    <xsd:import namespace="248c3f1b-2520-4887-bd4a-3e73fe911377"/>
+    <xsd:import namespace="ba9f5b98-2fc8-45b2-9672-05fdd2643308"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:parentID" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:Status" minOccurs="0"/>
-                <xsd:element ref="ns2:Key" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4841,90 +4889,112 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee349bb3-f777-4768-a131-ca5c9eb9e69a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="248c3f1b-2520-4887-bd4a-3e73fe911377" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="parentID" ma:index="8" nillable="true" ma:displayName="parentID" ma:internalName="parentID">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="10" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5ff227e3-1287-4ea4-9684-11ab6ab51f50" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Status" ma:index="18" nillable="true" ma:displayName="Status" ma:default="New" ma:format="Dropdown" ma:internalName="Status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="New"/>
-          <xsd:enumeration value="Assigned"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Key" ma:index="19" nillable="true" ma:displayName="Key" ma:decimals="0" ma:description="Unique temp number" ma:internalName="Key" ma:percentage="FALSE">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ba9f5b98-2fc8-45b2-9672-05fdd2643308" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="11" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6fe0f7e7-03c0-4c14-a516-3f40f384aae2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5026,37 +5096,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <parentID xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">864</parentID>
-    <Key xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">0</Key>
-    <Status xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">Assigned</Status>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee349bb3-f777-4768-a131-ca5c9eb9e69a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8" xsi:nil="true"/>
+    <_activity xmlns="ba9f5b98-2fc8-45b2-9672-05fdd2643308" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AAE3EBE-521F-4C5D-B1ED-F99EA7ECA425}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6C8017-1777-46D9-B49C-0A527F46CD64}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E2F5EED-CDD9-4BB8-B8AF-693860D9EEC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
-    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <ds:schemaRef ds:uri="248c3f1b-2520-4887-bd4a-3e73fe911377"/>
+    <ds:schemaRef ds:uri="ba9f5b98-2fc8-45b2-9672-05fdd2643308"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5067,13 +5132,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E7AA95-73D1-4A45-BB06-2804D44881C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD778F90-621F-4F9C-BB8E-92E802A40EA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF0439D-F15C-4C45-9355-9D18BCD915F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="248c3f1b-2520-4887-bd4a-3e73fe911377"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee349bb3-f777-4768-a131-ca5c9eb9e69a"/>
-    <ds:schemaRef ds:uri="615a73cf-3ca8-4f1d-9e40-da9305ba6dc8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ba9f5b98-2fc8-45b2-9672-05fdd2643308"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>